--- a/Ghibli-tabla.xlsx
+++ b/Ghibli-tabla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Página web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B37717A9-B2BB-4B7C-8FB1-9728406497BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E10D35C1-84E1-4DE2-8223-2B72127248A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="16104" windowHeight="8964"/>
   </bookViews>
@@ -1704,9 +1704,6 @@
     <t>Verde</t>
   </si>
   <si>
-    <t>sepia</t>
-  </si>
-  <si>
     <t>Azul, rojo</t>
   </si>
   <si>
@@ -1798,6 +1795,9 @@
   </si>
   <si>
     <t>Internacional, Festival</t>
+  </si>
+  <si>
+    <t>sepia, azul, rojo</t>
   </si>
 </sst>
 </file>
@@ -2653,8 +2653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE13" workbookViewId="0">
-      <selection activeCell="AK23" sqref="AK23"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2667,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -2843,7 +2843,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2">
@@ -3191,7 +3191,7 @@
         <v>104</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4">
@@ -3365,7 +3365,7 @@
         <v>126</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5">
@@ -3426,7 +3426,7 @@
         <v>58</v>
       </c>
       <c r="Y5" t="s">
-        <v>559</v>
+        <v>590</v>
       </c>
       <c r="Z5" t="s">
         <v>135</v>
@@ -3533,7 +3533,7 @@
         <v>147</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6">
@@ -3600,10 +3600,10 @@
         <v>92</v>
       </c>
       <c r="Y6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="Z6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AA6" t="s">
         <v>75</v>
@@ -3707,7 +3707,7 @@
         <v>167</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7">
@@ -3768,7 +3768,7 @@
         <v>58</v>
       </c>
       <c r="Y7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="Z7" t="s">
         <v>135</v>
@@ -3942,7 +3942,7 @@
         <v>58</v>
       </c>
       <c r="Y8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="Z8" t="s">
         <v>536</v>
@@ -4226,7 +4226,7 @@
         <v>221</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10">
@@ -4290,7 +4290,7 @@
         <v>58</v>
       </c>
       <c r="Y10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="Z10" t="s">
         <v>135</v>
@@ -4635,10 +4635,10 @@
         <v>264</v>
       </c>
       <c r="Y12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="Z12" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AA12" t="s">
         <v>75</v>
@@ -4809,7 +4809,7 @@
         <v>58</v>
       </c>
       <c r="Y13" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="Z13" t="s">
         <v>539</v>
@@ -4919,7 +4919,7 @@
         <v>292</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14">
@@ -4986,10 +4986,10 @@
         <v>58</v>
       </c>
       <c r="Y14" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="Z14" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AA14" t="s">
         <v>75</v>
@@ -5096,7 +5096,7 @@
         <v>311</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15">
@@ -5337,7 +5337,7 @@
         <v>58</v>
       </c>
       <c r="Y16" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="Z16" t="s">
         <v>538</v>
@@ -5511,10 +5511,10 @@
         <v>58</v>
       </c>
       <c r="Y17" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="Z17" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AA17" t="s">
         <v>46</v>
@@ -5621,7 +5621,7 @@
         <v>363</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18">
@@ -5859,7 +5859,7 @@
         <v>58</v>
       </c>
       <c r="Y19" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="Z19" t="s">
         <v>541</v>
@@ -5966,7 +5966,7 @@
         <v>400</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20">
@@ -6030,7 +6030,7 @@
         <v>58</v>
       </c>
       <c r="Y20" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="Z20" t="s">
         <v>135</v>
@@ -6204,7 +6204,7 @@
         <v>554</v>
       </c>
       <c r="Y21" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="Z21" t="s">
         <v>542</v>
@@ -6314,7 +6314,7 @@
         <v>436</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22">
@@ -6381,7 +6381,7 @@
         <v>58</v>
       </c>
       <c r="Y22" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="Z22" t="s">
         <v>543</v>
@@ -6522,7 +6522,7 @@
         <v>460</v>
       </c>
       <c r="N23" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="O23" t="s">
         <v>461</v>
@@ -6555,7 +6555,7 @@
         <v>264</v>
       </c>
       <c r="Y23" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="Z23" t="s">
         <v>544</v>
@@ -6591,7 +6591,7 @@
         <v>42630</v>
       </c>
       <c r="AK23" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AL23" t="s">
         <v>86</v>
@@ -6732,7 +6732,7 @@
         <v>532</v>
       </c>
       <c r="Y24" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="Z24" t="s">
         <v>545</v>
@@ -6839,7 +6839,7 @@
         <v>501</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25">
@@ -6906,7 +6906,7 @@
         <v>58</v>
       </c>
       <c r="Y25" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="Z25" t="s">
         <v>546</v>

--- a/Ghibli-tabla.xlsx
+++ b/Ghibli-tabla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Página web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E10D35C1-84E1-4DE2-8223-2B72127248A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{212288ED-DB27-4FC4-AD48-0229546B2E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="16104" windowHeight="8964"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="594">
   <si>
     <t>Título</t>
   </si>
@@ -891,12 +891,6 @@
     <t>Obra maestra moderna</t>
   </si>
   <si>
-    <t>Óscar, Annie Award, Japan Academy Prize, más</t>
-  </si>
-  <si>
-    <t>Más</t>
-  </si>
-  <si>
     <t>La llegada al baño de espíritus</t>
   </si>
   <si>
@@ -1449,9 +1443,6 @@
     <t>Wild Bunch, GKIDS</t>
   </si>
   <si>
-    <t>Festival de Cannes, Annie, César, Más</t>
-  </si>
-  <si>
     <t>https://m.media-amazon.com/images/M/MV5BNTE2OWMxYTktMmYwMS00YWI0LThhMDctNjVlNjk5MzBhOTY1XkEyXkFqcGc@._V1_.jpg</t>
   </si>
   <si>
@@ -1563,9 +1554,6 @@
     <t>Alta expectación cultural</t>
   </si>
   <si>
-    <t>Óscar, Golden Globe, Bafta, Japan Academy Prize</t>
-  </si>
-  <si>
     <t>Encuentro con la garza</t>
   </si>
   <si>
@@ -1798,6 +1786,27 @@
   </si>
   <si>
     <t>sepia, azul, rojo</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>Bafta, Annie Awards, Golden Satellite Awards, Critics Choice Awards</t>
+  </si>
+  <si>
+    <t>Óscar, Annie Award, Japan Academy Prize, Berlín, National Board of Review, Festival de Cine Hong Kong, Sitges</t>
+  </si>
+  <si>
+    <t>Festival de Cannes, Annie Awards, SF Film Critics Circle Award, ICSA, Magritte Award, IFMCA, Pulcinella Award, Grand Prix Club Media Ciné</t>
+  </si>
+  <si>
+    <t>Óscar, César, European Film Awards, Chicago Film Awards, Critics Choice Awards, Toronto Film Critics Association, Satellite Awards, LA Film Critics Association</t>
+  </si>
+  <si>
+    <t>Óscar, Golden Globe, Bafta, Annie Awards, Chicago Film Critics Association, Florida Film Critics Circle Awards, Satellite Awards, Dorian Awards, CinEuphoria Awards, Astra Film Awards</t>
+  </si>
+  <si>
+    <t>Saturn Award, Annie Awards, Critics Choice Awards, Cinema Audio Society, PGA Awards, Art Directors Guild, Toronto Film Critics Association</t>
   </si>
 </sst>
 </file>
@@ -2653,8 +2662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="BB1" sqref="BB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2667,7 +2676,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -2706,58 +2715,58 @@
         <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="Q1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="R1" t="s">
         <v>14</v>
       </c>
       <c r="S1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="T1" t="s">
         <v>15</v>
       </c>
       <c r="U1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="V1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="W1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="X1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="Y1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="Z1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="AA1" t="s">
+        <v>543</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>544</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>545</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>546</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>548</v>
+      </c>
+      <c r="AF1" t="s">
         <v>547</v>
       </c>
-      <c r="AB1" t="s">
-        <v>548</v>
-      </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>549</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>550</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>552</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>551</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>553</v>
       </c>
       <c r="AH1" t="s">
         <v>16</v>
@@ -2843,7 +2852,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2">
@@ -2910,7 +2919,7 @@
         <v>58</v>
       </c>
       <c r="Y2" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="Z2" t="s">
         <v>59</v>
@@ -2987,14 +2996,17 @@
       <c r="AX2" t="s">
         <v>74</v>
       </c>
-      <c r="AY2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>75</v>
+      <c r="AY2">
+        <v>1</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
       </c>
       <c r="BA2" t="s">
         <v>76</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>587</v>
       </c>
       <c r="BC2" s="2">
         <v>1000000</v>
@@ -3084,7 +3096,7 @@
         <v>92</v>
       </c>
       <c r="Y3" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="Z3" t="s">
         <v>93</v>
@@ -3161,14 +3173,17 @@
       <c r="AX3" t="s">
         <v>74</v>
       </c>
-      <c r="AY3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>75</v>
+      <c r="AY3">
+        <v>8</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
       </c>
       <c r="BA3" t="s">
         <v>101</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>587</v>
       </c>
       <c r="BC3" s="2">
         <v>5000000</v>
@@ -3191,7 +3206,7 @@
         <v>104</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4">
@@ -3258,10 +3273,10 @@
         <v>58</v>
       </c>
       <c r="Y4" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="Z4" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AA4" t="s">
         <v>46</v>
@@ -3335,14 +3350,17 @@
       <c r="AX4" t="s">
         <v>122</v>
       </c>
-      <c r="AY4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>75</v>
+      <c r="AY4">
+        <v>2</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
       </c>
       <c r="BA4" t="s">
         <v>123</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>587</v>
       </c>
       <c r="BC4" s="2">
         <v>3700000</v>
@@ -3365,7 +3383,7 @@
         <v>126</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5">
@@ -3426,7 +3444,7 @@
         <v>58</v>
       </c>
       <c r="Y5" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="Z5" t="s">
         <v>135</v>
@@ -3503,14 +3521,17 @@
       <c r="AX5" t="s">
         <v>122</v>
       </c>
-      <c r="AY5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>75</v>
+      <c r="AY5">
+        <v>2</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
       </c>
       <c r="BA5" t="s">
         <v>143</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>587</v>
       </c>
       <c r="BC5" s="2">
         <v>3700000</v>
@@ -3533,7 +3554,7 @@
         <v>147</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6">
@@ -3600,10 +3621,10 @@
         <v>92</v>
       </c>
       <c r="Y6" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="Z6" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="AA6" t="s">
         <v>75</v>
@@ -3677,14 +3698,17 @@
       <c r="AX6" t="s">
         <v>163</v>
       </c>
-      <c r="AY6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>75</v>
+      <c r="AY6">
+        <v>2</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
       </c>
       <c r="BA6" t="s">
         <v>164</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>587</v>
       </c>
       <c r="BC6" s="2">
         <v>6900000</v>
@@ -3707,7 +3731,7 @@
         <v>167</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7">
@@ -3768,7 +3792,7 @@
         <v>58</v>
       </c>
       <c r="Y7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="Z7" t="s">
         <v>135</v>
@@ -3845,14 +3869,17 @@
       <c r="AX7" t="s">
         <v>122</v>
       </c>
-      <c r="AY7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>75</v>
+      <c r="AY7">
+        <v>1</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
       </c>
       <c r="BA7" t="s">
         <v>181</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>587</v>
       </c>
       <c r="BC7" s="2">
         <v>15000000</v>
@@ -3933,7 +3960,7 @@
         <v>46</v>
       </c>
       <c r="V8" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="W8" t="s">
         <v>91</v>
@@ -3942,10 +3969,10 @@
         <v>58</v>
       </c>
       <c r="Y8" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="Z8" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="AA8" t="s">
         <v>75</v>
@@ -4019,14 +4046,17 @@
       <c r="AX8" t="s">
         <v>122</v>
       </c>
-      <c r="AY8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>75</v>
+      <c r="AY8">
+        <v>1</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
       </c>
       <c r="BA8" t="s">
         <v>198</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>587</v>
       </c>
       <c r="BC8" s="2">
         <v>9200000</v>
@@ -4107,7 +4137,7 @@
         <v>46</v>
       </c>
       <c r="V9" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="W9" t="s">
         <v>91</v>
@@ -4119,7 +4149,7 @@
         <v>210</v>
       </c>
       <c r="Z9" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="AA9" t="s">
         <v>46</v>
@@ -4193,11 +4223,11 @@
       <c r="AX9" t="s">
         <v>122</v>
       </c>
-      <c r="AY9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>46</v>
+      <c r="AY9">
+        <v>2</v>
+      </c>
+      <c r="AZ9">
+        <v>1</v>
       </c>
       <c r="BA9" t="s">
         <v>217</v>
@@ -4226,7 +4256,7 @@
         <v>221</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10">
@@ -4290,7 +4320,7 @@
         <v>58</v>
       </c>
       <c r="Y10" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="Z10" t="s">
         <v>135</v>
@@ -4367,11 +4397,14 @@
       <c r="AX10" t="s">
         <v>122</v>
       </c>
-      <c r="AY10" t="s">
-        <v>75</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>46</v>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>1</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>587</v>
       </c>
       <c r="BB10" t="s">
         <v>198</v>
@@ -4455,7 +4488,7 @@
         <v>46</v>
       </c>
       <c r="V11" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="W11" t="s">
         <v>91</v>
@@ -4464,10 +4497,10 @@
         <v>58</v>
       </c>
       <c r="Y11" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="Z11" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="AA11" t="s">
         <v>46</v>
@@ -4541,11 +4574,11 @@
       <c r="AX11" t="s">
         <v>122</v>
       </c>
-      <c r="AY11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>46</v>
+      <c r="AY11">
+        <v>2</v>
+      </c>
+      <c r="AZ11">
+        <v>1</v>
       </c>
       <c r="BA11" t="s">
         <v>164</v>
@@ -4635,10 +4668,10 @@
         <v>264</v>
       </c>
       <c r="Y12" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="Z12" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="AA12" t="s">
         <v>75</v>
@@ -4712,14 +4745,17 @@
       <c r="AX12" t="s">
         <v>122</v>
       </c>
-      <c r="AY12" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>75</v>
+      <c r="AY12">
+        <v>1</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
       </c>
       <c r="BA12" t="s">
         <v>272</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>587</v>
       </c>
       <c r="BC12" s="2">
         <v>20000000</v>
@@ -4800,7 +4836,7 @@
         <v>46</v>
       </c>
       <c r="V13" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="W13" t="s">
         <v>91</v>
@@ -4809,10 +4845,10 @@
         <v>58</v>
       </c>
       <c r="Y13" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="Z13" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="AA13" t="s">
         <v>46</v>
@@ -4886,17 +4922,17 @@
       <c r="AX13" t="s">
         <v>122</v>
       </c>
-      <c r="AY13" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>46</v>
+      <c r="AY13">
+        <v>7</v>
+      </c>
+      <c r="AZ13">
+        <v>4</v>
       </c>
       <c r="BA13" t="s">
-        <v>288</v>
+        <v>589</v>
       </c>
       <c r="BB13" t="s">
-        <v>289</v>
+        <v>588</v>
       </c>
       <c r="BC13" s="2">
         <v>19000000</v>
@@ -4908,25 +4944,25 @@
         <v>77</v>
       </c>
       <c r="BF13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="BG13" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14">
         <v>2002</v>
       </c>
       <c r="E14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F14" t="s">
         <v>148</v>
@@ -4938,7 +4974,7 @@
         <v>46</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J14">
         <v>75</v>
@@ -4956,28 +4992,28 @@
         <v>51</v>
       </c>
       <c r="O14" t="s">
+        <v>293</v>
+      </c>
+      <c r="P14" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q14" t="s">
         <v>295</v>
       </c>
-      <c r="P14" t="s">
+      <c r="R14" t="s">
         <v>296</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="S14" t="s">
+        <v>46</v>
+      </c>
+      <c r="T14" t="s">
         <v>297</v>
       </c>
-      <c r="R14" t="s">
+      <c r="U14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V14" t="s">
         <v>298</v>
-      </c>
-      <c r="S14" t="s">
-        <v>46</v>
-      </c>
-      <c r="T14" t="s">
-        <v>299</v>
-      </c>
-      <c r="U14" t="s">
-        <v>46</v>
-      </c>
-      <c r="V14" t="s">
-        <v>300</v>
       </c>
       <c r="W14" t="s">
         <v>91</v>
@@ -4986,10 +5022,10 @@
         <v>58</v>
       </c>
       <c r="Y14" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="Z14" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="AA14" t="s">
         <v>75</v>
@@ -5016,7 +5052,7 @@
         <v>7.2</v>
       </c>
       <c r="AI14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AJ14" s="1">
         <v>37456</v>
@@ -5025,13 +5061,13 @@
         <v>65</v>
       </c>
       <c r="AL14" t="s">
+        <v>300</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>301</v>
+      </c>
+      <c r="AN14" t="s">
         <v>302</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>303</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>304</v>
       </c>
       <c r="AO14" t="s">
         <v>62</v>
@@ -5040,16 +5076,16 @@
         <v>69</v>
       </c>
       <c r="AQ14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AR14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AS14" t="s">
         <v>60</v>
       </c>
       <c r="AT14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AU14" t="s">
         <v>62</v>
@@ -5063,14 +5099,14 @@
       <c r="AX14" t="s">
         <v>122</v>
       </c>
-      <c r="AY14" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>46</v>
+      <c r="AY14">
+        <v>1</v>
+      </c>
+      <c r="AZ14">
+        <v>1</v>
       </c>
       <c r="BA14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="BB14" t="s">
         <v>198</v>
@@ -5082,21 +5118,21 @@
         <v>54000000</v>
       </c>
       <c r="BE14" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>307</v>
+      </c>
+      <c r="BG14" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="BF14" t="s">
-        <v>309</v>
-      </c>
-      <c r="BG14" s="3" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15">
@@ -5115,13 +5151,13 @@
         <v>46</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J15">
         <v>119</v>
       </c>
       <c r="K15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L15" t="s">
         <v>49</v>
@@ -5133,40 +5169,40 @@
         <v>51</v>
       </c>
       <c r="O15" t="s">
+        <v>312</v>
+      </c>
+      <c r="P15" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q15" t="s">
         <v>314</v>
       </c>
-      <c r="P15" t="s">
+      <c r="R15" t="s">
         <v>315</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="S15" t="s">
+        <v>46</v>
+      </c>
+      <c r="T15" t="s">
         <v>316</v>
       </c>
-      <c r="R15" t="s">
-        <v>317</v>
-      </c>
-      <c r="S15" t="s">
-        <v>46</v>
-      </c>
-      <c r="T15" t="s">
-        <v>318</v>
-      </c>
       <c r="U15" t="s">
         <v>46</v>
       </c>
       <c r="V15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="W15" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="X15" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="Y15" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="Z15" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="AA15" t="s">
         <v>46</v>
@@ -5193,7 +5229,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="AI15" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AJ15" s="1">
         <v>38311</v>
@@ -5205,28 +5241,28 @@
         <v>137</v>
       </c>
       <c r="AM15" t="s">
+        <v>318</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>319</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ15" t="s">
         <v>320</v>
       </c>
-      <c r="AN15" t="s">
+      <c r="AR15" t="s">
         <v>321</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>322</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>323</v>
       </c>
       <c r="AS15" t="s">
         <v>60</v>
       </c>
       <c r="AT15" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AU15" t="s">
         <v>69</v>
@@ -5240,17 +5276,17 @@
       <c r="AX15" t="s">
         <v>122</v>
       </c>
-      <c r="AY15" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>46</v>
+      <c r="AY15">
+        <v>2</v>
+      </c>
+      <c r="AZ15">
+        <v>1</v>
       </c>
       <c r="BA15" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="BB15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="BC15" s="2">
         <v>24000000</v>
@@ -5262,31 +5298,31 @@
         <v>77</v>
       </c>
       <c r="BF15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="BG15" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16">
         <v>2006</v>
       </c>
       <c r="E16" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F16" t="s">
         <v>148</v>
       </c>
       <c r="G16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H16" t="s">
         <v>75</v>
@@ -5307,28 +5343,28 @@
         <v>51</v>
       </c>
       <c r="O16" t="s">
+        <v>330</v>
+      </c>
+      <c r="P16" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q16" t="s">
         <v>332</v>
       </c>
-      <c r="P16" t="s">
+      <c r="R16" t="s">
         <v>333</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="S16" t="s">
+        <v>46</v>
+      </c>
+      <c r="T16" t="s">
         <v>334</v>
       </c>
-      <c r="R16" t="s">
-        <v>335</v>
-      </c>
-      <c r="S16" t="s">
-        <v>46</v>
-      </c>
-      <c r="T16" t="s">
-        <v>336</v>
-      </c>
       <c r="U16" t="s">
         <v>46</v>
       </c>
       <c r="V16" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="W16" t="s">
         <v>91</v>
@@ -5337,10 +5373,10 @@
         <v>58</v>
       </c>
       <c r="Y16" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="Z16" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="AA16" t="s">
         <v>75</v>
@@ -5367,7 +5403,7 @@
         <v>6.4</v>
       </c>
       <c r="AI16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AJ16" s="1">
         <v>38927</v>
@@ -5379,10 +5415,10 @@
         <v>137</v>
       </c>
       <c r="AM16" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AN16" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AO16" t="s">
         <v>62</v>
@@ -5391,16 +5427,16 @@
         <v>62</v>
       </c>
       <c r="AQ16" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AR16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AS16" t="s">
         <v>60</v>
       </c>
       <c r="AT16" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AU16" t="s">
         <v>62</v>
@@ -5414,11 +5450,14 @@
       <c r="AX16" t="s">
         <v>122</v>
       </c>
-      <c r="AY16" t="s">
-        <v>75</v>
-      </c>
-      <c r="AZ16" t="s">
-        <v>46</v>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>1</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>587</v>
       </c>
       <c r="BB16" t="s">
         <v>198</v>
@@ -5430,21 +5469,21 @@
         <v>68600000</v>
       </c>
       <c r="BE16" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>342</v>
+      </c>
+      <c r="BG16" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="BF16" t="s">
-        <v>344</v>
-      </c>
-      <c r="BG16" s="3" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17">
@@ -5463,7 +5502,7 @@
         <v>46</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J17">
         <v>101</v>
@@ -5481,28 +5520,28 @@
         <v>51</v>
       </c>
       <c r="O17" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="P17" t="s">
         <v>86</v>
       </c>
       <c r="Q17" t="s">
+        <v>348</v>
+      </c>
+      <c r="R17" t="s">
+        <v>349</v>
+      </c>
+      <c r="S17" t="s">
+        <v>46</v>
+      </c>
+      <c r="T17" t="s">
         <v>350</v>
       </c>
-      <c r="R17" t="s">
-        <v>351</v>
-      </c>
-      <c r="S17" t="s">
-        <v>46</v>
-      </c>
-      <c r="T17" t="s">
-        <v>352</v>
-      </c>
       <c r="U17" t="s">
         <v>46</v>
       </c>
       <c r="V17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="W17" t="s">
         <v>91</v>
@@ -5511,10 +5550,10 @@
         <v>58</v>
       </c>
       <c r="Y17" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="Z17" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="AA17" t="s">
         <v>46</v>
@@ -5541,7 +5580,7 @@
         <v>7.7</v>
       </c>
       <c r="AI17" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AJ17" s="1">
         <v>39648</v>
@@ -5553,10 +5592,10 @@
         <v>86</v>
       </c>
       <c r="AM17" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AN17" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AO17" t="s">
         <v>69</v>
@@ -5565,16 +5604,16 @@
         <v>121</v>
       </c>
       <c r="AQ17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AR17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AS17" t="s">
         <v>60</v>
       </c>
       <c r="AT17" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AU17" t="s">
         <v>69</v>
@@ -5588,17 +5627,17 @@
       <c r="AX17" t="s">
         <v>122</v>
       </c>
-      <c r="AY17" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ17" t="s">
-        <v>46</v>
+      <c r="AY17">
+        <v>2</v>
+      </c>
+      <c r="AZ17">
+        <v>1</v>
       </c>
       <c r="BA17" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BB17" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="BC17" s="2">
         <v>34000000</v>
@@ -5610,37 +5649,37 @@
         <v>77</v>
       </c>
       <c r="BF17" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="BG17" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18">
         <v>2010</v>
       </c>
       <c r="E18" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F18" t="s">
         <v>148</v>
       </c>
       <c r="G18" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H18" t="s">
         <v>46</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J18">
         <v>94</v>
@@ -5658,28 +5697,28 @@
         <v>51</v>
       </c>
       <c r="O18" t="s">
+        <v>365</v>
+      </c>
+      <c r="P18" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q18" t="s">
         <v>367</v>
       </c>
-      <c r="P18" t="s">
+      <c r="R18" t="s">
         <v>368</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="S18" t="s">
+        <v>46</v>
+      </c>
+      <c r="T18" t="s">
         <v>369</v>
       </c>
-      <c r="R18" t="s">
-        <v>370</v>
-      </c>
-      <c r="S18" t="s">
-        <v>46</v>
-      </c>
-      <c r="T18" t="s">
-        <v>371</v>
-      </c>
       <c r="U18" t="s">
         <v>46</v>
       </c>
       <c r="V18" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="W18" t="s">
         <v>91</v>
@@ -5688,10 +5727,10 @@
         <v>58</v>
       </c>
       <c r="Y18" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="Z18" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="AA18" t="s">
         <v>75</v>
@@ -5718,7 +5757,7 @@
         <v>7.6</v>
       </c>
       <c r="AI18" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AJ18" s="1">
         <v>40376</v>
@@ -5727,13 +5766,13 @@
         <v>65</v>
       </c>
       <c r="AL18" t="s">
+        <v>371</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>372</v>
+      </c>
+      <c r="AN18" t="s">
         <v>373</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>374</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>375</v>
       </c>
       <c r="AO18" t="s">
         <v>62</v>
@@ -5742,16 +5781,16 @@
         <v>69</v>
       </c>
       <c r="AQ18" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AR18" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AS18" t="s">
         <v>63</v>
       </c>
       <c r="AT18" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AU18" t="s">
         <v>69</v>
@@ -5765,17 +5804,17 @@
       <c r="AX18" t="s">
         <v>122</v>
       </c>
-      <c r="AY18" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ18" t="s">
-        <v>46</v>
+      <c r="AY18">
+        <v>1</v>
+      </c>
+      <c r="AZ18">
+        <v>1</v>
       </c>
       <c r="BA18" t="s">
         <v>198</v>
       </c>
       <c r="BB18" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="BC18" s="2">
         <v>23000000</v>
@@ -5784,46 +5823,46 @@
         <v>151496097</v>
       </c>
       <c r="BE18" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>379</v>
+      </c>
+      <c r="BG18" s="3" t="s">
         <v>380</v>
-      </c>
-      <c r="BF18" t="s">
-        <v>381</v>
-      </c>
-      <c r="BG18" s="3" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19">
         <v>2011</v>
       </c>
       <c r="E19" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F19" t="s">
         <v>148</v>
       </c>
       <c r="G19" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H19" t="s">
         <v>46</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J19">
         <v>91</v>
       </c>
       <c r="K19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L19" t="s">
         <v>49</v>
@@ -5835,16 +5874,16 @@
         <v>51</v>
       </c>
       <c r="O19" t="s">
+        <v>386</v>
+      </c>
+      <c r="P19" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q19" t="s">
         <v>388</v>
       </c>
-      <c r="P19" t="s">
+      <c r="R19" t="s">
         <v>389</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>390</v>
-      </c>
-      <c r="R19" t="s">
-        <v>391</v>
       </c>
       <c r="S19" t="s">
         <v>75</v>
@@ -5859,10 +5898,10 @@
         <v>58</v>
       </c>
       <c r="Y19" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="Z19" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="AA19" t="s">
         <v>75</v>
@@ -5889,7 +5928,7 @@
         <v>7.3</v>
       </c>
       <c r="AI19" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AJ19" s="1">
         <v>40740</v>
@@ -5901,10 +5940,10 @@
         <v>231</v>
       </c>
       <c r="AM19" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AN19" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AO19" t="s">
         <v>62</v>
@@ -5913,16 +5952,16 @@
         <v>69</v>
       </c>
       <c r="AQ19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AR19" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AS19" t="s">
         <v>63</v>
       </c>
       <c r="AT19" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AU19" t="s">
         <v>62</v>
@@ -5936,15 +5975,18 @@
       <c r="AX19" t="s">
         <v>122</v>
       </c>
-      <c r="AY19" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ19" t="s">
-        <v>75</v>
+      <c r="AY19">
+        <v>1</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
       </c>
       <c r="BA19" t="s">
         <v>198</v>
       </c>
+      <c r="BB19" t="s">
+        <v>587</v>
+      </c>
       <c r="BC19" s="2">
         <v>22000000</v>
       </c>
@@ -5952,21 +5994,21 @@
         <v>61000000</v>
       </c>
       <c r="BE19" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="BF19" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="BG19" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20">
@@ -5985,13 +6027,13 @@
         <v>46</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J20">
         <v>126</v>
       </c>
       <c r="K20" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L20" t="s">
         <v>129</v>
@@ -6003,16 +6045,16 @@
         <v>51</v>
       </c>
       <c r="O20" t="s">
+        <v>401</v>
+      </c>
+      <c r="P20" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q20" t="s">
         <v>403</v>
       </c>
-      <c r="P20" t="s">
+      <c r="R20" t="s">
         <v>404</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>405</v>
-      </c>
-      <c r="R20" t="s">
-        <v>406</v>
       </c>
       <c r="S20" t="s">
         <v>46</v>
@@ -6030,7 +6072,7 @@
         <v>58</v>
       </c>
       <c r="Y20" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="Z20" t="s">
         <v>135</v>
@@ -6060,7 +6102,7 @@
         <v>7.8</v>
       </c>
       <c r="AI20" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AJ20" s="1">
         <v>41475</v>
@@ -6069,13 +6111,13 @@
         <v>65</v>
       </c>
       <c r="AL20" t="s">
+        <v>406</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>407</v>
+      </c>
+      <c r="AN20" t="s">
         <v>408</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>409</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>410</v>
       </c>
       <c r="AO20" t="s">
         <v>62</v>
@@ -6084,16 +6126,16 @@
         <v>62</v>
       </c>
       <c r="AQ20" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AR20" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AS20" t="s">
         <v>63</v>
       </c>
       <c r="AT20" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AU20" t="s">
         <v>69</v>
@@ -6107,17 +6149,17 @@
       <c r="AX20" t="s">
         <v>122</v>
       </c>
-      <c r="AY20" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ20" t="s">
-        <v>46</v>
+      <c r="AY20">
+        <v>1</v>
+      </c>
+      <c r="AZ20">
+        <v>2</v>
       </c>
       <c r="BA20" t="s">
         <v>198</v>
       </c>
       <c r="BB20" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="BC20" s="2">
         <v>30000000</v>
@@ -6129,18 +6171,18 @@
         <v>77</v>
       </c>
       <c r="BF20" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="BG20" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21">
@@ -6159,13 +6201,13 @@
         <v>46</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J21">
         <v>137</v>
       </c>
       <c r="K21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="L21" t="s">
         <v>49</v>
@@ -6177,22 +6219,22 @@
         <v>51</v>
       </c>
       <c r="O21" t="s">
+        <v>419</v>
+      </c>
+      <c r="P21" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q21" t="s">
         <v>421</v>
       </c>
-      <c r="P21" t="s">
+      <c r="R21" t="s">
         <v>422</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="S21" t="s">
+        <v>46</v>
+      </c>
+      <c r="T21" t="s">
         <v>423</v>
-      </c>
-      <c r="R21" t="s">
-        <v>424</v>
-      </c>
-      <c r="S21" t="s">
-        <v>46</v>
-      </c>
-      <c r="T21" t="s">
-        <v>425</v>
       </c>
       <c r="U21" t="s">
         <v>75</v>
@@ -6201,13 +6243,13 @@
         <v>91</v>
       </c>
       <c r="X21" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="Y21" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="Z21" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="AA21" t="s">
         <v>75</v>
@@ -6234,7 +6276,7 @@
         <v>8</v>
       </c>
       <c r="AI21" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AJ21" s="1">
         <v>41601</v>
@@ -6243,13 +6285,13 @@
         <v>65</v>
       </c>
       <c r="AL21" t="s">
+        <v>425</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>426</v>
+      </c>
+      <c r="AN21" t="s">
         <v>427</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>428</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>429</v>
       </c>
       <c r="AO21" t="s">
         <v>69</v>
@@ -6258,16 +6300,16 @@
         <v>113</v>
       </c>
       <c r="AQ21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AR21" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AS21" t="s">
         <v>63</v>
       </c>
       <c r="AT21" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AU21" t="s">
         <v>69</v>
@@ -6281,17 +6323,17 @@
       <c r="AX21" t="s">
         <v>122</v>
       </c>
-      <c r="AY21" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ21" t="s">
-        <v>46</v>
+      <c r="AY21">
+        <v>2</v>
+      </c>
+      <c r="AZ21">
+        <v>1</v>
       </c>
       <c r="BA21" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="BB21" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="BC21" s="2">
         <v>49300000</v>
@@ -6303,43 +6345,43 @@
         <v>144</v>
       </c>
       <c r="BF21" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="BG21" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22">
         <v>2014</v>
       </c>
       <c r="E22" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F22" t="s">
+        <v>435</v>
+      </c>
+      <c r="G22" t="s">
+        <v>436</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>437</v>
-      </c>
-      <c r="G22" t="s">
-        <v>438</v>
-      </c>
-      <c r="H22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>439</v>
       </c>
       <c r="J22">
         <v>103</v>
       </c>
       <c r="K22" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="L22" t="s">
         <v>49</v>
@@ -6351,28 +6393,28 @@
         <v>51</v>
       </c>
       <c r="O22" t="s">
+        <v>438</v>
+      </c>
+      <c r="P22" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q22" t="s">
         <v>440</v>
       </c>
-      <c r="P22" t="s">
+      <c r="R22" t="s">
         <v>441</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="S22" t="s">
+        <v>46</v>
+      </c>
+      <c r="T22" t="s">
         <v>442</v>
       </c>
-      <c r="R22" t="s">
-        <v>443</v>
-      </c>
-      <c r="S22" t="s">
-        <v>46</v>
-      </c>
-      <c r="T22" t="s">
-        <v>444</v>
-      </c>
       <c r="U22" t="s">
         <v>46</v>
       </c>
       <c r="V22" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="W22" t="s">
         <v>91</v>
@@ -6381,10 +6423,10 @@
         <v>58</v>
       </c>
       <c r="Y22" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="Z22" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="AA22" t="s">
         <v>75</v>
@@ -6411,7 +6453,7 @@
         <v>7.5</v>
       </c>
       <c r="AI22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AJ22" s="1">
         <v>41839</v>
@@ -6423,10 +6465,10 @@
         <v>137</v>
       </c>
       <c r="AM22" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AN22" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AO22" t="s">
         <v>62</v>
@@ -6435,16 +6477,16 @@
         <v>69</v>
       </c>
       <c r="AQ22" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AR22" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AS22" t="s">
         <v>60</v>
       </c>
       <c r="AT22" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AU22" t="s">
         <v>62</v>
@@ -6458,14 +6500,17 @@
       <c r="AX22" t="s">
         <v>122</v>
       </c>
-      <c r="AY22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AZ22" t="s">
-        <v>46</v>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>2</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>587</v>
       </c>
       <c r="BB22" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="BC22" s="2">
         <v>10500000</v>
@@ -6474,79 +6519,79 @@
         <v>41000000</v>
       </c>
       <c r="BE22" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="BF22" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="BG22" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23">
         <v>2016</v>
       </c>
       <c r="E23" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F23" t="s">
         <v>148</v>
       </c>
       <c r="G23" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H23" t="s">
         <v>46</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J23">
         <v>80</v>
       </c>
       <c r="K23" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L23" t="s">
         <v>107</v>
       </c>
       <c r="M23" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="N23" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="O23" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="P23" t="s">
         <v>86</v>
       </c>
       <c r="Q23" t="s">
+        <v>460</v>
+      </c>
+      <c r="R23" t="s">
+        <v>461</v>
+      </c>
+      <c r="S23" t="s">
+        <v>46</v>
+      </c>
+      <c r="T23" t="s">
         <v>462</v>
       </c>
-      <c r="R23" t="s">
+      <c r="U23" t="s">
+        <v>46</v>
+      </c>
+      <c r="V23" t="s">
         <v>463</v>
-      </c>
-      <c r="S23" t="s">
-        <v>46</v>
-      </c>
-      <c r="T23" t="s">
-        <v>464</v>
-      </c>
-      <c r="U23" t="s">
-        <v>46</v>
-      </c>
-      <c r="V23" t="s">
-        <v>465</v>
       </c>
       <c r="W23" t="s">
         <v>91</v>
@@ -6555,10 +6600,10 @@
         <v>264</v>
       </c>
       <c r="Y23" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="Z23" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AA23" t="s">
         <v>46</v>
@@ -6585,22 +6630,22 @@
         <v>7.5</v>
       </c>
       <c r="AI23" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AJ23" s="1">
         <v>42630</v>
       </c>
       <c r="AK23" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="AL23" t="s">
         <v>86</v>
       </c>
       <c r="AM23" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AN23" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AO23" t="s">
         <v>62</v>
@@ -6609,16 +6654,16 @@
         <v>62</v>
       </c>
       <c r="AQ23" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AR23" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AS23" t="s">
         <v>63</v>
       </c>
       <c r="AT23" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AU23" t="s">
         <v>62</v>
@@ -6627,22 +6672,22 @@
         <v>69</v>
       </c>
       <c r="AW23" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AX23" t="s">
-        <v>473</v>
-      </c>
-      <c r="AY23" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ23" t="s">
-        <v>46</v>
+        <v>471</v>
+      </c>
+      <c r="AY23">
+        <v>8</v>
+      </c>
+      <c r="AZ23">
+        <v>8</v>
       </c>
       <c r="BA23" t="s">
-        <v>474</v>
+        <v>590</v>
       </c>
       <c r="BB23" t="s">
-        <v>451</v>
+        <v>591</v>
       </c>
       <c r="BC23" s="2">
         <v>12500000</v>
@@ -6651,46 +6696,46 @@
         <v>5000000</v>
       </c>
       <c r="BE23" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="BF23" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="BG23" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24">
         <v>2020</v>
       </c>
       <c r="E24" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F24" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G24" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H24" t="s">
         <v>46</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="J24">
         <v>82</v>
       </c>
       <c r="K24" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L24" t="s">
         <v>49</v>
@@ -6699,43 +6744,43 @@
         <v>50</v>
       </c>
       <c r="N24" t="s">
+        <v>480</v>
+      </c>
+      <c r="O24" t="s">
+        <v>481</v>
+      </c>
+      <c r="P24" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>482</v>
+      </c>
+      <c r="R24" t="s">
         <v>483</v>
       </c>
-      <c r="O24" t="s">
+      <c r="S24" t="s">
+        <v>46</v>
+      </c>
+      <c r="T24" t="s">
         <v>484</v>
       </c>
-      <c r="P24" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q24" t="s">
+      <c r="U24" t="s">
+        <v>46</v>
+      </c>
+      <c r="V24" t="s">
         <v>485</v>
       </c>
-      <c r="R24" t="s">
-        <v>486</v>
-      </c>
-      <c r="S24" t="s">
-        <v>46</v>
-      </c>
-      <c r="T24" t="s">
-        <v>487</v>
-      </c>
-      <c r="U24" t="s">
-        <v>46</v>
-      </c>
-      <c r="V24" t="s">
-        <v>488</v>
-      </c>
       <c r="W24" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="X24" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="Y24" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="Z24" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AA24" t="s">
         <v>75</v>
@@ -6762,40 +6807,40 @@
         <v>6</v>
       </c>
       <c r="AI24" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="AJ24" s="1">
         <v>44133</v>
       </c>
       <c r="AK24" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="AL24" t="s">
         <v>137</v>
       </c>
       <c r="AM24" t="s">
+        <v>488</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>489</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>490</v>
+      </c>
+      <c r="AP24" t="s">
         <v>491</v>
       </c>
-      <c r="AN24" t="s">
+      <c r="AQ24" t="s">
         <v>492</v>
       </c>
-      <c r="AO24" t="s">
+      <c r="AR24" t="s">
         <v>493</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>494</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>495</v>
-      </c>
-      <c r="AR24" t="s">
-        <v>496</v>
       </c>
       <c r="AS24" t="s">
         <v>60</v>
       </c>
       <c r="AT24" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="AU24" t="s">
         <v>62</v>
@@ -6807,16 +6852,19 @@
         <v>100</v>
       </c>
       <c r="AX24" t="s">
-        <v>498</v>
-      </c>
-      <c r="AY24" t="s">
-        <v>75</v>
-      </c>
-      <c r="AZ24" t="s">
-        <v>46</v>
+        <v>495</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>1</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>587</v>
       </c>
       <c r="BB24" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="BC24" s="2">
         <v>10000000</v>
@@ -6825,21 +6873,21 @@
         <v>842744</v>
       </c>
       <c r="BE24" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="BF24" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="BG24" s="3" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25">
@@ -6858,13 +6906,13 @@
         <v>46</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="J25">
         <v>125</v>
       </c>
       <c r="K25" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L25" t="s">
         <v>129</v>
@@ -6876,28 +6924,28 @@
         <v>51</v>
       </c>
       <c r="O25" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="P25" t="s">
         <v>86</v>
       </c>
       <c r="Q25" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="R25" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="S25" t="s">
         <v>46</v>
       </c>
       <c r="T25" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="U25" t="s">
         <v>46</v>
       </c>
       <c r="V25" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="W25" t="s">
         <v>91</v>
@@ -6906,10 +6954,10 @@
         <v>58</v>
       </c>
       <c r="Y25" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="Z25" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="AA25" t="s">
         <v>75</v>
@@ -6936,7 +6984,7 @@
         <v>8</v>
       </c>
       <c r="AI25" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AJ25" s="1">
         <v>45121</v>
@@ -6948,10 +6996,10 @@
         <v>86</v>
       </c>
       <c r="AM25" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="AN25" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="AO25" t="s">
         <v>62</v>
@@ -6960,16 +7008,16 @@
         <v>69</v>
       </c>
       <c r="AQ25" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="AR25" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="AS25" t="s">
         <v>60</v>
       </c>
       <c r="AT25" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="AU25" t="s">
         <v>69</v>
@@ -6983,17 +7031,17 @@
       <c r="AX25" t="s">
         <v>122</v>
       </c>
-      <c r="AY25" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ25" t="s">
-        <v>46</v>
+      <c r="AY25">
+        <v>10</v>
+      </c>
+      <c r="AZ25">
+        <v>7</v>
       </c>
       <c r="BA25" t="s">
-        <v>512</v>
+        <v>592</v>
       </c>
       <c r="BB25" t="s">
-        <v>289</v>
+        <v>593</v>
       </c>
       <c r="BC25" s="2">
         <v>53000000</v>
@@ -7005,10 +7053,10 @@
         <v>77</v>
       </c>
       <c r="BF25" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="BG25" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>

--- a/Ghibli-tabla.xlsx
+++ b/Ghibli-tabla.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Página web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{212288ED-DB27-4FC4-AD48-0229546B2E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC6E3FA-41B6-4715-B312-807262548208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="16104" windowHeight="8964"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="16104" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ghibli-tabla" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="593">
   <si>
     <t>Título</t>
   </si>
@@ -258,15 +258,9 @@
     <t>Seiun</t>
   </si>
   <si>
-    <t>https://static.wikia.nocookie.net/studioghibli/images/e/ef/Hayao_Miyazaki.jpg/revision/latest?cb=20200412201050&amp;path-prefix=es</t>
-  </si>
-  <si>
     <t>Encuentro con los Ohmu</t>
   </si>
   <si>
-    <t>https://static.wikia.nocookie.net/studio-ghibli/images/a/a3/Ohmu.jpg/revision/latest/scale-to-width-down/250?cb=20181025000500</t>
-  </si>
-  <si>
     <t>El castillo en el cielo</t>
   </si>
   <si>
@@ -459,9 +453,6 @@
     <t>Blue Ribbon Award, Chicago Children's Film Fest Aaward</t>
   </si>
   <si>
-    <t>https://static.wikia.nocookie.net/studioghibli/images/b/b6/Isao_Takahata.jpg/revision/latest?cb=20200411015632&amp;path-prefix=es</t>
-  </si>
-  <si>
     <t>Últimos momentos de Seita y Setsuko</t>
   </si>
   <si>
@@ -627,9 +618,6 @@
     <t>Batalla aérea sobre el mar</t>
   </si>
   <si>
-    <t>https://i0.wp.com/biffbampop.com/wp-content/uploads/2016/04/porco-rosso-fio-brave.jpg?resize=560%2C307&amp;ssl=1</t>
-  </si>
-  <si>
     <t>Pom Poko</t>
   </si>
   <si>
@@ -735,9 +723,6 @@
     <t>Alta influencia en público joven</t>
   </si>
   <si>
-    <t>https://static.wikia.nocookie.net/studioghibli/images/3/37/Yoshifumi_Kond%C3%B4.jpg/revision/latest?cb=20200419023303&amp;path-prefix=es</t>
-  </si>
-  <si>
     <t>La estatua del seigneur del gato</t>
   </si>
   <si>
@@ -945,9 +930,6 @@
     <t>Tokyo Anime Award</t>
   </si>
   <si>
-    <t>https://static.wikia.nocookie.net/studioghibli/images/5/50/Hiroyuki_Morita.jpg/revision/latest?cb=20200706135938&amp;path-prefix=es</t>
-  </si>
-  <si>
     <t>Banquete real de gatos</t>
   </si>
   <si>
@@ -1107,9 +1089,6 @@
     <t>Transformación de Ponyo en humana</t>
   </si>
   <si>
-    <t>https://diariodefriki.wordpress.com/wp-content/uploads/2019/08/vlcsnap-2019-08-26-12h32m44s829.png?w=1024</t>
-  </si>
-  <si>
     <t>Arrietty y el mundo de los diminutos</t>
   </si>
   <si>
@@ -1266,9 +1245,6 @@
     <t>Óscar, Globo de oro</t>
   </si>
   <si>
-    <t>Soñar diseñar aviones</t>
-  </si>
-  <si>
     <t>https://lamanodelextranjero.com/wp-content/uploads/2014/05/el-taller-de-los-jvenes-ingenieros-aeronuticos.jpg</t>
   </si>
   <si>
@@ -1326,9 +1302,6 @@
     <t>Partida de Kaguya al cielo</t>
   </si>
   <si>
-    <t>https://sootballs.wordpress.com/wp-content/uploads/2015/03/kpro.jpg?w=660&amp;h=356</t>
-  </si>
-  <si>
     <t>El recuerdo de Marnie</t>
   </si>
   <si>
@@ -1503,9 +1476,6 @@
     <t>Alta (orientada a jóvenes)</t>
   </si>
   <si>
-    <t>Gatos/mascotas mágicas</t>
-  </si>
-  <si>
     <t>Tren, charla mágica</t>
   </si>
   <si>
@@ -1545,21 +1515,12 @@
     <t>Transformación a través del duelo</t>
   </si>
   <si>
-    <t>Garzas/aves</t>
-  </si>
-  <si>
-    <t>Tren/Barca</t>
-  </si>
-  <si>
     <t>Alta expectación cultural</t>
   </si>
   <si>
     <t>Encuentro con la garza</t>
   </si>
   <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT8SYN_u4fZ0z8sxvuLh-kf16ZAGEos2DljjQ&amp;s</t>
-  </si>
-  <si>
     <t>Goro Miyazaki</t>
   </si>
   <si>
@@ -1788,9 +1749,6 @@
     <t>sepia, azul, rojo</t>
   </si>
   <si>
-    <t>""</t>
-  </si>
-  <si>
     <t>Bafta, Annie Awards, Golden Satellite Awards, Critics Choice Awards</t>
   </si>
   <si>
@@ -1807,12 +1765,51 @@
   </si>
   <si>
     <t>Saturn Award, Annie Awards, Critics Choice Awards, Cinema Audio Society, PGA Awards, Art Directors Guild, Toronto Film Critics Association</t>
+  </si>
+  <si>
+    <t>Gatos</t>
+  </si>
+  <si>
+    <t>Garzas</t>
+  </si>
+  <si>
+    <t>Ninguna</t>
+  </si>
+  <si>
+    <t>https://files.catbox.moe/r3s9hp.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/M/MV5BZTJlNDQzZjgtM2E5OS00ZmU2LTg2MDAtMzdlMDhjZTc5NDMwXkEyXkFqcGdeQXRyYW5zY29kZS13b3JrZmxvdw@@._V1_.jpg</t>
+  </si>
+  <si>
+    <t>https://cdni.fancaps.net/file/fancaps-movieimages/2868062.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/M/MV5BOTI4Y2NlYzgtMmE0YS00YmY5LWEyMzctNjgwMmNjZmMxNGMwXkEyXkFqcGc@._V1_QL75_UX604.5_.jpg</t>
+  </si>
+  <si>
+    <t>Soñar con diseñar aviones</t>
+  </si>
+  <si>
+    <t>https://cdni.fancaps.net/file/fancaps-movieimages/2267150.jpg</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/M/MV5BMjcyNjk2OTkwNF5BMl5BanBnXkFtZTcwOTk0MTQ3Mg@@._V1_FMjpg_UX1000_.jpg</t>
+  </si>
+  <si>
+    <t>https://decine21.com/img/upload/perfiles/isao-takahata-59910/isao-takahata-59910-c.jpg</t>
+  </si>
+  <si>
+    <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhQAjfRTlgdIuWKRyUuerzuVw-F5ta82C4ZjIGEjKha9ebFRWx22LA8w97Nf9C8M8JDVaP7q-wezvZzi1xwdvaAGEbgf1xuTucTKs5AcI7oJe9xDJfTSl3AjePmzKMV_X7ZCgFhniuA_xw2/s1600/Yoshifumi-Kondo-2.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.myanimelist.net/images/voiceactors/1/35839.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2659,14 +2656,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="BB1" sqref="BB1"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="BE12" sqref="BE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="57" max="57" width="23.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2676,7 +2676,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -2715,58 +2715,58 @@
         <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="Q1" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="R1" t="s">
         <v>14</v>
       </c>
       <c r="S1" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="T1" t="s">
         <v>15</v>
       </c>
       <c r="U1" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="V1" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="W1" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="X1" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="Y1" t="s">
+        <v>517</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>518</v>
+      </c>
+      <c r="AA1" t="s">
         <v>530</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>531</v>
       </c>
-      <c r="AA1" t="s">
-        <v>543</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>544</v>
-      </c>
       <c r="AC1" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="AD1" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="AE1" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="AF1" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="AG1" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="AH1" t="s">
         <v>16</v>
@@ -2852,7 +2852,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2">
@@ -2913,13 +2913,13 @@
         <v>57</v>
       </c>
       <c r="W2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X2" t="s">
         <v>58</v>
       </c>
       <c r="Y2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="Z2" t="s">
         <v>59</v>
@@ -3006,7 +3006,7 @@
         <v>76</v>
       </c>
       <c r="BB2" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="BC2" s="2">
         <v>1000000</v>
@@ -3015,21 +3015,21 @@
         <v>14000000</v>
       </c>
       <c r="BE2" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="BF2" t="s">
         <v>77</v>
       </c>
-      <c r="BF2" t="s">
-        <v>78</v>
-      </c>
       <c r="BG2" s="3" t="s">
-        <v>79</v>
+        <v>583</v>
       </c>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3">
@@ -3039,7 +3039,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -3048,13 +3048,13 @@
         <v>46</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J3">
         <v>124</v>
       </c>
       <c r="K3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s">
         <v>49</v>
@@ -3066,40 +3066,40 @@
         <v>51</v>
       </c>
       <c r="O3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q3" t="s">
         <v>85</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>86</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T3" t="s">
         <v>87</v>
       </c>
-      <c r="R3" t="s">
+      <c r="U3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" t="s">
         <v>88</v>
       </c>
-      <c r="S3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="W3" t="s">
         <v>89</v>
       </c>
-      <c r="U3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="X3" t="s">
         <v>90</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Y3" t="s">
+        <v>539</v>
+      </c>
+      <c r="Z3" t="s">
         <v>91</v>
-      </c>
-      <c r="X3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>552</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>93</v>
       </c>
       <c r="AA3" t="s">
         <v>46</v>
@@ -3126,7 +3126,7 @@
         <v>8</v>
       </c>
       <c r="AI3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AJ3" s="1">
         <v>31626</v>
@@ -3135,13 +3135,13 @@
         <v>65</v>
       </c>
       <c r="AL3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AM3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AN3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AO3" t="s">
         <v>62</v>
@@ -3150,16 +3150,16 @@
         <v>69</v>
       </c>
       <c r="AQ3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AR3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AS3" t="s">
         <v>60</v>
       </c>
       <c r="AT3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AU3" t="s">
         <v>69</v>
@@ -3168,7 +3168,7 @@
         <v>69</v>
       </c>
       <c r="AW3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AX3" t="s">
         <v>74</v>
@@ -3180,10 +3180,10 @@
         <v>0</v>
       </c>
       <c r="BA3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BB3" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="BC3" s="2">
         <v>5000000</v>
@@ -3192,21 +3192,21 @@
         <v>15700000</v>
       </c>
       <c r="BE3" s="3" t="s">
-        <v>77</v>
+        <v>589</v>
       </c>
       <c r="BF3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BG3" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4">
@@ -3225,16 +3225,16 @@
         <v>46</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J4">
         <v>86</v>
       </c>
       <c r="K4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M4" t="s">
         <v>50</v>
@@ -3243,40 +3243,40 @@
         <v>51</v>
       </c>
       <c r="O4" t="s">
+        <v>106</v>
+      </c>
+      <c r="P4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>107</v>
+      </c>
+      <c r="R4" t="s">
         <v>108</v>
       </c>
-      <c r="P4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" t="s">
         <v>109</v>
       </c>
-      <c r="R4" t="s">
+      <c r="U4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V4" t="s">
         <v>110</v>
       </c>
-      <c r="S4" t="s">
-        <v>46</v>
-      </c>
-      <c r="T4" t="s">
-        <v>111</v>
-      </c>
-      <c r="U4" t="s">
-        <v>46</v>
-      </c>
-      <c r="V4" t="s">
-        <v>112</v>
-      </c>
       <c r="W4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X4" t="s">
         <v>58</v>
       </c>
       <c r="Y4" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="Z4" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="AA4" t="s">
         <v>46</v>
@@ -3288,7 +3288,7 @@
         <v>69</v>
       </c>
       <c r="AD4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AE4" t="s">
         <v>46</v>
@@ -3303,7 +3303,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="AI4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AJ4" s="1">
         <v>32249</v>
@@ -3312,43 +3312,43 @@
         <v>65</v>
       </c>
       <c r="AL4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN4" t="s">
         <v>115</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AO4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>116</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AR4" t="s">
         <v>117</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>119</v>
       </c>
       <c r="AS4" t="s">
         <v>60</v>
       </c>
       <c r="AT4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX4" t="s">
         <v>120</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>122</v>
       </c>
       <c r="AY4">
         <v>2</v>
@@ -3357,10 +3357,10 @@
         <v>0</v>
       </c>
       <c r="BA4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="BB4" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="BC4" s="2">
         <v>3700000</v>
@@ -3369,34 +3369,34 @@
         <v>41000000</v>
       </c>
       <c r="BE4" s="3" t="s">
-        <v>77</v>
+        <v>589</v>
       </c>
       <c r="BF4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BG4" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5">
         <v>1988</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H5" t="s">
         <v>75</v>
@@ -3405,10 +3405,10 @@
         <v>89</v>
       </c>
       <c r="K5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M5" t="s">
         <v>50</v>
@@ -3417,37 +3417,37 @@
         <v>51</v>
       </c>
       <c r="O5" t="s">
+        <v>128</v>
+      </c>
+      <c r="P5" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q5" t="s">
         <v>130</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>131</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5" t="s">
         <v>132</v>
       </c>
-      <c r="R5" t="s">
-        <v>133</v>
-      </c>
-      <c r="S5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T5" t="s">
-        <v>134</v>
-      </c>
       <c r="U5" t="s">
         <v>75</v>
       </c>
       <c r="W5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X5" t="s">
         <v>58</v>
       </c>
       <c r="Y5" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="Z5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AA5" t="s">
         <v>75</v>
@@ -3459,7 +3459,7 @@
         <v>69</v>
       </c>
       <c r="AD5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AE5" t="s">
         <v>75</v>
@@ -3474,7 +3474,7 @@
         <v>8.5</v>
       </c>
       <c r="AI5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AJ5" s="1">
         <v>32249</v>
@@ -3483,13 +3483,13 @@
         <v>65</v>
       </c>
       <c r="AL5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN5" t="s">
         <v>137</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>138</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>139</v>
       </c>
       <c r="AO5" t="s">
         <v>62</v>
@@ -3498,28 +3498,28 @@
         <v>69</v>
       </c>
       <c r="AQ5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AR5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AS5" t="s">
         <v>63</v>
       </c>
       <c r="AT5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AU5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AV5" t="s">
         <v>69</v>
       </c>
       <c r="AW5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AX5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AY5">
         <v>2</v>
@@ -3528,10 +3528,10 @@
         <v>0</v>
       </c>
       <c r="BA5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="BB5" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="BC5" s="2">
         <v>3700000</v>
@@ -3540,21 +3540,21 @@
         <v>14000000</v>
       </c>
       <c r="BE5" s="3" t="s">
-        <v>144</v>
+        <v>590</v>
       </c>
       <c r="BF5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="BG5" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6">
@@ -3564,7 +3564,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -3573,16 +3573,16 @@
         <v>46</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J6">
         <v>103</v>
       </c>
       <c r="K6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M6" t="s">
         <v>50</v>
@@ -3591,40 +3591,40 @@
         <v>51</v>
       </c>
       <c r="O6" t="s">
+        <v>148</v>
+      </c>
+      <c r="P6" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>150</v>
+      </c>
+      <c r="R6" t="s">
         <v>151</v>
       </c>
-      <c r="P6" t="s">
+      <c r="S6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T6" t="s">
         <v>152</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="U6" t="s">
+        <v>46</v>
+      </c>
+      <c r="V6" t="s">
         <v>153</v>
       </c>
-      <c r="R6" t="s">
-        <v>154</v>
-      </c>
-      <c r="S6" t="s">
-        <v>46</v>
-      </c>
-      <c r="T6" t="s">
-        <v>155</v>
-      </c>
-      <c r="U6" t="s">
-        <v>46</v>
-      </c>
-      <c r="V6" t="s">
-        <v>156</v>
-      </c>
       <c r="W6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="Z6" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="AA6" t="s">
         <v>75</v>
@@ -3651,7 +3651,7 @@
         <v>7.9</v>
       </c>
       <c r="AI6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AJ6" s="1">
         <v>32718</v>
@@ -3660,31 +3660,31 @@
         <v>65</v>
       </c>
       <c r="AL6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AM6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AR6" t="s">
         <v>158</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>160</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>161</v>
       </c>
       <c r="AS6" t="s">
         <v>60</v>
       </c>
       <c r="AT6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AU6" t="s">
         <v>69</v>
@@ -3693,10 +3693,10 @@
         <v>69</v>
       </c>
       <c r="AW6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AX6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AY6">
         <v>2</v>
@@ -3705,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="BA6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="BB6" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="BC6" s="2">
         <v>6900000</v>
@@ -3717,46 +3717,46 @@
         <v>1144186</v>
       </c>
       <c r="BE6" s="3" t="s">
-        <v>77</v>
+        <v>589</v>
       </c>
       <c r="BF6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="BG6" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7">
         <v>1991</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H7" t="s">
         <v>46</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J7">
         <v>118</v>
       </c>
       <c r="K7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L7" t="s">
         <v>49</v>
@@ -3768,16 +3768,16 @@
         <v>51</v>
       </c>
       <c r="O7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="P7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="R7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="S7" t="s">
         <v>75</v>
@@ -3786,16 +3786,16 @@
         <v>75</v>
       </c>
       <c r="W7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X7" t="s">
         <v>58</v>
       </c>
       <c r="Y7" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="Z7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AA7" t="s">
         <v>75</v>
@@ -3822,7 +3822,7 @@
         <v>7.8</v>
       </c>
       <c r="AI7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AJ7" s="1">
         <v>33439</v>
@@ -3831,13 +3831,13 @@
         <v>65</v>
       </c>
       <c r="AL7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AM7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AN7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AO7" t="s">
         <v>62</v>
@@ -3846,16 +3846,16 @@
         <v>69</v>
       </c>
       <c r="AQ7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AR7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AS7" t="s">
         <v>63</v>
       </c>
       <c r="AT7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AU7" t="s">
         <v>69</v>
@@ -3864,10 +3864,10 @@
         <v>62</v>
       </c>
       <c r="AW7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AX7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AY7">
         <v>1</v>
@@ -3876,10 +3876,10 @@
         <v>0</v>
       </c>
       <c r="BA7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="BB7" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="BC7" s="2">
         <v>15000000</v>
@@ -3888,21 +3888,21 @@
         <v>576916</v>
       </c>
       <c r="BE7" s="3" t="s">
-        <v>144</v>
+        <v>590</v>
       </c>
       <c r="BF7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="BG7" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8">
@@ -3912,7 +3912,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -3921,13 +3921,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J8">
         <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L8" t="s">
         <v>49</v>
@@ -3939,40 +3939,40 @@
         <v>51</v>
       </c>
       <c r="O8" t="s">
+        <v>185</v>
+      </c>
+      <c r="P8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>186</v>
+      </c>
+      <c r="R8" t="s">
+        <v>187</v>
+      </c>
+      <c r="S8" t="s">
+        <v>46</v>
+      </c>
+      <c r="T8" t="s">
         <v>188</v>
       </c>
-      <c r="P8" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>189</v>
-      </c>
-      <c r="R8" t="s">
-        <v>190</v>
-      </c>
-      <c r="S8" t="s">
-        <v>46</v>
-      </c>
-      <c r="T8" t="s">
-        <v>191</v>
-      </c>
       <c r="U8" t="s">
         <v>46</v>
       </c>
       <c r="V8" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="W8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X8" t="s">
         <v>58</v>
       </c>
       <c r="Y8" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="Z8" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="AA8" t="s">
         <v>75</v>
@@ -3999,7 +3999,7 @@
         <v>7.7</v>
       </c>
       <c r="AI8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AJ8" s="1">
         <v>33803</v>
@@ -4008,13 +4008,13 @@
         <v>65</v>
       </c>
       <c r="AL8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AM8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AO8" t="s">
         <v>62</v>
@@ -4023,16 +4023,16 @@
         <v>62</v>
       </c>
       <c r="AQ8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AR8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AS8" t="s">
         <v>60</v>
       </c>
       <c r="AT8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AU8" t="s">
         <v>69</v>
@@ -4041,10 +4041,10 @@
         <v>69</v>
       </c>
       <c r="AW8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AX8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AY8">
         <v>1</v>
@@ -4053,10 +4053,10 @@
         <v>0</v>
       </c>
       <c r="BA8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="BB8" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="BC8" s="2">
         <v>9200000</v>
@@ -4065,46 +4065,46 @@
         <v>10000000</v>
       </c>
       <c r="BE8" s="3" t="s">
-        <v>77</v>
+        <v>589</v>
       </c>
       <c r="BF8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BG8" s="3" t="s">
-        <v>200</v>
+        <v>588</v>
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9">
         <v>1994</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G9" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H9" t="s">
         <v>46</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J9">
         <v>119</v>
       </c>
       <c r="K9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L9" t="s">
         <v>49</v>
@@ -4116,40 +4116,40 @@
         <v>51</v>
       </c>
       <c r="O9" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="R9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="S9" t="s">
         <v>46</v>
       </c>
       <c r="T9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="U9" t="s">
         <v>46</v>
       </c>
       <c r="V9" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="W9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X9" t="s">
         <v>58</v>
       </c>
       <c r="Y9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Z9" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="AA9" t="s">
         <v>46</v>
@@ -4176,7 +4176,7 @@
         <v>7.3</v>
       </c>
       <c r="AI9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AJ9" s="1">
         <v>34531</v>
@@ -4185,13 +4185,13 @@
         <v>65</v>
       </c>
       <c r="AL9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AM9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AN9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AO9" t="s">
         <v>62</v>
@@ -4200,16 +4200,16 @@
         <v>69</v>
       </c>
       <c r="AQ9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AR9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AS9" t="s">
         <v>60</v>
       </c>
       <c r="AT9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="AU9" t="s">
         <v>69</v>
@@ -4218,10 +4218,10 @@
         <v>62</v>
       </c>
       <c r="AW9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AX9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AY9">
         <v>2</v>
@@ -4230,10 +4230,10 @@
         <v>1</v>
       </c>
       <c r="BA9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="BB9" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="BC9" s="2">
         <v>12000000</v>
@@ -4242,46 +4242,46 @@
         <v>16000000</v>
       </c>
       <c r="BE9" s="3" t="s">
-        <v>144</v>
+        <v>590</v>
       </c>
       <c r="BF9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="BG9" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10">
         <v>1995</v>
       </c>
       <c r="E10" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H10" t="s">
         <v>46</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J10">
         <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="L10" t="s">
         <v>49</v>
@@ -4293,16 +4293,16 @@
         <v>51</v>
       </c>
       <c r="O10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P10" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Q10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="R10" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="S10" t="s">
         <v>75</v>
@@ -4311,19 +4311,19 @@
         <v>46</v>
       </c>
       <c r="V10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="W10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X10" t="s">
         <v>58</v>
       </c>
       <c r="Y10" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="Z10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AA10" t="s">
         <v>75</v>
@@ -4350,7 +4350,7 @@
         <v>7.7</v>
       </c>
       <c r="AI10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AJ10" s="1">
         <v>34895</v>
@@ -4359,13 +4359,13 @@
         <v>65</v>
       </c>
       <c r="AL10" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AM10" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="AN10" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AO10" t="s">
         <v>69</v>
@@ -4374,16 +4374,16 @@
         <v>69</v>
       </c>
       <c r="AQ10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AR10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AS10" t="s">
         <v>63</v>
       </c>
       <c r="AT10" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AU10" t="s">
         <v>69</v>
@@ -4392,10 +4392,10 @@
         <v>62</v>
       </c>
       <c r="AW10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AX10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AY10">
         <v>0</v>
@@ -4404,10 +4404,10 @@
         <v>1</v>
       </c>
       <c r="BA10" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="BB10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="BC10" s="2">
         <v>10000000</v>
@@ -4416,21 +4416,21 @@
         <v>10000000</v>
       </c>
       <c r="BE10" s="3" t="s">
-        <v>236</v>
+        <v>591</v>
       </c>
       <c r="BF10" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="BG10" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11">
@@ -4440,7 +4440,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -4449,16 +4449,16 @@
         <v>46</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J11">
         <v>134</v>
       </c>
       <c r="K11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M11" t="s">
         <v>50</v>
@@ -4467,40 +4467,40 @@
         <v>51</v>
       </c>
       <c r="O11" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="P11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q11" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="R11" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="S11" t="s">
         <v>46</v>
       </c>
       <c r="T11" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="U11" t="s">
         <v>46</v>
       </c>
       <c r="V11" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="W11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X11" t="s">
         <v>58</v>
       </c>
       <c r="Y11" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="Z11" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="AA11" t="s">
         <v>46</v>
@@ -4527,7 +4527,7 @@
         <v>8.4</v>
       </c>
       <c r="AI11" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AJ11" s="1">
         <v>35623</v>
@@ -4536,13 +4536,13 @@
         <v>65</v>
       </c>
       <c r="AL11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AM11" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AN11" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AO11" t="s">
         <v>69</v>
@@ -4551,28 +4551,28 @@
         <v>62</v>
       </c>
       <c r="AQ11" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AR11" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AS11" t="s">
         <v>60</v>
       </c>
       <c r="AT11" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AU11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AV11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AW11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AX11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AY11">
         <v>2</v>
@@ -4581,10 +4581,10 @@
         <v>1</v>
       </c>
       <c r="BA11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="BB11" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="BC11" s="2">
         <v>23500000</v>
@@ -4593,49 +4593,49 @@
         <v>231247030</v>
       </c>
       <c r="BE11" s="3" t="s">
-        <v>77</v>
+        <v>589</v>
       </c>
       <c r="BF11" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="BG11" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12">
         <v>1999</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G12" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H12" t="s">
         <v>46</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="J12">
         <v>104</v>
       </c>
       <c r="K12" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="L12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M12" t="s">
         <v>50</v>
@@ -4644,52 +4644,52 @@
         <v>51</v>
       </c>
       <c r="O12" t="s">
+        <v>255</v>
+      </c>
+      <c r="P12" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>257</v>
+      </c>
+      <c r="R12" t="s">
+        <v>258</v>
+      </c>
+      <c r="S12" t="s">
+        <v>75</v>
+      </c>
+      <c r="U12" t="s">
+        <v>75</v>
+      </c>
+      <c r="W12" t="s">
+        <v>89</v>
+      </c>
+      <c r="X12" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>546</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>568</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF12" t="s">
         <v>260</v>
-      </c>
-      <c r="P12" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>262</v>
-      </c>
-      <c r="R12" t="s">
-        <v>263</v>
-      </c>
-      <c r="S12" t="s">
-        <v>75</v>
-      </c>
-      <c r="U12" t="s">
-        <v>75</v>
-      </c>
-      <c r="W12" t="s">
-        <v>91</v>
-      </c>
-      <c r="X12" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>559</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>581</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>265</v>
       </c>
       <c r="AG12" t="s">
         <v>75</v>
@@ -4698,7 +4698,7 @@
         <v>7.1</v>
       </c>
       <c r="AI12" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="AJ12" s="1">
         <v>36358</v>
@@ -4710,10 +4710,10 @@
         <v>66</v>
       </c>
       <c r="AM12" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="AN12" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="AO12" t="s">
         <v>62</v>
@@ -4722,16 +4722,16 @@
         <v>69</v>
       </c>
       <c r="AQ12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="AR12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AS12" t="s">
         <v>63</v>
       </c>
       <c r="AT12" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AU12" t="s">
         <v>62</v>
@@ -4740,10 +4740,10 @@
         <v>62</v>
       </c>
       <c r="AW12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AX12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AY12">
         <v>1</v>
@@ -4752,10 +4752,10 @@
         <v>0</v>
       </c>
       <c r="BA12" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="BB12" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="BC12" s="2">
         <v>20000000</v>
@@ -4764,21 +4764,21 @@
         <v>11000000</v>
       </c>
       <c r="BE12" s="3" t="s">
-        <v>144</v>
+        <v>590</v>
       </c>
       <c r="BF12" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="BG12" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13">
@@ -4788,7 +4788,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -4797,13 +4797,13 @@
         <v>46</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="J13">
         <v>125</v>
       </c>
       <c r="K13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s">
         <v>49</v>
@@ -4815,40 +4815,40 @@
         <v>51</v>
       </c>
       <c r="O13" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="P13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q13" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="R13" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="S13" t="s">
         <v>46</v>
       </c>
       <c r="T13" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="U13" t="s">
         <v>46</v>
       </c>
       <c r="V13" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="W13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X13" t="s">
         <v>58</v>
       </c>
       <c r="Y13" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="Z13" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="AA13" t="s">
         <v>46</v>
@@ -4875,7 +4875,7 @@
         <v>8.6</v>
       </c>
       <c r="AI13" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="AJ13" s="1">
         <v>37092</v>
@@ -4884,13 +4884,13 @@
         <v>65</v>
       </c>
       <c r="AL13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AM13" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AN13" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="AO13" t="s">
         <v>69</v>
@@ -4899,28 +4899,28 @@
         <v>62</v>
       </c>
       <c r="AQ13" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AR13" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="AS13" t="s">
         <v>60</v>
       </c>
       <c r="AT13" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AU13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AV13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AW13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AX13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AY13">
         <v>7</v>
@@ -4929,10 +4929,10 @@
         <v>4</v>
       </c>
       <c r="BA13" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="BB13" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="BC13" s="2">
         <v>19000000</v>
@@ -4941,49 +4941,49 @@
         <v>395800000</v>
       </c>
       <c r="BE13" s="3" t="s">
-        <v>77</v>
+        <v>589</v>
       </c>
       <c r="BF13" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="BG13" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14">
         <v>2002</v>
       </c>
       <c r="E14" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H14" t="s">
         <v>46</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="J14">
         <v>75</v>
       </c>
       <c r="K14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M14" t="s">
         <v>50</v>
@@ -4992,40 +4992,40 @@
         <v>51</v>
       </c>
       <c r="O14" t="s">
+        <v>288</v>
+      </c>
+      <c r="P14" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>290</v>
+      </c>
+      <c r="R14" t="s">
+        <v>291</v>
+      </c>
+      <c r="S14" t="s">
+        <v>46</v>
+      </c>
+      <c r="T14" t="s">
+        <v>292</v>
+      </c>
+      <c r="U14" t="s">
+        <v>46</v>
+      </c>
+      <c r="V14" t="s">
         <v>293</v>
       </c>
-      <c r="P14" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>295</v>
-      </c>
-      <c r="R14" t="s">
-        <v>296</v>
-      </c>
-      <c r="S14" t="s">
-        <v>46</v>
-      </c>
-      <c r="T14" t="s">
-        <v>297</v>
-      </c>
-      <c r="U14" t="s">
-        <v>46</v>
-      </c>
-      <c r="V14" t="s">
-        <v>298</v>
-      </c>
       <c r="W14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X14" t="s">
         <v>58</v>
       </c>
       <c r="Y14" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="Z14" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="AA14" t="s">
         <v>75</v>
@@ -5052,7 +5052,7 @@
         <v>7.2</v>
       </c>
       <c r="AI14" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="AJ14" s="1">
         <v>37456</v>
@@ -5061,13 +5061,13 @@
         <v>65</v>
       </c>
       <c r="AL14" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AM14" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AN14" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="AO14" t="s">
         <v>62</v>
@@ -5076,16 +5076,16 @@
         <v>69</v>
       </c>
       <c r="AQ14" t="s">
+        <v>293</v>
+      </c>
+      <c r="AR14" t="s">
         <v>298</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>303</v>
       </c>
       <c r="AS14" t="s">
         <v>60</v>
       </c>
       <c r="AT14" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AU14" t="s">
         <v>62</v>
@@ -5094,10 +5094,10 @@
         <v>69</v>
       </c>
       <c r="AW14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AX14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AY14">
         <v>1</v>
@@ -5106,10 +5106,10 @@
         <v>1</v>
       </c>
       <c r="BA14" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="BB14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="BC14" s="2">
         <v>20000000</v>
@@ -5118,21 +5118,21 @@
         <v>54000000</v>
       </c>
       <c r="BE14" s="3" t="s">
-        <v>306</v>
+        <v>592</v>
       </c>
       <c r="BF14" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="BG14" s="3" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15">
@@ -5142,7 +5142,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -5151,13 +5151,13 @@
         <v>46</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="J15">
         <v>119</v>
       </c>
       <c r="K15" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="L15" t="s">
         <v>49</v>
@@ -5169,40 +5169,40 @@
         <v>51</v>
       </c>
       <c r="O15" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="P15" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="Q15" t="s">
+        <v>308</v>
+      </c>
+      <c r="R15" t="s">
+        <v>309</v>
+      </c>
+      <c r="S15" t="s">
+        <v>46</v>
+      </c>
+      <c r="T15" t="s">
+        <v>310</v>
+      </c>
+      <c r="U15" t="s">
+        <v>46</v>
+      </c>
+      <c r="V15" t="s">
         <v>314</v>
       </c>
-      <c r="R15" t="s">
-        <v>315</v>
-      </c>
-      <c r="S15" t="s">
-        <v>46</v>
-      </c>
-      <c r="T15" t="s">
-        <v>316</v>
-      </c>
-      <c r="U15" t="s">
-        <v>46</v>
-      </c>
-      <c r="V15" t="s">
-        <v>320</v>
-      </c>
       <c r="W15" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="X15" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="Y15" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="Z15" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="AA15" t="s">
         <v>46</v>
@@ -5229,7 +5229,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="AI15" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AJ15" s="1">
         <v>38311</v>
@@ -5238,13 +5238,13 @@
         <v>65</v>
       </c>
       <c r="AL15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AM15" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AN15" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AO15" t="s">
         <v>69</v>
@@ -5253,16 +5253,16 @@
         <v>69</v>
       </c>
       <c r="AQ15" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AR15" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AS15" t="s">
         <v>60</v>
       </c>
       <c r="AT15" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AU15" t="s">
         <v>69</v>
@@ -5271,10 +5271,10 @@
         <v>69</v>
       </c>
       <c r="AW15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AX15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AY15">
         <v>2</v>
@@ -5283,10 +5283,10 @@
         <v>1</v>
       </c>
       <c r="BA15" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="BB15" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="BC15" s="2">
         <v>24000000</v>
@@ -5295,34 +5295,34 @@
         <v>239589856</v>
       </c>
       <c r="BE15" s="3" t="s">
-        <v>77</v>
+        <v>589</v>
       </c>
       <c r="BF15" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="BG15" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16">
         <v>2006</v>
       </c>
       <c r="E16" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G16" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="H16" t="s">
         <v>75</v>
@@ -5331,10 +5331,10 @@
         <v>115</v>
       </c>
       <c r="K16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M16" t="s">
         <v>50</v>
@@ -5343,40 +5343,40 @@
         <v>51</v>
       </c>
       <c r="O16" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P16" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="Q16" t="s">
+        <v>326</v>
+      </c>
+      <c r="R16" t="s">
+        <v>327</v>
+      </c>
+      <c r="S16" t="s">
+        <v>46</v>
+      </c>
+      <c r="T16" t="s">
+        <v>328</v>
+      </c>
+      <c r="U16" t="s">
+        <v>46</v>
+      </c>
+      <c r="V16" t="s">
         <v>332</v>
       </c>
-      <c r="R16" t="s">
-        <v>333</v>
-      </c>
-      <c r="S16" t="s">
-        <v>46</v>
-      </c>
-      <c r="T16" t="s">
-        <v>334</v>
-      </c>
-      <c r="U16" t="s">
-        <v>46</v>
-      </c>
-      <c r="V16" t="s">
-        <v>338</v>
-      </c>
       <c r="W16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X16" t="s">
         <v>58</v>
       </c>
       <c r="Y16" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="Z16" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="AA16" t="s">
         <v>75</v>
@@ -5403,7 +5403,7 @@
         <v>6.4</v>
       </c>
       <c r="AI16" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AJ16" s="1">
         <v>38927</v>
@@ -5412,13 +5412,13 @@
         <v>65</v>
       </c>
       <c r="AL16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AM16" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AN16" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="AO16" t="s">
         <v>62</v>
@@ -5427,16 +5427,16 @@
         <v>62</v>
       </c>
       <c r="AQ16" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="AR16" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="AS16" t="s">
         <v>60</v>
       </c>
       <c r="AT16" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="AU16" t="s">
         <v>62</v>
@@ -5445,10 +5445,10 @@
         <v>62</v>
       </c>
       <c r="AW16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AX16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AY16">
         <v>0</v>
@@ -5457,10 +5457,10 @@
         <v>1</v>
       </c>
       <c r="BA16" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="BB16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="BC16" s="2">
         <v>22000000</v>
@@ -5469,21 +5469,21 @@
         <v>68600000</v>
       </c>
       <c r="BE16" s="3" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="BF16" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="BG16" s="3" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17">
@@ -5493,7 +5493,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -5502,16 +5502,16 @@
         <v>46</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="J17">
         <v>101</v>
       </c>
       <c r="K17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M17" t="s">
         <v>50</v>
@@ -5520,40 +5520,40 @@
         <v>51</v>
       </c>
       <c r="O17" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="P17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q17" t="s">
+        <v>342</v>
+      </c>
+      <c r="R17" t="s">
+        <v>343</v>
+      </c>
+      <c r="S17" t="s">
+        <v>46</v>
+      </c>
+      <c r="T17" t="s">
+        <v>344</v>
+      </c>
+      <c r="U17" t="s">
+        <v>46</v>
+      </c>
+      <c r="V17" t="s">
         <v>348</v>
       </c>
-      <c r="R17" t="s">
-        <v>349</v>
-      </c>
-      <c r="S17" t="s">
-        <v>46</v>
-      </c>
-      <c r="T17" t="s">
-        <v>350</v>
-      </c>
-      <c r="U17" t="s">
-        <v>46</v>
-      </c>
-      <c r="V17" t="s">
-        <v>354</v>
-      </c>
       <c r="W17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X17" t="s">
         <v>58</v>
       </c>
       <c r="Y17" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="Z17" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="AA17" t="s">
         <v>46</v>
@@ -5580,7 +5580,7 @@
         <v>7.7</v>
       </c>
       <c r="AI17" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="AJ17" s="1">
         <v>39648</v>
@@ -5589,31 +5589,31 @@
         <v>65</v>
       </c>
       <c r="AL17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AM17" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="AN17" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="AO17" t="s">
         <v>69</v>
       </c>
       <c r="AP17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AQ17" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="AR17" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="AS17" t="s">
         <v>60</v>
       </c>
       <c r="AT17" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="AU17" t="s">
         <v>69</v>
@@ -5622,10 +5622,10 @@
         <v>69</v>
       </c>
       <c r="AW17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AX17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AY17">
         <v>2</v>
@@ -5634,10 +5634,10 @@
         <v>1</v>
       </c>
       <c r="BA17" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="BB17" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="BC17" s="2">
         <v>34000000</v>
@@ -5646,49 +5646,49 @@
         <v>205162666</v>
       </c>
       <c r="BE17" s="3" t="s">
-        <v>77</v>
+        <v>589</v>
       </c>
       <c r="BF17" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="BG17" s="3" t="s">
-        <v>360</v>
+        <v>584</v>
       </c>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18">
         <v>2010</v>
       </c>
       <c r="E18" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G18" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="H18" t="s">
         <v>46</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="J18">
         <v>94</v>
       </c>
       <c r="K18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M18" t="s">
         <v>50</v>
@@ -5697,40 +5697,40 @@
         <v>51</v>
       </c>
       <c r="O18" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="P18" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="Q18" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="R18" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="S18" t="s">
         <v>46</v>
       </c>
       <c r="T18" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="U18" t="s">
         <v>46</v>
       </c>
       <c r="V18" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="W18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X18" t="s">
         <v>58</v>
       </c>
       <c r="Y18" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="Z18" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="AA18" t="s">
         <v>75</v>
@@ -5757,7 +5757,7 @@
         <v>7.6</v>
       </c>
       <c r="AI18" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="AJ18" s="1">
         <v>40376</v>
@@ -5766,13 +5766,13 @@
         <v>65</v>
       </c>
       <c r="AL18" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="AM18" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="AN18" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="AO18" t="s">
         <v>62</v>
@@ -5781,16 +5781,16 @@
         <v>69</v>
       </c>
       <c r="AQ18" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="AR18" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="AS18" t="s">
         <v>63</v>
       </c>
       <c r="AT18" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="AU18" t="s">
         <v>69</v>
@@ -5799,10 +5799,10 @@
         <v>69</v>
       </c>
       <c r="AW18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AX18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AY18">
         <v>1</v>
@@ -5811,10 +5811,10 @@
         <v>1</v>
       </c>
       <c r="BA18" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="BB18" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="BC18" s="2">
         <v>23000000</v>
@@ -5823,46 +5823,46 @@
         <v>151496097</v>
       </c>
       <c r="BE18" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="BF18" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="BG18" s="3" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19">
         <v>2011</v>
       </c>
       <c r="E19" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="F19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G19" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="H19" t="s">
         <v>46</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="J19">
         <v>91</v>
       </c>
       <c r="K19" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="L19" t="s">
         <v>49</v>
@@ -5874,16 +5874,16 @@
         <v>51</v>
       </c>
       <c r="O19" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="P19" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="Q19" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="R19" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="S19" t="s">
         <v>75</v>
@@ -5892,16 +5892,16 @@
         <v>75</v>
       </c>
       <c r="W19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X19" t="s">
         <v>58</v>
       </c>
       <c r="Y19" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="Z19" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="AA19" t="s">
         <v>75</v>
@@ -5928,7 +5928,7 @@
         <v>7.3</v>
       </c>
       <c r="AI19" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="AJ19" s="1">
         <v>40740</v>
@@ -5937,13 +5937,13 @@
         <v>65</v>
       </c>
       <c r="AL19" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AM19" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="AN19" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="AO19" t="s">
         <v>62</v>
@@ -5952,16 +5952,16 @@
         <v>69</v>
       </c>
       <c r="AQ19" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="AR19" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="AS19" t="s">
         <v>63</v>
       </c>
       <c r="AT19" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="AU19" t="s">
         <v>62</v>
@@ -5970,10 +5970,10 @@
         <v>62</v>
       </c>
       <c r="AW19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AX19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AY19">
         <v>1</v>
@@ -5982,10 +5982,10 @@
         <v>0</v>
       </c>
       <c r="BA19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="BB19" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="BC19" s="2">
         <v>22000000</v>
@@ -5994,21 +5994,21 @@
         <v>61000000</v>
       </c>
       <c r="BE19" s="3" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="BF19" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="BG19" s="3" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20">
@@ -6018,7 +6018,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -6027,16 +6027,16 @@
         <v>46</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="J20">
         <v>126</v>
       </c>
       <c r="K20" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="L20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M20" t="s">
         <v>50</v>
@@ -6045,37 +6045,37 @@
         <v>51</v>
       </c>
       <c r="O20" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="P20" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="Q20" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="R20" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="S20" t="s">
         <v>46</v>
       </c>
       <c r="T20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="U20" t="s">
         <v>75</v>
       </c>
       <c r="W20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X20" t="s">
         <v>58</v>
       </c>
       <c r="Y20" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="Z20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AA20" t="s">
         <v>75</v>
@@ -6102,7 +6102,7 @@
         <v>7.8</v>
       </c>
       <c r="AI20" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="AJ20" s="1">
         <v>41475</v>
@@ -6111,13 +6111,13 @@
         <v>65</v>
       </c>
       <c r="AL20" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="AM20" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="AN20" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="AO20" t="s">
         <v>62</v>
@@ -6126,16 +6126,16 @@
         <v>62</v>
       </c>
       <c r="AQ20" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="AR20" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="AS20" t="s">
         <v>63</v>
       </c>
       <c r="AT20" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="AU20" t="s">
         <v>69</v>
@@ -6144,10 +6144,10 @@
         <v>69</v>
       </c>
       <c r="AW20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AX20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AY20">
         <v>1</v>
@@ -6156,10 +6156,10 @@
         <v>2</v>
       </c>
       <c r="BA20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="BB20" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="BC20" s="2">
         <v>30000000</v>
@@ -6168,31 +6168,31 @@
         <v>137000000</v>
       </c>
       <c r="BE20" s="3" t="s">
-        <v>77</v>
+        <v>589</v>
       </c>
       <c r="BF20" t="s">
-        <v>413</v>
+        <v>587</v>
       </c>
       <c r="BG20" s="3" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21">
         <v>2013</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -6201,13 +6201,13 @@
         <v>46</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="J21">
         <v>137</v>
       </c>
       <c r="K21" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="L21" t="s">
         <v>49</v>
@@ -6219,37 +6219,37 @@
         <v>51</v>
       </c>
       <c r="O21" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="P21" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="Q21" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="R21" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="S21" t="s">
         <v>46</v>
       </c>
       <c r="T21" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="U21" t="s">
         <v>75</v>
       </c>
       <c r="W21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X21" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="Y21" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="Z21" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="AA21" t="s">
         <v>75</v>
@@ -6261,7 +6261,7 @@
         <v>69</v>
       </c>
       <c r="AD21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AE21" t="s">
         <v>75</v>
@@ -6276,7 +6276,7 @@
         <v>8</v>
       </c>
       <c r="AI21" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="AJ21" s="1">
         <v>41601</v>
@@ -6285,31 +6285,31 @@
         <v>65</v>
       </c>
       <c r="AL21" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="AM21" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="AN21" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="AO21" t="s">
         <v>69</v>
       </c>
       <c r="AP21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AQ21" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="AR21" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="AS21" t="s">
         <v>63</v>
       </c>
       <c r="AT21" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="AU21" t="s">
         <v>69</v>
@@ -6318,10 +6318,10 @@
         <v>69</v>
       </c>
       <c r="AW21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AX21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AY21">
         <v>2</v>
@@ -6330,10 +6330,10 @@
         <v>1</v>
       </c>
       <c r="BA21" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="BB21" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="BC21" s="2">
         <v>49300000</v>
@@ -6342,46 +6342,46 @@
         <v>24700000</v>
       </c>
       <c r="BE21" s="3" t="s">
-        <v>144</v>
+        <v>590</v>
       </c>
       <c r="BF21" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="BG21" s="3" t="s">
-        <v>433</v>
+        <v>585</v>
       </c>
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22">
         <v>2014</v>
       </c>
       <c r="E22" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F22" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G22" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="H22" t="s">
         <v>46</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="J22">
         <v>103</v>
       </c>
       <c r="K22" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="L22" t="s">
         <v>49</v>
@@ -6393,40 +6393,40 @@
         <v>51</v>
       </c>
       <c r="O22" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="P22" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="Q22" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="R22" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="S22" t="s">
         <v>46</v>
       </c>
       <c r="T22" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="U22" t="s">
         <v>46</v>
       </c>
       <c r="V22" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="W22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X22" t="s">
         <v>58</v>
       </c>
       <c r="Y22" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="Z22" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="AA22" t="s">
         <v>75</v>
@@ -6453,7 +6453,7 @@
         <v>7.5</v>
       </c>
       <c r="AI22" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="AJ22" s="1">
         <v>41839</v>
@@ -6462,13 +6462,13 @@
         <v>65</v>
       </c>
       <c r="AL22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AM22" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="AN22" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="AO22" t="s">
         <v>62</v>
@@ -6477,16 +6477,16 @@
         <v>69</v>
       </c>
       <c r="AQ22" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="AR22" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="AS22" t="s">
         <v>60</v>
       </c>
       <c r="AT22" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="AU22" t="s">
         <v>62</v>
@@ -6495,10 +6495,10 @@
         <v>62</v>
       </c>
       <c r="AW22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AX22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AY22">
         <v>0</v>
@@ -6507,10 +6507,10 @@
         <v>2</v>
       </c>
       <c r="BA22" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="BB22" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="BC22" s="2">
         <v>10500000</v>
@@ -6519,91 +6519,91 @@
         <v>41000000</v>
       </c>
       <c r="BE22" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="BF22" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="BG22" s="3" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23">
         <v>2016</v>
       </c>
       <c r="E23" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="F23" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G23" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="H23" t="s">
         <v>46</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="J23">
         <v>80</v>
       </c>
       <c r="K23" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="L23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M23" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="N23" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="O23" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="P23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q23" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="R23" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="S23" t="s">
         <v>46</v>
       </c>
       <c r="T23" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="U23" t="s">
         <v>46</v>
       </c>
       <c r="V23" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="W23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X23" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="Y23" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="Z23" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="AA23" t="s">
         <v>46</v>
@@ -6630,22 +6630,22 @@
         <v>7.5</v>
       </c>
       <c r="AI23" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="AJ23" s="1">
         <v>42630</v>
       </c>
       <c r="AK23" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="AL23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AM23" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AN23" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="AO23" t="s">
         <v>62</v>
@@ -6654,16 +6654,16 @@
         <v>62</v>
       </c>
       <c r="AQ23" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="AR23" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="AS23" t="s">
         <v>63</v>
       </c>
       <c r="AT23" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="AU23" t="s">
         <v>62</v>
@@ -6672,10 +6672,10 @@
         <v>69</v>
       </c>
       <c r="AW23" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="AX23" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="AY23">
         <v>8</v>
@@ -6684,10 +6684,10 @@
         <v>8</v>
       </c>
       <c r="BA23" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="BB23" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="BC23" s="2">
         <v>12500000</v>
@@ -6696,46 +6696,46 @@
         <v>5000000</v>
       </c>
       <c r="BE23" s="3" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="BF23" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="BG23" s="3" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24">
         <v>2020</v>
       </c>
       <c r="E24" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="F24" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="G24" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="H24" t="s">
         <v>46</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="J24">
         <v>82</v>
       </c>
       <c r="K24" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="L24" t="s">
         <v>49</v>
@@ -6744,43 +6744,43 @@
         <v>50</v>
       </c>
       <c r="N24" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="O24" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="P24" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="Q24" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="R24" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="S24" t="s">
         <v>46</v>
       </c>
       <c r="T24" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="U24" t="s">
         <v>46</v>
       </c>
       <c r="V24" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="W24" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="X24" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>552</v>
+      </c>
+      <c r="Z24" t="s">
         <v>528</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>565</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>541</v>
       </c>
       <c r="AA24" t="s">
         <v>75</v>
@@ -6807,40 +6807,40 @@
         <v>6</v>
       </c>
       <c r="AI24" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="AJ24" s="1">
         <v>44133</v>
       </c>
       <c r="AK24" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="AL24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AM24" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="AN24" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="AO24" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="AP24" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="AQ24" t="s">
-        <v>492</v>
+        <v>580</v>
       </c>
       <c r="AR24" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="AS24" t="s">
         <v>60</v>
       </c>
       <c r="AT24" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="AU24" t="s">
         <v>62</v>
@@ -6849,10 +6849,10 @@
         <v>62</v>
       </c>
       <c r="AW24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AX24" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="AY24">
         <v>0</v>
@@ -6861,10 +6861,10 @@
         <v>1</v>
       </c>
       <c r="BA24" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="BB24" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="BC24" s="2">
         <v>10000000</v>
@@ -6873,21 +6873,21 @@
         <v>842744</v>
       </c>
       <c r="BE24" s="3" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="BF24" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="BG24" s="3" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25">
@@ -6897,7 +6897,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -6906,16 +6906,16 @@
         <v>46</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="J25">
         <v>125</v>
       </c>
       <c r="K25" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="L25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M25" t="s">
         <v>50</v>
@@ -6924,40 +6924,40 @@
         <v>51</v>
       </c>
       <c r="O25" t="s">
+        <v>490</v>
+      </c>
+      <c r="P25" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>491</v>
+      </c>
+      <c r="R25" t="s">
         <v>500</v>
       </c>
-      <c r="P25" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>501</v>
-      </c>
-      <c r="R25" t="s">
-        <v>513</v>
-      </c>
       <c r="S25" t="s">
         <v>46</v>
       </c>
       <c r="T25" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="U25" t="s">
         <v>46</v>
       </c>
       <c r="V25" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="W25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X25" t="s">
         <v>58</v>
       </c>
       <c r="Y25" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="Z25" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="AA25" t="s">
         <v>75</v>
@@ -6984,7 +6984,7 @@
         <v>8</v>
       </c>
       <c r="AI25" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="AJ25" s="1">
         <v>45121</v>
@@ -6993,13 +6993,13 @@
         <v>65</v>
       </c>
       <c r="AL25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AM25" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="AN25" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="AO25" t="s">
         <v>62</v>
@@ -7008,16 +7008,16 @@
         <v>69</v>
       </c>
       <c r="AQ25" t="s">
-        <v>506</v>
+        <v>581</v>
       </c>
       <c r="AR25" t="s">
-        <v>507</v>
+        <v>281</v>
       </c>
       <c r="AS25" t="s">
         <v>60</v>
       </c>
       <c r="AT25" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="AU25" t="s">
         <v>69</v>
@@ -7026,10 +7026,10 @@
         <v>69</v>
       </c>
       <c r="AW25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AX25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AY25">
         <v>10</v>
@@ -7038,10 +7038,10 @@
         <v>7</v>
       </c>
       <c r="BA25" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="BB25" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="BC25" s="2">
         <v>53000000</v>
@@ -7050,112 +7050,113 @@
         <v>292922563</v>
       </c>
       <c r="BE25" s="3" t="s">
-        <v>77</v>
+        <v>589</v>
       </c>
       <c r="BF25" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="BG25" s="3" t="s">
-        <v>510</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="BE2" r:id="rId1"/>
-    <hyperlink ref="BE3" r:id="rId2"/>
-    <hyperlink ref="BE4" r:id="rId3"/>
-    <hyperlink ref="BE5" r:id="rId4"/>
-    <hyperlink ref="BE6" r:id="rId5"/>
-    <hyperlink ref="BE7" r:id="rId6"/>
-    <hyperlink ref="BE8" r:id="rId7"/>
-    <hyperlink ref="BE9" r:id="rId8"/>
-    <hyperlink ref="BE10" r:id="rId9"/>
-    <hyperlink ref="BE11" r:id="rId10"/>
-    <hyperlink ref="BE12" r:id="rId11"/>
-    <hyperlink ref="BE13" r:id="rId12"/>
-    <hyperlink ref="BE14" r:id="rId13"/>
-    <hyperlink ref="BE15" r:id="rId14"/>
-    <hyperlink ref="BE16" r:id="rId15"/>
-    <hyperlink ref="BE17" r:id="rId16"/>
-    <hyperlink ref="BE18" r:id="rId17"/>
-    <hyperlink ref="BE19" r:id="rId18"/>
-    <hyperlink ref="BE20" r:id="rId19"/>
-    <hyperlink ref="BE21" r:id="rId20"/>
-    <hyperlink ref="BE22" r:id="rId21"/>
-    <hyperlink ref="BE23" r:id="rId22"/>
-    <hyperlink ref="BE24" r:id="rId23"/>
-    <hyperlink ref="BE25" r:id="rId24"/>
-    <hyperlink ref="BG2" r:id="rId25"/>
-    <hyperlink ref="BG3" r:id="rId26"/>
-    <hyperlink ref="BG4" r:id="rId27"/>
-    <hyperlink ref="BG5" r:id="rId28"/>
-    <hyperlink ref="BG6" r:id="rId29"/>
-    <hyperlink ref="BG7" r:id="rId30"/>
-    <hyperlink ref="BG8" r:id="rId31"/>
-    <hyperlink ref="BG9" r:id="rId32"/>
-    <hyperlink ref="BG10" r:id="rId33"/>
-    <hyperlink ref="BG11" r:id="rId34"/>
-    <hyperlink ref="BG12" r:id="rId35"/>
-    <hyperlink ref="BG13" r:id="rId36"/>
-    <hyperlink ref="BG14" r:id="rId37"/>
-    <hyperlink ref="BG15" r:id="rId38"/>
-    <hyperlink ref="BG16" r:id="rId39"/>
-    <hyperlink ref="BG17" r:id="rId40"/>
-    <hyperlink ref="BG18" r:id="rId41"/>
-    <hyperlink ref="BG19" r:id="rId42"/>
-    <hyperlink ref="BG20" r:id="rId43"/>
-    <hyperlink ref="BG21" r:id="rId44"/>
-    <hyperlink ref="BG22" r:id="rId45"/>
-    <hyperlink ref="BG23" r:id="rId46"/>
-    <hyperlink ref="BG24" r:id="rId47"/>
-    <hyperlink ref="BG25" r:id="rId48"/>
-    <hyperlink ref="I2" r:id="rId49"/>
-    <hyperlink ref="I3" r:id="rId50"/>
-    <hyperlink ref="I4" r:id="rId51"/>
-    <hyperlink ref="I6" r:id="rId52"/>
-    <hyperlink ref="I7" r:id="rId53"/>
-    <hyperlink ref="I8" r:id="rId54"/>
-    <hyperlink ref="I9" r:id="rId55"/>
-    <hyperlink ref="I10" r:id="rId56"/>
-    <hyperlink ref="I11" r:id="rId57"/>
-    <hyperlink ref="I12" r:id="rId58"/>
-    <hyperlink ref="I13" r:id="rId59"/>
-    <hyperlink ref="I14" r:id="rId60"/>
-    <hyperlink ref="I15" r:id="rId61"/>
-    <hyperlink ref="I17" r:id="rId62"/>
-    <hyperlink ref="I18" r:id="rId63"/>
-    <hyperlink ref="I19" r:id="rId64"/>
-    <hyperlink ref="I20" r:id="rId65"/>
-    <hyperlink ref="I21" r:id="rId66"/>
-    <hyperlink ref="I22" r:id="rId67"/>
-    <hyperlink ref="I23" r:id="rId68"/>
-    <hyperlink ref="I24" r:id="rId69"/>
-    <hyperlink ref="I25" r:id="rId70"/>
-    <hyperlink ref="B2" r:id="rId71"/>
-    <hyperlink ref="B3" r:id="rId72"/>
-    <hyperlink ref="B4" r:id="rId73"/>
-    <hyperlink ref="B5" r:id="rId74"/>
-    <hyperlink ref="B6" r:id="rId75"/>
-    <hyperlink ref="B7" r:id="rId76"/>
-    <hyperlink ref="B8" r:id="rId77"/>
-    <hyperlink ref="B9" r:id="rId78"/>
-    <hyperlink ref="B10" r:id="rId79"/>
-    <hyperlink ref="B11" r:id="rId80"/>
-    <hyperlink ref="B12" r:id="rId81"/>
-    <hyperlink ref="B13" r:id="rId82"/>
-    <hyperlink ref="B14" r:id="rId83"/>
-    <hyperlink ref="B15" r:id="rId84"/>
-    <hyperlink ref="B16" r:id="rId85"/>
-    <hyperlink ref="B17" r:id="rId86"/>
-    <hyperlink ref="B18" r:id="rId87"/>
-    <hyperlink ref="B19" r:id="rId88"/>
-    <hyperlink ref="B20" r:id="rId89"/>
-    <hyperlink ref="B21" r:id="rId90"/>
-    <hyperlink ref="B22" r:id="rId91"/>
-    <hyperlink ref="B23" r:id="rId92"/>
-    <hyperlink ref="B24" r:id="rId93"/>
-    <hyperlink ref="B25" r:id="rId94"/>
+    <hyperlink ref="BE2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="BE3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="BE4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="BE5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="BE7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="BE9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="BE10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="BE12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="BE14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="BE16" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="BE18" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="BE19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="BE21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="BE22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="BE23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="BE24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="BG2" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="BG3" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="BG4" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="BG5" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="BG6" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="BG7" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="BG8" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="BG9" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="BG10" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="BG11" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="BG12" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="BG13" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="BG14" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="BG15" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="BG16" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="BG17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="BG18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="BG19" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="BG20" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="BG21" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="BG22" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="BG23" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="BG24" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="BG25" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="I2" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="I3" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="I4" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="I6" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="I7" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="I8" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="I9" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="I10" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="I11" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="I12" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="I13" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="I14" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="I15" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="I17" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="I18" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="I19" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="I20" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="I21" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="I22" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="I23" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="I24" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="I25" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B2" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B3" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B4" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B5" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B6" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B7" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B8" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B9" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B10" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B11" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B12" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B13" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B14" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B15" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B16" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B17" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B18" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B19" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B20" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B21" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B22" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B23" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B24" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B25" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="BE6" r:id="rId87" xr:uid="{64DE7227-123C-491C-A835-E3A20DE892D4}"/>
+    <hyperlink ref="BE8" r:id="rId88" xr:uid="{9C22ABE8-015B-4144-BCE7-88D16AC033B2}"/>
+    <hyperlink ref="BE11" r:id="rId89" xr:uid="{072023A8-B72B-40AE-99E9-B882890238F9}"/>
+    <hyperlink ref="BE13" r:id="rId90" xr:uid="{14802B2D-9A46-4243-B48A-F842C84DA4B2}"/>
+    <hyperlink ref="BE15" r:id="rId91" xr:uid="{ADB63E64-3B4A-4C6E-99C3-9A4CBC9BE5B2}"/>
+    <hyperlink ref="BE17" r:id="rId92" xr:uid="{DBA111A7-126B-4836-811B-3C7C13A60BCE}"/>
+    <hyperlink ref="BE20" r:id="rId93" xr:uid="{7CFDBAF1-D261-404A-8763-EC76E3E59F2D}"/>
+    <hyperlink ref="BE25" r:id="rId94" xr:uid="{D3B045E0-303F-43A1-8868-AFD121CAF39C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId95"/>
 </worksheet>
 </file>
--- a/Ghibli-tabla.xlsx
+++ b/Ghibli-tabla.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Página web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC6E3FA-41B6-4715-B312-807262548208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62306369-3DCC-4106-973E-705CEC2353D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="16104" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ghibli-tabla" sheetId="1" r:id="rId1"/>
@@ -2296,11 +2296,12 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2660,7 +2661,7 @@
   <dimension ref="A1:BG25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
-      <selection activeCell="BE12" sqref="BE12"/>
+      <selection activeCell="BE13" sqref="BE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4940,7 +4941,7 @@
       <c r="BD13" s="2">
         <v>395800000</v>
       </c>
-      <c r="BE13" s="3" t="s">
+      <c r="BE13" s="4" t="s">
         <v>589</v>
       </c>
       <c r="BF13" t="s">

--- a/Ghibli-tabla.xlsx
+++ b/Ghibli-tabla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Página web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62306369-3DCC-4106-973E-705CEC2353D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF81286-00CD-448D-853A-4D2E9A4538B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="588">
   <si>
     <t>Título</t>
   </si>
@@ -237,9 +237,6 @@
     <t>Alta</t>
   </si>
   <si>
-    <t>Insectos gigantes</t>
-  </si>
-  <si>
     <t>Planeador</t>
   </si>
   <si>
@@ -441,15 +438,9 @@
     <t>Conciencia sobre la guerra</t>
   </si>
   <si>
-    <t>Ninguno relevante</t>
-  </si>
-  <si>
     <t>Trenes</t>
   </si>
   <si>
-    <t>Alta carga histórica</t>
-  </si>
-  <si>
     <t>Blue Ribbon Award, Chicago Children's Film Fest Aaward</t>
   </si>
   <si>
@@ -552,15 +543,9 @@
     <t>Autoexploración adulta</t>
   </si>
   <si>
-    <t>Animales ocasionales</t>
-  </si>
-  <si>
     <t>Trenes, Autobuses</t>
   </si>
   <si>
-    <t>Alto valor cultural</t>
-  </si>
-  <si>
     <t>Manichi Film Award</t>
   </si>
   <si>
@@ -606,12 +591,6 @@
     <t>Aves, Perros</t>
   </si>
   <si>
-    <t>Avión biplano</t>
-  </si>
-  <si>
-    <t>Clásico de aviación</t>
-  </si>
-  <si>
     <t>Japan Academy Prize</t>
   </si>
   <si>
@@ -663,9 +642,6 @@
     <t>Transformaciones</t>
   </si>
   <si>
-    <t>Valor etnográfico</t>
-  </si>
-  <si>
     <t>Japan Academy Prize, Japan Media Arts Festival Excellence Award</t>
   </si>
   <si>
@@ -717,12 +693,6 @@
     <t>Perseguir tus sueños creativos</t>
   </si>
   <si>
-    <t>Tren, Metro</t>
-  </si>
-  <si>
-    <t>Alta influencia en público joven</t>
-  </si>
-  <si>
     <t>La estatua del seigneur del gato</t>
   </si>
   <si>
@@ -759,15 +729,6 @@
     <t>Equilibrio entre humanos y naturaleza</t>
   </si>
   <si>
-    <t>Criaturas del bosque</t>
-  </si>
-  <si>
-    <t>Caballos, Bestias</t>
-  </si>
-  <si>
-    <t>Alta trascendencia ecológica</t>
-  </si>
-  <si>
     <t xml:space="preserve">Berlín </t>
   </si>
   <si>
@@ -822,12 +783,6 @@
     <t>Animales domésticos</t>
   </si>
   <si>
-    <t>Coche, trenes</t>
-  </si>
-  <si>
-    <t>Estudio experimenta con estilos</t>
-  </si>
-  <si>
     <t>Japan Media Arts Festival Award</t>
   </si>
   <si>
@@ -867,15 +822,6 @@
     <t>Crecimiento personal y coraje</t>
   </si>
   <si>
-    <t>Espíritus animales</t>
-  </si>
-  <si>
-    <t>Tren, Barca</t>
-  </si>
-  <si>
-    <t>Obra maestra moderna</t>
-  </si>
-  <si>
     <t>La llegada al baño de espíritus</t>
   </si>
   <si>
@@ -921,9 +867,6 @@
     <t>Autoaceptación</t>
   </si>
   <si>
-    <t>Tren, Portal felino</t>
-  </si>
-  <si>
     <t>Divertida para públicos jóvenes</t>
   </si>
   <si>
@@ -972,9 +915,6 @@
     <t>Calcifer</t>
   </si>
   <si>
-    <t>Castillo ambulante</t>
-  </si>
-  <si>
     <t>Alta en diseño visual</t>
   </si>
   <si>
@@ -1026,9 +966,6 @@
     <t>Dragones</t>
   </si>
   <si>
-    <t>Barca, Velero</t>
-  </si>
-  <si>
     <t>Controversial en la filmografía Ghibli</t>
   </si>
   <si>
@@ -1077,9 +1014,6 @@
     <t>Barco, Mar</t>
   </si>
   <si>
-    <t>Película familiar icónica</t>
-  </si>
-  <si>
     <t>Japan Academy Prize, Tokyo Anime Award</t>
   </si>
   <si>
@@ -1131,12 +1065,6 @@
     <t>Ratones, insectos</t>
   </si>
   <si>
-    <t>Casa, miniaturas</t>
-  </si>
-  <si>
-    <t>Buena adaptación occidental</t>
-  </si>
-  <si>
     <t>Festivales europeos</t>
   </si>
   <si>
@@ -1185,15 +1113,9 @@
     <t>Valor de la memoria colectiva</t>
   </si>
   <si>
-    <t>Gatos ocasionales</t>
-  </si>
-  <si>
     <t>Barco, Tren</t>
   </si>
   <si>
-    <t>Valor histórico y social</t>
-  </si>
-  <si>
     <t>Manifestación estudiantil</t>
   </si>
   <si>
@@ -1233,12 +1155,6 @@
     <t>Complejidad moral del progreso</t>
   </si>
   <si>
-    <t>Aves, Aviones</t>
-  </si>
-  <si>
-    <t>Avión</t>
-  </si>
-  <si>
     <t>Importante en la filmografía de Miyazaki</t>
   </si>
   <si>
@@ -1287,15 +1203,9 @@
     <t>Fugacidad de la vida y el deseo</t>
   </si>
   <si>
-    <t>Ciervos, aves simbólicas</t>
-  </si>
-  <si>
     <t>Barca, Carrozas</t>
   </si>
   <si>
-    <t>Obra maestra visual</t>
-  </si>
-  <si>
     <t>Japan Academy Prize, Sitges Award</t>
   </si>
   <si>
@@ -1344,9 +1254,6 @@
     <t>Barco</t>
   </si>
   <si>
-    <t>Valor emocional</t>
-  </si>
-  <si>
     <t>Óscar, Annie Awards</t>
   </si>
   <si>
@@ -1407,9 +1314,6 @@
     <t>Barca, Mar</t>
   </si>
   <si>
-    <t>Alta colaboración internacional</t>
-  </si>
-  <si>
     <t>Studio Ghibli co-prod</t>
   </si>
   <si>
@@ -1473,12 +1377,6 @@
     <t>Alta (protagonista femenina)</t>
   </si>
   <si>
-    <t>Alta (orientada a jóvenes)</t>
-  </si>
-  <si>
-    <t>Tren, charla mágica</t>
-  </si>
-  <si>
     <t>Curiosa por su estilo distinto</t>
   </si>
   <si>
@@ -1515,9 +1413,6 @@
     <t>Transformación a través del duelo</t>
   </si>
   <si>
-    <t>Alta expectación cultural</t>
-  </si>
-  <si>
     <t>Encuentro con la garza</t>
   </si>
   <si>
@@ -1770,9 +1665,6 @@
     <t>Gatos</t>
   </si>
   <si>
-    <t>Garzas</t>
-  </si>
-  <si>
     <t>Ninguna</t>
   </si>
   <si>
@@ -1804,6 +1696,99 @@
   </si>
   <si>
     <t>https://cdn.myanimelist.net/images/voiceactors/1/35839.jpg</t>
+  </si>
+  <si>
+    <t>Aviones</t>
+  </si>
+  <si>
+    <t>Caballos</t>
+  </si>
+  <si>
+    <t>Auto, trenes</t>
+  </si>
+  <si>
+    <t>Trenes, Barca</t>
+  </si>
+  <si>
+    <t>Trenes, Portal</t>
+  </si>
+  <si>
+    <t>Castillo</t>
+  </si>
+  <si>
+    <t>Barca</t>
+  </si>
+  <si>
+    <t>Casa</t>
+  </si>
+  <si>
+    <t>Insectos</t>
+  </si>
+  <si>
+    <t>Ninguno</t>
+  </si>
+  <si>
+    <t>Criaturas</t>
+  </si>
+  <si>
+    <t>Calcifer, perro</t>
+  </si>
+  <si>
+    <t>Ponyo, peces</t>
+  </si>
+  <si>
+    <t>Aves</t>
+  </si>
+  <si>
+    <t>Ciervos, aves</t>
+  </si>
+  <si>
+    <t>Garzas, aves</t>
+  </si>
+  <si>
+    <t>De alta carga histórica</t>
+  </si>
+  <si>
+    <t>De alto valor cultural</t>
+  </si>
+  <si>
+    <t>Un clásico acerca aviación</t>
+  </si>
+  <si>
+    <t>De gran valor etnográfico</t>
+  </si>
+  <si>
+    <t>De alta influencia en público joven</t>
+  </si>
+  <si>
+    <t>De alta trascendencia ecológica</t>
+  </si>
+  <si>
+    <t>De un estilo experimental</t>
+  </si>
+  <si>
+    <t>Una obra maestra moderna</t>
+  </si>
+  <si>
+    <t>Una película familiar icónica</t>
+  </si>
+  <si>
+    <t>Una buena adaptación occidental</t>
+  </si>
+  <si>
+    <t>De valor histórico y social</t>
+  </si>
+  <si>
+    <t>Una obra maestra visual</t>
+  </si>
+  <si>
+    <t>De gran valor emocional</t>
+  </si>
+  <si>
+    <t>De una alta colaboración internacional</t>
+  </si>
+  <si>
+    <t>De alta expectación cultural</t>
   </si>
 </sst>
 </file>
@@ -2660,8 +2645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
-      <selection activeCell="BE13" sqref="BE13"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AT18" sqref="AT18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2677,7 +2662,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>567</v>
+        <v>532</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -2716,58 +2701,58 @@
         <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>504</v>
+        <v>469</v>
       </c>
       <c r="Q1" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
       <c r="R1" t="s">
         <v>14</v>
       </c>
       <c r="S1" t="s">
-        <v>499</v>
+        <v>464</v>
       </c>
       <c r="T1" t="s">
         <v>15</v>
       </c>
       <c r="U1" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
       <c r="V1" t="s">
+        <v>466</v>
+      </c>
+      <c r="W1" t="s">
+        <v>467</v>
+      </c>
+      <c r="X1" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>483</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>495</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>496</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>497</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>498</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>500</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>499</v>
+      </c>
+      <c r="AG1" t="s">
         <v>501</v>
-      </c>
-      <c r="W1" t="s">
-        <v>502</v>
-      </c>
-      <c r="X1" t="s">
-        <v>516</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>517</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>518</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>530</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>531</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>532</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>533</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>535</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>534</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>536</v>
       </c>
       <c r="AH1" t="s">
         <v>16</v>
@@ -2853,7 +2838,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>555</v>
+        <v>520</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2">
@@ -2914,13 +2899,13 @@
         <v>57</v>
       </c>
       <c r="W2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X2" t="s">
         <v>58</v>
       </c>
       <c r="Y2" t="s">
-        <v>541</v>
+        <v>506</v>
       </c>
       <c r="Z2" t="s">
         <v>59</v>
@@ -2941,7 +2926,7 @@
         <v>46</v>
       </c>
       <c r="AF2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG2" t="s">
         <v>46</v>
@@ -2974,28 +2959,28 @@
         <v>62</v>
       </c>
       <c r="AQ2" t="s">
+        <v>565</v>
+      </c>
+      <c r="AR2" t="s">
         <v>70</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>71</v>
       </c>
       <c r="AS2" t="s">
         <v>60</v>
       </c>
       <c r="AT2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW2" t="s">
         <v>72</v>
       </c>
-      <c r="AU2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW2" t="s">
+      <c r="AX2" t="s">
         <v>73</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>74</v>
       </c>
       <c r="AY2">
         <v>1</v>
@@ -3004,10 +2989,10 @@
         <v>0</v>
       </c>
       <c r="BA2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BB2" t="s">
-        <v>582</v>
+        <v>546</v>
       </c>
       <c r="BC2" s="2">
         <v>1000000</v>
@@ -3016,21 +3001,21 @@
         <v>14000000</v>
       </c>
       <c r="BE2" s="3" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="BF2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BG2" s="3" t="s">
-        <v>583</v>
+        <v>547</v>
       </c>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3">
@@ -3040,7 +3025,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -3049,13 +3034,13 @@
         <v>46</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J3">
         <v>124</v>
       </c>
       <c r="K3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L3" t="s">
         <v>49</v>
@@ -3067,40 +3052,40 @@
         <v>51</v>
       </c>
       <c r="O3" t="s">
+        <v>82</v>
+      </c>
+      <c r="P3" t="s">
         <v>83</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>84</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>85</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T3" t="s">
         <v>86</v>
       </c>
-      <c r="S3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" t="s">
         <v>87</v>
       </c>
-      <c r="U3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>88</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>89</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
+        <v>504</v>
+      </c>
+      <c r="Z3" t="s">
         <v>90</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>539</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>91</v>
       </c>
       <c r="AA3" t="s">
         <v>46</v>
@@ -3118,7 +3103,7 @@
         <v>46</v>
       </c>
       <c r="AF3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG3" t="s">
         <v>46</v>
@@ -3127,7 +3112,7 @@
         <v>8</v>
       </c>
       <c r="AI3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ3" s="1">
         <v>31626</v>
@@ -3136,13 +3121,13 @@
         <v>65</v>
       </c>
       <c r="AL3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AM3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN3" t="s">
         <v>93</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>94</v>
       </c>
       <c r="AO3" t="s">
         <v>62</v>
@@ -3151,28 +3136,28 @@
         <v>69</v>
       </c>
       <c r="AQ3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR3" t="s">
         <v>95</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>96</v>
       </c>
       <c r="AS3" t="s">
         <v>60</v>
       </c>
       <c r="AT3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW3" t="s">
         <v>97</v>
       </c>
-      <c r="AU3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>98</v>
-      </c>
       <c r="AX3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AY3">
         <v>8</v>
@@ -3181,10 +3166,10 @@
         <v>0</v>
       </c>
       <c r="BA3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BB3" t="s">
-        <v>582</v>
+        <v>546</v>
       </c>
       <c r="BC3" s="2">
         <v>5000000</v>
@@ -3193,21 +3178,21 @@
         <v>15700000</v>
       </c>
       <c r="BE3" s="3" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="BF3" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG3" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="BG3" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>556</v>
+        <v>521</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4">
@@ -3226,16 +3211,16 @@
         <v>46</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J4">
         <v>86</v>
       </c>
       <c r="K4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" t="s">
         <v>104</v>
-      </c>
-      <c r="L4" t="s">
-        <v>105</v>
       </c>
       <c r="M4" t="s">
         <v>50</v>
@@ -3244,40 +3229,40 @@
         <v>51</v>
       </c>
       <c r="O4" t="s">
+        <v>105</v>
+      </c>
+      <c r="P4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q4" t="s">
         <v>106</v>
       </c>
-      <c r="P4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>107</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" t="s">
         <v>108</v>
       </c>
-      <c r="S4" t="s">
-        <v>46</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V4" t="s">
         <v>109</v>
       </c>
-      <c r="U4" t="s">
-        <v>46</v>
-      </c>
-      <c r="V4" t="s">
-        <v>110</v>
-      </c>
       <c r="W4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X4" t="s">
         <v>58</v>
       </c>
       <c r="Y4" t="s">
-        <v>540</v>
+        <v>505</v>
       </c>
       <c r="Z4" t="s">
-        <v>528</v>
+        <v>493</v>
       </c>
       <c r="AA4" t="s">
         <v>46</v>
@@ -3289,13 +3274,13 @@
         <v>69</v>
       </c>
       <c r="AD4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AE4" t="s">
         <v>46</v>
       </c>
       <c r="AF4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG4" t="s">
         <v>46</v>
@@ -3304,7 +3289,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="AI4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ4" s="1">
         <v>32249</v>
@@ -3313,43 +3298,43 @@
         <v>65</v>
       </c>
       <c r="AL4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM4" t="s">
         <v>113</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
         <v>114</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AO4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>115</v>
       </c>
-      <c r="AO4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ4" t="s">
+      <c r="AR4" t="s">
         <v>116</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>117</v>
       </c>
       <c r="AS4" t="s">
         <v>60</v>
       </c>
       <c r="AT4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU4" t="s">
         <v>118</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AV4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX4" t="s">
         <v>119</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>120</v>
       </c>
       <c r="AY4">
         <v>2</v>
@@ -3358,10 +3343,10 @@
         <v>0</v>
       </c>
       <c r="BA4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BB4" t="s">
-        <v>582</v>
+        <v>546</v>
       </c>
       <c r="BC4" s="2">
         <v>3700000</v>
@@ -3370,46 +3355,46 @@
         <v>41000000</v>
       </c>
       <c r="BE4" s="3" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="BF4" t="s">
+        <v>121</v>
+      </c>
+      <c r="BG4" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="BG4" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>557</v>
+        <v>522</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5">
         <v>1988</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J5">
         <v>89</v>
       </c>
       <c r="K5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L5" t="s">
         <v>126</v>
-      </c>
-      <c r="L5" t="s">
-        <v>127</v>
       </c>
       <c r="M5" t="s">
         <v>50</v>
@@ -3418,40 +3403,40 @@
         <v>51</v>
       </c>
       <c r="O5" t="s">
+        <v>127</v>
+      </c>
+      <c r="P5" t="s">
         <v>128</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>129</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>130</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5" t="s">
         <v>131</v>
       </c>
-      <c r="S5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T5" t="s">
-        <v>132</v>
-      </c>
       <c r="U5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X5" t="s">
         <v>58</v>
       </c>
       <c r="Y5" t="s">
-        <v>573</v>
+        <v>538</v>
       </c>
       <c r="Z5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AA5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB5" t="s">
         <v>46</v>
@@ -3460,22 +3445,22 @@
         <v>69</v>
       </c>
       <c r="AD5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AE5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF5" t="s">
         <v>46</v>
       </c>
       <c r="AG5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH5">
         <v>8.5</v>
       </c>
       <c r="AI5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ5" s="1">
         <v>32249</v>
@@ -3484,13 +3469,13 @@
         <v>65</v>
       </c>
       <c r="AL5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM5" t="s">
         <v>135</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AN5" t="s">
         <v>136</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>137</v>
       </c>
       <c r="AO5" t="s">
         <v>62</v>
@@ -3499,28 +3484,28 @@
         <v>69</v>
       </c>
       <c r="AQ5" t="s">
-        <v>138</v>
+        <v>566</v>
       </c>
       <c r="AR5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AS5" t="s">
         <v>63</v>
       </c>
       <c r="AT5" t="s">
-        <v>140</v>
+        <v>573</v>
       </c>
       <c r="AU5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX5" t="s">
         <v>119</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>120</v>
       </c>
       <c r="AY5">
         <v>2</v>
@@ -3529,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="BA5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="BB5" t="s">
-        <v>582</v>
+        <v>546</v>
       </c>
       <c r="BC5" s="2">
         <v>3700000</v>
@@ -3541,21 +3526,21 @@
         <v>14000000</v>
       </c>
       <c r="BE5" s="3" t="s">
-        <v>590</v>
+        <v>554</v>
       </c>
       <c r="BF5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="BG5" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>558</v>
+        <v>523</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6">
@@ -3565,7 +3550,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -3574,16 +3559,16 @@
         <v>46</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J6">
         <v>103</v>
       </c>
       <c r="K6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M6" t="s">
         <v>50</v>
@@ -3592,43 +3577,43 @@
         <v>51</v>
       </c>
       <c r="O6" t="s">
+        <v>145</v>
+      </c>
+      <c r="P6" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>147</v>
+      </c>
+      <c r="R6" t="s">
         <v>148</v>
       </c>
-      <c r="P6" t="s">
+      <c r="S6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T6" t="s">
         <v>149</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="U6" t="s">
+        <v>46</v>
+      </c>
+      <c r="V6" t="s">
         <v>150</v>
       </c>
-      <c r="R6" t="s">
-        <v>151</v>
-      </c>
-      <c r="S6" t="s">
-        <v>46</v>
-      </c>
-      <c r="T6" t="s">
-        <v>152</v>
-      </c>
-      <c r="U6" t="s">
-        <v>46</v>
-      </c>
-      <c r="V6" t="s">
-        <v>153</v>
-      </c>
       <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" t="s">
         <v>89</v>
       </c>
-      <c r="X6" t="s">
-        <v>90</v>
-      </c>
       <c r="Y6" t="s">
-        <v>542</v>
+        <v>507</v>
       </c>
       <c r="Z6" t="s">
-        <v>570</v>
+        <v>535</v>
       </c>
       <c r="AA6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB6" t="s">
         <v>46</v>
@@ -3643,7 +3628,7 @@
         <v>46</v>
       </c>
       <c r="AF6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG6" t="s">
         <v>46</v>
@@ -3652,7 +3637,7 @@
         <v>7.9</v>
       </c>
       <c r="AI6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AJ6" s="1">
         <v>32718</v>
@@ -3661,31 +3646,31 @@
         <v>65</v>
       </c>
       <c r="AL6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AM6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR6" t="s">
         <v>155</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>156</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>158</v>
       </c>
       <c r="AS6" t="s">
         <v>60</v>
       </c>
       <c r="AT6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AU6" t="s">
         <v>69</v>
@@ -3694,10 +3679,10 @@
         <v>69</v>
       </c>
       <c r="AW6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AX6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AY6">
         <v>2</v>
@@ -3706,10 +3691,10 @@
         <v>0</v>
       </c>
       <c r="BA6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="BB6" t="s">
-        <v>582</v>
+        <v>546</v>
       </c>
       <c r="BC6" s="2">
         <v>6900000</v>
@@ -3718,46 +3703,46 @@
         <v>1144186</v>
       </c>
       <c r="BE6" s="3" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="BF6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="BG6" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>559</v>
+        <v>524</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7">
         <v>1991</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H7" t="s">
         <v>46</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J7">
         <v>118</v>
       </c>
       <c r="K7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L7" t="s">
         <v>49</v>
@@ -3769,37 +3754,37 @@
         <v>51</v>
       </c>
       <c r="O7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="R7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="S7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X7" t="s">
         <v>58</v>
       </c>
       <c r="Y7" t="s">
-        <v>543</v>
+        <v>508</v>
       </c>
       <c r="Z7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AA7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB7" t="s">
         <v>46</v>
@@ -3811,19 +3796,19 @@
         <v>62</v>
       </c>
       <c r="AE7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF7" t="s">
         <v>46</v>
       </c>
       <c r="AG7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH7">
         <v>7.8</v>
       </c>
       <c r="AI7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AJ7" s="1">
         <v>33439</v>
@@ -3832,13 +3817,13 @@
         <v>65</v>
       </c>
       <c r="AL7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AM7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AN7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AO7" t="s">
         <v>62</v>
@@ -3847,16 +3832,16 @@
         <v>69</v>
       </c>
       <c r="AQ7" t="s">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="AR7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AS7" t="s">
         <v>63</v>
       </c>
       <c r="AT7" t="s">
-        <v>177</v>
+        <v>574</v>
       </c>
       <c r="AU7" t="s">
         <v>69</v>
@@ -3865,10 +3850,10 @@
         <v>62</v>
       </c>
       <c r="AW7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AX7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AY7">
         <v>1</v>
@@ -3877,10 +3862,10 @@
         <v>0</v>
       </c>
       <c r="BA7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="BB7" t="s">
-        <v>582</v>
+        <v>546</v>
       </c>
       <c r="BC7" s="2">
         <v>15000000</v>
@@ -3889,21 +3874,21 @@
         <v>576916</v>
       </c>
       <c r="BE7" s="3" t="s">
-        <v>590</v>
+        <v>554</v>
       </c>
       <c r="BF7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="BG7" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8">
@@ -3913,7 +3898,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -3922,13 +3907,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="J8">
         <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L8" t="s">
         <v>49</v>
@@ -3940,43 +3925,43 @@
         <v>51</v>
       </c>
       <c r="O8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="P8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="R8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="S8" t="s">
         <v>46</v>
       </c>
       <c r="T8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="U8" t="s">
         <v>46</v>
       </c>
       <c r="V8" t="s">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="W8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X8" t="s">
         <v>58</v>
       </c>
       <c r="Y8" t="s">
-        <v>544</v>
+        <v>509</v>
       </c>
       <c r="Z8" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
       <c r="AA8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB8" t="s">
         <v>46</v>
@@ -3991,7 +3976,7 @@
         <v>46</v>
       </c>
       <c r="AF8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG8" t="s">
         <v>46</v>
@@ -4000,7 +3985,7 @@
         <v>7.7</v>
       </c>
       <c r="AI8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AJ8" s="1">
         <v>33803</v>
@@ -4009,13 +3994,13 @@
         <v>65</v>
       </c>
       <c r="AL8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AM8" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AN8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AO8" t="s">
         <v>62</v>
@@ -4024,16 +4009,16 @@
         <v>62</v>
       </c>
       <c r="AQ8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AR8" t="s">
-        <v>193</v>
+        <v>557</v>
       </c>
       <c r="AS8" t="s">
         <v>60</v>
       </c>
       <c r="AT8" t="s">
-        <v>194</v>
+        <v>575</v>
       </c>
       <c r="AU8" t="s">
         <v>69</v>
@@ -4042,10 +4027,10 @@
         <v>69</v>
       </c>
       <c r="AW8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AX8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AY8">
         <v>1</v>
@@ -4054,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="BA8" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="BB8" t="s">
-        <v>582</v>
+        <v>546</v>
       </c>
       <c r="BC8" s="2">
         <v>9200000</v>
@@ -4066,46 +4051,46 @@
         <v>10000000</v>
       </c>
       <c r="BE8" s="3" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="BF8" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="BG8" s="3" t="s">
-        <v>588</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9">
         <v>1994</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G9" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="H9" t="s">
         <v>46</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="J9">
         <v>119</v>
       </c>
       <c r="K9" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="L9" t="s">
         <v>49</v>
@@ -4117,46 +4102,46 @@
         <v>51</v>
       </c>
       <c r="O9" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="P9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q9" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="R9" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="S9" t="s">
         <v>46</v>
       </c>
       <c r="T9" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="U9" t="s">
         <v>46</v>
       </c>
       <c r="V9" t="s">
-        <v>513</v>
+        <v>478</v>
       </c>
       <c r="W9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X9" t="s">
         <v>58</v>
       </c>
       <c r="Y9" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="Z9" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
       <c r="AA9" t="s">
         <v>46</v>
       </c>
       <c r="AB9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AC9" t="s">
         <v>69</v>
@@ -4165,19 +4150,19 @@
         <v>62</v>
       </c>
       <c r="AE9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF9" t="s">
         <v>46</v>
       </c>
       <c r="AG9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH9">
         <v>7.3</v>
       </c>
       <c r="AI9" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="AJ9" s="1">
         <v>34531</v>
@@ -4186,13 +4171,13 @@
         <v>65</v>
       </c>
       <c r="AL9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AM9" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="AN9" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AO9" t="s">
         <v>62</v>
@@ -4201,16 +4186,16 @@
         <v>69</v>
       </c>
       <c r="AQ9" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="AR9" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="AS9" t="s">
         <v>60</v>
       </c>
       <c r="AT9" t="s">
-        <v>212</v>
+        <v>576</v>
       </c>
       <c r="AU9" t="s">
         <v>69</v>
@@ -4219,10 +4204,10 @@
         <v>62</v>
       </c>
       <c r="AW9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AX9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AY9">
         <v>2</v>
@@ -4231,10 +4216,10 @@
         <v>1</v>
       </c>
       <c r="BA9" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="BB9" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="BC9" s="2">
         <v>12000000</v>
@@ -4243,46 +4228,46 @@
         <v>16000000</v>
       </c>
       <c r="BE9" s="3" t="s">
-        <v>590</v>
+        <v>554</v>
       </c>
       <c r="BF9" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="BG9" s="3" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>560</v>
+        <v>525</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10">
         <v>1995</v>
       </c>
       <c r="E10" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G10" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H10" t="s">
         <v>46</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="J10">
         <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="L10" t="s">
         <v>49</v>
@@ -4294,40 +4279,40 @@
         <v>51</v>
       </c>
       <c r="O10" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="P10" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="Q10" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="R10" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="S10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U10" t="s">
         <v>46</v>
       </c>
       <c r="V10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="W10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X10" t="s">
         <v>58</v>
       </c>
       <c r="Y10" t="s">
-        <v>545</v>
+        <v>510</v>
       </c>
       <c r="Z10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AA10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB10" t="s">
         <v>46</v>
@@ -4339,19 +4324,19 @@
         <v>62</v>
       </c>
       <c r="AE10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH10">
         <v>7.7</v>
       </c>
       <c r="AI10" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="AJ10" s="1">
         <v>34895</v>
@@ -4360,13 +4345,13 @@
         <v>65</v>
       </c>
       <c r="AL10" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="AM10" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="AN10" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="AO10" t="s">
         <v>69</v>
@@ -4375,16 +4360,16 @@
         <v>69</v>
       </c>
       <c r="AQ10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AR10" t="s">
-        <v>230</v>
+        <v>137</v>
       </c>
       <c r="AS10" t="s">
         <v>63</v>
       </c>
       <c r="AT10" t="s">
-        <v>231</v>
+        <v>577</v>
       </c>
       <c r="AU10" t="s">
         <v>69</v>
@@ -4393,10 +4378,10 @@
         <v>62</v>
       </c>
       <c r="AW10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AX10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AY10">
         <v>0</v>
@@ -4405,10 +4390,10 @@
         <v>1</v>
       </c>
       <c r="BA10" t="s">
-        <v>582</v>
+        <v>546</v>
       </c>
       <c r="BB10" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="BC10" s="2">
         <v>10000000</v>
@@ -4417,21 +4402,21 @@
         <v>10000000</v>
       </c>
       <c r="BE10" s="3" t="s">
-        <v>591</v>
+        <v>555</v>
       </c>
       <c r="BF10" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="BG10" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11">
@@ -4441,7 +4426,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -4450,16 +4435,16 @@
         <v>46</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="J11">
         <v>134</v>
       </c>
       <c r="K11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M11" t="s">
         <v>50</v>
@@ -4468,40 +4453,40 @@
         <v>51</v>
       </c>
       <c r="O11" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="P11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q11" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="R11" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="S11" t="s">
         <v>46</v>
       </c>
       <c r="T11" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="U11" t="s">
         <v>46</v>
       </c>
       <c r="V11" t="s">
-        <v>512</v>
+        <v>477</v>
       </c>
       <c r="W11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X11" t="s">
         <v>58</v>
       </c>
       <c r="Y11" t="s">
-        <v>540</v>
+        <v>505</v>
       </c>
       <c r="Z11" t="s">
-        <v>521</v>
+        <v>486</v>
       </c>
       <c r="AA11" t="s">
         <v>46</v>
@@ -4519,7 +4504,7 @@
         <v>46</v>
       </c>
       <c r="AF11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG11" t="s">
         <v>46</v>
@@ -4528,7 +4513,7 @@
         <v>8.4</v>
       </c>
       <c r="AI11" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="AJ11" s="1">
         <v>35623</v>
@@ -4537,13 +4522,13 @@
         <v>65</v>
       </c>
       <c r="AL11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AM11" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="AN11" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="AO11" t="s">
         <v>69</v>
@@ -4552,28 +4537,28 @@
         <v>62</v>
       </c>
       <c r="AQ11" t="s">
-        <v>244</v>
+        <v>567</v>
       </c>
       <c r="AR11" t="s">
-        <v>245</v>
+        <v>558</v>
       </c>
       <c r="AS11" t="s">
         <v>60</v>
       </c>
       <c r="AT11" t="s">
-        <v>246</v>
+        <v>578</v>
       </c>
       <c r="AU11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX11" t="s">
         <v>119</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX11" t="s">
-        <v>120</v>
       </c>
       <c r="AY11">
         <v>2</v>
@@ -4582,10 +4567,10 @@
         <v>1</v>
       </c>
       <c r="BA11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="BB11" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="BC11" s="2">
         <v>23500000</v>
@@ -4594,49 +4579,49 @@
         <v>231247030</v>
       </c>
       <c r="BE11" s="3" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="BF11" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="BG11" s="3" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12">
         <v>1999</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G12" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="H12" t="s">
         <v>46</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="J12">
         <v>104</v>
       </c>
       <c r="K12" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="L12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M12" t="s">
         <v>50</v>
@@ -4645,37 +4630,37 @@
         <v>51</v>
       </c>
       <c r="O12" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="P12" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="Q12" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="R12" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="S12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X12" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="Y12" t="s">
-        <v>546</v>
+        <v>511</v>
       </c>
       <c r="Z12" t="s">
-        <v>568</v>
+        <v>533</v>
       </c>
       <c r="AA12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB12" t="s">
         <v>46</v>
@@ -4684,22 +4669,22 @@
         <v>69</v>
       </c>
       <c r="AD12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AE12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF12" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="AG12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH12">
         <v>7.1</v>
       </c>
       <c r="AI12" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="AJ12" s="1">
         <v>36358</v>
@@ -4711,10 +4696,10 @@
         <v>66</v>
       </c>
       <c r="AM12" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="AN12" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="AO12" t="s">
         <v>62</v>
@@ -4723,16 +4708,16 @@
         <v>69</v>
       </c>
       <c r="AQ12" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="AR12" t="s">
-        <v>265</v>
+        <v>559</v>
       </c>
       <c r="AS12" t="s">
         <v>63</v>
       </c>
       <c r="AT12" t="s">
-        <v>266</v>
+        <v>579</v>
       </c>
       <c r="AU12" t="s">
         <v>62</v>
@@ -4741,10 +4726,10 @@
         <v>62</v>
       </c>
       <c r="AW12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AX12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AY12">
         <v>1</v>
@@ -4753,10 +4738,10 @@
         <v>0</v>
       </c>
       <c r="BA12" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="BB12" t="s">
-        <v>582</v>
+        <v>546</v>
       </c>
       <c r="BC12" s="2">
         <v>20000000</v>
@@ -4765,21 +4750,21 @@
         <v>11000000</v>
       </c>
       <c r="BE12" s="3" t="s">
-        <v>590</v>
+        <v>554</v>
       </c>
       <c r="BF12" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="BG12" s="3" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13">
@@ -4789,7 +4774,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -4798,13 +4783,13 @@
         <v>46</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="J13">
         <v>125</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s">
         <v>49</v>
@@ -4816,40 +4801,40 @@
         <v>51</v>
       </c>
       <c r="O13" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="P13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q13" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="R13" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="S13" t="s">
         <v>46</v>
       </c>
       <c r="T13" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="U13" t="s">
         <v>46</v>
       </c>
       <c r="V13" t="s">
-        <v>511</v>
+        <v>476</v>
       </c>
       <c r="W13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X13" t="s">
         <v>58</v>
       </c>
       <c r="Y13" t="s">
-        <v>547</v>
+        <v>512</v>
       </c>
       <c r="Z13" t="s">
-        <v>522</v>
+        <v>487</v>
       </c>
       <c r="AA13" t="s">
         <v>46</v>
@@ -4867,7 +4852,7 @@
         <v>46</v>
       </c>
       <c r="AF13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG13" t="s">
         <v>46</v>
@@ -4876,7 +4861,7 @@
         <v>8.6</v>
       </c>
       <c r="AI13" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="AJ13" s="1">
         <v>37092</v>
@@ -4885,13 +4870,13 @@
         <v>65</v>
       </c>
       <c r="AL13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AM13" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="AN13" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="AO13" t="s">
         <v>69</v>
@@ -4900,28 +4885,28 @@
         <v>62</v>
       </c>
       <c r="AQ13" t="s">
-        <v>280</v>
+        <v>475</v>
       </c>
       <c r="AR13" t="s">
-        <v>281</v>
+        <v>560</v>
       </c>
       <c r="AS13" t="s">
         <v>60</v>
       </c>
       <c r="AT13" t="s">
-        <v>282</v>
+        <v>580</v>
       </c>
       <c r="AU13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX13" t="s">
         <v>119</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>119</v>
-      </c>
-      <c r="AW13" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX13" t="s">
-        <v>120</v>
       </c>
       <c r="AY13">
         <v>7</v>
@@ -4930,10 +4915,10 @@
         <v>4</v>
       </c>
       <c r="BA13" t="s">
-        <v>575</v>
+        <v>540</v>
       </c>
       <c r="BB13" t="s">
-        <v>574</v>
+        <v>539</v>
       </c>
       <c r="BC13" s="2">
         <v>19000000</v>
@@ -4942,49 +4927,49 @@
         <v>395800000</v>
       </c>
       <c r="BE13" s="4" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="BF13" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="BG13" s="3" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>561</v>
+        <v>526</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14">
         <v>2002</v>
       </c>
       <c r="E14" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H14" t="s">
         <v>46</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="J14">
         <v>75</v>
       </c>
       <c r="K14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M14" t="s">
         <v>50</v>
@@ -4993,43 +4978,43 @@
         <v>51</v>
       </c>
       <c r="O14" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="P14" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="Q14" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="R14" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="S14" t="s">
         <v>46</v>
       </c>
       <c r="T14" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="U14" t="s">
         <v>46</v>
       </c>
       <c r="V14" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="W14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X14" t="s">
         <v>58</v>
       </c>
       <c r="Y14" t="s">
-        <v>543</v>
+        <v>508</v>
       </c>
       <c r="Z14" t="s">
-        <v>554</v>
+        <v>519</v>
       </c>
       <c r="AA14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB14" t="s">
         <v>46</v>
@@ -5041,19 +5026,19 @@
         <v>69</v>
       </c>
       <c r="AE14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH14">
         <v>7.2</v>
       </c>
       <c r="AI14" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="AJ14" s="1">
         <v>37456</v>
@@ -5062,13 +5047,13 @@
         <v>65</v>
       </c>
       <c r="AL14" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="AM14" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="AN14" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="AO14" t="s">
         <v>62</v>
@@ -5077,16 +5062,16 @@
         <v>69</v>
       </c>
       <c r="AQ14" t="s">
-        <v>293</v>
+        <v>545</v>
       </c>
       <c r="AR14" t="s">
-        <v>298</v>
+        <v>561</v>
       </c>
       <c r="AS14" t="s">
         <v>60</v>
       </c>
       <c r="AT14" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="AU14" t="s">
         <v>62</v>
@@ -5095,10 +5080,10 @@
         <v>69</v>
       </c>
       <c r="AW14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AX14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AY14">
         <v>1</v>
@@ -5107,10 +5092,10 @@
         <v>1</v>
       </c>
       <c r="BA14" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="BB14" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="BC14" s="2">
         <v>20000000</v>
@@ -5119,21 +5104,21 @@
         <v>54000000</v>
       </c>
       <c r="BE14" s="3" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="BF14" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="BG14" s="3" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>562</v>
+        <v>527</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15">
@@ -5143,7 +5128,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -5152,13 +5137,13 @@
         <v>46</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="J15">
         <v>119</v>
       </c>
       <c r="K15" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="L15" t="s">
         <v>49</v>
@@ -5170,40 +5155,40 @@
         <v>51</v>
       </c>
       <c r="O15" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="P15" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="Q15" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="R15" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="S15" t="s">
         <v>46</v>
       </c>
       <c r="T15" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="U15" t="s">
         <v>46</v>
       </c>
       <c r="V15" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="W15" t="s">
-        <v>505</v>
+        <v>470</v>
       </c>
       <c r="X15" t="s">
-        <v>538</v>
+        <v>503</v>
       </c>
       <c r="Y15" t="s">
-        <v>539</v>
+        <v>504</v>
       </c>
       <c r="Z15" t="s">
-        <v>523</v>
+        <v>488</v>
       </c>
       <c r="AA15" t="s">
         <v>46</v>
@@ -5221,7 +5206,7 @@
         <v>46</v>
       </c>
       <c r="AF15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG15" t="s">
         <v>46</v>
@@ -5230,7 +5215,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="AI15" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="AJ15" s="1">
         <v>38311</v>
@@ -5239,13 +5224,13 @@
         <v>65</v>
       </c>
       <c r="AL15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AM15" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="AN15" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="AO15" t="s">
         <v>69</v>
@@ -5254,16 +5239,16 @@
         <v>69</v>
       </c>
       <c r="AQ15" t="s">
-        <v>314</v>
+        <v>568</v>
       </c>
       <c r="AR15" t="s">
-        <v>315</v>
+        <v>562</v>
       </c>
       <c r="AS15" t="s">
         <v>60</v>
       </c>
       <c r="AT15" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="AU15" t="s">
         <v>69</v>
@@ -5272,10 +5257,10 @@
         <v>69</v>
       </c>
       <c r="AW15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AX15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AY15">
         <v>2</v>
@@ -5284,10 +5269,10 @@
         <v>1</v>
       </c>
       <c r="BA15" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="BB15" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="BC15" s="2">
         <v>24000000</v>
@@ -5296,46 +5281,46 @@
         <v>239589856</v>
       </c>
       <c r="BE15" s="3" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="BF15" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="BG15" s="3" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16">
         <v>2006</v>
       </c>
       <c r="E16" t="s">
-        <v>498</v>
+        <v>463</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G16" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="H16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J16">
         <v>115</v>
       </c>
       <c r="K16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M16" t="s">
         <v>50</v>
@@ -5344,43 +5329,43 @@
         <v>51</v>
       </c>
       <c r="O16" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="P16" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="Q16" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="R16" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="S16" t="s">
         <v>46</v>
       </c>
       <c r="T16" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="U16" t="s">
         <v>46</v>
       </c>
       <c r="V16" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="W16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X16" t="s">
         <v>58</v>
       </c>
       <c r="Y16" t="s">
-        <v>548</v>
+        <v>513</v>
       </c>
       <c r="Z16" t="s">
-        <v>521</v>
+        <v>486</v>
       </c>
       <c r="AA16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB16" t="s">
         <v>46</v>
@@ -5392,19 +5377,19 @@
         <v>69</v>
       </c>
       <c r="AE16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH16">
         <v>6.4</v>
       </c>
       <c r="AI16" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="AJ16" s="1">
         <v>38927</v>
@@ -5413,13 +5398,13 @@
         <v>65</v>
       </c>
       <c r="AL16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AM16" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="AN16" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="AO16" t="s">
         <v>62</v>
@@ -5428,16 +5413,16 @@
         <v>62</v>
       </c>
       <c r="AQ16" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="AR16" t="s">
-        <v>333</v>
+        <v>563</v>
       </c>
       <c r="AS16" t="s">
         <v>60</v>
       </c>
       <c r="AT16" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="AU16" t="s">
         <v>62</v>
@@ -5446,10 +5431,10 @@
         <v>62</v>
       </c>
       <c r="AW16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AX16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AY16">
         <v>0</v>
@@ -5458,10 +5443,10 @@
         <v>1</v>
       </c>
       <c r="BA16" t="s">
-        <v>582</v>
+        <v>546</v>
       </c>
       <c r="BB16" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="BC16" s="2">
         <v>22000000</v>
@@ -5470,21 +5455,21 @@
         <v>68600000</v>
       </c>
       <c r="BE16" s="3" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="BF16" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="BG16" s="3" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17">
@@ -5494,7 +5479,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -5503,16 +5488,16 @@
         <v>46</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="J17">
         <v>101</v>
       </c>
       <c r="K17" t="s">
+        <v>103</v>
+      </c>
+      <c r="L17" t="s">
         <v>104</v>
-      </c>
-      <c r="L17" t="s">
-        <v>105</v>
       </c>
       <c r="M17" t="s">
         <v>50</v>
@@ -5521,40 +5506,40 @@
         <v>51</v>
       </c>
       <c r="O17" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="P17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q17" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="R17" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="S17" t="s">
         <v>46</v>
       </c>
       <c r="T17" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="U17" t="s">
         <v>46</v>
       </c>
       <c r="V17" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="W17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X17" t="s">
         <v>58</v>
       </c>
       <c r="Y17" t="s">
-        <v>544</v>
+        <v>509</v>
       </c>
       <c r="Z17" t="s">
-        <v>569</v>
+        <v>534</v>
       </c>
       <c r="AA17" t="s">
         <v>46</v>
@@ -5572,7 +5557,7 @@
         <v>46</v>
       </c>
       <c r="AF17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG17" t="s">
         <v>46</v>
@@ -5581,7 +5566,7 @@
         <v>7.7</v>
       </c>
       <c r="AI17" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="AJ17" s="1">
         <v>39648</v>
@@ -5590,31 +5575,31 @@
         <v>65</v>
       </c>
       <c r="AL17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AM17" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="AN17" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="AO17" t="s">
         <v>69</v>
       </c>
       <c r="AP17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AQ17" t="s">
-        <v>348</v>
+        <v>569</v>
       </c>
       <c r="AR17" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="AS17" t="s">
         <v>60</v>
       </c>
       <c r="AT17" t="s">
-        <v>350</v>
+        <v>581</v>
       </c>
       <c r="AU17" t="s">
         <v>69</v>
@@ -5623,10 +5608,10 @@
         <v>69</v>
       </c>
       <c r="AW17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AX17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AY17">
         <v>2</v>
@@ -5635,10 +5620,10 @@
         <v>1</v>
       </c>
       <c r="BA17" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="BB17" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="BC17" s="2">
         <v>34000000</v>
@@ -5647,49 +5632,49 @@
         <v>205162666</v>
       </c>
       <c r="BE17" s="3" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="BF17" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="BG17" s="3" t="s">
-        <v>584</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>563</v>
+        <v>528</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18">
         <v>2010</v>
       </c>
       <c r="E18" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="F18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G18" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="H18" t="s">
         <v>46</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="J18">
         <v>94</v>
       </c>
       <c r="K18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M18" t="s">
         <v>50</v>
@@ -5698,43 +5683,43 @@
         <v>51</v>
       </c>
       <c r="O18" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="P18" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="Q18" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="R18" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="S18" t="s">
         <v>46</v>
       </c>
       <c r="T18" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="U18" t="s">
         <v>46</v>
       </c>
       <c r="V18" t="s">
-        <v>509</v>
+        <v>474</v>
       </c>
       <c r="W18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X18" t="s">
         <v>58</v>
       </c>
       <c r="Y18" t="s">
-        <v>541</v>
+        <v>506</v>
       </c>
       <c r="Z18" t="s">
-        <v>522</v>
+        <v>487</v>
       </c>
       <c r="AA18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB18" t="s">
         <v>46</v>
@@ -5746,19 +5731,19 @@
         <v>69</v>
       </c>
       <c r="AE18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH18">
         <v>7.6</v>
       </c>
       <c r="AI18" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="AJ18" s="1">
         <v>40376</v>
@@ -5767,13 +5752,13 @@
         <v>65</v>
       </c>
       <c r="AL18" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="AM18" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="AN18" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="AO18" t="s">
         <v>62</v>
@@ -5782,16 +5767,16 @@
         <v>69</v>
       </c>
       <c r="AQ18" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="AR18" t="s">
-        <v>368</v>
+        <v>564</v>
       </c>
       <c r="AS18" t="s">
         <v>63</v>
       </c>
       <c r="AT18" t="s">
-        <v>369</v>
+        <v>582</v>
       </c>
       <c r="AU18" t="s">
         <v>69</v>
@@ -5800,10 +5785,10 @@
         <v>69</v>
       </c>
       <c r="AW18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AX18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AY18">
         <v>1</v>
@@ -5812,10 +5797,10 @@
         <v>1</v>
       </c>
       <c r="BA18" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="BB18" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="BC18" s="2">
         <v>23000000</v>
@@ -5824,46 +5809,46 @@
         <v>151496097</v>
       </c>
       <c r="BE18" s="3" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="BF18" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="BG18" s="3" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19">
         <v>2011</v>
       </c>
       <c r="E19" t="s">
-        <v>498</v>
+        <v>463</v>
       </c>
       <c r="F19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G19" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="H19" t="s">
         <v>46</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="J19">
         <v>91</v>
       </c>
       <c r="K19" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="L19" t="s">
         <v>49</v>
@@ -5875,37 +5860,37 @@
         <v>51</v>
       </c>
       <c r="O19" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="P19" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="Q19" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="R19" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="S19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X19" t="s">
         <v>58</v>
       </c>
       <c r="Y19" t="s">
-        <v>549</v>
+        <v>514</v>
       </c>
       <c r="Z19" t="s">
-        <v>524</v>
+        <v>489</v>
       </c>
       <c r="AA19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB19" t="s">
         <v>46</v>
@@ -5917,19 +5902,19 @@
         <v>62</v>
       </c>
       <c r="AE19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH19">
         <v>7.3</v>
       </c>
       <c r="AI19" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="AJ19" s="1">
         <v>40740</v>
@@ -5938,13 +5923,13 @@
         <v>65</v>
       </c>
       <c r="AL19" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="AM19" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="AN19" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="AO19" t="s">
         <v>62</v>
@@ -5953,16 +5938,16 @@
         <v>69</v>
       </c>
       <c r="AQ19" t="s">
-        <v>386</v>
+        <v>545</v>
       </c>
       <c r="AR19" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="AS19" t="s">
         <v>63</v>
       </c>
       <c r="AT19" t="s">
-        <v>388</v>
+        <v>583</v>
       </c>
       <c r="AU19" t="s">
         <v>62</v>
@@ -5971,10 +5956,10 @@
         <v>62</v>
       </c>
       <c r="AW19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AX19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AY19">
         <v>1</v>
@@ -5983,10 +5968,10 @@
         <v>0</v>
       </c>
       <c r="BA19" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="BB19" t="s">
-        <v>582</v>
+        <v>546</v>
       </c>
       <c r="BC19" s="2">
         <v>22000000</v>
@@ -5995,21 +5980,21 @@
         <v>61000000</v>
       </c>
       <c r="BE19" s="3" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="BF19" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="BG19" s="3" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>564</v>
+        <v>529</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20">
@@ -6019,7 +6004,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -6028,16 +6013,16 @@
         <v>46</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
       <c r="J20">
         <v>126</v>
       </c>
       <c r="K20" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
       <c r="L20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M20" t="s">
         <v>50</v>
@@ -6046,40 +6031,40 @@
         <v>51</v>
       </c>
       <c r="O20" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="P20" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
       <c r="Q20" t="s">
-        <v>396</v>
+        <v>370</v>
       </c>
       <c r="R20" t="s">
-        <v>397</v>
+        <v>371</v>
       </c>
       <c r="S20" t="s">
         <v>46</v>
       </c>
       <c r="T20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X20" t="s">
         <v>58</v>
       </c>
       <c r="Y20" t="s">
-        <v>550</v>
+        <v>515</v>
       </c>
       <c r="Z20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AA20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB20" t="s">
         <v>46</v>
@@ -6094,7 +6079,7 @@
         <v>46</v>
       </c>
       <c r="AF20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG20" t="s">
         <v>46</v>
@@ -6103,7 +6088,7 @@
         <v>7.8</v>
       </c>
       <c r="AI20" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
       <c r="AJ20" s="1">
         <v>41475</v>
@@ -6112,13 +6097,13 @@
         <v>65</v>
       </c>
       <c r="AL20" t="s">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="AM20" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="AN20" t="s">
-        <v>401</v>
+        <v>375</v>
       </c>
       <c r="AO20" t="s">
         <v>62</v>
@@ -6127,16 +6112,16 @@
         <v>62</v>
       </c>
       <c r="AQ20" t="s">
-        <v>402</v>
+        <v>570</v>
       </c>
       <c r="AR20" t="s">
-        <v>403</v>
+        <v>557</v>
       </c>
       <c r="AS20" t="s">
         <v>63</v>
       </c>
       <c r="AT20" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="AU20" t="s">
         <v>69</v>
@@ -6145,10 +6130,10 @@
         <v>69</v>
       </c>
       <c r="AW20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AX20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AY20">
         <v>1</v>
@@ -6157,10 +6142,10 @@
         <v>2</v>
       </c>
       <c r="BA20" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="BB20" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="BC20" s="2">
         <v>30000000</v>
@@ -6169,31 +6154,31 @@
         <v>137000000</v>
       </c>
       <c r="BE20" s="3" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="BF20" t="s">
-        <v>587</v>
+        <v>551</v>
       </c>
       <c r="BG20" s="3" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21">
         <v>2013</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -6202,13 +6187,13 @@
         <v>46</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="J21">
         <v>137</v>
       </c>
       <c r="K21" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="L21" t="s">
         <v>49</v>
@@ -6220,40 +6205,40 @@
         <v>51</v>
       </c>
       <c r="O21" t="s">
-        <v>411</v>
+        <v>383</v>
       </c>
       <c r="P21" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="Q21" t="s">
-        <v>413</v>
+        <v>385</v>
       </c>
       <c r="R21" t="s">
-        <v>414</v>
+        <v>386</v>
       </c>
       <c r="S21" t="s">
         <v>46</v>
       </c>
       <c r="T21" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="U21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X21" t="s">
-        <v>537</v>
+        <v>502</v>
       </c>
       <c r="Y21" t="s">
-        <v>549</v>
+        <v>514</v>
       </c>
       <c r="Z21" t="s">
-        <v>525</v>
+        <v>490</v>
       </c>
       <c r="AA21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB21" t="s">
         <v>46</v>
@@ -6262,10 +6247,10 @@
         <v>69</v>
       </c>
       <c r="AD21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AE21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF21" t="s">
         <v>46</v>
@@ -6277,7 +6262,7 @@
         <v>8</v>
       </c>
       <c r="AI21" t="s">
-        <v>416</v>
+        <v>388</v>
       </c>
       <c r="AJ21" s="1">
         <v>41601</v>
@@ -6286,31 +6271,31 @@
         <v>65</v>
       </c>
       <c r="AL21" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="AM21" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
       <c r="AN21" t="s">
-        <v>419</v>
+        <v>391</v>
       </c>
       <c r="AO21" t="s">
         <v>69</v>
       </c>
       <c r="AP21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AQ21" t="s">
-        <v>420</v>
+        <v>571</v>
       </c>
       <c r="AR21" t="s">
-        <v>421</v>
+        <v>392</v>
       </c>
       <c r="AS21" t="s">
         <v>63</v>
       </c>
       <c r="AT21" t="s">
-        <v>422</v>
+        <v>584</v>
       </c>
       <c r="AU21" t="s">
         <v>69</v>
@@ -6319,10 +6304,10 @@
         <v>69</v>
       </c>
       <c r="AW21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AX21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AY21">
         <v>2</v>
@@ -6331,10 +6316,10 @@
         <v>1</v>
       </c>
       <c r="BA21" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="BB21" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="BC21" s="2">
         <v>49300000</v>
@@ -6343,46 +6328,46 @@
         <v>24700000</v>
       </c>
       <c r="BE21" s="3" t="s">
-        <v>590</v>
+        <v>554</v>
       </c>
       <c r="BF21" t="s">
-        <v>424</v>
+        <v>394</v>
       </c>
       <c r="BG21" s="3" t="s">
-        <v>585</v>
+        <v>549</v>
       </c>
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>425</v>
+        <v>395</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>565</v>
+        <v>530</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22">
         <v>2014</v>
       </c>
       <c r="E22" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="F22" t="s">
-        <v>426</v>
+        <v>396</v>
       </c>
       <c r="G22" t="s">
-        <v>427</v>
+        <v>397</v>
       </c>
       <c r="H22" t="s">
         <v>46</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="J22">
         <v>103</v>
       </c>
       <c r="K22" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="L22" t="s">
         <v>49</v>
@@ -6394,43 +6379,43 @@
         <v>51</v>
       </c>
       <c r="O22" t="s">
-        <v>429</v>
+        <v>399</v>
       </c>
       <c r="P22" t="s">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="Q22" t="s">
-        <v>431</v>
+        <v>401</v>
       </c>
       <c r="R22" t="s">
-        <v>432</v>
+        <v>402</v>
       </c>
       <c r="S22" t="s">
         <v>46</v>
       </c>
       <c r="T22" t="s">
-        <v>433</v>
+        <v>403</v>
       </c>
       <c r="U22" t="s">
         <v>46</v>
       </c>
       <c r="V22" t="s">
-        <v>508</v>
+        <v>473</v>
       </c>
       <c r="W22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X22" t="s">
         <v>58</v>
       </c>
       <c r="Y22" t="s">
-        <v>551</v>
+        <v>516</v>
       </c>
       <c r="Z22" t="s">
-        <v>526</v>
+        <v>491</v>
       </c>
       <c r="AA22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB22" t="s">
         <v>46</v>
@@ -6442,19 +6427,19 @@
         <v>62</v>
       </c>
       <c r="AE22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH22">
         <v>7.5</v>
       </c>
       <c r="AI22" t="s">
-        <v>434</v>
+        <v>404</v>
       </c>
       <c r="AJ22" s="1">
         <v>41839</v>
@@ -6463,13 +6448,13 @@
         <v>65</v>
       </c>
       <c r="AL22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AM22" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="AN22" t="s">
-        <v>436</v>
+        <v>406</v>
       </c>
       <c r="AO22" t="s">
         <v>62</v>
@@ -6478,16 +6463,16 @@
         <v>69</v>
       </c>
       <c r="AQ22" t="s">
-        <v>437</v>
+        <v>407</v>
       </c>
       <c r="AR22" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
       <c r="AS22" t="s">
         <v>60</v>
       </c>
       <c r="AT22" t="s">
-        <v>439</v>
+        <v>585</v>
       </c>
       <c r="AU22" t="s">
         <v>62</v>
@@ -6496,10 +6481,10 @@
         <v>62</v>
       </c>
       <c r="AW22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AX22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AY22">
         <v>0</v>
@@ -6508,10 +6493,10 @@
         <v>2</v>
       </c>
       <c r="BA22" t="s">
-        <v>582</v>
+        <v>546</v>
       </c>
       <c r="BB22" t="s">
-        <v>440</v>
+        <v>409</v>
       </c>
       <c r="BC22" s="2">
         <v>10500000</v>
@@ -6520,91 +6505,91 @@
         <v>41000000</v>
       </c>
       <c r="BE22" s="3" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="BF22" t="s">
-        <v>441</v>
+        <v>410</v>
       </c>
       <c r="BG22" s="3" t="s">
-        <v>442</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>443</v>
+        <v>412</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>444</v>
+        <v>413</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23">
         <v>2016</v>
       </c>
       <c r="E23" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
       <c r="F23" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G23" t="s">
-        <v>446</v>
+        <v>415</v>
       </c>
       <c r="H23" t="s">
         <v>46</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="J23">
         <v>80</v>
       </c>
       <c r="K23" t="s">
-        <v>448</v>
+        <v>417</v>
       </c>
       <c r="L23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M23" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="N23" t="s">
-        <v>571</v>
+        <v>536</v>
       </c>
       <c r="O23" t="s">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="P23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q23" t="s">
-        <v>451</v>
+        <v>420</v>
       </c>
       <c r="R23" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="S23" t="s">
         <v>46</v>
       </c>
       <c r="T23" t="s">
-        <v>453</v>
+        <v>422</v>
       </c>
       <c r="U23" t="s">
         <v>46</v>
       </c>
       <c r="V23" t="s">
-        <v>454</v>
+        <v>423</v>
       </c>
       <c r="W23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X23" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="Y23" t="s">
-        <v>544</v>
+        <v>509</v>
       </c>
       <c r="Z23" t="s">
-        <v>527</v>
+        <v>492</v>
       </c>
       <c r="AA23" t="s">
         <v>46</v>
@@ -6619,34 +6604,34 @@
         <v>69</v>
       </c>
       <c r="AE23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH23">
         <v>7.5</v>
       </c>
       <c r="AI23" t="s">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="AJ23" s="1">
         <v>42630</v>
       </c>
       <c r="AK23" t="s">
-        <v>572</v>
+        <v>537</v>
       </c>
       <c r="AL23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AM23" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="AN23" t="s">
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="AO23" t="s">
         <v>62</v>
@@ -6655,16 +6640,16 @@
         <v>62</v>
       </c>
       <c r="AQ23" t="s">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="AR23" t="s">
-        <v>459</v>
+        <v>428</v>
       </c>
       <c r="AS23" t="s">
         <v>63</v>
       </c>
       <c r="AT23" t="s">
-        <v>460</v>
+        <v>586</v>
       </c>
       <c r="AU23" t="s">
         <v>62</v>
@@ -6673,10 +6658,10 @@
         <v>69</v>
       </c>
       <c r="AW23" t="s">
-        <v>461</v>
+        <v>429</v>
       </c>
       <c r="AX23" t="s">
-        <v>462</v>
+        <v>430</v>
       </c>
       <c r="AY23">
         <v>8</v>
@@ -6685,10 +6670,10 @@
         <v>8</v>
       </c>
       <c r="BA23" t="s">
-        <v>576</v>
+        <v>541</v>
       </c>
       <c r="BB23" t="s">
-        <v>577</v>
+        <v>542</v>
       </c>
       <c r="BC23" s="2">
         <v>12500000</v>
@@ -6697,46 +6682,46 @@
         <v>5000000</v>
       </c>
       <c r="BE23" s="3" t="s">
-        <v>463</v>
+        <v>431</v>
       </c>
       <c r="BF23" t="s">
-        <v>464</v>
+        <v>432</v>
       </c>
       <c r="BG23" s="3" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>466</v>
+        <v>434</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24">
         <v>2020</v>
       </c>
       <c r="E24" t="s">
-        <v>498</v>
+        <v>463</v>
       </c>
       <c r="F24" t="s">
-        <v>426</v>
+        <v>396</v>
       </c>
       <c r="G24" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="H24" t="s">
         <v>46</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>469</v>
+        <v>437</v>
       </c>
       <c r="J24">
         <v>82</v>
       </c>
       <c r="K24" t="s">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="L24" t="s">
         <v>49</v>
@@ -6745,46 +6730,46 @@
         <v>50</v>
       </c>
       <c r="N24" t="s">
+        <v>439</v>
+      </c>
+      <c r="O24" t="s">
+        <v>440</v>
+      </c>
+      <c r="P24" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>441</v>
+      </c>
+      <c r="R24" t="s">
+        <v>442</v>
+      </c>
+      <c r="S24" t="s">
+        <v>46</v>
+      </c>
+      <c r="T24" t="s">
+        <v>443</v>
+      </c>
+      <c r="U24" t="s">
+        <v>46</v>
+      </c>
+      <c r="V24" t="s">
+        <v>444</v>
+      </c>
+      <c r="W24" t="s">
         <v>471</v>
       </c>
-      <c r="O24" t="s">
-        <v>472</v>
-      </c>
-      <c r="P24" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>473</v>
-      </c>
-      <c r="R24" t="s">
-        <v>474</v>
-      </c>
-      <c r="S24" t="s">
-        <v>46</v>
-      </c>
-      <c r="T24" t="s">
-        <v>475</v>
-      </c>
-      <c r="U24" t="s">
-        <v>46</v>
-      </c>
-      <c r="V24" t="s">
-        <v>476</v>
-      </c>
-      <c r="W24" t="s">
-        <v>506</v>
-      </c>
       <c r="X24" t="s">
-        <v>515</v>
+        <v>480</v>
       </c>
       <c r="Y24" t="s">
-        <v>552</v>
+        <v>517</v>
       </c>
       <c r="Z24" t="s">
-        <v>528</v>
+        <v>493</v>
       </c>
       <c r="AA24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB24" t="s">
         <v>46</v>
@@ -6796,52 +6781,52 @@
         <v>69</v>
       </c>
       <c r="AE24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH24">
         <v>6</v>
       </c>
       <c r="AI24" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="AJ24" s="1">
         <v>44133</v>
       </c>
       <c r="AK24" t="s">
-        <v>478</v>
+        <v>446</v>
       </c>
       <c r="AL24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AM24" t="s">
-        <v>479</v>
+        <v>447</v>
       </c>
       <c r="AN24" t="s">
-        <v>480</v>
+        <v>448</v>
       </c>
       <c r="AO24" t="s">
-        <v>481</v>
+        <v>449</v>
       </c>
       <c r="AP24" t="s">
-        <v>482</v>
+        <v>69</v>
       </c>
       <c r="AQ24" t="s">
-        <v>580</v>
+        <v>545</v>
       </c>
       <c r="AR24" t="s">
-        <v>483</v>
+        <v>137</v>
       </c>
       <c r="AS24" t="s">
         <v>60</v>
       </c>
       <c r="AT24" t="s">
-        <v>484</v>
+        <v>450</v>
       </c>
       <c r="AU24" t="s">
         <v>62</v>
@@ -6850,10 +6835,10 @@
         <v>62</v>
       </c>
       <c r="AW24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AX24" t="s">
-        <v>485</v>
+        <v>451</v>
       </c>
       <c r="AY24">
         <v>0</v>
@@ -6862,10 +6847,10 @@
         <v>1</v>
       </c>
       <c r="BA24" t="s">
-        <v>582</v>
+        <v>546</v>
       </c>
       <c r="BB24" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="BC24" s="2">
         <v>10000000</v>
@@ -6874,21 +6859,21 @@
         <v>842744</v>
       </c>
       <c r="BE24" s="3" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="BF24" t="s">
-        <v>486</v>
+        <v>452</v>
       </c>
       <c r="BG24" s="3" t="s">
-        <v>487</v>
+        <v>453</v>
       </c>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>488</v>
+        <v>454</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>566</v>
+        <v>531</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25">
@@ -6898,7 +6883,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -6907,16 +6892,16 @@
         <v>46</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>489</v>
+        <v>455</v>
       </c>
       <c r="J25">
         <v>125</v>
       </c>
       <c r="K25" t="s">
-        <v>448</v>
+        <v>417</v>
       </c>
       <c r="L25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M25" t="s">
         <v>50</v>
@@ -6925,43 +6910,43 @@
         <v>51</v>
       </c>
       <c r="O25" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="P25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q25" t="s">
-        <v>491</v>
+        <v>457</v>
       </c>
       <c r="R25" t="s">
-        <v>500</v>
+        <v>465</v>
       </c>
       <c r="S25" t="s">
         <v>46</v>
       </c>
       <c r="T25" t="s">
-        <v>492</v>
+        <v>458</v>
       </c>
       <c r="U25" t="s">
         <v>46</v>
       </c>
       <c r="V25" t="s">
-        <v>510</v>
+        <v>475</v>
       </c>
       <c r="W25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X25" t="s">
         <v>58</v>
       </c>
       <c r="Y25" t="s">
-        <v>553</v>
+        <v>518</v>
       </c>
       <c r="Z25" t="s">
-        <v>529</v>
+        <v>494</v>
       </c>
       <c r="AA25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB25" t="s">
         <v>46</v>
@@ -6976,7 +6961,7 @@
         <v>46</v>
       </c>
       <c r="AF25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG25" t="s">
         <v>46</v>
@@ -6985,7 +6970,7 @@
         <v>8</v>
       </c>
       <c r="AI25" t="s">
-        <v>493</v>
+        <v>459</v>
       </c>
       <c r="AJ25" s="1">
         <v>45121</v>
@@ -6994,13 +6979,13 @@
         <v>65</v>
       </c>
       <c r="AL25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AM25" t="s">
-        <v>494</v>
+        <v>460</v>
       </c>
       <c r="AN25" t="s">
-        <v>495</v>
+        <v>461</v>
       </c>
       <c r="AO25" t="s">
         <v>62</v>
@@ -7009,16 +6994,16 @@
         <v>69</v>
       </c>
       <c r="AQ25" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="AR25" t="s">
-        <v>281</v>
+        <v>560</v>
       </c>
       <c r="AS25" t="s">
         <v>60</v>
       </c>
       <c r="AT25" t="s">
-        <v>496</v>
+        <v>587</v>
       </c>
       <c r="AU25" t="s">
         <v>69</v>
@@ -7027,10 +7012,10 @@
         <v>69</v>
       </c>
       <c r="AW25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AX25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AY25">
         <v>10</v>
@@ -7039,10 +7024,10 @@
         <v>7</v>
       </c>
       <c r="BA25" t="s">
-        <v>578</v>
+        <v>543</v>
       </c>
       <c r="BB25" t="s">
-        <v>579</v>
+        <v>544</v>
       </c>
       <c r="BC25" s="2">
         <v>53000000</v>
@@ -7051,13 +7036,13 @@
         <v>292922563</v>
       </c>
       <c r="BE25" s="3" t="s">
-        <v>589</v>
+        <v>553</v>
       </c>
       <c r="BF25" t="s">
-        <v>497</v>
+        <v>462</v>
       </c>
       <c r="BG25" s="3" t="s">
-        <v>586</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>

--- a/Ghibli-tabla.xlsx
+++ b/Ghibli-tabla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Página web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF81286-00CD-448D-853A-4D2E9A4538B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AF26CA-88E7-439A-B0A8-BCBC390681A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="571">
   <si>
     <t>Título</t>
   </si>
@@ -186,9 +186,6 @@
     <t>Futuro postapocalíptico</t>
   </si>
   <si>
-    <t>Manga de Miyazaki</t>
-  </si>
-  <si>
     <t>Ecología, paz, esperanza</t>
   </si>
   <si>
@@ -372,9 +369,6 @@
     <t>Magia en la infancia y respeto por la naturaleza</t>
   </si>
   <si>
-    <t>Gato gigante</t>
-  </si>
-  <si>
     <t>Gatobús</t>
   </si>
   <si>
@@ -411,9 +405,6 @@
     <t>Segunda Guerra Mundial</t>
   </si>
   <si>
-    <t>Novela de Akiyuki Nosaka</t>
-  </si>
-  <si>
     <t>Tragedia, pérdida, inocencia</t>
   </si>
   <si>
@@ -465,9 +456,6 @@
     <t>Ciudad costera</t>
   </si>
   <si>
-    <t>Novela de Eiko Kadono</t>
-  </si>
-  <si>
     <t>Independencia, crecimiento</t>
   </si>
   <si>
@@ -534,9 +522,6 @@
     <t>Valorada por su madurez emocional</t>
   </si>
   <si>
-    <t>Original (película)</t>
-  </si>
-  <si>
     <t>"Vive sin arrepentimientos"</t>
   </si>
   <si>
@@ -672,9 +657,6 @@
     <t>Suburbio japonés contemporáneo</t>
   </si>
   <si>
-    <t xml:space="preserve">Manga, Original </t>
-  </si>
-  <si>
     <t>Juventud, creatividad, descubrimiento</t>
   </si>
   <si>
@@ -684,9 +666,6 @@
     <t>Querida por su ternura y realismo</t>
   </si>
   <si>
-    <t>Manga/Original</t>
-  </si>
-  <si>
     <t>"Sigue tu corazón"</t>
   </si>
   <si>
@@ -756,9 +735,6 @@
     <t>Vida familiar contemporánea</t>
   </si>
   <si>
-    <t>Manga de Hisaichi Ishii</t>
-  </si>
-  <si>
     <t>Familia, cotidianidad</t>
   </si>
   <si>
@@ -840,9 +816,6 @@
     <t>Mundo fantástico de gatos</t>
   </si>
   <si>
-    <t>Spinoff de Whisper of the Heart</t>
-  </si>
-  <si>
     <t>Descubrimiento, valor propio</t>
   </si>
   <si>
@@ -891,9 +864,6 @@
     <t>Europa fantástica, steampunk</t>
   </si>
   <si>
-    <t>Novela de Diana Wynne Jones</t>
-  </si>
-  <si>
     <t>Amor, guerra, identidad</t>
   </si>
   <si>
@@ -942,9 +912,6 @@
     <t>Mundo fantástico</t>
   </si>
   <si>
-    <t>Novela de Ursula K. Le Guin</t>
-  </si>
-  <si>
     <t>Equilibrio, culpa, destino</t>
   </si>
   <si>
@@ -1038,9 +1005,6 @@
     <t>Casa suburbana moderna</t>
   </si>
   <si>
-    <t>Novela 'The Borrowers' de Mary Norton</t>
-  </si>
-  <si>
     <t>Escasez, amistad, valentía</t>
   </si>
   <si>
@@ -1095,9 +1059,6 @@
     <t>Yokohama, 1963</t>
   </si>
   <si>
-    <t>Manga Tokuma Shoten</t>
-  </si>
-  <si>
     <t>Memoria, reconstrucción, juventud</t>
   </si>
   <si>
@@ -1134,9 +1095,6 @@
     <t>Japón 1920s-1930s</t>
   </si>
   <si>
-    <t>Biografía libre de Jiro Horikoshi</t>
-  </si>
-  <si>
     <t>Sueños, ambivalencia de la tecnología</t>
   </si>
   <si>
@@ -1146,9 +1104,6 @@
     <t>Controvertida por contexto histórico, muy valorada</t>
   </si>
   <si>
-    <t>Biografía/Novela</t>
-  </si>
-  <si>
     <t>"Sigue soñando, pero con conciencia"</t>
   </si>
   <si>
@@ -1179,9 +1134,6 @@
     <t>Japón legendario (Heian)</t>
   </si>
   <si>
-    <t>Cuento popular japonés</t>
-  </si>
-  <si>
     <t>Fama, sacrificio, belleza efímera</t>
   </si>
   <si>
@@ -1227,9 +1179,6 @@
     <t>Pueblo costero británico japonés (verano)</t>
   </si>
   <si>
-    <t>Novela de Joan G. Robinson</t>
-  </si>
-  <si>
     <t>Amistad, identidad, memoria</t>
   </si>
   <si>
@@ -1359,9 +1308,6 @@
     <t>Bella Yaga</t>
   </si>
   <si>
-    <t>Criaturas mágicas domésticas</t>
-  </si>
-  <si>
     <t>Recibida con críticas mixtas; cambio a CGI notable</t>
   </si>
   <si>
@@ -1374,9 +1320,6 @@
     <t>Adaptación y resiliencia</t>
   </si>
   <si>
-    <t>Alta (protagonista femenina)</t>
-  </si>
-  <si>
     <t>Curiosa por su estilo distinto</t>
   </si>
   <si>
@@ -1434,9 +1377,6 @@
     <t>Temas_principales</t>
   </si>
   <si>
-    <t>Fuente_Insp</t>
-  </si>
-  <si>
     <t>2D-CGI</t>
   </si>
   <si>
@@ -1789,6 +1729,15 @@
   </si>
   <si>
     <t>De alta expectación cultural</t>
+  </si>
+  <si>
+    <t>Manga original</t>
+  </si>
+  <si>
+    <t>Biografía, Novela</t>
+  </si>
+  <si>
+    <t>Demonios</t>
   </si>
 </sst>
 </file>
@@ -2643,18 +2592,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG25"/>
+  <dimension ref="A1:BF25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AT18" sqref="AT18"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="57" max="57" width="23.109375" customWidth="1"/>
+    <col min="56" max="56" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2662,7 +2611,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -2701,144 +2650,141 @@
         <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="Q1" t="s">
-        <v>468</v>
+        <v>14</v>
       </c>
       <c r="R1" t="s">
-        <v>14</v>
+        <v>445</v>
       </c>
       <c r="S1" t="s">
-        <v>464</v>
+        <v>15</v>
       </c>
       <c r="T1" t="s">
-        <v>15</v>
+        <v>452</v>
       </c>
       <c r="U1" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="V1" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="W1" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="X1" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>463</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>475</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>476</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>477</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>478</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>480</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>479</v>
+      </c>
+      <c r="AF1" t="s">
         <v>481</v>
       </c>
-      <c r="Y1" t="s">
-        <v>482</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>483</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>495</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>496</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>497</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>498</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>500</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>499</v>
-      </c>
       <c r="AG1" t="s">
-        <v>501</v>
+        <v>16</v>
       </c>
       <c r="AH1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AV1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AW1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AX1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AY1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AZ1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BA1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BB1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BC1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BD1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BE1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="BF1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BG1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2">
@@ -2884,61 +2830,61 @@
         <v>54</v>
       </c>
       <c r="R2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" t="s">
         <v>55</v>
       </c>
-      <c r="S2" t="s">
-        <v>46</v>
-      </c>
       <c r="T2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" t="s">
         <v>56</v>
       </c>
-      <c r="U2" t="s">
-        <v>46</v>
-      </c>
       <c r="V2" t="s">
+        <v>87</v>
+      </c>
+      <c r="W2" t="s">
         <v>57</v>
       </c>
-      <c r="W2" t="s">
-        <v>88</v>
-      </c>
       <c r="X2" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y2" t="s">
         <v>58</v>
       </c>
-      <c r="Y2" t="s">
-        <v>506</v>
-      </c>
       <c r="Z2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="AA2" t="s">
         <v>46</v>
       </c>
       <c r="AB2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AC2" t="s">
         <v>61</v>
       </c>
       <c r="AD2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="AE2" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="AF2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH2">
+        <v>46</v>
+      </c>
+      <c r="AG2">
         <v>8.1</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AH2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>30752</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>64</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>30752</v>
       </c>
       <c r="AK2" t="s">
         <v>65</v>
@@ -2953,69 +2899,66 @@
         <v>68</v>
       </c>
       <c r="AO2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>545</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>69</v>
       </c>
-      <c r="AP2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>565</v>
-      </c>
       <c r="AR2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS2" t="s">
         <v>70</v>
       </c>
-      <c r="AS2" t="s">
-        <v>60</v>
-      </c>
       <c r="AT2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV2" t="s">
         <v>71</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>69</v>
       </c>
       <c r="AW2" t="s">
         <v>72</v>
       </c>
-      <c r="AX2" t="s">
-        <v>73</v>
+      <c r="AX2">
+        <v>1</v>
       </c>
       <c r="AY2">
-        <v>1</v>
-      </c>
-      <c r="AZ2">
         <v>0</v>
       </c>
+      <c r="AZ2" t="s">
+        <v>74</v>
+      </c>
       <c r="BA2" t="s">
+        <v>526</v>
+      </c>
+      <c r="BB2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="BC2" s="2">
+        <v>14000000</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="BE2" t="s">
         <v>75</v>
       </c>
-      <c r="BB2" t="s">
-        <v>546</v>
-      </c>
-      <c r="BC2" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="BD2" s="2">
-        <v>14000000</v>
-      </c>
-      <c r="BE2" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="BF2" t="s">
+      <c r="BF2" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>76</v>
       </c>
-      <c r="BG2" s="3" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3">
@@ -3025,7 +2968,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -3034,13 +2977,13 @@
         <v>46</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J3">
         <v>124</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L3" t="s">
         <v>49</v>
@@ -3052,7 +2995,7 @@
         <v>51</v>
       </c>
       <c r="O3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P3" t="s">
         <v>83</v>
@@ -3061,16 +3004,16 @@
         <v>84</v>
       </c>
       <c r="R3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S3" t="s">
         <v>85</v>
       </c>
-      <c r="S3" t="s">
-        <v>46</v>
-      </c>
       <c r="T3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U3" t="s">
         <v>86</v>
-      </c>
-      <c r="U3" t="s">
-        <v>46</v>
       </c>
       <c r="V3" t="s">
         <v>87</v>
@@ -3079,120 +3022,117 @@
         <v>88</v>
       </c>
       <c r="X3" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y3" t="s">
         <v>89</v>
       </c>
-      <c r="Y3" t="s">
-        <v>504</v>
-      </c>
       <c r="Z3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG3">
+        <v>8</v>
+      </c>
+      <c r="AH3" t="s">
         <v>90</v>
       </c>
-      <c r="AA3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH3">
-        <v>8</v>
-      </c>
-      <c r="AI3" t="s">
+      <c r="AI3" s="1">
+        <v>31626</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL3" t="s">
         <v>91</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>31626</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>83</v>
       </c>
       <c r="AM3" t="s">
         <v>92</v>
       </c>
       <c r="AN3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP3" t="s">
         <v>93</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>69</v>
       </c>
       <c r="AQ3" t="s">
         <v>94</v>
       </c>
       <c r="AR3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS3" t="s">
         <v>95</v>
       </c>
-      <c r="AS3" t="s">
-        <v>60</v>
-      </c>
       <c r="AT3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV3" t="s">
         <v>96</v>
       </c>
-      <c r="AU3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>69</v>
-      </c>
       <c r="AW3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX3">
+        <v>8</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="s">
         <v>97</v>
       </c>
-      <c r="AX3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AY3">
-        <v>8</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
       <c r="BA3" t="s">
+        <v>526</v>
+      </c>
+      <c r="BB3" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="BC3" s="2">
+        <v>15700000</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="BE3" t="s">
         <v>98</v>
       </c>
-      <c r="BB3" t="s">
-        <v>546</v>
-      </c>
-      <c r="BC3" s="2">
-        <v>5000000</v>
-      </c>
-      <c r="BD3" s="2">
-        <v>15700000</v>
-      </c>
-      <c r="BE3" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="BF3" t="s">
+      <c r="BF3" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="BG3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>101</v>
-      </c>
       <c r="B4" s="3" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4">
@@ -3211,16 +3151,16 @@
         <v>46</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J4">
         <v>86</v>
       </c>
       <c r="K4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L4" t="s">
         <v>103</v>
-      </c>
-      <c r="L4" t="s">
-        <v>104</v>
       </c>
       <c r="M4" t="s">
         <v>50</v>
@@ -3229,73 +3169,73 @@
         <v>51</v>
       </c>
       <c r="O4" t="s">
+        <v>104</v>
+      </c>
+      <c r="P4" t="s">
         <v>105</v>
-      </c>
-      <c r="P4" t="s">
-        <v>83</v>
       </c>
       <c r="Q4" t="s">
         <v>106</v>
       </c>
       <c r="R4" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" t="s">
         <v>107</v>
       </c>
-      <c r="S4" t="s">
-        <v>46</v>
-      </c>
       <c r="T4" t="s">
+        <v>46</v>
+      </c>
+      <c r="U4" t="s">
         <v>108</v>
       </c>
-      <c r="U4" t="s">
-        <v>46</v>
-      </c>
       <c r="V4" t="s">
+        <v>87</v>
+      </c>
+      <c r="W4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X4" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>473</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC4" t="s">
         <v>109</v>
       </c>
-      <c r="W4" t="s">
-        <v>88</v>
-      </c>
-      <c r="X4" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>505</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>493</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>69</v>
-      </c>
       <c r="AD4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AH4" t="s">
         <v>110</v>
       </c>
-      <c r="AE4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH4">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AI4" t="s">
+      <c r="AI4" s="1">
+        <v>32249</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK4" t="s">
         <v>111</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>32249</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>65</v>
       </c>
       <c r="AL4" t="s">
         <v>112</v>
@@ -3304,97 +3244,94 @@
         <v>113</v>
       </c>
       <c r="AN4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>525</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>114</v>
       </c>
-      <c r="AO4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ4" t="s">
+      <c r="AR4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS4" t="s">
         <v>115</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AT4" t="s">
         <v>116</v>
       </c>
-      <c r="AS4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT4" t="s">
+      <c r="AU4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW4" t="s">
         <v>117</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AX4">
+        <v>2</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="s">
         <v>118</v>
       </c>
-      <c r="AV4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX4" t="s">
+      <c r="BA4" t="s">
+        <v>526</v>
+      </c>
+      <c r="BB4" s="2">
+        <v>3700000</v>
+      </c>
+      <c r="BC4" s="2">
+        <v>41000000</v>
+      </c>
+      <c r="BD4" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="BE4" t="s">
         <v>119</v>
       </c>
-      <c r="AY4">
-        <v>2</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4" t="s">
+      <c r="BF4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="BB4" t="s">
-        <v>546</v>
-      </c>
-      <c r="BC4" s="2">
-        <v>3700000</v>
-      </c>
-      <c r="BD4" s="2">
-        <v>41000000</v>
-      </c>
-      <c r="BE4" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="BF4" t="s">
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>121</v>
       </c>
-      <c r="BG4" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>123</v>
-      </c>
       <c r="B5" s="3" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5">
         <v>1988</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J5">
         <v>89</v>
       </c>
       <c r="K5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M5" t="s">
         <v>50</v>
@@ -3403,144 +3340,141 @@
         <v>51</v>
       </c>
       <c r="O5" t="s">
+        <v>125</v>
+      </c>
+      <c r="P5" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q5" t="s">
         <v>127</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
+        <v>46</v>
+      </c>
+      <c r="S5" t="s">
         <v>128</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="T5" t="s">
+        <v>73</v>
+      </c>
+      <c r="V5" t="s">
+        <v>87</v>
+      </c>
+      <c r="W5" t="s">
+        <v>57</v>
+      </c>
+      <c r="X5" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y5" t="s">
         <v>129</v>
       </c>
-      <c r="R5" t="s">
+      <c r="Z5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG5">
+        <v>8.5</v>
+      </c>
+      <c r="AH5" t="s">
         <v>130</v>
       </c>
-      <c r="S5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="AI5" s="1">
+        <v>32249</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK5" t="s">
         <v>131</v>
       </c>
-      <c r="U5" t="s">
-        <v>74</v>
-      </c>
-      <c r="W5" t="s">
-        <v>88</v>
-      </c>
-      <c r="X5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>538</v>
-      </c>
-      <c r="Z5" t="s">
+      <c r="AL5" t="s">
         <v>132</v>
       </c>
-      <c r="AA5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH5">
-        <v>8.5</v>
-      </c>
-      <c r="AI5" t="s">
+      <c r="AM5" t="s">
         <v>133</v>
       </c>
-      <c r="AJ5" s="1">
-        <v>32249</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL5" t="s">
+      <c r="AN5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>546</v>
+      </c>
+      <c r="AQ5" t="s">
         <v>134</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AR5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>553</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX5">
+        <v>2</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="s">
         <v>135</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="BA5" t="s">
+        <v>526</v>
+      </c>
+      <c r="BB5" s="2">
+        <v>3700000</v>
+      </c>
+      <c r="BC5" s="2">
+        <v>14000000</v>
+      </c>
+      <c r="BD5" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="BE5" t="s">
         <v>136</v>
       </c>
-      <c r="AO5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>566</v>
-      </c>
-      <c r="AR5" t="s">
+      <c r="BF5" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="AS5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>573</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>118</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>119</v>
-      </c>
-      <c r="AY5">
-        <v>2</v>
-      </c>
-      <c r="AZ5">
-        <v>0</v>
-      </c>
-      <c r="BA5" t="s">
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>138</v>
       </c>
-      <c r="BB5" t="s">
-        <v>546</v>
-      </c>
-      <c r="BC5" s="2">
-        <v>3700000</v>
-      </c>
-      <c r="BD5" s="2">
-        <v>14000000</v>
-      </c>
-      <c r="BE5" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>139</v>
-      </c>
-      <c r="BG5" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>141</v>
-      </c>
       <c r="B6" s="3" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6">
@@ -3550,7 +3484,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -3559,16 +3493,16 @@
         <v>46</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J6">
         <v>103</v>
       </c>
       <c r="K6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M6" t="s">
         <v>50</v>
@@ -3577,172 +3511,169 @@
         <v>51</v>
       </c>
       <c r="O6" t="s">
+        <v>142</v>
+      </c>
+      <c r="P6" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>144</v>
+      </c>
+      <c r="R6" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" t="s">
         <v>145</v>
       </c>
-      <c r="P6" t="s">
+      <c r="T6" t="s">
+        <v>46</v>
+      </c>
+      <c r="U6" t="s">
         <v>146</v>
       </c>
-      <c r="Q6" t="s">
-        <v>147</v>
-      </c>
-      <c r="R6" t="s">
-        <v>148</v>
-      </c>
-      <c r="S6" t="s">
-        <v>46</v>
-      </c>
-      <c r="T6" t="s">
-        <v>149</v>
-      </c>
-      <c r="U6" t="s">
-        <v>46</v>
-      </c>
       <c r="V6" t="s">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="W6" t="s">
         <v>88</v>
       </c>
       <c r="X6" t="s">
-        <v>89</v>
+        <v>487</v>
       </c>
       <c r="Y6" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="Z6" t="s">
-        <v>535</v>
+        <v>73</v>
       </c>
       <c r="AA6" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="AB6" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="AC6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD6" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="AE6" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="AF6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH6">
+        <v>46</v>
+      </c>
+      <c r="AG6">
         <v>7.9</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AH6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>32718</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>525</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>151</v>
       </c>
-      <c r="AJ6" s="1">
-        <v>32718</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>134</v>
-      </c>
-      <c r="AM6" t="s">
+      <c r="AR6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS6" t="s">
         <v>152</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AT6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW6" t="s">
         <v>153</v>
       </c>
-      <c r="AO6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ6" t="s">
+      <c r="AX6">
+        <v>2</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="s">
         <v>154</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="BA6" t="s">
+        <v>526</v>
+      </c>
+      <c r="BB6" s="2">
+        <v>6900000</v>
+      </c>
+      <c r="BC6" s="2">
+        <v>1144186</v>
+      </c>
+      <c r="BD6" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="BE6" t="s">
         <v>155</v>
       </c>
-      <c r="AS6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT6" t="s">
+      <c r="BF6" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="AU6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX6" t="s">
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>157</v>
       </c>
-      <c r="AY6">
-        <v>2</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>158</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>546</v>
-      </c>
-      <c r="BC6" s="2">
-        <v>6900000</v>
-      </c>
-      <c r="BD6" s="2">
-        <v>1144186</v>
-      </c>
-      <c r="BE6" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>159</v>
-      </c>
-      <c r="BG6" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>161</v>
-      </c>
       <c r="B7" s="3" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7">
         <v>1991</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H7" t="s">
         <v>46</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J7">
         <v>118</v>
       </c>
       <c r="K7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L7" t="s">
         <v>49</v>
@@ -3754,141 +3685,138 @@
         <v>51</v>
       </c>
       <c r="O7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>163</v>
+      </c>
+      <c r="R7" t="s">
+        <v>73</v>
+      </c>
+      <c r="T7" t="s">
+        <v>73</v>
+      </c>
+      <c r="V7" t="s">
+        <v>87</v>
+      </c>
+      <c r="W7" t="s">
+        <v>57</v>
+      </c>
+      <c r="X7" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG7">
+        <v>7.8</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>33439</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL7" t="s">
         <v>165</v>
       </c>
-      <c r="P7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="AM7" t="s">
         <v>166</v>
       </c>
-      <c r="R7" t="s">
+      <c r="AN7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ7" t="s">
         <v>167</v>
       </c>
-      <c r="S7" t="s">
-        <v>74</v>
-      </c>
-      <c r="U7" t="s">
-        <v>74</v>
-      </c>
-      <c r="W7" t="s">
-        <v>88</v>
-      </c>
-      <c r="X7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>508</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD7" t="s">
+      <c r="AR7" t="s">
         <v>62</v>
       </c>
-      <c r="AE7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH7">
-        <v>7.8</v>
-      </c>
-      <c r="AI7" t="s">
+      <c r="AS7" t="s">
+        <v>554</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX7">
+        <v>1</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="s">
         <v>168</v>
       </c>
-      <c r="AJ7" s="1">
-        <v>33439</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL7" t="s">
+      <c r="BA7" t="s">
+        <v>526</v>
+      </c>
+      <c r="BB7" s="2">
+        <v>15000000</v>
+      </c>
+      <c r="BC7" s="2">
+        <v>576916</v>
+      </c>
+      <c r="BD7" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="BE7" t="s">
         <v>169</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="BF7" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="AN7" t="s">
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>171</v>
       </c>
-      <c r="AO7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AR7" t="s">
+      <c r="B8" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>574</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>69</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AY7">
-        <v>1</v>
-      </c>
-      <c r="AZ7">
-        <v>0</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>173</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>546</v>
-      </c>
-      <c r="BC7" s="2">
-        <v>15000000</v>
-      </c>
-      <c r="BD7" s="2">
-        <v>576916</v>
-      </c>
-      <c r="BE7" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>174</v>
-      </c>
-      <c r="BG7" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8">
@@ -3898,7 +3826,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -3907,13 +3835,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="J8">
         <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="L8" t="s">
         <v>49</v>
@@ -3925,172 +3853,169 @@
         <v>51</v>
       </c>
       <c r="O8" t="s">
+        <v>175</v>
+      </c>
+      <c r="P8" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>177</v>
+      </c>
+      <c r="R8" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8" t="s">
+        <v>178</v>
+      </c>
+      <c r="T8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U8" t="s">
+        <v>459</v>
+      </c>
+      <c r="V8" t="s">
+        <v>87</v>
+      </c>
+      <c r="W8" t="s">
+        <v>57</v>
+      </c>
+      <c r="X8" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>464</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG8">
+        <v>7.7</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>33803</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL8" t="s">
         <v>180</v>
       </c>
-      <c r="P8" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="AM8" t="s">
         <v>181</v>
       </c>
-      <c r="R8" t="s">
+      <c r="AN8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP8" t="s">
         <v>182</v>
       </c>
-      <c r="S8" t="s">
-        <v>46</v>
-      </c>
-      <c r="T8" t="s">
+      <c r="AQ8" t="s">
+        <v>537</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>555</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX8">
+        <v>1</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="s">
         <v>183</v>
       </c>
-      <c r="U8" t="s">
-        <v>46</v>
-      </c>
-      <c r="V8" t="s">
-        <v>479</v>
-      </c>
-      <c r="W8" t="s">
-        <v>88</v>
-      </c>
-      <c r="X8" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>509</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>484</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH8">
-        <v>7.7</v>
-      </c>
-      <c r="AI8" t="s">
+      <c r="BA8" t="s">
+        <v>526</v>
+      </c>
+      <c r="BB8" s="2">
+        <v>9200000</v>
+      </c>
+      <c r="BC8" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="BD8" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="BE8" t="s">
         <v>184</v>
       </c>
-      <c r="AJ8" s="1">
-        <v>33803</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM8" t="s">
+      <c r="BF8" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="9" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>185</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="B9" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>557</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>575</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>119</v>
-      </c>
-      <c r="AY8">
-        <v>1</v>
-      </c>
-      <c r="AZ8">
-        <v>0</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>188</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>546</v>
-      </c>
-      <c r="BC8" s="2">
-        <v>9200000</v>
-      </c>
-      <c r="BD8" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="BE8" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>189</v>
-      </c>
-      <c r="BG8" s="3" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9">
         <v>1994</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H9" t="s">
         <v>46</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="J9">
         <v>119</v>
       </c>
       <c r="K9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="L9" t="s">
         <v>49</v>
@@ -4102,172 +4027,169 @@
         <v>51</v>
       </c>
       <c r="O9" t="s">
+        <v>190</v>
+      </c>
+      <c r="P9" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>192</v>
+      </c>
+      <c r="R9" t="s">
+        <v>46</v>
+      </c>
+      <c r="S9" t="s">
+        <v>193</v>
+      </c>
+      <c r="T9" t="s">
+        <v>46</v>
+      </c>
+      <c r="U9" t="s">
+        <v>458</v>
+      </c>
+      <c r="V9" t="s">
+        <v>87</v>
+      </c>
+      <c r="W9" t="s">
+        <v>57</v>
+      </c>
+      <c r="X9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>465</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG9">
+        <v>7.3</v>
+      </c>
+      <c r="AH9" t="s">
         <v>195</v>
       </c>
-      <c r="P9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="AI9" s="1">
+        <v>34531</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL9" t="s">
         <v>196</v>
       </c>
-      <c r="R9" t="s">
+      <c r="AM9" t="s">
         <v>197</v>
       </c>
-      <c r="S9" t="s">
-        <v>46</v>
-      </c>
-      <c r="T9" t="s">
+      <c r="AN9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP9" t="s">
         <v>198</v>
       </c>
-      <c r="U9" t="s">
-        <v>46</v>
-      </c>
-      <c r="V9" t="s">
-        <v>478</v>
-      </c>
-      <c r="W9" t="s">
-        <v>88</v>
-      </c>
-      <c r="X9" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y9" t="s">
+      <c r="AQ9" t="s">
         <v>199</v>
       </c>
-      <c r="Z9" t="s">
-        <v>485</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH9">
-        <v>7.3</v>
-      </c>
-      <c r="AI9" t="s">
+      <c r="AR9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>556</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX9">
+        <v>2</v>
+      </c>
+      <c r="AY9">
+        <v>1</v>
+      </c>
+      <c r="AZ9" t="s">
         <v>200</v>
       </c>
-      <c r="AJ9" s="1">
-        <v>34531</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM9" t="s">
+      <c r="BA9" t="s">
         <v>201</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="BB9" s="2">
+        <v>12000000</v>
+      </c>
+      <c r="BC9" s="2">
+        <v>16000000</v>
+      </c>
+      <c r="BD9" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="BE9" t="s">
         <v>202</v>
       </c>
-      <c r="AO9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ9" t="s">
+      <c r="BF9" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="AR9" t="s">
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>204</v>
       </c>
-      <c r="AS9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>576</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>69</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>119</v>
-      </c>
-      <c r="AY9">
-        <v>2</v>
-      </c>
-      <c r="AZ9">
-        <v>1</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>205</v>
-      </c>
-      <c r="BB9" t="s">
-        <v>206</v>
-      </c>
-      <c r="BC9" s="2">
-        <v>12000000</v>
-      </c>
-      <c r="BD9" s="2">
-        <v>16000000</v>
-      </c>
-      <c r="BE9" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>207</v>
-      </c>
-      <c r="BG9" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>209</v>
-      </c>
       <c r="B10" s="3" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10">
         <v>1995</v>
       </c>
       <c r="E10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G10" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H10" t="s">
         <v>46</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J10">
         <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L10" t="s">
         <v>49</v>
@@ -4279,144 +4201,141 @@
         <v>51</v>
       </c>
       <c r="O10" t="s">
+        <v>209</v>
+      </c>
+      <c r="P10" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>211</v>
+      </c>
+      <c r="R10" t="s">
+        <v>73</v>
+      </c>
+      <c r="T10" t="s">
+        <v>46</v>
+      </c>
+      <c r="U10" t="s">
+        <v>150</v>
+      </c>
+      <c r="V10" t="s">
+        <v>87</v>
+      </c>
+      <c r="W10" t="s">
+        <v>57</v>
+      </c>
+      <c r="X10" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG10">
+        <v>7.7</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>212</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>34895</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>568</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>213</v>
+      </c>
+      <c r="AM10" t="s">
         <v>214</v>
       </c>
-      <c r="P10" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>216</v>
-      </c>
-      <c r="R10" t="s">
-        <v>217</v>
-      </c>
-      <c r="S10" t="s">
-        <v>74</v>
-      </c>
-      <c r="U10" t="s">
-        <v>46</v>
-      </c>
-      <c r="V10" t="s">
-        <v>154</v>
-      </c>
-      <c r="W10" t="s">
-        <v>88</v>
-      </c>
-      <c r="X10" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>510</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD10" t="s">
+      <c r="AN10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>525</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>134</v>
+      </c>
+      <c r="AR10" t="s">
         <v>62</v>
       </c>
-      <c r="AE10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH10">
-        <v>7.7</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>218</v>
-      </c>
-      <c r="AJ10" s="1">
-        <v>34895</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>219</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>220</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>221</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>154</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>137</v>
-      </c>
       <c r="AS10" t="s">
-        <v>63</v>
+        <v>557</v>
       </c>
       <c r="AT10" t="s">
-        <v>577</v>
+        <v>68</v>
       </c>
       <c r="AU10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="AV10" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="AW10" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
       </c>
       <c r="AY10">
-        <v>0</v>
-      </c>
-      <c r="AZ10">
         <v>1</v>
       </c>
+      <c r="AZ10" t="s">
+        <v>526</v>
+      </c>
       <c r="BA10" t="s">
-        <v>546</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>188</v>
+        <v>183</v>
+      </c>
+      <c r="BB10" s="2">
+        <v>10000000</v>
       </c>
       <c r="BC10" s="2">
         <v>10000000</v>
       </c>
-      <c r="BD10" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="BE10" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>222</v>
-      </c>
-      <c r="BG10" s="3" t="s">
-        <v>223</v>
+      <c r="BD10" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>215</v>
+      </c>
+      <c r="BF10" s="3" t="s">
+        <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11">
@@ -4426,7 +4345,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -4435,16 +4354,16 @@
         <v>46</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J11">
         <v>134</v>
       </c>
       <c r="K11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M11" t="s">
         <v>50</v>
@@ -4453,175 +4372,172 @@
         <v>51</v>
       </c>
       <c r="O11" t="s">
+        <v>220</v>
+      </c>
+      <c r="P11" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>222</v>
+      </c>
+      <c r="R11" t="s">
+        <v>46</v>
+      </c>
+      <c r="S11" t="s">
+        <v>223</v>
+      </c>
+      <c r="T11" t="s">
+        <v>46</v>
+      </c>
+      <c r="U11" t="s">
+        <v>457</v>
+      </c>
+      <c r="V11" t="s">
+        <v>87</v>
+      </c>
+      <c r="W11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X11" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>466</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG11">
+        <v>8.4</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>35623</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>225</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>226</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>547</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>538</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>558</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX11">
+        <v>2</v>
+      </c>
+      <c r="AY11">
+        <v>1</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>154</v>
+      </c>
+      <c r="BA11" t="s">
         <v>227</v>
       </c>
-      <c r="P11" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="BB11" s="2">
+        <v>23500000</v>
+      </c>
+      <c r="BC11" s="2">
+        <v>231247030</v>
+      </c>
+      <c r="BD11" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="BE11" t="s">
         <v>228</v>
       </c>
-      <c r="R11" t="s">
+      <c r="BF11" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="S11" t="s">
-        <v>46</v>
-      </c>
-      <c r="T11" t="s">
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>230</v>
       </c>
-      <c r="U11" t="s">
-        <v>46</v>
-      </c>
-      <c r="V11" t="s">
-        <v>477</v>
-      </c>
-      <c r="W11" t="s">
-        <v>88</v>
-      </c>
-      <c r="X11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>505</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>486</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH11">
-        <v>8.4</v>
-      </c>
-      <c r="AI11" t="s">
+      <c r="B12" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="AJ11" s="1">
-        <v>35623</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>567</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>558</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>578</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>118</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>118</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AY11">
-        <v>2</v>
-      </c>
-      <c r="AZ11">
-        <v>1</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>158</v>
-      </c>
-      <c r="BB11" t="s">
-        <v>234</v>
-      </c>
-      <c r="BC11" s="2">
-        <v>23500000</v>
-      </c>
-      <c r="BD11" s="2">
-        <v>231247030</v>
-      </c>
-      <c r="BE11" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="BF11" t="s">
-        <v>235</v>
-      </c>
-      <c r="BG11" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>237</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12">
         <v>1999</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G12" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="H12" t="s">
         <v>46</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="J12">
         <v>104</v>
       </c>
       <c r="K12" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="L12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M12" t="s">
         <v>50</v>
@@ -4630,141 +4546,138 @@
         <v>51</v>
       </c>
       <c r="O12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="P12" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="Q12" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="R12" t="s">
-        <v>245</v>
-      </c>
-      <c r="S12" t="s">
-        <v>74</v>
-      </c>
-      <c r="U12" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="T12" t="s">
+        <v>73</v>
+      </c>
+      <c r="V12" t="s">
+        <v>87</v>
       </c>
       <c r="W12" t="s">
-        <v>88</v>
+        <v>238</v>
       </c>
       <c r="X12" t="s">
-        <v>246</v>
+        <v>491</v>
       </c>
       <c r="Y12" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="Z12" t="s">
-        <v>533</v>
+        <v>73</v>
       </c>
       <c r="AA12" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="AB12" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="AC12" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="AD12" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="AE12" t="s">
-        <v>74</v>
+        <v>239</v>
       </c>
       <c r="AF12" t="s">
-        <v>247</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH12">
+        <v>73</v>
+      </c>
+      <c r="AG12">
         <v>7.1</v>
       </c>
-      <c r="AI12" t="s">
-        <v>248</v>
-      </c>
-      <c r="AJ12" s="1">
+      <c r="AH12" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI12" s="1">
         <v>36358</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>64</v>
       </c>
       <c r="AK12" t="s">
         <v>65</v>
       </c>
       <c r="AL12" t="s">
-        <v>66</v>
+        <v>241</v>
       </c>
       <c r="AM12" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AN12" t="s">
-        <v>250</v>
+        <v>61</v>
       </c>
       <c r="AO12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>243</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>539</v>
+      </c>
+      <c r="AR12" t="s">
         <v>62</v>
       </c>
-      <c r="AP12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>251</v>
-      </c>
-      <c r="AR12" t="s">
+      <c r="AS12" t="s">
         <v>559</v>
       </c>
-      <c r="AS12" t="s">
-        <v>63</v>
-      </c>
       <c r="AT12" t="s">
-        <v>579</v>
+        <v>61</v>
       </c>
       <c r="AU12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV12" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="AW12" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX12" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AX12">
+        <v>1</v>
       </c>
       <c r="AY12">
-        <v>1</v>
-      </c>
-      <c r="AZ12">
         <v>0</v>
       </c>
+      <c r="AZ12" t="s">
+        <v>244</v>
+      </c>
       <c r="BA12" t="s">
-        <v>252</v>
-      </c>
-      <c r="BB12" t="s">
-        <v>546</v>
+        <v>526</v>
+      </c>
+      <c r="BB12" s="2">
+        <v>20000000</v>
       </c>
       <c r="BC12" s="2">
-        <v>20000000</v>
-      </c>
-      <c r="BD12" s="2">
         <v>11000000</v>
       </c>
-      <c r="BE12" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="BF12" t="s">
-        <v>253</v>
-      </c>
-      <c r="BG12" s="3" t="s">
-        <v>254</v>
+      <c r="BD12" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>245</v>
+      </c>
+      <c r="BF12" s="3" t="s">
+        <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13">
@@ -4774,7 +4687,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -4783,13 +4696,13 @@
         <v>46</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="J13">
         <v>125</v>
       </c>
       <c r="K13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s">
         <v>49</v>
@@ -4801,175 +4714,172 @@
         <v>51</v>
       </c>
       <c r="O13" t="s">
+        <v>250</v>
+      </c>
+      <c r="P13" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>252</v>
+      </c>
+      <c r="R13" t="s">
+        <v>46</v>
+      </c>
+      <c r="S13" t="s">
+        <v>253</v>
+      </c>
+      <c r="T13" t="s">
+        <v>46</v>
+      </c>
+      <c r="U13" t="s">
+        <v>456</v>
+      </c>
+      <c r="V13" t="s">
+        <v>87</v>
+      </c>
+      <c r="W13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X13" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>467</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG13">
+        <v>8.6</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>37092</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>256</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>455</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>540</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>560</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX13">
+        <v>7</v>
+      </c>
+      <c r="AY13">
+        <v>4</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>520</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>519</v>
+      </c>
+      <c r="BB13" s="2">
+        <v>19000000</v>
+      </c>
+      <c r="BC13" s="2">
+        <v>395800000</v>
+      </c>
+      <c r="BD13" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>257</v>
+      </c>
+      <c r="BF13" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="P13" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q13" t="s">
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>259</v>
       </c>
-      <c r="R13" t="s">
-        <v>260</v>
-      </c>
-      <c r="S13" t="s">
-        <v>46</v>
-      </c>
-      <c r="T13" t="s">
-        <v>261</v>
-      </c>
-      <c r="U13" t="s">
-        <v>46</v>
-      </c>
-      <c r="V13" t="s">
-        <v>476</v>
-      </c>
-      <c r="W13" t="s">
-        <v>88</v>
-      </c>
-      <c r="X13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>512</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>487</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH13">
-        <v>8.6</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>262</v>
-      </c>
-      <c r="AJ13" s="1">
-        <v>37092</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>263</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>264</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>475</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>560</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>580</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>118</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>118</v>
-      </c>
-      <c r="AW13" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX13" t="s">
-        <v>119</v>
-      </c>
-      <c r="AY13">
-        <v>7</v>
-      </c>
-      <c r="AZ13">
-        <v>4</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>540</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>539</v>
-      </c>
-      <c r="BC13" s="2">
-        <v>19000000</v>
-      </c>
-      <c r="BD13" s="2">
-        <v>395800000</v>
-      </c>
-      <c r="BE13" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="BF13" t="s">
-        <v>265</v>
-      </c>
-      <c r="BG13" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>267</v>
-      </c>
       <c r="B14" s="3" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14">
         <v>2002</v>
       </c>
       <c r="E14" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H14" t="s">
         <v>46</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="J14">
         <v>75</v>
       </c>
       <c r="K14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M14" t="s">
         <v>50</v>
@@ -4978,147 +4888,144 @@
         <v>51</v>
       </c>
       <c r="O14" t="s">
+        <v>262</v>
+      </c>
+      <c r="P14" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>264</v>
+      </c>
+      <c r="R14" t="s">
+        <v>46</v>
+      </c>
+      <c r="S14" t="s">
+        <v>265</v>
+      </c>
+      <c r="T14" t="s">
+        <v>46</v>
+      </c>
+      <c r="U14" t="s">
+        <v>266</v>
+      </c>
+      <c r="V14" t="s">
+        <v>87</v>
+      </c>
+      <c r="W14" t="s">
+        <v>57</v>
+      </c>
+      <c r="X14" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>499</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG14">
+        <v>7.2</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>37456</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>268</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>269</v>
+      </c>
+      <c r="AM14" t="s">
         <v>270</v>
       </c>
-      <c r="P14" t="s">
+      <c r="AN14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>525</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>541</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS14" t="s">
         <v>271</v>
       </c>
-      <c r="Q14" t="s">
-        <v>272</v>
-      </c>
-      <c r="R14" t="s">
-        <v>273</v>
-      </c>
-      <c r="S14" t="s">
-        <v>46</v>
-      </c>
-      <c r="T14" t="s">
-        <v>274</v>
-      </c>
-      <c r="U14" t="s">
-        <v>46</v>
-      </c>
-      <c r="V14" t="s">
-        <v>275</v>
-      </c>
-      <c r="W14" t="s">
-        <v>88</v>
-      </c>
-      <c r="X14" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>508</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>519</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH14">
-        <v>7.2</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>276</v>
-      </c>
-      <c r="AJ14" s="1">
-        <v>37456</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>277</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>278</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>279</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>545</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>561</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>60</v>
-      </c>
       <c r="AT14" t="s">
-        <v>280</v>
+        <v>61</v>
       </c>
       <c r="AU14" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="AV14" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="AW14" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX14" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AX14">
+        <v>1</v>
       </c>
       <c r="AY14">
         <v>1</v>
       </c>
-      <c r="AZ14">
-        <v>1</v>
+      <c r="AZ14" t="s">
+        <v>272</v>
       </c>
       <c r="BA14" t="s">
-        <v>281</v>
-      </c>
-      <c r="BB14" t="s">
-        <v>188</v>
+        <v>183</v>
+      </c>
+      <c r="BB14" s="2">
+        <v>20000000</v>
       </c>
       <c r="BC14" s="2">
-        <v>20000000</v>
-      </c>
-      <c r="BD14" s="2">
         <v>54000000</v>
       </c>
-      <c r="BE14" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="BF14" t="s">
-        <v>282</v>
-      </c>
-      <c r="BG14" s="3" t="s">
-        <v>283</v>
+      <c r="BD14" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>273</v>
+      </c>
+      <c r="BF14" s="3" t="s">
+        <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15">
@@ -5128,7 +5035,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -5137,13 +5044,13 @@
         <v>46</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="J15">
         <v>119</v>
       </c>
       <c r="K15" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="L15" t="s">
         <v>49</v>
@@ -5155,172 +5062,169 @@
         <v>51</v>
       </c>
       <c r="O15" t="s">
+        <v>278</v>
+      </c>
+      <c r="P15" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>280</v>
+      </c>
+      <c r="R15" t="s">
+        <v>46</v>
+      </c>
+      <c r="S15" t="s">
+        <v>281</v>
+      </c>
+      <c r="T15" t="s">
+        <v>46</v>
+      </c>
+      <c r="U15" t="s">
+        <v>285</v>
+      </c>
+      <c r="V15" t="s">
+        <v>450</v>
+      </c>
+      <c r="W15" t="s">
+        <v>483</v>
+      </c>
+      <c r="X15" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>468</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG15">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>282</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>38311</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>283</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>284</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>548</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>542</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX15">
+        <v>2</v>
+      </c>
+      <c r="AY15">
+        <v>1</v>
+      </c>
+      <c r="AZ15" t="s">
         <v>287</v>
       </c>
-      <c r="P15" t="s">
+      <c r="BA15" t="s">
         <v>288</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="BB15" s="2">
+        <v>24000000</v>
+      </c>
+      <c r="BC15" s="2">
+        <v>239589856</v>
+      </c>
+      <c r="BD15" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="BE15" t="s">
         <v>289</v>
       </c>
-      <c r="R15" t="s">
+      <c r="BF15" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="S15" t="s">
-        <v>46</v>
-      </c>
-      <c r="T15" t="s">
+    </row>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>291</v>
       </c>
-      <c r="U15" t="s">
-        <v>46</v>
-      </c>
-      <c r="V15" t="s">
-        <v>295</v>
-      </c>
-      <c r="W15" t="s">
-        <v>470</v>
-      </c>
-      <c r="X15" t="s">
-        <v>503</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>504</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>488</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH15">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AI15" t="s">
+      <c r="B16" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="AJ15" s="1">
-        <v>38311</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>134</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>293</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>294</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>568</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>562</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>296</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AY15">
-        <v>2</v>
-      </c>
-      <c r="AZ15">
-        <v>1</v>
-      </c>
-      <c r="BA15" t="s">
-        <v>297</v>
-      </c>
-      <c r="BB15" t="s">
-        <v>298</v>
-      </c>
-      <c r="BC15" s="2">
-        <v>24000000</v>
-      </c>
-      <c r="BD15" s="2">
-        <v>239589856</v>
-      </c>
-      <c r="BE15" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="BF15" t="s">
-        <v>299</v>
-      </c>
-      <c r="BG15" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>301</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16">
         <v>2006</v>
       </c>
       <c r="E16" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="F16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G16" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="H16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J16">
         <v>115</v>
       </c>
       <c r="K16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M16" t="s">
         <v>50</v>
@@ -5329,147 +5233,144 @@
         <v>51</v>
       </c>
       <c r="O16" t="s">
+        <v>294</v>
+      </c>
+      <c r="P16" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>296</v>
+      </c>
+      <c r="R16" t="s">
+        <v>46</v>
+      </c>
+      <c r="S16" t="s">
+        <v>297</v>
+      </c>
+      <c r="T16" t="s">
+        <v>46</v>
+      </c>
+      <c r="U16" t="s">
+        <v>301</v>
+      </c>
+      <c r="V16" t="s">
+        <v>87</v>
+      </c>
+      <c r="W16" t="s">
+        <v>57</v>
+      </c>
+      <c r="X16" t="s">
+        <v>493</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>466</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG16">
+        <v>6.4</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>298</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>38927</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>299</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>300</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>301</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>543</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>302</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>1</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>526</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB16" s="2">
+        <v>22000000</v>
+      </c>
+      <c r="BC16" s="2">
+        <v>68600000</v>
+      </c>
+      <c r="BD16" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="BE16" t="s">
         <v>304</v>
       </c>
-      <c r="P16" t="s">
+      <c r="BF16" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="Q16" t="s">
+    </row>
+    <row r="17" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>306</v>
       </c>
-      <c r="R16" t="s">
+      <c r="B17" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="S16" t="s">
-        <v>46</v>
-      </c>
-      <c r="T16" t="s">
-        <v>308</v>
-      </c>
-      <c r="U16" t="s">
-        <v>46</v>
-      </c>
-      <c r="V16" t="s">
-        <v>312</v>
-      </c>
-      <c r="W16" t="s">
-        <v>88</v>
-      </c>
-      <c r="X16" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>513</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>486</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH16">
-        <v>6.4</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>309</v>
-      </c>
-      <c r="AJ16" s="1">
-        <v>38927</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>134</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>310</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>311</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>312</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>563</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>313</v>
-      </c>
-      <c r="AU16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX16" t="s">
-        <v>119</v>
-      </c>
-      <c r="AY16">
-        <v>0</v>
-      </c>
-      <c r="AZ16">
-        <v>1</v>
-      </c>
-      <c r="BA16" t="s">
-        <v>546</v>
-      </c>
-      <c r="BB16" t="s">
-        <v>188</v>
-      </c>
-      <c r="BC16" s="2">
-        <v>22000000</v>
-      </c>
-      <c r="BD16" s="2">
-        <v>68600000</v>
-      </c>
-      <c r="BE16" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="BF16" t="s">
-        <v>315</v>
-      </c>
-      <c r="BG16" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>317</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17">
@@ -5479,7 +5380,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -5488,16 +5389,16 @@
         <v>46</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="J17">
         <v>101</v>
       </c>
       <c r="K17" t="s">
+        <v>102</v>
+      </c>
+      <c r="L17" t="s">
         <v>103</v>
-      </c>
-      <c r="L17" t="s">
-        <v>104</v>
       </c>
       <c r="M17" t="s">
         <v>50</v>
@@ -5506,175 +5407,172 @@
         <v>51</v>
       </c>
       <c r="O17" t="s">
+        <v>309</v>
+      </c>
+      <c r="P17" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>311</v>
+      </c>
+      <c r="R17" t="s">
+        <v>46</v>
+      </c>
+      <c r="S17" t="s">
+        <v>312</v>
+      </c>
+      <c r="T17" t="s">
+        <v>46</v>
+      </c>
+      <c r="U17" t="s">
+        <v>316</v>
+      </c>
+      <c r="V17" t="s">
+        <v>87</v>
+      </c>
+      <c r="W17" t="s">
+        <v>57</v>
+      </c>
+      <c r="X17" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>514</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG17">
+        <v>7.7</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>313</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>39648</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>314</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>315</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>549</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>317</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>561</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX17">
+        <v>2</v>
+      </c>
+      <c r="AY17">
+        <v>1</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>318</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>319</v>
+      </c>
+      <c r="BB17" s="2">
+        <v>34000000</v>
+      </c>
+      <c r="BC17" s="2">
+        <v>205162666</v>
+      </c>
+      <c r="BD17" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="BE17" t="s">
         <v>320</v>
       </c>
-      <c r="P17" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q17" t="s">
+      <c r="BF17" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="18" spans="1:58" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>321</v>
       </c>
-      <c r="R17" t="s">
-        <v>322</v>
-      </c>
-      <c r="S17" t="s">
-        <v>46</v>
-      </c>
-      <c r="T17" t="s">
-        <v>323</v>
-      </c>
-      <c r="U17" t="s">
-        <v>46</v>
-      </c>
-      <c r="V17" t="s">
-        <v>327</v>
-      </c>
-      <c r="W17" t="s">
-        <v>88</v>
-      </c>
-      <c r="X17" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>509</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>534</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH17">
-        <v>7.7</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>324</v>
-      </c>
-      <c r="AJ17" s="1">
-        <v>39648</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>325</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>326</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>118</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>569</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>328</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>60</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>581</v>
-      </c>
-      <c r="AU17" t="s">
-        <v>69</v>
-      </c>
-      <c r="AV17" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX17" t="s">
-        <v>119</v>
-      </c>
-      <c r="AY17">
-        <v>2</v>
-      </c>
-      <c r="AZ17">
-        <v>1</v>
-      </c>
-      <c r="BA17" t="s">
-        <v>329</v>
-      </c>
-      <c r="BB17" t="s">
-        <v>330</v>
-      </c>
-      <c r="BC17" s="2">
-        <v>34000000</v>
-      </c>
-      <c r="BD17" s="2">
-        <v>205162666</v>
-      </c>
-      <c r="BE17" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="BF17" t="s">
-        <v>331</v>
-      </c>
-      <c r="BG17" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>332</v>
-      </c>
       <c r="B18" s="3" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18">
         <v>2010</v>
       </c>
       <c r="E18" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="F18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G18" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="H18" t="s">
         <v>46</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="J18">
         <v>94</v>
       </c>
       <c r="K18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M18" t="s">
         <v>50</v>
@@ -5683,172 +5581,169 @@
         <v>51</v>
       </c>
       <c r="O18" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="P18" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="Q18" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="R18" t="s">
-        <v>339</v>
+        <v>46</v>
       </c>
       <c r="S18" t="s">
-        <v>46</v>
+        <v>328</v>
       </c>
       <c r="T18" t="s">
-        <v>340</v>
+        <v>46</v>
       </c>
       <c r="U18" t="s">
-        <v>46</v>
+        <v>454</v>
       </c>
       <c r="V18" t="s">
-        <v>474</v>
+        <v>87</v>
       </c>
       <c r="W18" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="X18" t="s">
-        <v>58</v>
+        <v>486</v>
       </c>
       <c r="Y18" t="s">
-        <v>506</v>
+        <v>467</v>
       </c>
       <c r="Z18" t="s">
-        <v>487</v>
+        <v>73</v>
       </c>
       <c r="AA18" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="AB18" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="AC18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG18">
+        <v>7.6</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>329</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>40376</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>330</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>331</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>332</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>333</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>544</v>
+      </c>
+      <c r="AR18" t="s">
         <v>62</v>
       </c>
-      <c r="AD18" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH18">
-        <v>7.6</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>341</v>
-      </c>
-      <c r="AJ18" s="1">
-        <v>40376</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>342</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>343</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>344</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>345</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>564</v>
-      </c>
       <c r="AS18" t="s">
-        <v>63</v>
+        <v>562</v>
       </c>
       <c r="AT18" t="s">
-        <v>582</v>
+        <v>68</v>
       </c>
       <c r="AU18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AV18" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="AW18" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX18" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AX18">
+        <v>1</v>
       </c>
       <c r="AY18">
         <v>1</v>
       </c>
-      <c r="AZ18">
-        <v>1</v>
+      <c r="AZ18" t="s">
+        <v>183</v>
       </c>
       <c r="BA18" t="s">
-        <v>188</v>
-      </c>
-      <c r="BB18" t="s">
-        <v>346</v>
+        <v>334</v>
+      </c>
+      <c r="BB18" s="2">
+        <v>23000000</v>
       </c>
       <c r="BC18" s="2">
-        <v>23000000</v>
-      </c>
-      <c r="BD18" s="2">
         <v>151496097</v>
       </c>
-      <c r="BE18" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="BF18" t="s">
-        <v>348</v>
-      </c>
-      <c r="BG18" s="3" t="s">
-        <v>349</v>
+      <c r="BD18" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>336</v>
+      </c>
+      <c r="BF18" s="3" t="s">
+        <v>337</v>
       </c>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19">
         <v>2011</v>
       </c>
       <c r="E19" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="F19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G19" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="H19" t="s">
         <v>46</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="J19">
         <v>91</v>
       </c>
       <c r="K19" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="L19" t="s">
         <v>49</v>
@@ -5860,141 +5755,138 @@
         <v>51</v>
       </c>
       <c r="O19" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="P19" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="Q19" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="R19" t="s">
-        <v>358</v>
-      </c>
-      <c r="S19" t="s">
-        <v>74</v>
-      </c>
-      <c r="U19" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="T19" t="s">
+        <v>73</v>
+      </c>
+      <c r="V19" t="s">
+        <v>87</v>
       </c>
       <c r="W19" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="X19" t="s">
-        <v>58</v>
+        <v>494</v>
       </c>
       <c r="Y19" t="s">
-        <v>514</v>
+        <v>469</v>
       </c>
       <c r="Z19" t="s">
-        <v>489</v>
+        <v>73</v>
       </c>
       <c r="AA19" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="AB19" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="AC19" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="AD19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG19">
+        <v>7.3</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>40740</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>568</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>348</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>525</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>349</v>
+      </c>
+      <c r="AR19" t="s">
         <v>62</v>
       </c>
-      <c r="AE19" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH19">
-        <v>7.3</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>359</v>
-      </c>
-      <c r="AJ19" s="1">
-        <v>40740</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>219</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>360</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>361</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>545</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>362</v>
-      </c>
       <c r="AS19" t="s">
-        <v>63</v>
+        <v>563</v>
       </c>
       <c r="AT19" t="s">
-        <v>583</v>
+        <v>61</v>
       </c>
       <c r="AU19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV19" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="AW19" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX19" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AX19">
+        <v>1</v>
       </c>
       <c r="AY19">
-        <v>1</v>
-      </c>
-      <c r="AZ19">
         <v>0</v>
       </c>
+      <c r="AZ19" t="s">
+        <v>183</v>
+      </c>
       <c r="BA19" t="s">
-        <v>188</v>
-      </c>
-      <c r="BB19" t="s">
-        <v>546</v>
+        <v>526</v>
+      </c>
+      <c r="BB19" s="2">
+        <v>22000000</v>
       </c>
       <c r="BC19" s="2">
-        <v>22000000</v>
-      </c>
-      <c r="BD19" s="2">
         <v>61000000</v>
       </c>
-      <c r="BE19" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="BF19" t="s">
-        <v>363</v>
-      </c>
-      <c r="BG19" s="3" t="s">
-        <v>364</v>
+      <c r="BD19" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>350</v>
+      </c>
+      <c r="BF19" s="3" t="s">
+        <v>351</v>
       </c>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20">
@@ -6004,7 +5896,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -6013,16 +5905,16 @@
         <v>46</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="J20">
         <v>126</v>
       </c>
       <c r="K20" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="L20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M20" t="s">
         <v>50</v>
@@ -6031,154 +5923,151 @@
         <v>51</v>
       </c>
       <c r="O20" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="P20" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="Q20" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="R20" t="s">
-        <v>371</v>
+        <v>46</v>
       </c>
       <c r="S20" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="T20" t="s">
-        <v>131</v>
-      </c>
-      <c r="U20" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="V20" t="s">
+        <v>87</v>
       </c>
       <c r="W20" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="X20" t="s">
-        <v>58</v>
+        <v>495</v>
       </c>
       <c r="Y20" t="s">
-        <v>515</v>
+        <v>129</v>
       </c>
       <c r="Z20" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="AA20" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="AB20" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="AC20" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="AD20" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG20">
+        <v>7.8</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>41475</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>569</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>359</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>360</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>550</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>537</v>
+      </c>
+      <c r="AR20" t="s">
         <v>62</v>
       </c>
-      <c r="AE20" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH20">
-        <v>7.8</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>372</v>
-      </c>
-      <c r="AJ20" s="1">
-        <v>41475</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>373</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>374</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>375</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>570</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>557</v>
-      </c>
       <c r="AS20" t="s">
-        <v>63</v>
+        <v>361</v>
       </c>
       <c r="AT20" t="s">
-        <v>376</v>
+        <v>68</v>
       </c>
       <c r="AU20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AV20" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="AW20" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX20" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AX20">
+        <v>1</v>
       </c>
       <c r="AY20">
-        <v>1</v>
-      </c>
-      <c r="AZ20">
         <v>2</v>
       </c>
+      <c r="AZ20" t="s">
+        <v>183</v>
+      </c>
       <c r="BA20" t="s">
-        <v>188</v>
-      </c>
-      <c r="BB20" t="s">
-        <v>377</v>
+        <v>362</v>
+      </c>
+      <c r="BB20" s="2">
+        <v>30000000</v>
       </c>
       <c r="BC20" s="2">
-        <v>30000000</v>
-      </c>
-      <c r="BD20" s="2">
         <v>137000000</v>
       </c>
-      <c r="BE20" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="BF20" t="s">
-        <v>551</v>
-      </c>
-      <c r="BG20" s="3" t="s">
-        <v>378</v>
+      <c r="BD20" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>531</v>
+      </c>
+      <c r="BF20" s="3" t="s">
+        <v>363</v>
       </c>
     </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21">
         <v>2013</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -6187,13 +6076,13 @@
         <v>46</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="J21">
         <v>137</v>
       </c>
       <c r="K21" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="L21" t="s">
         <v>49</v>
@@ -6205,169 +6094,166 @@
         <v>51</v>
       </c>
       <c r="O21" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="P21" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="Q21" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="R21" t="s">
-        <v>386</v>
+        <v>46</v>
       </c>
       <c r="S21" t="s">
-        <v>46</v>
+        <v>371</v>
       </c>
       <c r="T21" t="s">
-        <v>387</v>
-      </c>
-      <c r="U21" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="V21" t="s">
+        <v>87</v>
       </c>
       <c r="W21" t="s">
-        <v>88</v>
+        <v>482</v>
       </c>
       <c r="X21" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="Y21" t="s">
-        <v>514</v>
+        <v>470</v>
       </c>
       <c r="Z21" t="s">
-        <v>490</v>
+        <v>73</v>
       </c>
       <c r="AA21" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="AB21" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="AC21" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="AD21" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="AE21" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="AF21" t="s">
         <v>46</v>
       </c>
-      <c r="AG21" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH21">
+      <c r="AG21">
         <v>8</v>
       </c>
-      <c r="AI21" t="s">
-        <v>388</v>
-      </c>
-      <c r="AJ21" s="1">
+      <c r="AH21" t="s">
+        <v>372</v>
+      </c>
+      <c r="AI21" s="1">
         <v>41601</v>
       </c>
+      <c r="AJ21" t="s">
+        <v>64</v>
+      </c>
       <c r="AK21" t="s">
-        <v>65</v>
+        <v>373</v>
       </c>
       <c r="AL21" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="AM21" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="AN21" t="s">
-        <v>391</v>
+        <v>68</v>
       </c>
       <c r="AO21" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="AP21" t="s">
-        <v>110</v>
+        <v>551</v>
       </c>
       <c r="AQ21" t="s">
-        <v>571</v>
+        <v>376</v>
       </c>
       <c r="AR21" t="s">
-        <v>392</v>
+        <v>62</v>
       </c>
       <c r="AS21" t="s">
-        <v>63</v>
+        <v>564</v>
       </c>
       <c r="AT21" t="s">
-        <v>584</v>
+        <v>68</v>
       </c>
       <c r="AU21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AV21" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="AW21" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX21" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AX21">
+        <v>2</v>
       </c>
       <c r="AY21">
-        <v>2</v>
-      </c>
-      <c r="AZ21">
         <v>1</v>
       </c>
+      <c r="AZ21" t="s">
+        <v>377</v>
+      </c>
       <c r="BA21" t="s">
-        <v>393</v>
-      </c>
-      <c r="BB21" t="s">
-        <v>298</v>
+        <v>288</v>
+      </c>
+      <c r="BB21" s="2">
+        <v>49300000</v>
       </c>
       <c r="BC21" s="2">
-        <v>49300000</v>
-      </c>
-      <c r="BD21" s="2">
         <v>24700000</v>
       </c>
-      <c r="BE21" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="BF21" t="s">
-        <v>394</v>
-      </c>
-      <c r="BG21" s="3" t="s">
-        <v>549</v>
+      <c r="BD21" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>378</v>
+      </c>
+      <c r="BF21" s="3" t="s">
+        <v>529</v>
       </c>
     </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22">
         <v>2014</v>
       </c>
       <c r="E22" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="F22" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="G22" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="H22" t="s">
         <v>46</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="J22">
         <v>103</v>
       </c>
       <c r="K22" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="L22" t="s">
         <v>49</v>
@@ -6379,349 +6265,343 @@
         <v>51</v>
       </c>
       <c r="O22" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="P22" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="Q22" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="R22" t="s">
-        <v>402</v>
+        <v>46</v>
       </c>
       <c r="S22" t="s">
-        <v>46</v>
+        <v>386</v>
       </c>
       <c r="T22" t="s">
-        <v>403</v>
+        <v>46</v>
       </c>
       <c r="U22" t="s">
-        <v>46</v>
+        <v>453</v>
       </c>
       <c r="V22" t="s">
-        <v>473</v>
+        <v>87</v>
       </c>
       <c r="W22" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="X22" t="s">
-        <v>58</v>
+        <v>496</v>
       </c>
       <c r="Y22" t="s">
-        <v>516</v>
+        <v>471</v>
       </c>
       <c r="Z22" t="s">
-        <v>491</v>
+        <v>73</v>
       </c>
       <c r="AA22" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="AB22" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="AC22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AD22" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="AE22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF22" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH22">
+        <v>73</v>
+      </c>
+      <c r="AG22">
         <v>7.5</v>
       </c>
-      <c r="AI22" t="s">
-        <v>404</v>
-      </c>
-      <c r="AJ22" s="1">
+      <c r="AH22" t="s">
+        <v>387</v>
+      </c>
+      <c r="AI22" s="1">
         <v>41839</v>
       </c>
+      <c r="AJ22" t="s">
+        <v>64</v>
+      </c>
       <c r="AK22" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="AL22" t="s">
-        <v>134</v>
+        <v>388</v>
       </c>
       <c r="AM22" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="AN22" t="s">
-        <v>406</v>
+        <v>61</v>
       </c>
       <c r="AO22" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="AP22" t="s">
-        <v>69</v>
+        <v>390</v>
       </c>
       <c r="AQ22" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="AR22" t="s">
-        <v>408</v>
+        <v>59</v>
       </c>
       <c r="AS22" t="s">
-        <v>60</v>
+        <v>565</v>
       </c>
       <c r="AT22" t="s">
-        <v>585</v>
+        <v>61</v>
       </c>
       <c r="AU22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV22" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="AW22" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX22" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
       </c>
       <c r="AY22">
-        <v>0</v>
-      </c>
-      <c r="AZ22">
         <v>2</v>
       </c>
+      <c r="AZ22" t="s">
+        <v>526</v>
+      </c>
       <c r="BA22" t="s">
-        <v>546</v>
-      </c>
-      <c r="BB22" t="s">
-        <v>409</v>
+        <v>392</v>
+      </c>
+      <c r="BB22" s="2">
+        <v>10500000</v>
       </c>
       <c r="BC22" s="2">
-        <v>10500000</v>
-      </c>
-      <c r="BD22" s="2">
         <v>41000000</v>
       </c>
-      <c r="BE22" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="BF22" t="s">
-        <v>410</v>
-      </c>
-      <c r="BG22" s="3" t="s">
-        <v>411</v>
+      <c r="BD22" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>393</v>
+      </c>
+      <c r="BF22" s="3" t="s">
+        <v>394</v>
       </c>
     </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23">
         <v>2016</v>
       </c>
       <c r="E23" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="F23" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G23" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="H23" t="s">
         <v>46</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="J23">
         <v>80</v>
       </c>
       <c r="K23" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="L23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M23" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="N23" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="O23" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="P23" t="s">
-        <v>83</v>
+        <v>403</v>
       </c>
       <c r="Q23" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="R23" t="s">
-        <v>421</v>
+        <v>46</v>
       </c>
       <c r="S23" t="s">
-        <v>46</v>
+        <v>405</v>
       </c>
       <c r="T23" t="s">
-        <v>422</v>
+        <v>46</v>
       </c>
       <c r="U23" t="s">
-        <v>46</v>
+        <v>406</v>
       </c>
       <c r="V23" t="s">
-        <v>423</v>
+        <v>87</v>
       </c>
       <c r="W23" t="s">
-        <v>88</v>
+        <v>238</v>
       </c>
       <c r="X23" t="s">
-        <v>246</v>
+        <v>489</v>
       </c>
       <c r="Y23" t="s">
-        <v>509</v>
+        <v>472</v>
       </c>
       <c r="Z23" t="s">
-        <v>492</v>
+        <v>46</v>
       </c>
       <c r="AA23" t="s">
         <v>46</v>
       </c>
       <c r="AB23" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="AC23" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG23">
+        <v>7.5</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>407</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>42630</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>517</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>408</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>409</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>410</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>411</v>
+      </c>
+      <c r="AR23" t="s">
         <v>62</v>
       </c>
-      <c r="AD23" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH23">
-        <v>7.5</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>424</v>
-      </c>
-      <c r="AJ23" s="1">
-        <v>42630</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>537</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>425</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>426</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>427</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>428</v>
-      </c>
       <c r="AS23" t="s">
-        <v>63</v>
+        <v>566</v>
       </c>
       <c r="AT23" t="s">
-        <v>586</v>
+        <v>61</v>
       </c>
       <c r="AU23" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="AV23" t="s">
-        <v>69</v>
+        <v>412</v>
       </c>
       <c r="AW23" t="s">
-        <v>429</v>
-      </c>
-      <c r="AX23" t="s">
-        <v>430</v>
+        <v>413</v>
+      </c>
+      <c r="AX23">
+        <v>8</v>
       </c>
       <c r="AY23">
         <v>8</v>
       </c>
-      <c r="AZ23">
-        <v>8</v>
+      <c r="AZ23" t="s">
+        <v>521</v>
       </c>
       <c r="BA23" t="s">
-        <v>541</v>
-      </c>
-      <c r="BB23" t="s">
-        <v>542</v>
+        <v>522</v>
+      </c>
+      <c r="BB23" s="2">
+        <v>12500000</v>
       </c>
       <c r="BC23" s="2">
-        <v>12500000</v>
-      </c>
-      <c r="BD23" s="2">
         <v>5000000</v>
       </c>
-      <c r="BE23" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="BF23" t="s">
-        <v>432</v>
-      </c>
-      <c r="BG23" s="3" t="s">
-        <v>433</v>
+      <c r="BD23" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>415</v>
+      </c>
+      <c r="BF23" s="3" t="s">
+        <v>416</v>
       </c>
     </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24">
         <v>2020</v>
       </c>
       <c r="E24" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="F24" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="G24" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="H24" t="s">
         <v>46</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="J24">
         <v>82</v>
       </c>
       <c r="K24" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="L24" t="s">
         <v>49</v>
@@ -6730,150 +6610,147 @@
         <v>50</v>
       </c>
       <c r="N24" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="O24" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="P24" t="s">
-        <v>288</v>
+        <v>424</v>
       </c>
       <c r="Q24" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="R24" t="s">
-        <v>442</v>
+        <v>46</v>
       </c>
       <c r="S24" t="s">
-        <v>46</v>
+        <v>426</v>
       </c>
       <c r="T24" t="s">
-        <v>443</v>
+        <v>46</v>
       </c>
       <c r="U24" t="s">
-        <v>46</v>
+        <v>570</v>
       </c>
       <c r="V24" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="W24" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="X24" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="Y24" t="s">
-        <v>517</v>
+        <v>473</v>
       </c>
       <c r="Z24" t="s">
-        <v>493</v>
+        <v>73</v>
       </c>
       <c r="AA24" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="AB24" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="AC24" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="AD24" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="AE24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF24" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH24">
+        <v>73</v>
+      </c>
+      <c r="AG24">
         <v>6</v>
       </c>
-      <c r="AI24" t="s">
-        <v>445</v>
-      </c>
-      <c r="AJ24" s="1">
+      <c r="AH24" t="s">
+        <v>427</v>
+      </c>
+      <c r="AI24" s="1">
         <v>44133</v>
       </c>
+      <c r="AJ24" t="s">
+        <v>428</v>
+      </c>
       <c r="AK24" t="s">
-        <v>446</v>
+        <v>131</v>
       </c>
       <c r="AL24" t="s">
+        <v>429</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>430</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>525</v>
+      </c>
+      <c r="AQ24" t="s">
         <v>134</v>
       </c>
-      <c r="AM24" t="s">
-        <v>447</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>448</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>449</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>545</v>
-      </c>
       <c r="AR24" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="AS24" t="s">
-        <v>60</v>
+        <v>431</v>
       </c>
       <c r="AT24" t="s">
-        <v>450</v>
+        <v>61</v>
       </c>
       <c r="AU24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV24" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="AW24" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX24" t="s">
-        <v>451</v>
+        <v>432</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
       </c>
       <c r="AY24">
-        <v>0</v>
-      </c>
-      <c r="AZ24">
         <v>1</v>
       </c>
+      <c r="AZ24" t="s">
+        <v>526</v>
+      </c>
       <c r="BA24" t="s">
-        <v>546</v>
-      </c>
-      <c r="BB24" t="s">
-        <v>330</v>
+        <v>319</v>
+      </c>
+      <c r="BB24" s="2">
+        <v>10000000</v>
       </c>
       <c r="BC24" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="BD24" s="2">
         <v>842744</v>
       </c>
-      <c r="BE24" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="BF24" t="s">
-        <v>452</v>
-      </c>
-      <c r="BG24" s="3" t="s">
-        <v>453</v>
+      <c r="BD24" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>433</v>
+      </c>
+      <c r="BF24" s="3" t="s">
+        <v>434</v>
       </c>
     </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25">
@@ -6883,7 +6760,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -6892,16 +6769,16 @@
         <v>46</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="J25">
         <v>125</v>
       </c>
       <c r="K25" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="L25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M25" t="s">
         <v>50</v>
@@ -6910,183 +6787,180 @@
         <v>51</v>
       </c>
       <c r="O25" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="P25" t="s">
-        <v>83</v>
+        <v>438</v>
       </c>
       <c r="Q25" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="R25" t="s">
-        <v>465</v>
+        <v>46</v>
       </c>
       <c r="S25" t="s">
-        <v>46</v>
+        <v>439</v>
       </c>
       <c r="T25" t="s">
-        <v>458</v>
+        <v>46</v>
       </c>
       <c r="U25" t="s">
-        <v>46</v>
+        <v>455</v>
       </c>
       <c r="V25" t="s">
-        <v>475</v>
+        <v>87</v>
       </c>
       <c r="W25" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="X25" t="s">
-        <v>58</v>
+        <v>498</v>
       </c>
       <c r="Y25" t="s">
-        <v>518</v>
+        <v>474</v>
       </c>
       <c r="Z25" t="s">
-        <v>494</v>
+        <v>73</v>
       </c>
       <c r="AA25" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="AB25" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="AC25" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="AD25" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="AE25" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="AF25" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH25">
+        <v>46</v>
+      </c>
+      <c r="AG25">
         <v>8</v>
       </c>
-      <c r="AI25" t="s">
-        <v>459</v>
-      </c>
-      <c r="AJ25" s="1">
+      <c r="AH25" t="s">
+        <v>440</v>
+      </c>
+      <c r="AI25" s="1">
         <v>45121</v>
       </c>
+      <c r="AJ25" t="s">
+        <v>64</v>
+      </c>
       <c r="AK25" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="AL25" t="s">
-        <v>83</v>
+        <v>441</v>
       </c>
       <c r="AM25" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="AN25" t="s">
-        <v>461</v>
+        <v>61</v>
       </c>
       <c r="AO25" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="AP25" t="s">
-        <v>69</v>
+        <v>552</v>
       </c>
       <c r="AQ25" t="s">
-        <v>572</v>
+        <v>540</v>
       </c>
       <c r="AR25" t="s">
-        <v>560</v>
+        <v>59</v>
       </c>
       <c r="AS25" t="s">
-        <v>60</v>
+        <v>567</v>
       </c>
       <c r="AT25" t="s">
-        <v>587</v>
+        <v>68</v>
       </c>
       <c r="AU25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AV25" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="AW25" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX25" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AX25">
+        <v>10</v>
       </c>
       <c r="AY25">
-        <v>10</v>
-      </c>
-      <c r="AZ25">
         <v>7</v>
       </c>
+      <c r="AZ25" t="s">
+        <v>523</v>
+      </c>
       <c r="BA25" t="s">
-        <v>543</v>
-      </c>
-      <c r="BB25" t="s">
-        <v>544</v>
+        <v>524</v>
+      </c>
+      <c r="BB25" s="2">
+        <v>53000000</v>
       </c>
       <c r="BC25" s="2">
-        <v>53000000</v>
-      </c>
-      <c r="BD25" s="2">
         <v>292922563</v>
       </c>
-      <c r="BE25" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="BF25" t="s">
-        <v>462</v>
-      </c>
-      <c r="BG25" s="3" t="s">
-        <v>550</v>
+      <c r="BD25" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>443</v>
+      </c>
+      <c r="BF25" s="3" t="s">
+        <v>530</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="BE2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="BE3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="BE4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="BE5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="BE7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="BE9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="BE10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="BE12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="BE14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="BE16" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="BE18" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="BE19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="BE21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="BE22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="BE23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="BE24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="BG2" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="BG3" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="BG4" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="BG5" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="BG6" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="BG7" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="BG8" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="BG9" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="BG10" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="BG11" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="BG12" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="BG13" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="BG14" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="BG15" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="BG16" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="BG17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="BG18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="BG19" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="BG20" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="BG21" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="BG22" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="BG23" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="BG24" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="BG25" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="BD2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="BD3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="BD4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="BD5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="BD7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="BD9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="BD10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="BD12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="BD14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="BD16" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="BD18" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="BD19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="BD21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="BD22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="BD23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="BD24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="BF2" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="BF3" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="BF4" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="BF5" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="BF6" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="BF7" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="BF8" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="BF9" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="BF10" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="BF11" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="BF12" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="BF13" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="BF14" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="BF15" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="BF16" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="BF17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="BF18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="BF19" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="BF20" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="BF21" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="BF22" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="BF23" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="BF24" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="BF25" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="I2" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
     <hyperlink ref="I3" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
     <hyperlink ref="I4" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
@@ -7133,14 +7007,14 @@
     <hyperlink ref="B23" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
     <hyperlink ref="B24" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
     <hyperlink ref="B25" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="BE6" r:id="rId87" xr:uid="{64DE7227-123C-491C-A835-E3A20DE892D4}"/>
-    <hyperlink ref="BE8" r:id="rId88" xr:uid="{9C22ABE8-015B-4144-BCE7-88D16AC033B2}"/>
-    <hyperlink ref="BE11" r:id="rId89" xr:uid="{072023A8-B72B-40AE-99E9-B882890238F9}"/>
-    <hyperlink ref="BE13" r:id="rId90" xr:uid="{14802B2D-9A46-4243-B48A-F842C84DA4B2}"/>
-    <hyperlink ref="BE15" r:id="rId91" xr:uid="{ADB63E64-3B4A-4C6E-99C3-9A4CBC9BE5B2}"/>
-    <hyperlink ref="BE17" r:id="rId92" xr:uid="{DBA111A7-126B-4836-811B-3C7C13A60BCE}"/>
-    <hyperlink ref="BE20" r:id="rId93" xr:uid="{7CFDBAF1-D261-404A-8763-EC76E3E59F2D}"/>
-    <hyperlink ref="BE25" r:id="rId94" xr:uid="{D3B045E0-303F-43A1-8868-AFD121CAF39C}"/>
+    <hyperlink ref="BD6" r:id="rId87" xr:uid="{64DE7227-123C-491C-A835-E3A20DE892D4}"/>
+    <hyperlink ref="BD8" r:id="rId88" xr:uid="{9C22ABE8-015B-4144-BCE7-88D16AC033B2}"/>
+    <hyperlink ref="BD11" r:id="rId89" xr:uid="{072023A8-B72B-40AE-99E9-B882890238F9}"/>
+    <hyperlink ref="BD13" r:id="rId90" xr:uid="{14802B2D-9A46-4243-B48A-F842C84DA4B2}"/>
+    <hyperlink ref="BD15" r:id="rId91" xr:uid="{ADB63E64-3B4A-4C6E-99C3-9A4CBC9BE5B2}"/>
+    <hyperlink ref="BD17" r:id="rId92" xr:uid="{DBA111A7-126B-4836-811B-3C7C13A60BCE}"/>
+    <hyperlink ref="BD20" r:id="rId93" xr:uid="{7CFDBAF1-D261-404A-8763-EC76E3E59F2D}"/>
+    <hyperlink ref="BD25" r:id="rId94" xr:uid="{D3B045E0-303F-43A1-8868-AFD121CAF39C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId95"/>

--- a/Ghibli-tabla.xlsx
+++ b/Ghibli-tabla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Página web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AF26CA-88E7-439A-B0A8-BCBC390681A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15325951-47DE-4439-8806-57402E891BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="569">
   <si>
     <t>Título</t>
   </si>
@@ -360,9 +360,6 @@
     <t>Amado por familias; icónico</t>
   </si>
   <si>
-    <t>Merchandising, libros</t>
-  </si>
-  <si>
     <t>"¿Has visto a Totoro?"</t>
   </si>
   <si>
@@ -831,9 +828,6 @@
     <t>Divertida y ligera</t>
   </si>
   <si>
-    <t>Manga/Spin-off</t>
-  </si>
-  <si>
     <t>"Sé valiente"</t>
   </si>
   <si>
@@ -1017,9 +1011,6 @@
     <t>Bien recibida por su estética</t>
   </si>
   <si>
-    <t>Novela 'The Borrowers'</t>
-  </si>
-  <si>
     <t>"Cuida lo pequeño"</t>
   </si>
   <si>
@@ -1734,10 +1725,13 @@
     <t>Manga original</t>
   </si>
   <si>
-    <t>Biografía, Novela</t>
-  </si>
-  <si>
     <t>Demonios</t>
+  </si>
+  <si>
+    <t>Libro</t>
+  </si>
+  <si>
+    <t>Biografía</t>
   </si>
 </sst>
 </file>
@@ -2594,8 +2588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AK16" sqref="AK16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2611,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -2650,55 +2644,55 @@
         <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="Q1" t="s">
         <v>14</v>
       </c>
       <c r="R1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="S1" t="s">
         <v>15</v>
       </c>
       <c r="T1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="U1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="V1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="W1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="X1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="Y1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="Z1" t="s">
+        <v>472</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>473</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AC1" t="s">
         <v>475</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE1" t="s">
         <v>476</v>
       </c>
-      <c r="AB1" t="s">
-        <v>477</v>
-      </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>478</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>480</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>479</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>481</v>
       </c>
       <c r="AG1" t="s">
         <v>16</v>
@@ -2784,7 +2778,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2">
@@ -2848,7 +2842,7 @@
         <v>57</v>
       </c>
       <c r="X2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="Y2" t="s">
         <v>58</v>
@@ -2902,7 +2896,7 @@
         <v>61</v>
       </c>
       <c r="AP2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="AQ2" t="s">
         <v>69</v>
@@ -2935,7 +2929,7 @@
         <v>74</v>
       </c>
       <c r="BA2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BB2" s="2">
         <v>1000000</v>
@@ -2944,13 +2938,13 @@
         <v>14000000</v>
       </c>
       <c r="BD2" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="BE2" t="s">
         <v>75</v>
       </c>
       <c r="BF2" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.3">
@@ -3022,7 +3016,7 @@
         <v>88</v>
       </c>
       <c r="X3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="Y3" t="s">
         <v>89</v>
@@ -3109,7 +3103,7 @@
         <v>97</v>
       </c>
       <c r="BA3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BB3" s="2">
         <v>5000000</v>
@@ -3118,7 +3112,7 @@
         <v>15700000</v>
       </c>
       <c r="BD3" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="BE3" t="s">
         <v>98</v>
@@ -3132,7 +3126,7 @@
         <v>100</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4">
@@ -3196,10 +3190,10 @@
         <v>57</v>
       </c>
       <c r="X4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="Y4" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="Z4" t="s">
         <v>46</v>
@@ -3235,43 +3229,43 @@
         <v>64</v>
       </c>
       <c r="AK4" t="s">
+        <v>567</v>
+      </c>
+      <c r="AL4" t="s">
         <v>111</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>112</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>522</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>113</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>525</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>114</v>
       </c>
       <c r="AR4" t="s">
         <v>59</v>
       </c>
       <c r="AS4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AT4" t="s">
         <v>115</v>
       </c>
-      <c r="AT4" t="s">
-        <v>116</v>
-      </c>
       <c r="AU4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AV4" t="s">
         <v>96</v>
       </c>
       <c r="AW4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AX4">
         <v>2</v>
@@ -3280,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="AZ4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BA4" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BB4" s="2">
         <v>3700000</v>
@@ -3292,21 +3286,21 @@
         <v>41000000</v>
       </c>
       <c r="BD4" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="BE4" t="s">
+        <v>118</v>
+      </c>
+      <c r="BF4" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="BF4" s="3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5">
@@ -3319,7 +3313,7 @@
         <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H5" t="s">
         <v>73</v>
@@ -3328,10 +3322,10 @@
         <v>89</v>
       </c>
       <c r="K5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L5" t="s">
         <v>123</v>
-      </c>
-      <c r="L5" t="s">
-        <v>124</v>
       </c>
       <c r="M5" t="s">
         <v>50</v>
@@ -3340,19 +3334,19 @@
         <v>51</v>
       </c>
       <c r="O5" t="s">
+        <v>124</v>
+      </c>
+      <c r="P5" t="s">
         <v>125</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>126</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
+        <v>46</v>
+      </c>
+      <c r="S5" t="s">
         <v>127</v>
-      </c>
-      <c r="R5" t="s">
-        <v>46</v>
-      </c>
-      <c r="S5" t="s">
-        <v>128</v>
       </c>
       <c r="T5" t="s">
         <v>73</v>
@@ -3364,10 +3358,10 @@
         <v>57</v>
       </c>
       <c r="X5" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="Y5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Z5" t="s">
         <v>73</v>
@@ -3394,7 +3388,7 @@
         <v>8.5</v>
       </c>
       <c r="AH5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AI5" s="1">
         <v>32249</v>
@@ -3403,13 +3397,13 @@
         <v>64</v>
       </c>
       <c r="AK5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL5" t="s">
         <v>131</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
         <v>132</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>133</v>
       </c>
       <c r="AN5" t="s">
         <v>61</v>
@@ -3418,19 +3412,19 @@
         <v>68</v>
       </c>
       <c r="AP5" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AQ5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AR5" t="s">
         <v>62</v>
       </c>
       <c r="AS5" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="AT5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AU5" t="s">
         <v>68</v>
@@ -3439,7 +3433,7 @@
         <v>96</v>
       </c>
       <c r="AW5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AX5">
         <v>2</v>
@@ -3448,10 +3442,10 @@
         <v>0</v>
       </c>
       <c r="AZ5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="BA5" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BB5" s="2">
         <v>3700000</v>
@@ -3460,21 +3454,21 @@
         <v>14000000</v>
       </c>
       <c r="BD5" s="3" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="BE5" t="s">
+        <v>135</v>
+      </c>
+      <c r="BF5" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="BF5" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6">
@@ -3484,7 +3478,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -3493,13 +3487,13 @@
         <v>46</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J6">
         <v>103</v>
       </c>
       <c r="K6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L6" t="s">
         <v>103</v>
@@ -3511,25 +3505,25 @@
         <v>51</v>
       </c>
       <c r="O6" t="s">
+        <v>141</v>
+      </c>
+      <c r="P6" t="s">
         <v>142</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>143</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" t="s">
         <v>144</v>
       </c>
-      <c r="R6" t="s">
-        <v>46</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
+        <v>46</v>
+      </c>
+      <c r="U6" t="s">
         <v>145</v>
-      </c>
-      <c r="T6" t="s">
-        <v>46</v>
-      </c>
-      <c r="U6" t="s">
-        <v>146</v>
       </c>
       <c r="V6" t="s">
         <v>87</v>
@@ -3538,10 +3532,10 @@
         <v>88</v>
       </c>
       <c r="X6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="Y6" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="Z6" t="s">
         <v>73</v>
@@ -3568,7 +3562,7 @@
         <v>7.9</v>
       </c>
       <c r="AH6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AI6" s="1">
         <v>32718</v>
@@ -3577,14 +3571,14 @@
         <v>64</v>
       </c>
       <c r="AK6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AL6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM6" t="s">
         <v>148</v>
       </c>
-      <c r="AM6" t="s">
-        <v>149</v>
-      </c>
       <c r="AN6" t="s">
         <v>68</v>
       </c>
@@ -3592,16 +3586,16 @@
         <v>68</v>
       </c>
       <c r="AP6" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AQ6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AR6" t="s">
         <v>59</v>
       </c>
       <c r="AS6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="s">
         <v>68</v>
@@ -3613,7 +3607,7 @@
         <v>96</v>
       </c>
       <c r="AW6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AX6">
         <v>2</v>
@@ -3622,10 +3616,10 @@
         <v>0</v>
       </c>
       <c r="AZ6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BA6" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BB6" s="2">
         <v>6900000</v>
@@ -3634,21 +3628,21 @@
         <v>1144186</v>
       </c>
       <c r="BD6" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="BE6" t="s">
+        <v>154</v>
+      </c>
+      <c r="BF6" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="BF6" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7">
@@ -3658,22 +3652,22 @@
         <v>78</v>
       </c>
       <c r="F7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="J7">
         <v>118</v>
       </c>
       <c r="K7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L7" t="s">
         <v>49</v>
@@ -3685,13 +3679,13 @@
         <v>51</v>
       </c>
       <c r="O7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P7" t="s">
         <v>161</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>163</v>
       </c>
       <c r="R7" t="s">
         <v>73</v>
@@ -3706,10 +3700,10 @@
         <v>57</v>
       </c>
       <c r="X7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="Y7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Z7" t="s">
         <v>73</v>
@@ -3736,7 +3730,7 @@
         <v>7.8</v>
       </c>
       <c r="AH7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AI7" s="1">
         <v>33439</v>
@@ -3748,10 +3742,10 @@
         <v>82</v>
       </c>
       <c r="AL7" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM7" t="s">
         <v>165</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>166</v>
       </c>
       <c r="AN7" t="s">
         <v>61</v>
@@ -3763,13 +3757,13 @@
         <v>25</v>
       </c>
       <c r="AQ7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AR7" t="s">
         <v>62</v>
       </c>
       <c r="AS7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="AT7" t="s">
         <v>68</v>
@@ -3781,7 +3775,7 @@
         <v>96</v>
       </c>
       <c r="AW7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AX7">
         <v>1</v>
@@ -3790,10 +3784,10 @@
         <v>0</v>
       </c>
       <c r="AZ7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BB7" s="2">
         <v>15000000</v>
@@ -3802,21 +3796,21 @@
         <v>576916</v>
       </c>
       <c r="BD7" s="3" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="BE7" t="s">
+        <v>168</v>
+      </c>
+      <c r="BF7" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="BF7" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8">
@@ -3826,7 +3820,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -3835,13 +3829,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J8">
         <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L8" t="s">
         <v>49</v>
@@ -3853,25 +3847,25 @@
         <v>51</v>
       </c>
       <c r="O8" t="s">
+        <v>174</v>
+      </c>
+      <c r="P8" t="s">
         <v>175</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>176</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8" t="s">
         <v>177</v>
       </c>
-      <c r="R8" t="s">
-        <v>46</v>
-      </c>
-      <c r="S8" t="s">
-        <v>178</v>
-      </c>
       <c r="T8" t="s">
         <v>46</v>
       </c>
       <c r="U8" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="V8" t="s">
         <v>87</v>
@@ -3880,10 +3874,10 @@
         <v>57</v>
       </c>
       <c r="X8" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="Y8" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="Z8" t="s">
         <v>73</v>
@@ -3910,7 +3904,7 @@
         <v>7.7</v>
       </c>
       <c r="AH8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AI8" s="1">
         <v>33803</v>
@@ -3922,10 +3916,10 @@
         <v>82</v>
       </c>
       <c r="AL8" t="s">
+        <v>179</v>
+      </c>
+      <c r="AM8" t="s">
         <v>180</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>181</v>
       </c>
       <c r="AN8" t="s">
         <v>61</v>
@@ -3934,16 +3928,16 @@
         <v>61</v>
       </c>
       <c r="AP8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ8" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AR8" t="s">
         <v>59</v>
       </c>
       <c r="AS8" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="AT8" t="s">
         <v>68</v>
@@ -3955,7 +3949,7 @@
         <v>96</v>
       </c>
       <c r="AW8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AX8">
         <v>1</v>
@@ -3964,10 +3958,10 @@
         <v>0</v>
       </c>
       <c r="AZ8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BA8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BB8" s="2">
         <v>9200000</v>
@@ -3976,21 +3970,21 @@
         <v>10000000</v>
       </c>
       <c r="BD8" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="BE8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="BF8" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9">
@@ -4000,22 +3994,22 @@
         <v>78</v>
       </c>
       <c r="F9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G9" t="s">
+        <v>186</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="J9">
         <v>119</v>
       </c>
       <c r="K9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L9" t="s">
         <v>49</v>
@@ -4027,25 +4021,25 @@
         <v>51</v>
       </c>
       <c r="O9" t="s">
+        <v>189</v>
+      </c>
+      <c r="P9" t="s">
         <v>190</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>191</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
+        <v>46</v>
+      </c>
+      <c r="S9" t="s">
         <v>192</v>
       </c>
-      <c r="R9" t="s">
-        <v>46</v>
-      </c>
-      <c r="S9" t="s">
-        <v>193</v>
-      </c>
       <c r="T9" t="s">
         <v>46</v>
       </c>
       <c r="U9" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="V9" t="s">
         <v>87</v>
@@ -4054,10 +4048,10 @@
         <v>57</v>
       </c>
       <c r="X9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y9" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="Z9" t="s">
         <v>46</v>
@@ -4084,7 +4078,7 @@
         <v>7.3</v>
       </c>
       <c r="AH9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AI9" s="1">
         <v>34531</v>
@@ -4096,10 +4090,10 @@
         <v>82</v>
       </c>
       <c r="AL9" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM9" t="s">
         <v>196</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>197</v>
       </c>
       <c r="AN9" t="s">
         <v>61</v>
@@ -4108,16 +4102,16 @@
         <v>68</v>
       </c>
       <c r="AP9" t="s">
+        <v>197</v>
+      </c>
+      <c r="AQ9" t="s">
         <v>198</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>199</v>
       </c>
       <c r="AR9" t="s">
         <v>59</v>
       </c>
       <c r="AS9" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="AT9" t="s">
         <v>68</v>
@@ -4129,7 +4123,7 @@
         <v>96</v>
       </c>
       <c r="AW9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AX9">
         <v>2</v>
@@ -4138,10 +4132,10 @@
         <v>1</v>
       </c>
       <c r="AZ9" t="s">
+        <v>199</v>
+      </c>
+      <c r="BA9" t="s">
         <v>200</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>201</v>
       </c>
       <c r="BB9" s="2">
         <v>12000000</v>
@@ -4150,46 +4144,46 @@
         <v>16000000</v>
       </c>
       <c r="BD9" s="3" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="BE9" t="s">
+        <v>201</v>
+      </c>
+      <c r="BF9" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="BF9" s="3" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10">
         <v>1995</v>
       </c>
       <c r="E10" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" t="s">
         <v>205</v>
       </c>
-      <c r="F10" t="s">
-        <v>139</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="J10">
         <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L10" t="s">
         <v>49</v>
@@ -4201,14 +4195,14 @@
         <v>51</v>
       </c>
       <c r="O10" t="s">
+        <v>208</v>
+      </c>
+      <c r="P10" t="s">
         <v>209</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>210</v>
       </c>
-      <c r="Q10" t="s">
-        <v>211</v>
-      </c>
       <c r="R10" t="s">
         <v>73</v>
       </c>
@@ -4216,7 +4210,7 @@
         <v>46</v>
       </c>
       <c r="U10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V10" t="s">
         <v>87</v>
@@ -4225,10 +4219,10 @@
         <v>57</v>
       </c>
       <c r="X10" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="Y10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Z10" t="s">
         <v>73</v>
@@ -4255,7 +4249,7 @@
         <v>7.7</v>
       </c>
       <c r="AH10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AI10" s="1">
         <v>34895</v>
@@ -4264,14 +4258,14 @@
         <v>64</v>
       </c>
       <c r="AK10" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="AL10" t="s">
+        <v>212</v>
+      </c>
+      <c r="AM10" t="s">
         <v>213</v>
       </c>
-      <c r="AM10" t="s">
-        <v>214</v>
-      </c>
       <c r="AN10" t="s">
         <v>68</v>
       </c>
@@ -4279,16 +4273,16 @@
         <v>68</v>
       </c>
       <c r="AP10" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AQ10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AR10" t="s">
         <v>62</v>
       </c>
       <c r="AS10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AT10" t="s">
         <v>68</v>
@@ -4300,7 +4294,7 @@
         <v>96</v>
       </c>
       <c r="AW10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AX10">
         <v>0</v>
@@ -4309,10 +4303,10 @@
         <v>1</v>
       </c>
       <c r="AZ10" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BA10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BB10" s="2">
         <v>10000000</v>
@@ -4321,21 +4315,21 @@
         <v>10000000</v>
       </c>
       <c r="BD10" s="3" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="BE10" t="s">
+        <v>214</v>
+      </c>
+      <c r="BF10" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="BF10" s="3" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>218</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11">
@@ -4345,7 +4339,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -4354,16 +4348,16 @@
         <v>46</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J11">
         <v>134</v>
       </c>
       <c r="K11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M11" t="s">
         <v>50</v>
@@ -4372,25 +4366,25 @@
         <v>51</v>
       </c>
       <c r="O11" t="s">
+        <v>219</v>
+      </c>
+      <c r="P11" t="s">
         <v>220</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>221</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
+        <v>46</v>
+      </c>
+      <c r="S11" t="s">
         <v>222</v>
       </c>
-      <c r="R11" t="s">
-        <v>46</v>
-      </c>
-      <c r="S11" t="s">
-        <v>223</v>
-      </c>
       <c r="T11" t="s">
         <v>46</v>
       </c>
       <c r="U11" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="V11" t="s">
         <v>87</v>
@@ -4399,10 +4393,10 @@
         <v>57</v>
       </c>
       <c r="X11" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="Y11" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="Z11" t="s">
         <v>46</v>
@@ -4429,7 +4423,7 @@
         <v>8.4</v>
       </c>
       <c r="AH11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AI11" s="1">
         <v>35623</v>
@@ -4441,10 +4435,10 @@
         <v>82</v>
       </c>
       <c r="AL11" t="s">
+        <v>224</v>
+      </c>
+      <c r="AM11" t="s">
         <v>225</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>226</v>
       </c>
       <c r="AN11" t="s">
         <v>68</v>
@@ -4453,28 +4447,28 @@
         <v>61</v>
       </c>
       <c r="AP11" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AQ11" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AR11" t="s">
         <v>59</v>
       </c>
       <c r="AS11" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AT11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AU11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AV11" t="s">
         <v>96</v>
       </c>
       <c r="AW11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AX11">
         <v>2</v>
@@ -4483,10 +4477,10 @@
         <v>1</v>
       </c>
       <c r="AZ11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BA11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="BB11" s="2">
         <v>23500000</v>
@@ -4495,21 +4489,21 @@
         <v>231247030</v>
       </c>
       <c r="BD11" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="BE11" t="s">
+        <v>227</v>
+      </c>
+      <c r="BF11" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="BF11" s="3" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12">
@@ -4519,22 +4513,22 @@
         <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="J12">
         <v>104</v>
       </c>
       <c r="K12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L12" t="s">
         <v>103</v>
@@ -4546,13 +4540,13 @@
         <v>51</v>
       </c>
       <c r="O12" t="s">
+        <v>234</v>
+      </c>
+      <c r="P12" t="s">
         <v>235</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>236</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>237</v>
       </c>
       <c r="R12" t="s">
         <v>73</v>
@@ -4564,13 +4558,13 @@
         <v>87</v>
       </c>
       <c r="W12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="X12" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="Y12" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="Z12" t="s">
         <v>73</v>
@@ -4588,7 +4582,7 @@
         <v>73</v>
       </c>
       <c r="AE12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF12" t="s">
         <v>73</v>
@@ -4597,7 +4591,7 @@
         <v>7.1</v>
       </c>
       <c r="AH12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AI12" s="1">
         <v>36358</v>
@@ -4609,10 +4603,10 @@
         <v>65</v>
       </c>
       <c r="AL12" t="s">
+        <v>240</v>
+      </c>
+      <c r="AM12" t="s">
         <v>241</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>242</v>
       </c>
       <c r="AN12" t="s">
         <v>61</v>
@@ -4621,16 +4615,16 @@
         <v>68</v>
       </c>
       <c r="AP12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AQ12" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AR12" t="s">
         <v>62</v>
       </c>
       <c r="AS12" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AT12" t="s">
         <v>61</v>
@@ -4642,7 +4636,7 @@
         <v>96</v>
       </c>
       <c r="AW12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AX12">
         <v>1</v>
@@ -4651,10 +4645,10 @@
         <v>0</v>
       </c>
       <c r="AZ12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BA12" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BB12" s="2">
         <v>20000000</v>
@@ -4663,21 +4657,21 @@
         <v>11000000</v>
       </c>
       <c r="BD12" s="3" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="BE12" t="s">
+        <v>244</v>
+      </c>
+      <c r="BF12" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="BF12" s="3" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>246</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13">
@@ -4687,7 +4681,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -4696,13 +4690,13 @@
         <v>46</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J13">
         <v>125</v>
       </c>
       <c r="K13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s">
         <v>49</v>
@@ -4714,25 +4708,25 @@
         <v>51</v>
       </c>
       <c r="O13" t="s">
+        <v>249</v>
+      </c>
+      <c r="P13" t="s">
         <v>250</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>251</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
+        <v>46</v>
+      </c>
+      <c r="S13" t="s">
         <v>252</v>
       </c>
-      <c r="R13" t="s">
-        <v>46</v>
-      </c>
-      <c r="S13" t="s">
-        <v>253</v>
-      </c>
       <c r="T13" t="s">
         <v>46</v>
       </c>
       <c r="U13" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="V13" t="s">
         <v>87</v>
@@ -4741,10 +4735,10 @@
         <v>57</v>
       </c>
       <c r="X13" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="Y13" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="Z13" t="s">
         <v>46</v>
@@ -4771,7 +4765,7 @@
         <v>8.6</v>
       </c>
       <c r="AH13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AI13" s="1">
         <v>37092</v>
@@ -4783,10 +4777,10 @@
         <v>82</v>
       </c>
       <c r="AL13" t="s">
+        <v>254</v>
+      </c>
+      <c r="AM13" t="s">
         <v>255</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>256</v>
       </c>
       <c r="AN13" t="s">
         <v>68</v>
@@ -4795,28 +4789,28 @@
         <v>61</v>
       </c>
       <c r="AP13" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AQ13" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AR13" t="s">
         <v>59</v>
       </c>
       <c r="AS13" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AT13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AU13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AV13" t="s">
         <v>96</v>
       </c>
       <c r="AW13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AX13">
         <v>7</v>
@@ -4825,10 +4819,10 @@
         <v>4</v>
       </c>
       <c r="AZ13" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="BA13" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="BB13" s="2">
         <v>19000000</v>
@@ -4837,46 +4831,46 @@
         <v>395800000</v>
       </c>
       <c r="BD13" s="4" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="BE13" t="s">
+        <v>256</v>
+      </c>
+      <c r="BF13" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="BF13" s="3" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14">
         <v>2002</v>
       </c>
       <c r="E14" t="s">
+        <v>259</v>
+      </c>
+      <c r="F14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" t="s">
+        <v>205</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="F14" t="s">
-        <v>139</v>
-      </c>
-      <c r="G14" t="s">
-        <v>206</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="J14">
         <v>75</v>
       </c>
       <c r="K14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L14" t="s">
         <v>103</v>
@@ -4888,25 +4882,25 @@
         <v>51</v>
       </c>
       <c r="O14" t="s">
+        <v>261</v>
+      </c>
+      <c r="P14" t="s">
         <v>262</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>263</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
+        <v>46</v>
+      </c>
+      <c r="S14" t="s">
         <v>264</v>
       </c>
-      <c r="R14" t="s">
-        <v>46</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
+        <v>46</v>
+      </c>
+      <c r="U14" t="s">
         <v>265</v>
-      </c>
-      <c r="T14" t="s">
-        <v>46</v>
-      </c>
-      <c r="U14" t="s">
-        <v>266</v>
       </c>
       <c r="V14" t="s">
         <v>87</v>
@@ -4915,10 +4909,10 @@
         <v>57</v>
       </c>
       <c r="X14" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="Y14" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="Z14" t="s">
         <v>73</v>
@@ -4945,7 +4939,7 @@
         <v>7.2</v>
       </c>
       <c r="AH14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AI14" s="1">
         <v>37456</v>
@@ -4954,13 +4948,13 @@
         <v>64</v>
       </c>
       <c r="AK14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>267</v>
+      </c>
+      <c r="AM14" t="s">
         <v>268</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>269</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>270</v>
       </c>
       <c r="AN14" t="s">
         <v>61</v>
@@ -4969,16 +4963,16 @@
         <v>68</v>
       </c>
       <c r="AP14" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AQ14" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="AR14" t="s">
         <v>59</v>
       </c>
       <c r="AS14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AT14" t="s">
         <v>61</v>
@@ -4990,7 +4984,7 @@
         <v>96</v>
       </c>
       <c r="AW14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AX14">
         <v>1</v>
@@ -4999,10 +4993,10 @@
         <v>1</v>
       </c>
       <c r="AZ14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="BA14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BB14" s="2">
         <v>20000000</v>
@@ -5011,21 +5005,21 @@
         <v>54000000</v>
       </c>
       <c r="BD14" s="3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="BE14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="BF14" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15">
@@ -5035,7 +5029,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -5044,13 +5038,13 @@
         <v>46</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J15">
         <v>119</v>
       </c>
       <c r="K15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L15" t="s">
         <v>49</v>
@@ -5062,37 +5056,37 @@
         <v>51</v>
       </c>
       <c r="O15" t="s">
+        <v>276</v>
+      </c>
+      <c r="P15" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q15" t="s">
         <v>278</v>
       </c>
-      <c r="P15" t="s">
+      <c r="R15" t="s">
+        <v>46</v>
+      </c>
+      <c r="S15" t="s">
         <v>279</v>
       </c>
-      <c r="Q15" t="s">
-        <v>280</v>
-      </c>
-      <c r="R15" t="s">
-        <v>46</v>
-      </c>
-      <c r="S15" t="s">
-        <v>281</v>
-      </c>
       <c r="T15" t="s">
         <v>46</v>
       </c>
       <c r="U15" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="V15" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="W15" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="X15" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="Y15" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="Z15" t="s">
         <v>46</v>
@@ -5119,7 +5113,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="AH15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AI15" s="1">
         <v>38311</v>
@@ -5128,13 +5122,13 @@
         <v>64</v>
       </c>
       <c r="AK15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AL15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AM15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AN15" t="s">
         <v>68</v>
@@ -5143,16 +5137,16 @@
         <v>68</v>
       </c>
       <c r="AP15" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AQ15" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="AR15" t="s">
         <v>59</v>
       </c>
       <c r="AS15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AT15" t="s">
         <v>68</v>
@@ -5164,7 +5158,7 @@
         <v>96</v>
       </c>
       <c r="AW15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AX15">
         <v>2</v>
@@ -5173,10 +5167,10 @@
         <v>1</v>
       </c>
       <c r="AZ15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="BA15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="BB15" s="2">
         <v>24000000</v>
@@ -5185,34 +5179,34 @@
         <v>239589856</v>
       </c>
       <c r="BD15" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="BE15" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="BF15" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16">
         <v>2006</v>
       </c>
       <c r="E16" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H16" t="s">
         <v>73</v>
@@ -5221,10 +5215,10 @@
         <v>115</v>
       </c>
       <c r="K16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M16" t="s">
         <v>50</v>
@@ -5233,25 +5227,25 @@
         <v>51</v>
       </c>
       <c r="O16" t="s">
+        <v>292</v>
+      </c>
+      <c r="P16" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q16" t="s">
         <v>294</v>
       </c>
-      <c r="P16" t="s">
+      <c r="R16" t="s">
+        <v>46</v>
+      </c>
+      <c r="S16" t="s">
         <v>295</v>
       </c>
-      <c r="Q16" t="s">
-        <v>296</v>
-      </c>
-      <c r="R16" t="s">
-        <v>46</v>
-      </c>
-      <c r="S16" t="s">
-        <v>297</v>
-      </c>
       <c r="T16" t="s">
         <v>46</v>
       </c>
       <c r="U16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="V16" t="s">
         <v>87</v>
@@ -5260,10 +5254,10 @@
         <v>57</v>
       </c>
       <c r="X16" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="Y16" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="Z16" t="s">
         <v>73</v>
@@ -5290,7 +5284,7 @@
         <v>6.4</v>
       </c>
       <c r="AH16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AI16" s="1">
         <v>38927</v>
@@ -5299,13 +5293,13 @@
         <v>64</v>
       </c>
       <c r="AK16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AL16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AM16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AN16" t="s">
         <v>61</v>
@@ -5314,16 +5308,16 @@
         <v>61</v>
       </c>
       <c r="AP16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AQ16" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="AR16" t="s">
         <v>59</v>
       </c>
       <c r="AS16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AT16" t="s">
         <v>61</v>
@@ -5335,7 +5329,7 @@
         <v>96</v>
       </c>
       <c r="AW16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AX16">
         <v>0</v>
@@ -5344,10 +5338,10 @@
         <v>1</v>
       </c>
       <c r="AZ16" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BA16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BB16" s="2">
         <v>22000000</v>
@@ -5356,21 +5350,21 @@
         <v>68600000</v>
       </c>
       <c r="BD16" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>302</v>
+      </c>
+      <c r="BF16" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="BE16" t="s">
-        <v>304</v>
-      </c>
-      <c r="BF16" s="3" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17">
@@ -5380,7 +5374,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -5389,7 +5383,7 @@
         <v>46</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J17">
         <v>101</v>
@@ -5407,25 +5401,25 @@
         <v>51</v>
       </c>
       <c r="O17" t="s">
+        <v>307</v>
+      </c>
+      <c r="P17" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q17" t="s">
         <v>309</v>
       </c>
-      <c r="P17" t="s">
+      <c r="R17" t="s">
+        <v>46</v>
+      </c>
+      <c r="S17" t="s">
         <v>310</v>
       </c>
-      <c r="Q17" t="s">
-        <v>311</v>
-      </c>
-      <c r="R17" t="s">
-        <v>46</v>
-      </c>
-      <c r="S17" t="s">
-        <v>312</v>
-      </c>
       <c r="T17" t="s">
         <v>46</v>
       </c>
       <c r="U17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="V17" t="s">
         <v>87</v>
@@ -5434,10 +5428,10 @@
         <v>57</v>
       </c>
       <c r="X17" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="Y17" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="Z17" t="s">
         <v>46</v>
@@ -5464,7 +5458,7 @@
         <v>7.7</v>
       </c>
       <c r="AH17" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AI17" s="1">
         <v>39648</v>
@@ -5476,28 +5470,28 @@
         <v>82</v>
       </c>
       <c r="AL17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AM17" t="s">
+        <v>313</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>546</v>
+      </c>
+      <c r="AQ17" t="s">
         <v>315</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>549</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>317</v>
       </c>
       <c r="AR17" t="s">
         <v>59</v>
       </c>
       <c r="AS17" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AT17" t="s">
         <v>68</v>
@@ -5509,7 +5503,7 @@
         <v>96</v>
       </c>
       <c r="AW17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AX17">
         <v>2</v>
@@ -5518,10 +5512,10 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="BA17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="BB17" s="2">
         <v>34000000</v>
@@ -5530,46 +5524,46 @@
         <v>205162666</v>
       </c>
       <c r="BD17" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="BE17" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="BF17" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18">
         <v>2010</v>
       </c>
       <c r="E18" t="s">
+        <v>320</v>
+      </c>
+      <c r="F18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" t="s">
+        <v>321</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="F18" t="s">
-        <v>139</v>
-      </c>
-      <c r="G18" t="s">
-        <v>323</v>
-      </c>
-      <c r="H18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>324</v>
       </c>
       <c r="J18">
         <v>94</v>
       </c>
       <c r="K18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L18" t="s">
         <v>103</v>
@@ -5581,25 +5575,25 @@
         <v>51</v>
       </c>
       <c r="O18" t="s">
+        <v>323</v>
+      </c>
+      <c r="P18" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q18" t="s">
         <v>325</v>
       </c>
-      <c r="P18" t="s">
+      <c r="R18" t="s">
+        <v>46</v>
+      </c>
+      <c r="S18" t="s">
         <v>326</v>
       </c>
-      <c r="Q18" t="s">
-        <v>327</v>
-      </c>
-      <c r="R18" t="s">
-        <v>46</v>
-      </c>
-      <c r="S18" t="s">
-        <v>328</v>
-      </c>
       <c r="T18" t="s">
         <v>46</v>
       </c>
       <c r="U18" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="V18" t="s">
         <v>87</v>
@@ -5608,10 +5602,10 @@
         <v>57</v>
       </c>
       <c r="X18" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="Y18" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="Z18" t="s">
         <v>73</v>
@@ -5638,7 +5632,7 @@
         <v>7.6</v>
       </c>
       <c r="AH18" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AI18" s="1">
         <v>40376</v>
@@ -5647,13 +5641,13 @@
         <v>64</v>
       </c>
       <c r="AK18" t="s">
-        <v>330</v>
+        <v>130</v>
       </c>
       <c r="AL18" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AM18" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AN18" t="s">
         <v>61</v>
@@ -5662,16 +5656,16 @@
         <v>68</v>
       </c>
       <c r="AP18" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AQ18" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AR18" t="s">
         <v>62</v>
       </c>
       <c r="AS18" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="AT18" t="s">
         <v>68</v>
@@ -5683,7 +5677,7 @@
         <v>96</v>
       </c>
       <c r="AW18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AX18">
         <v>1</v>
@@ -5692,10 +5686,10 @@
         <v>1</v>
       </c>
       <c r="AZ18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BA18" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="BB18" s="2">
         <v>23000000</v>
@@ -5704,46 +5698,46 @@
         <v>151496097</v>
       </c>
       <c r="BD18" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="BE18" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="BF18" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19">
         <v>2011</v>
       </c>
       <c r="E19" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G19" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H19" t="s">
         <v>46</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="J19">
         <v>91</v>
       </c>
       <c r="K19" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L19" t="s">
         <v>49</v>
@@ -5755,13 +5749,13 @@
         <v>51</v>
       </c>
       <c r="O19" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="P19" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="Q19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="R19" t="s">
         <v>73</v>
@@ -5776,10 +5770,10 @@
         <v>57</v>
       </c>
       <c r="X19" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="Y19" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="Z19" t="s">
         <v>73</v>
@@ -5806,7 +5800,7 @@
         <v>7.3</v>
       </c>
       <c r="AH19" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AI19" s="1">
         <v>40740</v>
@@ -5815,13 +5809,13 @@
         <v>64</v>
       </c>
       <c r="AK19" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="AL19" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AM19" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AN19" t="s">
         <v>61</v>
@@ -5830,16 +5824,16 @@
         <v>68</v>
       </c>
       <c r="AP19" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AQ19" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AR19" t="s">
         <v>62</v>
       </c>
       <c r="AS19" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="AT19" t="s">
         <v>61</v>
@@ -5851,7 +5845,7 @@
         <v>96</v>
       </c>
       <c r="AW19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AX19">
         <v>1</v>
@@ -5860,10 +5854,10 @@
         <v>0</v>
       </c>
       <c r="AZ19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BA19" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BB19" s="2">
         <v>22000000</v>
@@ -5872,21 +5866,21 @@
         <v>61000000</v>
       </c>
       <c r="BD19" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="BE19" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="BF19" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20">
@@ -5896,7 +5890,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -5905,16 +5899,16 @@
         <v>46</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J20">
         <v>126</v>
       </c>
       <c r="K20" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M20" t="s">
         <v>50</v>
@@ -5923,19 +5917,19 @@
         <v>51</v>
       </c>
       <c r="O20" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="P20" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Q20" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="R20" t="s">
         <v>46</v>
       </c>
       <c r="S20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T20" t="s">
         <v>73</v>
@@ -5947,10 +5941,10 @@
         <v>57</v>
       </c>
       <c r="X20" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="Y20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Z20" t="s">
         <v>73</v>
@@ -5977,7 +5971,7 @@
         <v>7.8</v>
       </c>
       <c r="AH20" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AI20" s="1">
         <v>41475</v>
@@ -5986,13 +5980,13 @@
         <v>64</v>
       </c>
       <c r="AK20" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AL20" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="AM20" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AN20" t="s">
         <v>61</v>
@@ -6001,16 +5995,16 @@
         <v>61</v>
       </c>
       <c r="AP20" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AQ20" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AR20" t="s">
         <v>62</v>
       </c>
       <c r="AS20" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AT20" t="s">
         <v>68</v>
@@ -6022,7 +6016,7 @@
         <v>96</v>
       </c>
       <c r="AW20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AX20">
         <v>1</v>
@@ -6031,10 +6025,10 @@
         <v>2</v>
       </c>
       <c r="AZ20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BA20" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="BB20" s="2">
         <v>30000000</v>
@@ -6043,21 +6037,21 @@
         <v>137000000</v>
       </c>
       <c r="BD20" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="BE20" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="BF20" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21">
@@ -6067,7 +6061,7 @@
         <v>78</v>
       </c>
       <c r="F21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -6076,13 +6070,13 @@
         <v>46</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="J21">
         <v>137</v>
       </c>
       <c r="K21" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L21" t="s">
         <v>49</v>
@@ -6094,19 +6088,19 @@
         <v>51</v>
       </c>
       <c r="O21" t="s">
+        <v>365</v>
+      </c>
+      <c r="P21" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>367</v>
+      </c>
+      <c r="R21" t="s">
+        <v>46</v>
+      </c>
+      <c r="S21" t="s">
         <v>368</v>
-      </c>
-      <c r="P21" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>370</v>
-      </c>
-      <c r="R21" t="s">
-        <v>46</v>
-      </c>
-      <c r="S21" t="s">
-        <v>371</v>
       </c>
       <c r="T21" t="s">
         <v>73</v>
@@ -6115,13 +6109,13 @@
         <v>87</v>
       </c>
       <c r="W21" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="X21" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="Y21" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="Z21" t="s">
         <v>73</v>
@@ -6148,7 +6142,7 @@
         <v>8</v>
       </c>
       <c r="AH21" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AI21" s="1">
         <v>41601</v>
@@ -6157,13 +6151,13 @@
         <v>64</v>
       </c>
       <c r="AK21" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AL21" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="AM21" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AN21" t="s">
         <v>68</v>
@@ -6172,16 +6166,16 @@
         <v>109</v>
       </c>
       <c r="AP21" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="AQ21" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AR21" t="s">
         <v>62</v>
       </c>
       <c r="AS21" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="AT21" t="s">
         <v>68</v>
@@ -6193,7 +6187,7 @@
         <v>96</v>
       </c>
       <c r="AW21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AX21">
         <v>2</v>
@@ -6202,10 +6196,10 @@
         <v>1</v>
       </c>
       <c r="AZ21" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="BA21" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="BB21" s="2">
         <v>49300000</v>
@@ -6214,46 +6208,46 @@
         <v>24700000</v>
       </c>
       <c r="BD21" s="3" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="BE21" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="BF21" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22">
         <v>2014</v>
       </c>
       <c r="E22" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F22" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G22" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H22" t="s">
         <v>46</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="J22">
         <v>103</v>
       </c>
       <c r="K22" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L22" t="s">
         <v>49</v>
@@ -6265,25 +6259,25 @@
         <v>51</v>
       </c>
       <c r="O22" t="s">
+        <v>380</v>
+      </c>
+      <c r="P22" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>382</v>
+      </c>
+      <c r="R22" t="s">
+        <v>46</v>
+      </c>
+      <c r="S22" t="s">
         <v>383</v>
       </c>
-      <c r="P22" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>385</v>
-      </c>
-      <c r="R22" t="s">
-        <v>46</v>
-      </c>
-      <c r="S22" t="s">
-        <v>386</v>
-      </c>
       <c r="T22" t="s">
         <v>46</v>
       </c>
       <c r="U22" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="V22" t="s">
         <v>87</v>
@@ -6292,10 +6286,10 @@
         <v>57</v>
       </c>
       <c r="X22" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="Y22" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="Z22" t="s">
         <v>73</v>
@@ -6322,7 +6316,7 @@
         <v>7.5</v>
       </c>
       <c r="AH22" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AI22" s="1">
         <v>41839</v>
@@ -6331,13 +6325,13 @@
         <v>64</v>
       </c>
       <c r="AK22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AL22" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AM22" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AN22" t="s">
         <v>61</v>
@@ -6346,16 +6340,16 @@
         <v>68</v>
       </c>
       <c r="AP22" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AQ22" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="AR22" t="s">
         <v>59</v>
       </c>
       <c r="AS22" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="AT22" t="s">
         <v>61</v>
@@ -6367,7 +6361,7 @@
         <v>96</v>
       </c>
       <c r="AW22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AX22">
         <v>0</v>
@@ -6376,10 +6370,10 @@
         <v>2</v>
       </c>
       <c r="AZ22" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BA22" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="BB22" s="2">
         <v>10500000</v>
@@ -6388,88 +6382,88 @@
         <v>41000000</v>
       </c>
       <c r="BD22" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="BE22" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="BF22" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23">
         <v>2016</v>
       </c>
       <c r="E23" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G23" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H23" t="s">
         <v>46</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="J23">
         <v>80</v>
       </c>
       <c r="K23" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="L23" t="s">
         <v>103</v>
       </c>
       <c r="M23" t="s">
+        <v>398</v>
+      </c>
+      <c r="N23" t="s">
+        <v>513</v>
+      </c>
+      <c r="O23" t="s">
+        <v>399</v>
+      </c>
+      <c r="P23" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q23" t="s">
         <v>401</v>
       </c>
-      <c r="N23" t="s">
-        <v>516</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="R23" t="s">
+        <v>46</v>
+      </c>
+      <c r="S23" t="s">
         <v>402</v>
       </c>
-      <c r="P23" t="s">
+      <c r="T23" t="s">
+        <v>46</v>
+      </c>
+      <c r="U23" t="s">
         <v>403</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>404</v>
-      </c>
-      <c r="R23" t="s">
-        <v>46</v>
-      </c>
-      <c r="S23" t="s">
-        <v>405</v>
-      </c>
-      <c r="T23" t="s">
-        <v>46</v>
-      </c>
-      <c r="U23" t="s">
-        <v>406</v>
       </c>
       <c r="V23" t="s">
         <v>87</v>
       </c>
       <c r="W23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="X23" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="Y23" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="Z23" t="s">
         <v>46</v>
@@ -6496,22 +6490,22 @@
         <v>7.5</v>
       </c>
       <c r="AH23" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AI23" s="1">
         <v>42630</v>
       </c>
       <c r="AJ23" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="AK23" t="s">
         <v>82</v>
       </c>
       <c r="AL23" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="AM23" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AN23" t="s">
         <v>61</v>
@@ -6520,16 +6514,16 @@
         <v>61</v>
       </c>
       <c r="AP23" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="AQ23" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="AR23" t="s">
         <v>62</v>
       </c>
       <c r="AS23" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="AT23" t="s">
         <v>61</v>
@@ -6538,10 +6532,10 @@
         <v>68</v>
       </c>
       <c r="AV23" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="AW23" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="AX23">
         <v>8</v>
@@ -6550,10 +6544,10 @@
         <v>8</v>
       </c>
       <c r="AZ23" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="BA23" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="BB23" s="2">
         <v>12500000</v>
@@ -6562,46 +6556,46 @@
         <v>5000000</v>
       </c>
       <c r="BD23" s="3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="BE23" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="BF23" s="3" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24">
         <v>2020</v>
       </c>
       <c r="E24" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F24" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G24" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="H24" t="s">
         <v>46</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="J24">
         <v>82</v>
       </c>
       <c r="K24" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L24" t="s">
         <v>49</v>
@@ -6610,40 +6604,40 @@
         <v>50</v>
       </c>
       <c r="N24" t="s">
+        <v>419</v>
+      </c>
+      <c r="O24" t="s">
+        <v>420</v>
+      </c>
+      <c r="P24" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q24" t="s">
         <v>422</v>
       </c>
-      <c r="O24" t="s">
+      <c r="R24" t="s">
+        <v>46</v>
+      </c>
+      <c r="S24" t="s">
         <v>423</v>
       </c>
-      <c r="P24" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>425</v>
-      </c>
-      <c r="R24" t="s">
-        <v>46</v>
-      </c>
-      <c r="S24" t="s">
-        <v>426</v>
-      </c>
       <c r="T24" t="s">
         <v>46</v>
       </c>
       <c r="U24" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="V24" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="W24" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="X24" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="Y24" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="Z24" t="s">
         <v>73</v>
@@ -6670,22 +6664,22 @@
         <v>6</v>
       </c>
       <c r="AH24" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="AI24" s="1">
         <v>44133</v>
       </c>
       <c r="AJ24" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AK24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AL24" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AM24" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="AN24" t="s">
         <v>68</v>
@@ -6694,16 +6688,16 @@
         <v>68</v>
       </c>
       <c r="AP24" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AQ24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AR24" t="s">
         <v>59</v>
       </c>
       <c r="AS24" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AT24" t="s">
         <v>61</v>
@@ -6715,7 +6709,7 @@
         <v>96</v>
       </c>
       <c r="AW24" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="AX24">
         <v>0</v>
@@ -6724,10 +6718,10 @@
         <v>1</v>
       </c>
       <c r="AZ24" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="BA24" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="BB24" s="2">
         <v>10000000</v>
@@ -6736,21 +6730,21 @@
         <v>842744</v>
       </c>
       <c r="BD24" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="BE24" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="BF24" s="3" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25">
@@ -6760,7 +6754,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -6769,16 +6763,16 @@
         <v>46</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J25">
         <v>125</v>
       </c>
       <c r="K25" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="L25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M25" t="s">
         <v>50</v>
@@ -6787,25 +6781,25 @@
         <v>51</v>
       </c>
       <c r="O25" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="P25" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="Q25" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="R25" t="s">
         <v>46</v>
       </c>
       <c r="S25" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="T25" t="s">
         <v>46</v>
       </c>
       <c r="U25" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="V25" t="s">
         <v>87</v>
@@ -6814,10 +6808,10 @@
         <v>57</v>
       </c>
       <c r="X25" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="Y25" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="Z25" t="s">
         <v>73</v>
@@ -6844,7 +6838,7 @@
         <v>8</v>
       </c>
       <c r="AH25" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="AI25" s="1">
         <v>45121</v>
@@ -6856,10 +6850,10 @@
         <v>82</v>
       </c>
       <c r="AL25" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AM25" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AN25" t="s">
         <v>61</v>
@@ -6868,16 +6862,16 @@
         <v>68</v>
       </c>
       <c r="AP25" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="AQ25" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AR25" t="s">
         <v>59</v>
       </c>
       <c r="AS25" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="AT25" t="s">
         <v>68</v>
@@ -6889,7 +6883,7 @@
         <v>96</v>
       </c>
       <c r="AW25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AX25">
         <v>10</v>
@@ -6898,10 +6892,10 @@
         <v>7</v>
       </c>
       <c r="AZ25" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="BA25" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="BB25" s="2">
         <v>53000000</v>
@@ -6910,13 +6904,13 @@
         <v>292922563</v>
       </c>
       <c r="BD25" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="BE25" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="BF25" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>

--- a/Ghibli-tabla.xlsx
+++ b/Ghibli-tabla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Página web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15325951-47DE-4439-8806-57402E891BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3762E8F3-FE32-4DE0-A804-E8A4183068E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1497,9 +1497,6 @@
     <t>Pasteles</t>
   </si>
   <si>
-    <t>Oscuro</t>
-  </si>
-  <si>
     <t>Suave</t>
   </si>
   <si>
@@ -1732,6 +1729,9 @@
   </si>
   <si>
     <t>Biografía</t>
+  </si>
+  <si>
+    <t>Oscuros</t>
   </si>
 </sst>
 </file>
@@ -2588,8 +2588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AK16" sqref="AK16"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2605,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -2778,7 +2778,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2">
@@ -2896,7 +2896,7 @@
         <v>61</v>
       </c>
       <c r="AP2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AQ2" t="s">
         <v>69</v>
@@ -2929,7 +2929,7 @@
         <v>74</v>
       </c>
       <c r="BA2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="BB2" s="2">
         <v>1000000</v>
@@ -2938,13 +2938,13 @@
         <v>14000000</v>
       </c>
       <c r="BD2" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="BE2" t="s">
         <v>75</v>
       </c>
       <c r="BF2" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.3">
@@ -3103,7 +3103,7 @@
         <v>97</v>
       </c>
       <c r="BA3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="BB3" s="2">
         <v>5000000</v>
@@ -3112,7 +3112,7 @@
         <v>15700000</v>
       </c>
       <c r="BD3" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="BE3" t="s">
         <v>98</v>
@@ -3126,7 +3126,7 @@
         <v>100</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4">
@@ -3229,7 +3229,7 @@
         <v>64</v>
       </c>
       <c r="AK4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AL4" t="s">
         <v>111</v>
@@ -3244,7 +3244,7 @@
         <v>68</v>
       </c>
       <c r="AP4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AQ4" t="s">
         <v>113</v>
@@ -3277,7 +3277,7 @@
         <v>117</v>
       </c>
       <c r="BA4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="BB4" s="2">
         <v>3700000</v>
@@ -3286,7 +3286,7 @@
         <v>41000000</v>
       </c>
       <c r="BD4" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="BE4" t="s">
         <v>118</v>
@@ -3300,7 +3300,7 @@
         <v>120</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5">
@@ -3358,7 +3358,7 @@
         <v>57</v>
       </c>
       <c r="X5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Y5" t="s">
         <v>128</v>
@@ -3412,7 +3412,7 @@
         <v>68</v>
       </c>
       <c r="AP5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AQ5" t="s">
         <v>133</v>
@@ -3421,7 +3421,7 @@
         <v>62</v>
       </c>
       <c r="AS5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AT5" t="s">
         <v>115</v>
@@ -3445,7 +3445,7 @@
         <v>134</v>
       </c>
       <c r="BA5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="BB5" s="2">
         <v>3700000</v>
@@ -3454,7 +3454,7 @@
         <v>14000000</v>
       </c>
       <c r="BD5" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="BE5" t="s">
         <v>135</v>
@@ -3468,7 +3468,7 @@
         <v>137</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6">
@@ -3535,7 +3535,7 @@
         <v>484</v>
       </c>
       <c r="Y6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="Z6" t="s">
         <v>73</v>
@@ -3586,7 +3586,7 @@
         <v>68</v>
       </c>
       <c r="AP6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AQ6" t="s">
         <v>150</v>
@@ -3619,7 +3619,7 @@
         <v>153</v>
       </c>
       <c r="BA6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="BB6" s="2">
         <v>6900000</v>
@@ -3628,7 +3628,7 @@
         <v>1144186</v>
       </c>
       <c r="BD6" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="BE6" t="s">
         <v>154</v>
@@ -3642,7 +3642,7 @@
         <v>156</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7">
@@ -3763,7 +3763,7 @@
         <v>62</v>
       </c>
       <c r="AS7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AT7" t="s">
         <v>68</v>
@@ -3787,7 +3787,7 @@
         <v>167</v>
       </c>
       <c r="BA7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="BB7" s="2">
         <v>15000000</v>
@@ -3796,7 +3796,7 @@
         <v>576916</v>
       </c>
       <c r="BD7" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="BE7" t="s">
         <v>168</v>
@@ -3931,13 +3931,13 @@
         <v>181</v>
       </c>
       <c r="AQ8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AR8" t="s">
         <v>59</v>
       </c>
       <c r="AS8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AT8" t="s">
         <v>68</v>
@@ -3961,7 +3961,7 @@
         <v>182</v>
       </c>
       <c r="BA8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="BB8" s="2">
         <v>9200000</v>
@@ -3970,13 +3970,13 @@
         <v>10000000</v>
       </c>
       <c r="BD8" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="BE8" t="s">
         <v>183</v>
       </c>
       <c r="BF8" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.3">
@@ -4111,7 +4111,7 @@
         <v>59</v>
       </c>
       <c r="AS9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AT9" t="s">
         <v>68</v>
@@ -4144,7 +4144,7 @@
         <v>16000000</v>
       </c>
       <c r="BD9" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="BE9" t="s">
         <v>201</v>
@@ -4158,7 +4158,7 @@
         <v>203</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10">
@@ -4258,7 +4258,7 @@
         <v>64</v>
       </c>
       <c r="AK10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AL10" t="s">
         <v>212</v>
@@ -4273,7 +4273,7 @@
         <v>68</v>
       </c>
       <c r="AP10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AQ10" t="s">
         <v>133</v>
@@ -4282,7 +4282,7 @@
         <v>62</v>
       </c>
       <c r="AS10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AT10" t="s">
         <v>68</v>
@@ -4303,7 +4303,7 @@
         <v>1</v>
       </c>
       <c r="AZ10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="BA10" t="s">
         <v>182</v>
@@ -4315,7 +4315,7 @@
         <v>10000000</v>
       </c>
       <c r="BD10" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BE10" t="s">
         <v>214</v>
@@ -4447,16 +4447,16 @@
         <v>61</v>
       </c>
       <c r="AP11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AQ11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AR11" t="s">
         <v>59</v>
       </c>
       <c r="AS11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AT11" t="s">
         <v>115</v>
@@ -4489,7 +4489,7 @@
         <v>231247030</v>
       </c>
       <c r="BD11" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="BE11" t="s">
         <v>227</v>
@@ -4564,7 +4564,7 @@
         <v>488</v>
       </c>
       <c r="Y12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Z12" t="s">
         <v>73</v>
@@ -4618,13 +4618,13 @@
         <v>242</v>
       </c>
       <c r="AQ12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AR12" t="s">
         <v>62</v>
       </c>
       <c r="AS12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AT12" t="s">
         <v>61</v>
@@ -4648,7 +4648,7 @@
         <v>243</v>
       </c>
       <c r="BA12" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="BB12" s="2">
         <v>20000000</v>
@@ -4657,7 +4657,7 @@
         <v>11000000</v>
       </c>
       <c r="BD12" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="BE12" t="s">
         <v>244</v>
@@ -4792,13 +4792,13 @@
         <v>452</v>
       </c>
       <c r="AQ13" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AR13" t="s">
         <v>59</v>
       </c>
       <c r="AS13" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AT13" t="s">
         <v>115</v>
@@ -4819,10 +4819,10 @@
         <v>4</v>
       </c>
       <c r="AZ13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="BA13" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="BB13" s="2">
         <v>19000000</v>
@@ -4831,7 +4831,7 @@
         <v>395800000</v>
       </c>
       <c r="BD13" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="BE13" t="s">
         <v>256</v>
@@ -4845,7 +4845,7 @@
         <v>258</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14">
@@ -4912,7 +4912,7 @@
         <v>485</v>
       </c>
       <c r="Y14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Z14" t="s">
         <v>73</v>
@@ -4963,10 +4963,10 @@
         <v>68</v>
       </c>
       <c r="AP14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AQ14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AR14" t="s">
         <v>59</v>
@@ -5005,7 +5005,7 @@
         <v>54000000</v>
       </c>
       <c r="BD14" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="BE14" t="s">
         <v>271</v>
@@ -5019,7 +5019,7 @@
         <v>273</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15">
@@ -5137,10 +5137,10 @@
         <v>68</v>
       </c>
       <c r="AP15" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AQ15" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AR15" t="s">
         <v>59</v>
@@ -5179,7 +5179,7 @@
         <v>239589856</v>
       </c>
       <c r="BD15" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="BE15" t="s">
         <v>287</v>
@@ -5254,7 +5254,7 @@
         <v>57</v>
       </c>
       <c r="X16" t="s">
-        <v>490</v>
+        <v>568</v>
       </c>
       <c r="Y16" t="s">
         <v>463</v>
@@ -5311,7 +5311,7 @@
         <v>299</v>
       </c>
       <c r="AQ16" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AR16" t="s">
         <v>59</v>
@@ -5338,7 +5338,7 @@
         <v>1</v>
       </c>
       <c r="AZ16" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="BA16" t="s">
         <v>182</v>
@@ -5431,7 +5431,7 @@
         <v>486</v>
       </c>
       <c r="Y17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="Z17" t="s">
         <v>46</v>
@@ -5482,7 +5482,7 @@
         <v>115</v>
       </c>
       <c r="AP17" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AQ17" t="s">
         <v>315</v>
@@ -5491,7 +5491,7 @@
         <v>59</v>
       </c>
       <c r="AS17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AT17" t="s">
         <v>68</v>
@@ -5524,13 +5524,13 @@
         <v>205162666</v>
       </c>
       <c r="BD17" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="BE17" t="s">
         <v>318</v>
       </c>
       <c r="BF17" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.3">
@@ -5538,7 +5538,7 @@
         <v>319</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18">
@@ -5659,13 +5659,13 @@
         <v>330</v>
       </c>
       <c r="AQ18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AR18" t="s">
         <v>62</v>
       </c>
       <c r="AS18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AT18" t="s">
         <v>68</v>
@@ -5770,7 +5770,7 @@
         <v>57</v>
       </c>
       <c r="X19" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Y19" t="s">
         <v>466</v>
@@ -5809,7 +5809,7 @@
         <v>64</v>
       </c>
       <c r="AK19" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AL19" t="s">
         <v>344</v>
@@ -5824,7 +5824,7 @@
         <v>68</v>
       </c>
       <c r="AP19" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AQ19" t="s">
         <v>346</v>
@@ -5833,7 +5833,7 @@
         <v>62</v>
       </c>
       <c r="AS19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AT19" t="s">
         <v>61</v>
@@ -5857,7 +5857,7 @@
         <v>182</v>
       </c>
       <c r="BA19" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="BB19" s="2">
         <v>22000000</v>
@@ -5880,7 +5880,7 @@
         <v>349</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20">
@@ -5941,7 +5941,7 @@
         <v>57</v>
       </c>
       <c r="X20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Y20" t="s">
         <v>128</v>
@@ -5980,7 +5980,7 @@
         <v>64</v>
       </c>
       <c r="AK20" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AL20" t="s">
         <v>356</v>
@@ -5995,10 +5995,10 @@
         <v>61</v>
       </c>
       <c r="AP20" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AQ20" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AR20" t="s">
         <v>62</v>
@@ -6037,10 +6037,10 @@
         <v>137000000</v>
       </c>
       <c r="BD20" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="BE20" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="BF20" s="3" t="s">
         <v>360</v>
@@ -6112,7 +6112,7 @@
         <v>479</v>
       </c>
       <c r="X21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Y21" t="s">
         <v>467</v>
@@ -6166,7 +6166,7 @@
         <v>109</v>
       </c>
       <c r="AP21" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AQ21" t="s">
         <v>373</v>
@@ -6175,7 +6175,7 @@
         <v>62</v>
       </c>
       <c r="AS21" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AT21" t="s">
         <v>68</v>
@@ -6208,13 +6208,13 @@
         <v>24700000</v>
       </c>
       <c r="BD21" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="BE21" t="s">
         <v>375</v>
       </c>
       <c r="BF21" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.3">
@@ -6222,7 +6222,7 @@
         <v>376</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22">
@@ -6286,7 +6286,7 @@
         <v>57</v>
       </c>
       <c r="X22" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Y22" t="s">
         <v>468</v>
@@ -6349,7 +6349,7 @@
         <v>59</v>
       </c>
       <c r="AS22" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AT22" t="s">
         <v>61</v>
@@ -6370,7 +6370,7 @@
         <v>2</v>
       </c>
       <c r="AZ22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="BA22" t="s">
         <v>389</v>
@@ -6430,7 +6430,7 @@
         <v>398</v>
       </c>
       <c r="N23" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="O23" t="s">
         <v>399</v>
@@ -6496,7 +6496,7 @@
         <v>42630</v>
       </c>
       <c r="AJ23" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AK23" t="s">
         <v>82</v>
@@ -6523,7 +6523,7 @@
         <v>62</v>
       </c>
       <c r="AS23" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AT23" t="s">
         <v>61</v>
@@ -6544,10 +6544,10 @@
         <v>8</v>
       </c>
       <c r="AZ23" t="s">
+        <v>517</v>
+      </c>
+      <c r="BA23" t="s">
         <v>518</v>
-      </c>
-      <c r="BA23" t="s">
-        <v>519</v>
       </c>
       <c r="BB23" s="2">
         <v>12500000</v>
@@ -6625,7 +6625,7 @@
         <v>46</v>
       </c>
       <c r="U24" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V24" t="s">
         <v>448</v>
@@ -6634,7 +6634,7 @@
         <v>457</v>
       </c>
       <c r="X24" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="Y24" t="s">
         <v>470</v>
@@ -6688,7 +6688,7 @@
         <v>68</v>
       </c>
       <c r="AP24" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AQ24" t="s">
         <v>133</v>
@@ -6718,7 +6718,7 @@
         <v>1</v>
       </c>
       <c r="AZ24" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="BA24" t="s">
         <v>317</v>
@@ -6744,7 +6744,7 @@
         <v>432</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25">
@@ -6808,7 +6808,7 @@
         <v>57</v>
       </c>
       <c r="X25" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Y25" t="s">
         <v>471</v>
@@ -6862,16 +6862,16 @@
         <v>68</v>
       </c>
       <c r="AP25" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AQ25" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AR25" t="s">
         <v>59</v>
       </c>
       <c r="AS25" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AT25" t="s">
         <v>68</v>
@@ -6892,10 +6892,10 @@
         <v>7</v>
       </c>
       <c r="AZ25" t="s">
+        <v>519</v>
+      </c>
+      <c r="BA25" t="s">
         <v>520</v>
-      </c>
-      <c r="BA25" t="s">
-        <v>521</v>
       </c>
       <c r="BB25" s="2">
         <v>53000000</v>
@@ -6904,13 +6904,13 @@
         <v>292922563</v>
       </c>
       <c r="BD25" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="BE25" t="s">
         <v>440</v>
       </c>
       <c r="BF25" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>

--- a/Ghibli-tabla.xlsx
+++ b/Ghibli-tabla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Página web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3762E8F3-FE32-4DE0-A804-E8A4183068E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3977589-1BDE-4DA9-AFF8-85BAF601C67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="568">
   <si>
     <t>Título</t>
   </si>
@@ -1549,9 +1549,6 @@
   </si>
   <si>
     <t>https://score.procinal.com.co/mobilecomjson/imagenes/1028.jpg</t>
-  </si>
-  <si>
-    <t>Sinopsis</t>
   </si>
   <si>
     <t>Viñeta cómica</t>
@@ -2586,18 +2583,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BF25"/>
+  <dimension ref="A1:BE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="X26" sqref="X26"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="56" max="56" width="23.109375" customWidth="1"/>
+    <col min="55" max="55" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2605,4378 +2602,4351 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>508</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>446</v>
       </c>
       <c r="P1" t="s">
-        <v>446</v>
+        <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>14</v>
+        <v>442</v>
       </c>
       <c r="R1" t="s">
-        <v>442</v>
+        <v>15</v>
       </c>
       <c r="S1" t="s">
-        <v>15</v>
+        <v>449</v>
       </c>
       <c r="T1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="U1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="V1" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="W1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="X1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Y1" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="Z1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AA1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AB1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AC1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AD1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AE1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AF1" t="s">
-        <v>478</v>
+        <v>16</v>
       </c>
       <c r="AG1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AU1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AV1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AW1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AX1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AY1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AZ1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BA1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BB1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BC1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BD1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="BE1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BF1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2">
+      <c r="C2">
         <v>1984</v>
       </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J2">
+      <c r="I2">
         <v>117</v>
       </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="R2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="S2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="U2" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="V2" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="W2" t="s">
-        <v>57</v>
+        <v>483</v>
       </c>
       <c r="X2" t="s">
-        <v>483</v>
+        <v>58</v>
       </c>
       <c r="Y2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="Z2" t="s">
         <v>46</v>
       </c>
       <c r="AA2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AB2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF2">
+        <v>8.1</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>30752</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN2" t="s">
         <v>61</v>
       </c>
-      <c r="AD2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG2">
-        <v>8.1</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>30752</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>68</v>
-      </c>
       <c r="AO2" t="s">
-        <v>61</v>
+        <v>540</v>
       </c>
       <c r="AP2" t="s">
-        <v>541</v>
+        <v>69</v>
       </c>
       <c r="AQ2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="AR2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="AS2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AT2" t="s">
         <v>68</v>
       </c>
       <c r="AU2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AV2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW2" t="s">
         <v>72</v>
       </c>
+      <c r="AW2">
+        <v>1</v>
+      </c>
       <c r="AX2">
-        <v>1</v>
-      </c>
-      <c r="AY2">
         <v>0</v>
       </c>
+      <c r="AY2" t="s">
+        <v>74</v>
+      </c>
       <c r="AZ2" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA2" t="s">
+        <v>521</v>
+      </c>
+      <c r="BA2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="BB2" s="2">
+        <v>14000000</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE2" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="BB2" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="BC2" s="2">
-        <v>14000000</v>
-      </c>
-      <c r="BD2" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BF2" s="3" t="s">
-        <v>523</v>
-      </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>76</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3">
+      <c r="C3">
         <v>1986</v>
       </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J3">
+      <c r="I3">
         <v>124</v>
       </c>
+      <c r="J3" t="s">
+        <v>80</v>
+      </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="L3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="O3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q3" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="R3" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="S3" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="T3" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="U3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W3" t="s">
-        <v>88</v>
+        <v>481</v>
       </c>
       <c r="X3" t="s">
-        <v>481</v>
+        <v>89</v>
       </c>
       <c r="Y3" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="Z3" t="s">
         <v>46</v>
       </c>
       <c r="AA3" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="AB3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AC3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF3">
+        <v>8</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>31626</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM3" t="s">
         <v>61</v>
       </c>
-      <c r="AD3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG3">
+      <c r="AN3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW3">
         <v>8</v>
       </c>
-      <c r="AH3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>31626</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>72</v>
-      </c>
       <c r="AX3">
-        <v>8</v>
-      </c>
-      <c r="AY3">
         <v>0</v>
       </c>
+      <c r="AY3" t="s">
+        <v>97</v>
+      </c>
       <c r="AZ3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>522</v>
+        <v>521</v>
+      </c>
+      <c r="BA3" s="2">
+        <v>5000000</v>
       </c>
       <c r="BB3" s="2">
-        <v>5000000</v>
-      </c>
-      <c r="BC3" s="2">
         <v>15700000</v>
       </c>
-      <c r="BD3" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="BE3" t="s">
+      <c r="BC3" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="BD3" t="s">
         <v>98</v>
       </c>
-      <c r="BF3" s="3" t="s">
+      <c r="BE3" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>100</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4">
+      <c r="C4">
         <v>1988</v>
       </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J4">
+      <c r="I4">
         <v>86</v>
       </c>
+      <c r="J4" t="s">
+        <v>102</v>
+      </c>
       <c r="K4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L4" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="M4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="O4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q4" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="R4" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="S4" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="T4" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="U4" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="V4" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="W4" t="s">
-        <v>57</v>
+        <v>482</v>
       </c>
       <c r="X4" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="Y4" t="s">
-        <v>470</v>
+        <v>46</v>
       </c>
       <c r="Z4" t="s">
         <v>46</v>
       </c>
       <c r="AA4" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="AB4" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="AC4" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="AD4" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="AE4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG4">
+        <v>46</v>
+      </c>
+      <c r="AF4">
         <v>8.1999999999999993</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AG4" t="s">
         <v>110</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AH4" s="1">
         <v>32249</v>
       </c>
+      <c r="AI4" t="s">
+        <v>64</v>
+      </c>
       <c r="AJ4" t="s">
-        <v>64</v>
+        <v>565</v>
       </c>
       <c r="AK4" t="s">
-        <v>566</v>
+        <v>111</v>
       </c>
       <c r="AL4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM4" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="AN4" t="s">
         <v>68</v>
       </c>
       <c r="AO4" t="s">
-        <v>68</v>
+        <v>520</v>
       </c>
       <c r="AP4" t="s">
-        <v>521</v>
+        <v>113</v>
       </c>
       <c r="AQ4" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="AR4" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="AS4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AT4" t="s">
         <v>115</v>
       </c>
       <c r="AU4" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="AV4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW4" t="s">
         <v>116</v>
       </c>
+      <c r="AW4">
+        <v>2</v>
+      </c>
       <c r="AX4">
-        <v>2</v>
-      </c>
-      <c r="AY4">
         <v>0</v>
       </c>
+      <c r="AY4" t="s">
+        <v>117</v>
+      </c>
       <c r="AZ4" t="s">
-        <v>117</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>522</v>
+        <v>521</v>
+      </c>
+      <c r="BA4" s="2">
+        <v>3700000</v>
       </c>
       <c r="BB4" s="2">
-        <v>3700000</v>
-      </c>
-      <c r="BC4" s="2">
         <v>41000000</v>
       </c>
-      <c r="BD4" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="BE4" t="s">
+      <c r="BC4" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="BD4" t="s">
         <v>118</v>
       </c>
-      <c r="BF4" s="3" t="s">
+      <c r="BE4" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>120</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5">
+      <c r="C5">
         <v>1988</v>
       </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="G5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5">
+        <v>73</v>
+      </c>
+      <c r="I5">
         <v>89</v>
       </c>
+      <c r="J5" t="s">
+        <v>122</v>
+      </c>
       <c r="K5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L5" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="M5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N5" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="O5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q5" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="R5" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="S5" t="s">
-        <v>127</v>
-      </c>
-      <c r="T5" t="s">
-        <v>73</v>
+        <v>73</v>
+      </c>
+      <c r="U5" t="s">
+        <v>87</v>
       </c>
       <c r="V5" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="W5" t="s">
-        <v>57</v>
+        <v>513</v>
       </c>
       <c r="X5" t="s">
-        <v>514</v>
+        <v>128</v>
       </c>
       <c r="Y5" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="AA5" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="AB5" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="AC5" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="AD5" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="AE5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG5">
+        <v>73</v>
+      </c>
+      <c r="AF5">
         <v>8.5</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AG5" t="s">
         <v>129</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AH5" s="1">
         <v>32249</v>
       </c>
+      <c r="AI5" t="s">
+        <v>64</v>
+      </c>
       <c r="AJ5" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="AK5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AL5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AM5" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="AN5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="AO5" t="s">
-        <v>68</v>
+        <v>541</v>
       </c>
       <c r="AP5" t="s">
-        <v>542</v>
+        <v>133</v>
       </c>
       <c r="AQ5" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="AR5" t="s">
-        <v>62</v>
+        <v>548</v>
       </c>
       <c r="AS5" t="s">
-        <v>549</v>
+        <v>115</v>
       </c>
       <c r="AT5" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="AU5" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="AV5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW5" t="s">
         <v>116</v>
       </c>
+      <c r="AW5">
+        <v>2</v>
+      </c>
       <c r="AX5">
-        <v>2</v>
-      </c>
-      <c r="AY5">
         <v>0</v>
       </c>
+      <c r="AY5" t="s">
+        <v>134</v>
+      </c>
       <c r="AZ5" t="s">
-        <v>134</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>522</v>
+        <v>521</v>
+      </c>
+      <c r="BA5" s="2">
+        <v>3700000</v>
       </c>
       <c r="BB5" s="2">
-        <v>3700000</v>
-      </c>
-      <c r="BC5" s="2">
         <v>14000000</v>
       </c>
-      <c r="BD5" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="BE5" t="s">
+      <c r="BC5" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="BD5" t="s">
         <v>135</v>
       </c>
-      <c r="BF5" s="3" t="s">
+      <c r="BE5" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>137</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6">
+      <c r="C6">
         <v>1989</v>
       </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="J6">
+      <c r="I6">
         <v>103</v>
       </c>
+      <c r="J6" t="s">
+        <v>140</v>
+      </c>
       <c r="K6" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="L6" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="M6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N6" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="O6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q6" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="R6" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="S6" t="s">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c r="T6" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="U6" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="V6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>484</v>
       </c>
       <c r="X6" t="s">
-        <v>484</v>
+        <v>510</v>
       </c>
       <c r="Y6" t="s">
-        <v>511</v>
+        <v>73</v>
       </c>
       <c r="Z6" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="AA6" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="AB6" t="s">
         <v>68</v>
       </c>
       <c r="AC6" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="AD6" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="AE6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG6">
+        <v>46</v>
+      </c>
+      <c r="AF6">
         <v>7.9</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AG6" t="s">
         <v>146</v>
       </c>
-      <c r="AI6" s="1">
+      <c r="AH6" s="1">
         <v>32718</v>
       </c>
+      <c r="AI6" t="s">
+        <v>64</v>
+      </c>
       <c r="AJ6" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="AK6" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="AL6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AM6" t="s">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="AN6" t="s">
         <v>68</v>
       </c>
       <c r="AO6" t="s">
-        <v>68</v>
+        <v>520</v>
       </c>
       <c r="AP6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AW6">
+        <v>2</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ6" t="s">
         <v>521</v>
       </c>
-      <c r="AQ6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>151</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>152</v>
-      </c>
-      <c r="AX6">
-        <v>2</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>153</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>522</v>
+      <c r="BA6" s="2">
+        <v>6900000</v>
       </c>
       <c r="BB6" s="2">
-        <v>6900000</v>
-      </c>
-      <c r="BC6" s="2">
         <v>1144186</v>
       </c>
-      <c r="BD6" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="BE6" t="s">
+      <c r="BC6" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="BD6" t="s">
         <v>154</v>
       </c>
-      <c r="BF6" s="3" t="s">
+      <c r="BE6" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>156</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7">
+      <c r="C7">
         <v>1991</v>
       </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="F7" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="G7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="J7">
+      <c r="I7">
         <v>118</v>
       </c>
+      <c r="J7" t="s">
+        <v>159</v>
+      </c>
       <c r="K7" t="s">
-        <v>159</v>
+        <v>49</v>
       </c>
       <c r="L7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N7" t="s">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="O7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q7" t="s">
-        <v>162</v>
-      </c>
-      <c r="R7" t="s">
-        <v>73</v>
-      </c>
-      <c r="T7" t="s">
-        <v>73</v>
+        <v>73</v>
+      </c>
+      <c r="S7" t="s">
+        <v>73</v>
+      </c>
+      <c r="U7" t="s">
+        <v>87</v>
       </c>
       <c r="V7" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="W7" t="s">
-        <v>57</v>
+        <v>485</v>
       </c>
       <c r="X7" t="s">
-        <v>485</v>
+        <v>128</v>
       </c>
       <c r="Y7" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="Z7" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="AA7" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="AB7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AC7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF7">
+        <v>7.8</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>33439</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM7" t="s">
         <v>61</v>
       </c>
-      <c r="AD7" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG7">
-        <v>7.8</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>33439</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>164</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>165</v>
-      </c>
       <c r="AN7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>549</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT7" t="s">
         <v>61</v>
       </c>
-      <c r="AO7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>550</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>68</v>
-      </c>
       <c r="AU7" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="AV7" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW7" t="s">
         <v>116</v>
       </c>
+      <c r="AW7">
+        <v>1</v>
+      </c>
       <c r="AX7">
-        <v>1</v>
-      </c>
-      <c r="AY7">
         <v>0</v>
       </c>
+      <c r="AY7" t="s">
+        <v>167</v>
+      </c>
       <c r="AZ7" t="s">
-        <v>167</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>522</v>
+        <v>521</v>
+      </c>
+      <c r="BA7" s="2">
+        <v>15000000</v>
       </c>
       <c r="BB7" s="2">
-        <v>15000000</v>
-      </c>
-      <c r="BC7" s="2">
         <v>576916</v>
       </c>
-      <c r="BD7" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="BE7" t="s">
+      <c r="BC7" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="BD7" t="s">
         <v>168</v>
       </c>
-      <c r="BF7" s="3" t="s">
+      <c r="BE7" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>170</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8">
+      <c r="C8">
         <v>1992</v>
       </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="F8" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="J8">
+      <c r="I8">
         <v>94</v>
       </c>
+      <c r="J8" t="s">
+        <v>173</v>
+      </c>
       <c r="K8" t="s">
-        <v>173</v>
+        <v>49</v>
       </c>
       <c r="L8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N8" t="s">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="O8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q8" t="s">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c r="R8" t="s">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="S8" t="s">
-        <v>177</v>
+        <v>46</v>
       </c>
       <c r="T8" t="s">
-        <v>46</v>
+        <v>456</v>
       </c>
       <c r="U8" t="s">
-        <v>456</v>
+        <v>87</v>
       </c>
       <c r="V8" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="W8" t="s">
-        <v>57</v>
+        <v>486</v>
       </c>
       <c r="X8" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="Y8" t="s">
-        <v>461</v>
+        <v>73</v>
       </c>
       <c r="Z8" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="AA8" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="AB8" t="s">
         <v>68</v>
       </c>
       <c r="AC8" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="AD8" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="AE8" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG8">
+        <v>46</v>
+      </c>
+      <c r="AF8">
         <v>7.7</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AG8" t="s">
         <v>178</v>
       </c>
-      <c r="AI8" s="1">
+      <c r="AH8" s="1">
         <v>33803</v>
       </c>
+      <c r="AI8" t="s">
+        <v>64</v>
+      </c>
       <c r="AJ8" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="AK8" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="AL8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM8" t="s">
-        <v>180</v>
+        <v>61</v>
       </c>
       <c r="AN8" t="s">
         <v>61</v>
       </c>
       <c r="AO8" t="s">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="AP8" t="s">
-        <v>181</v>
+        <v>532</v>
       </c>
       <c r="AQ8" t="s">
-        <v>533</v>
+        <v>59</v>
       </c>
       <c r="AR8" t="s">
-        <v>59</v>
+        <v>550</v>
       </c>
       <c r="AS8" t="s">
-        <v>551</v>
+        <v>68</v>
       </c>
       <c r="AT8" t="s">
         <v>68</v>
       </c>
       <c r="AU8" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="AV8" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW8" t="s">
         <v>116</v>
       </c>
+      <c r="AW8">
+        <v>1</v>
+      </c>
       <c r="AX8">
-        <v>1</v>
-      </c>
-      <c r="AY8">
         <v>0</v>
       </c>
+      <c r="AY8" t="s">
+        <v>182</v>
+      </c>
       <c r="AZ8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>522</v>
+        <v>521</v>
+      </c>
+      <c r="BA8" s="2">
+        <v>9200000</v>
       </c>
       <c r="BB8" s="2">
-        <v>9200000</v>
-      </c>
-      <c r="BC8" s="2">
         <v>10000000</v>
       </c>
-      <c r="BD8" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="BE8" t="s">
+      <c r="BC8" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="BD8" t="s">
         <v>183</v>
       </c>
-      <c r="BF8" s="3" t="s">
-        <v>528</v>
+      <c r="BE8" s="3" t="s">
+        <v>527</v>
       </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>184</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9">
+      <c r="C9">
         <v>1994</v>
       </c>
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="F9" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="G9" t="s">
-        <v>186</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="J9">
+      <c r="I9">
         <v>119</v>
       </c>
+      <c r="J9" t="s">
+        <v>188</v>
+      </c>
       <c r="K9" t="s">
-        <v>188</v>
+        <v>49</v>
       </c>
       <c r="L9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N9" t="s">
-        <v>51</v>
+        <v>189</v>
       </c>
       <c r="O9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q9" t="s">
-        <v>191</v>
+        <v>46</v>
       </c>
       <c r="R9" t="s">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c r="S9" t="s">
-        <v>192</v>
+        <v>46</v>
       </c>
       <c r="T9" t="s">
-        <v>46</v>
+        <v>455</v>
       </c>
       <c r="U9" t="s">
-        <v>455</v>
+        <v>87</v>
       </c>
       <c r="V9" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="W9" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="X9" t="s">
-        <v>193</v>
+        <v>462</v>
       </c>
       <c r="Y9" t="s">
-        <v>462</v>
+        <v>46</v>
       </c>
       <c r="Z9" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="AA9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AB9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AC9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF9">
+        <v>7.3</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>34531</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>195</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM9" t="s">
         <v>61</v>
       </c>
-      <c r="AD9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG9">
-        <v>7.3</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>34531</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>195</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>196</v>
-      </c>
       <c r="AN9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>197</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>198</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>551</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT9" t="s">
         <v>61</v>
       </c>
-      <c r="AO9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>197</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>198</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>552</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>68</v>
-      </c>
       <c r="AU9" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="AV9" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW9" t="s">
         <v>116</v>
       </c>
+      <c r="AW9">
+        <v>2</v>
+      </c>
       <c r="AX9">
-        <v>2</v>
-      </c>
-      <c r="AY9">
         <v>1</v>
       </c>
+      <c r="AY9" t="s">
+        <v>199</v>
+      </c>
       <c r="AZ9" t="s">
-        <v>199</v>
-      </c>
-      <c r="BA9" t="s">
         <v>200</v>
       </c>
+      <c r="BA9" s="2">
+        <v>12000000</v>
+      </c>
       <c r="BB9" s="2">
-        <v>12000000</v>
-      </c>
-      <c r="BC9" s="2">
         <v>16000000</v>
       </c>
-      <c r="BD9" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="BE9" t="s">
+      <c r="BC9" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="BD9" t="s">
         <v>201</v>
       </c>
-      <c r="BF9" s="3" t="s">
+      <c r="BE9" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>203</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10">
+      <c r="C10">
         <v>1995</v>
       </c>
+      <c r="D10" t="s">
+        <v>204</v>
+      </c>
       <c r="E10" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
       <c r="F10" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="G10" t="s">
-        <v>205</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="J10">
+      <c r="I10">
         <v>111</v>
       </c>
+      <c r="J10" t="s">
+        <v>207</v>
+      </c>
       <c r="K10" t="s">
-        <v>207</v>
+        <v>49</v>
       </c>
       <c r="L10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N10" t="s">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c r="O10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q10" t="s">
-        <v>210</v>
-      </c>
-      <c r="R10" t="s">
-        <v>73</v>
+        <v>73</v>
+      </c>
+      <c r="S10" t="s">
+        <v>46</v>
       </c>
       <c r="T10" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="U10" t="s">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="V10" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="W10" t="s">
-        <v>57</v>
+        <v>487</v>
       </c>
       <c r="X10" t="s">
-        <v>487</v>
+        <v>128</v>
       </c>
       <c r="Y10" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="Z10" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="AA10" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="AB10" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AC10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF10">
+        <v>7.7</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>211</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>34895</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>563</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>213</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>520</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>552</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT10" t="s">
         <v>61</v>
       </c>
-      <c r="AD10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG10">
-        <v>7.7</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>211</v>
-      </c>
-      <c r="AI10" s="1">
-        <v>34895</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>564</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>213</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP10" t="s">
+      <c r="AU10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>1</v>
+      </c>
+      <c r="AY10" t="s">
         <v>521</v>
       </c>
-      <c r="AQ10" t="s">
-        <v>133</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>553</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>116</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="AY10">
-        <v>1</v>
-      </c>
       <c r="AZ10" t="s">
-        <v>522</v>
-      </c>
-      <c r="BA10" t="s">
         <v>182</v>
+      </c>
+      <c r="BA10" s="2">
+        <v>10000000</v>
       </c>
       <c r="BB10" s="2">
         <v>10000000</v>
       </c>
-      <c r="BC10" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="BD10" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="BE10" t="s">
+      <c r="BC10" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="BD10" t="s">
         <v>214</v>
       </c>
-      <c r="BF10" s="3" t="s">
+      <c r="BE10" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>216</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11">
+      <c r="C11">
         <v>1997</v>
       </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="F11" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="J11">
+      <c r="I11">
         <v>134</v>
       </c>
+      <c r="J11" t="s">
+        <v>140</v>
+      </c>
       <c r="K11" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="M11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N11" t="s">
-        <v>51</v>
+        <v>219</v>
       </c>
       <c r="O11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q11" t="s">
-        <v>221</v>
+        <v>46</v>
       </c>
       <c r="R11" t="s">
-        <v>46</v>
+        <v>222</v>
       </c>
       <c r="S11" t="s">
-        <v>222</v>
+        <v>46</v>
       </c>
       <c r="T11" t="s">
-        <v>46</v>
+        <v>454</v>
       </c>
       <c r="U11" t="s">
-        <v>454</v>
+        <v>87</v>
       </c>
       <c r="V11" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="W11" t="s">
-        <v>57</v>
+        <v>482</v>
       </c>
       <c r="X11" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="Y11" t="s">
-        <v>463</v>
+        <v>46</v>
       </c>
       <c r="Z11" t="s">
         <v>46</v>
       </c>
       <c r="AA11" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="AB11" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AC11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF11">
+        <v>8.4</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>35623</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>224</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>225</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN11" t="s">
         <v>61</v>
       </c>
-      <c r="AD11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG11">
-        <v>8.4</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>223</v>
-      </c>
-      <c r="AI11" s="1">
-        <v>35623</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>224</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>225</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>68</v>
-      </c>
       <c r="AO11" t="s">
-        <v>61</v>
+        <v>542</v>
       </c>
       <c r="AP11" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="AQ11" t="s">
-        <v>534</v>
+        <v>59</v>
       </c>
       <c r="AR11" t="s">
-        <v>59</v>
+        <v>553</v>
       </c>
       <c r="AS11" t="s">
-        <v>554</v>
+        <v>115</v>
       </c>
       <c r="AT11" t="s">
         <v>115</v>
       </c>
       <c r="AU11" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="AV11" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW11" t="s">
         <v>116</v>
       </c>
+      <c r="AW11">
+        <v>2</v>
+      </c>
       <c r="AX11">
-        <v>2</v>
-      </c>
-      <c r="AY11">
         <v>1</v>
       </c>
+      <c r="AY11" t="s">
+        <v>153</v>
+      </c>
       <c r="AZ11" t="s">
-        <v>153</v>
-      </c>
-      <c r="BA11" t="s">
         <v>226</v>
       </c>
+      <c r="BA11" s="2">
+        <v>23500000</v>
+      </c>
       <c r="BB11" s="2">
-        <v>23500000</v>
-      </c>
-      <c r="BC11" s="2">
         <v>231247030</v>
       </c>
-      <c r="BD11" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="BE11" t="s">
+      <c r="BC11" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="BD11" t="s">
         <v>227</v>
       </c>
-      <c r="BF11" s="3" t="s">
+      <c r="BE11" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>229</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12">
+      <c r="C12">
         <v>1999</v>
       </c>
+      <c r="D12" t="s">
+        <v>78</v>
+      </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="G12" t="s">
-        <v>231</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="J12">
+      <c r="I12">
         <v>104</v>
       </c>
+      <c r="J12" t="s">
+        <v>233</v>
+      </c>
       <c r="K12" t="s">
-        <v>233</v>
+        <v>103</v>
       </c>
       <c r="L12" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="M12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N12" t="s">
-        <v>51</v>
+        <v>234</v>
       </c>
       <c r="O12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q12" t="s">
-        <v>236</v>
-      </c>
-      <c r="R12" t="s">
-        <v>73</v>
-      </c>
-      <c r="T12" t="s">
-        <v>73</v>
+        <v>73</v>
+      </c>
+      <c r="S12" t="s">
+        <v>73</v>
+      </c>
+      <c r="U12" t="s">
+        <v>87</v>
       </c>
       <c r="V12" t="s">
-        <v>87</v>
+        <v>237</v>
       </c>
       <c r="W12" t="s">
-        <v>237</v>
+        <v>488</v>
       </c>
       <c r="X12" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
       <c r="Y12" t="s">
-        <v>509</v>
+        <v>73</v>
       </c>
       <c r="Z12" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="AA12" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="AB12" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="AC12" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="AD12" t="s">
-        <v>73</v>
+        <v>238</v>
       </c>
       <c r="AE12" t="s">
-        <v>238</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG12">
+        <v>73</v>
+      </c>
+      <c r="AF12">
         <v>7.1</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AG12" t="s">
         <v>239</v>
       </c>
-      <c r="AI12" s="1">
+      <c r="AH12" s="1">
         <v>36358</v>
       </c>
+      <c r="AI12" t="s">
+        <v>64</v>
+      </c>
       <c r="AJ12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK12" t="s">
-        <v>65</v>
+        <v>240</v>
       </c>
       <c r="AL12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AM12" t="s">
-        <v>241</v>
+        <v>61</v>
       </c>
       <c r="AN12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>242</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>534</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>554</v>
+      </c>
+      <c r="AS12" t="s">
         <v>61</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>242</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>535</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>555</v>
       </c>
       <c r="AT12" t="s">
         <v>61</v>
       </c>
       <c r="AU12" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="AV12" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW12" t="s">
         <v>116</v>
       </c>
+      <c r="AW12">
+        <v>1</v>
+      </c>
       <c r="AX12">
-        <v>1</v>
-      </c>
-      <c r="AY12">
         <v>0</v>
       </c>
+      <c r="AY12" t="s">
+        <v>243</v>
+      </c>
       <c r="AZ12" t="s">
-        <v>243</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>522</v>
+        <v>521</v>
+      </c>
+      <c r="BA12" s="2">
+        <v>20000000</v>
       </c>
       <c r="BB12" s="2">
-        <v>20000000</v>
-      </c>
-      <c r="BC12" s="2">
         <v>11000000</v>
       </c>
-      <c r="BD12" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="BE12" t="s">
+      <c r="BC12" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="BD12" t="s">
         <v>244</v>
       </c>
-      <c r="BF12" s="3" t="s">
+      <c r="BE12" s="3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>246</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13">
+      <c r="C13">
         <v>2001</v>
       </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="J13">
+      <c r="I13">
         <v>125</v>
       </c>
+      <c r="J13" t="s">
+        <v>140</v>
+      </c>
       <c r="K13" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="L13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N13" t="s">
-        <v>51</v>
+        <v>249</v>
       </c>
       <c r="O13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q13" t="s">
-        <v>251</v>
+        <v>46</v>
       </c>
       <c r="R13" t="s">
-        <v>46</v>
+        <v>252</v>
       </c>
       <c r="S13" t="s">
-        <v>252</v>
+        <v>46</v>
       </c>
       <c r="T13" t="s">
-        <v>46</v>
+        <v>453</v>
       </c>
       <c r="U13" t="s">
-        <v>453</v>
+        <v>87</v>
       </c>
       <c r="V13" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="W13" t="s">
-        <v>57</v>
+        <v>489</v>
       </c>
       <c r="X13" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="Y13" t="s">
-        <v>464</v>
+        <v>46</v>
       </c>
       <c r="Z13" t="s">
         <v>46</v>
       </c>
       <c r="AA13" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="AB13" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AC13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF13">
+        <v>8.6</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>37092</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN13" t="s">
         <v>61</v>
       </c>
-      <c r="AD13" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG13">
-        <v>8.6</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>253</v>
-      </c>
-      <c r="AI13" s="1">
-        <v>37092</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>254</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>255</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>68</v>
-      </c>
       <c r="AO13" t="s">
-        <v>61</v>
+        <v>452</v>
       </c>
       <c r="AP13" t="s">
-        <v>452</v>
+        <v>535</v>
       </c>
       <c r="AQ13" t="s">
-        <v>536</v>
+        <v>59</v>
       </c>
       <c r="AR13" t="s">
-        <v>59</v>
+        <v>555</v>
       </c>
       <c r="AS13" t="s">
-        <v>556</v>
+        <v>115</v>
       </c>
       <c r="AT13" t="s">
         <v>115</v>
       </c>
       <c r="AU13" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="AV13" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW13" t="s">
         <v>116</v>
       </c>
+      <c r="AW13">
+        <v>7</v>
+      </c>
       <c r="AX13">
-        <v>7</v>
-      </c>
-      <c r="AY13">
         <v>4</v>
       </c>
+      <c r="AY13" t="s">
+        <v>515</v>
+      </c>
       <c r="AZ13" t="s">
-        <v>516</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>515</v>
+        <v>514</v>
+      </c>
+      <c r="BA13" s="2">
+        <v>19000000</v>
       </c>
       <c r="BB13" s="2">
-        <v>19000000</v>
-      </c>
-      <c r="BC13" s="2">
         <v>395800000</v>
       </c>
-      <c r="BD13" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="BE13" t="s">
+      <c r="BC13" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="BD13" t="s">
         <v>256</v>
       </c>
-      <c r="BF13" s="3" t="s">
+      <c r="BE13" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>258</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14">
+      <c r="C14">
         <v>2002</v>
       </c>
+      <c r="D14" t="s">
+        <v>259</v>
+      </c>
       <c r="E14" t="s">
-        <v>259</v>
+        <v>138</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="G14" t="s">
-        <v>205</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="J14">
+      <c r="I14">
         <v>75</v>
       </c>
+      <c r="J14" t="s">
+        <v>140</v>
+      </c>
       <c r="K14" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="L14" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="M14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N14" t="s">
-        <v>51</v>
+        <v>261</v>
       </c>
       <c r="O14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P14" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q14" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="R14" t="s">
-        <v>46</v>
+        <v>264</v>
       </c>
       <c r="S14" t="s">
-        <v>264</v>
+        <v>46</v>
       </c>
       <c r="T14" t="s">
-        <v>46</v>
+        <v>265</v>
       </c>
       <c r="U14" t="s">
-        <v>265</v>
+        <v>87</v>
       </c>
       <c r="V14" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="W14" t="s">
-        <v>57</v>
+        <v>485</v>
       </c>
       <c r="X14" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="Y14" t="s">
-        <v>495</v>
+        <v>73</v>
       </c>
       <c r="Z14" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="AA14" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="AB14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF14">
+        <v>7.2</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>266</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>37456</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>268</v>
+      </c>
+      <c r="AM14" t="s">
         <v>61</v>
       </c>
-      <c r="AC14" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG14">
-        <v>7.2</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>266</v>
-      </c>
-      <c r="AI14" s="1">
-        <v>37456</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>267</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>268</v>
-      </c>
       <c r="AN14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>520</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>536</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>269</v>
+      </c>
+      <c r="AS14" t="s">
         <v>61</v>
       </c>
-      <c r="AO14" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>521</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>537</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>269</v>
-      </c>
       <c r="AT14" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="AU14" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="AV14" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW14" t="s">
         <v>116</v>
+      </c>
+      <c r="AW14">
+        <v>1</v>
       </c>
       <c r="AX14">
         <v>1</v>
       </c>
-      <c r="AY14">
-        <v>1</v>
+      <c r="AY14" t="s">
+        <v>270</v>
       </c>
       <c r="AZ14" t="s">
-        <v>270</v>
-      </c>
-      <c r="BA14" t="s">
         <v>182</v>
       </c>
+      <c r="BA14" s="2">
+        <v>20000000</v>
+      </c>
       <c r="BB14" s="2">
-        <v>20000000</v>
-      </c>
-      <c r="BC14" s="2">
         <v>54000000</v>
       </c>
-      <c r="BD14" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="BE14" t="s">
+      <c r="BC14" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="BD14" t="s">
         <v>271</v>
       </c>
-      <c r="BF14" s="3" t="s">
+      <c r="BE14" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>273</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15">
+      <c r="C15">
         <v>2004</v>
       </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="J15">
+      <c r="I15">
         <v>119</v>
       </c>
+      <c r="J15" t="s">
+        <v>275</v>
+      </c>
       <c r="K15" t="s">
-        <v>275</v>
+        <v>49</v>
       </c>
       <c r="L15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N15" t="s">
-        <v>51</v>
+        <v>276</v>
       </c>
       <c r="O15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q15" t="s">
-        <v>278</v>
+        <v>46</v>
       </c>
       <c r="R15" t="s">
-        <v>46</v>
+        <v>279</v>
       </c>
       <c r="S15" t="s">
-        <v>279</v>
+        <v>46</v>
       </c>
       <c r="T15" t="s">
-        <v>46</v>
+        <v>283</v>
       </c>
       <c r="U15" t="s">
-        <v>283</v>
+        <v>447</v>
       </c>
       <c r="V15" t="s">
-        <v>447</v>
+        <v>480</v>
       </c>
       <c r="W15" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="X15" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="Y15" t="s">
-        <v>465</v>
+        <v>46</v>
       </c>
       <c r="Z15" t="s">
         <v>46</v>
       </c>
       <c r="AA15" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="AB15" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="AC15" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="AD15" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="AE15" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG15">
+        <v>46</v>
+      </c>
+      <c r="AF15">
         <v>8.1999999999999993</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="AG15" t="s">
         <v>280</v>
       </c>
-      <c r="AI15" s="1">
+      <c r="AH15" s="1">
         <v>38311</v>
       </c>
+      <c r="AI15" t="s">
+        <v>64</v>
+      </c>
       <c r="AJ15" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="AK15" t="s">
-        <v>130</v>
+        <v>281</v>
       </c>
       <c r="AL15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM15" t="s">
-        <v>282</v>
+        <v>68</v>
       </c>
       <c r="AN15" t="s">
         <v>68</v>
       </c>
       <c r="AO15" t="s">
-        <v>68</v>
+        <v>543</v>
       </c>
       <c r="AP15" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="AQ15" t="s">
-        <v>538</v>
+        <v>59</v>
       </c>
       <c r="AR15" t="s">
-        <v>59</v>
+        <v>284</v>
       </c>
       <c r="AS15" t="s">
-        <v>284</v>
+        <v>68</v>
       </c>
       <c r="AT15" t="s">
         <v>68</v>
       </c>
       <c r="AU15" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="AV15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW15" t="s">
         <v>116</v>
       </c>
+      <c r="AW15">
+        <v>2</v>
+      </c>
       <c r="AX15">
-        <v>2</v>
-      </c>
-      <c r="AY15">
         <v>1</v>
       </c>
+      <c r="AY15" t="s">
+        <v>285</v>
+      </c>
       <c r="AZ15" t="s">
-        <v>285</v>
-      </c>
-      <c r="BA15" t="s">
         <v>286</v>
       </c>
+      <c r="BA15" s="2">
+        <v>24000000</v>
+      </c>
       <c r="BB15" s="2">
-        <v>24000000</v>
-      </c>
-      <c r="BC15" s="2">
         <v>239589856</v>
       </c>
-      <c r="BD15" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="BE15" t="s">
+      <c r="BC15" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="BD15" t="s">
         <v>287</v>
       </c>
-      <c r="BF15" s="3" t="s">
+      <c r="BE15" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>289</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16">
+      <c r="C16">
         <v>2006</v>
       </c>
+      <c r="D16" t="s">
+        <v>441</v>
+      </c>
       <c r="E16" t="s">
-        <v>441</v>
+        <v>138</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>291</v>
       </c>
       <c r="G16" t="s">
-        <v>291</v>
-      </c>
-      <c r="H16" t="s">
-        <v>73</v>
-      </c>
-      <c r="J16">
+        <v>73</v>
+      </c>
+      <c r="I16">
         <v>115</v>
       </c>
+      <c r="J16" t="s">
+        <v>140</v>
+      </c>
       <c r="K16" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="L16" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="M16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N16" t="s">
-        <v>51</v>
+        <v>292</v>
       </c>
       <c r="O16" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q16" t="s">
-        <v>294</v>
+        <v>46</v>
       </c>
       <c r="R16" t="s">
-        <v>46</v>
+        <v>295</v>
       </c>
       <c r="S16" t="s">
-        <v>295</v>
+        <v>46</v>
       </c>
       <c r="T16" t="s">
-        <v>46</v>
+        <v>299</v>
       </c>
       <c r="U16" t="s">
-        <v>299</v>
+        <v>87</v>
       </c>
       <c r="V16" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="W16" t="s">
-        <v>57</v>
+        <v>567</v>
       </c>
       <c r="X16" t="s">
-        <v>568</v>
+        <v>463</v>
       </c>
       <c r="Y16" t="s">
-        <v>463</v>
+        <v>73</v>
       </c>
       <c r="Z16" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="AA16" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="AB16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF16">
+        <v>6.4</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>296</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>38927</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>297</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM16" t="s">
         <v>61</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG16">
-        <v>6.4</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>296</v>
-      </c>
-      <c r="AI16" s="1">
-        <v>38927</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>297</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>298</v>
       </c>
       <c r="AN16" t="s">
         <v>61</v>
       </c>
       <c r="AO16" t="s">
+        <v>299</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>538</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>300</v>
+      </c>
+      <c r="AS16" t="s">
         <v>61</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>299</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>539</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>300</v>
       </c>
       <c r="AT16" t="s">
         <v>61</v>
       </c>
       <c r="AU16" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="AV16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW16" t="s">
         <v>116</v>
       </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
       <c r="AX16">
-        <v>0</v>
-      </c>
-      <c r="AY16">
         <v>1</v>
       </c>
+      <c r="AY16" t="s">
+        <v>521</v>
+      </c>
       <c r="AZ16" t="s">
-        <v>522</v>
-      </c>
-      <c r="BA16" t="s">
         <v>182</v>
       </c>
+      <c r="BA16" s="2">
+        <v>22000000</v>
+      </c>
       <c r="BB16" s="2">
-        <v>22000000</v>
-      </c>
-      <c r="BC16" s="2">
         <v>68600000</v>
       </c>
-      <c r="BD16" s="3" t="s">
+      <c r="BC16" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="BE16" t="s">
+      <c r="BD16" t="s">
         <v>302</v>
       </c>
-      <c r="BF16" s="3" t="s">
+      <c r="BE16" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>304</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17">
+      <c r="C17">
         <v>2008</v>
       </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="F17" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="J17">
+      <c r="I17">
         <v>101</v>
       </c>
+      <c r="J17" t="s">
+        <v>102</v>
+      </c>
       <c r="K17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L17" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="M17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N17" t="s">
-        <v>51</v>
+        <v>307</v>
       </c>
       <c r="O17" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P17" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q17" t="s">
-        <v>309</v>
+        <v>46</v>
       </c>
       <c r="R17" t="s">
-        <v>46</v>
+        <v>310</v>
       </c>
       <c r="S17" t="s">
-        <v>310</v>
+        <v>46</v>
       </c>
       <c r="T17" t="s">
-        <v>46</v>
+        <v>314</v>
       </c>
       <c r="U17" t="s">
-        <v>314</v>
+        <v>87</v>
       </c>
       <c r="V17" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="W17" t="s">
-        <v>57</v>
+        <v>486</v>
       </c>
       <c r="X17" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="Y17" t="s">
-        <v>510</v>
+        <v>46</v>
       </c>
       <c r="Z17" t="s">
         <v>46</v>
       </c>
       <c r="AA17" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="AB17" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AC17" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="AD17" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="AE17" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG17">
+        <v>46</v>
+      </c>
+      <c r="AF17">
         <v>7.7</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="AG17" t="s">
         <v>311</v>
       </c>
-      <c r="AI17" s="1">
+      <c r="AH17" s="1">
         <v>39648</v>
       </c>
+      <c r="AI17" t="s">
+        <v>64</v>
+      </c>
       <c r="AJ17" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="AK17" t="s">
-        <v>82</v>
+        <v>312</v>
       </c>
       <c r="AL17" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM17" t="s">
-        <v>313</v>
+        <v>68</v>
       </c>
       <c r="AN17" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="AO17" t="s">
-        <v>115</v>
+        <v>544</v>
       </c>
       <c r="AP17" t="s">
-        <v>545</v>
+        <v>315</v>
       </c>
       <c r="AQ17" t="s">
-        <v>315</v>
+        <v>59</v>
       </c>
       <c r="AR17" t="s">
-        <v>59</v>
+        <v>556</v>
       </c>
       <c r="AS17" t="s">
-        <v>557</v>
+        <v>68</v>
       </c>
       <c r="AT17" t="s">
         <v>68</v>
       </c>
       <c r="AU17" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="AV17" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW17" t="s">
         <v>116</v>
       </c>
+      <c r="AW17">
+        <v>2</v>
+      </c>
       <c r="AX17">
-        <v>2</v>
-      </c>
-      <c r="AY17">
         <v>1</v>
       </c>
+      <c r="AY17" t="s">
+        <v>316</v>
+      </c>
       <c r="AZ17" t="s">
-        <v>316</v>
-      </c>
-      <c r="BA17" t="s">
         <v>317</v>
       </c>
+      <c r="BA17" s="2">
+        <v>34000000</v>
+      </c>
       <c r="BB17" s="2">
-        <v>34000000</v>
-      </c>
-      <c r="BC17" s="2">
         <v>205162666</v>
       </c>
-      <c r="BD17" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="BE17" t="s">
+      <c r="BC17" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="BD17" t="s">
         <v>318</v>
       </c>
-      <c r="BF17" s="3" t="s">
-        <v>524</v>
+      <c r="BE17" s="3" t="s">
+        <v>523</v>
       </c>
     </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>319</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18">
+      <c r="C18">
         <v>2010</v>
       </c>
+      <c r="D18" t="s">
+        <v>320</v>
+      </c>
       <c r="E18" t="s">
-        <v>320</v>
+        <v>138</v>
       </c>
       <c r="F18" t="s">
-        <v>138</v>
+        <v>321</v>
       </c>
       <c r="G18" t="s">
-        <v>321</v>
-      </c>
-      <c r="H18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="J18">
+      <c r="I18">
         <v>94</v>
       </c>
+      <c r="J18" t="s">
+        <v>140</v>
+      </c>
       <c r="K18" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="L18" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="M18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N18" t="s">
-        <v>51</v>
+        <v>323</v>
       </c>
       <c r="O18" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P18" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q18" t="s">
-        <v>325</v>
+        <v>46</v>
       </c>
       <c r="R18" t="s">
-        <v>46</v>
+        <v>326</v>
       </c>
       <c r="S18" t="s">
-        <v>326</v>
+        <v>46</v>
       </c>
       <c r="T18" t="s">
-        <v>46</v>
+        <v>451</v>
       </c>
       <c r="U18" t="s">
-        <v>451</v>
+        <v>87</v>
       </c>
       <c r="V18" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="W18" t="s">
-        <v>57</v>
+        <v>483</v>
       </c>
       <c r="X18" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="Y18" t="s">
-        <v>464</v>
+        <v>73</v>
       </c>
       <c r="Z18" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="AA18" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="AB18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF18">
+        <v>7.6</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>327</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>40376</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>328</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>329</v>
+      </c>
+      <c r="AM18" t="s">
         <v>61</v>
       </c>
-      <c r="AC18" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG18">
-        <v>7.6</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>327</v>
-      </c>
-      <c r="AI18" s="1">
-        <v>40376</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>328</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>329</v>
-      </c>
       <c r="AN18" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="AO18" t="s">
-        <v>68</v>
+        <v>330</v>
       </c>
       <c r="AP18" t="s">
-        <v>330</v>
+        <v>539</v>
       </c>
       <c r="AQ18" t="s">
-        <v>540</v>
+        <v>62</v>
       </c>
       <c r="AR18" t="s">
-        <v>62</v>
+        <v>557</v>
       </c>
       <c r="AS18" t="s">
-        <v>558</v>
+        <v>68</v>
       </c>
       <c r="AT18" t="s">
         <v>68</v>
       </c>
       <c r="AU18" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="AV18" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW18" t="s">
         <v>116</v>
+      </c>
+      <c r="AW18">
+        <v>1</v>
       </c>
       <c r="AX18">
         <v>1</v>
       </c>
-      <c r="AY18">
-        <v>1</v>
+      <c r="AY18" t="s">
+        <v>182</v>
       </c>
       <c r="AZ18" t="s">
-        <v>182</v>
-      </c>
-      <c r="BA18" t="s">
         <v>331</v>
       </c>
+      <c r="BA18" s="2">
+        <v>23000000</v>
+      </c>
       <c r="BB18" s="2">
-        <v>23000000</v>
-      </c>
-      <c r="BC18" s="2">
         <v>151496097</v>
       </c>
-      <c r="BD18" s="3" t="s">
+      <c r="BC18" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="BE18" t="s">
+      <c r="BD18" t="s">
         <v>333</v>
       </c>
-      <c r="BF18" s="3" t="s">
+      <c r="BE18" s="3" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>335</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19">
+      <c r="C19">
         <v>2011</v>
       </c>
+      <c r="D19" t="s">
+        <v>441</v>
+      </c>
       <c r="E19" t="s">
-        <v>441</v>
+        <v>138</v>
       </c>
       <c r="F19" t="s">
-        <v>138</v>
+        <v>337</v>
       </c>
       <c r="G19" t="s">
-        <v>337</v>
-      </c>
-      <c r="H19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="J19">
+      <c r="I19">
         <v>91</v>
       </c>
+      <c r="J19" t="s">
+        <v>339</v>
+      </c>
       <c r="K19" t="s">
-        <v>339</v>
+        <v>49</v>
       </c>
       <c r="L19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N19" t="s">
-        <v>51</v>
+        <v>340</v>
       </c>
       <c r="O19" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P19" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q19" t="s">
-        <v>342</v>
-      </c>
-      <c r="R19" t="s">
-        <v>73</v>
-      </c>
-      <c r="T19" t="s">
-        <v>73</v>
+        <v>73</v>
+      </c>
+      <c r="S19" t="s">
+        <v>73</v>
+      </c>
+      <c r="U19" t="s">
+        <v>87</v>
       </c>
       <c r="V19" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="W19" t="s">
-        <v>57</v>
+        <v>490</v>
       </c>
       <c r="X19" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="Y19" t="s">
-        <v>466</v>
+        <v>73</v>
       </c>
       <c r="Z19" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="AA19" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="AB19" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AC19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF19">
+        <v>7.3</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>343</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>40740</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>563</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>344</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>345</v>
+      </c>
+      <c r="AM19" t="s">
         <v>61</v>
       </c>
-      <c r="AD19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG19">
-        <v>7.3</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>343</v>
-      </c>
-      <c r="AI19" s="1">
-        <v>40740</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>564</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>344</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>345</v>
-      </c>
       <c r="AN19" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>520</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>346</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>558</v>
+      </c>
+      <c r="AS19" t="s">
         <v>61</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>521</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>346</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>559</v>
       </c>
       <c r="AT19" t="s">
         <v>61</v>
       </c>
       <c r="AU19" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="AV19" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW19" t="s">
         <v>116</v>
       </c>
+      <c r="AW19">
+        <v>1</v>
+      </c>
       <c r="AX19">
-        <v>1</v>
-      </c>
-      <c r="AY19">
         <v>0</v>
       </c>
+      <c r="AY19" t="s">
+        <v>182</v>
+      </c>
       <c r="AZ19" t="s">
-        <v>182</v>
-      </c>
-      <c r="BA19" t="s">
-        <v>522</v>
+        <v>521</v>
+      </c>
+      <c r="BA19" s="2">
+        <v>22000000</v>
       </c>
       <c r="BB19" s="2">
-        <v>22000000</v>
-      </c>
-      <c r="BC19" s="2">
         <v>61000000</v>
       </c>
-      <c r="BD19" s="3" t="s">
+      <c r="BC19" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="BE19" t="s">
+      <c r="BD19" t="s">
         <v>347</v>
       </c>
-      <c r="BF19" s="3" t="s">
+      <c r="BE19" s="3" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="20" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>349</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20">
+      <c r="C20">
         <v>2013</v>
       </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="F20" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="J20">
+      <c r="I20">
         <v>126</v>
       </c>
+      <c r="J20" t="s">
+        <v>351</v>
+      </c>
       <c r="K20" t="s">
-        <v>351</v>
+        <v>123</v>
       </c>
       <c r="L20" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="M20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N20" t="s">
-        <v>51</v>
+        <v>352</v>
       </c>
       <c r="O20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P20" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q20" t="s">
-        <v>354</v>
+        <v>46</v>
       </c>
       <c r="R20" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="S20" t="s">
-        <v>127</v>
-      </c>
-      <c r="T20" t="s">
-        <v>73</v>
+        <v>73</v>
+      </c>
+      <c r="U20" t="s">
+        <v>87</v>
       </c>
       <c r="V20" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="W20" t="s">
-        <v>57</v>
+        <v>491</v>
       </c>
       <c r="X20" t="s">
-        <v>491</v>
+        <v>128</v>
       </c>
       <c r="Y20" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="Z20" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="AA20" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="AB20" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AC20" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF20">
+        <v>7.8</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>355</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>41475</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>566</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>356</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>357</v>
+      </c>
+      <c r="AM20" t="s">
         <v>61</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG20">
-        <v>7.8</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>355</v>
-      </c>
-      <c r="AI20" s="1">
-        <v>41475</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>356</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>357</v>
       </c>
       <c r="AN20" t="s">
         <v>61</v>
       </c>
       <c r="AO20" t="s">
-        <v>61</v>
+        <v>545</v>
       </c>
       <c r="AP20" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="AQ20" t="s">
-        <v>533</v>
+        <v>62</v>
       </c>
       <c r="AR20" t="s">
-        <v>62</v>
+        <v>358</v>
       </c>
       <c r="AS20" t="s">
-        <v>358</v>
+        <v>68</v>
       </c>
       <c r="AT20" t="s">
         <v>68</v>
       </c>
       <c r="AU20" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="AV20" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW20" t="s">
         <v>116</v>
       </c>
+      <c r="AW20">
+        <v>1</v>
+      </c>
       <c r="AX20">
-        <v>1</v>
-      </c>
-      <c r="AY20">
         <v>2</v>
       </c>
+      <c r="AY20" t="s">
+        <v>182</v>
+      </c>
       <c r="AZ20" t="s">
-        <v>182</v>
-      </c>
-      <c r="BA20" t="s">
         <v>359</v>
       </c>
+      <c r="BA20" s="2">
+        <v>30000000</v>
+      </c>
       <c r="BB20" s="2">
-        <v>30000000</v>
-      </c>
-      <c r="BC20" s="2">
         <v>137000000</v>
       </c>
-      <c r="BD20" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="BE20" t="s">
-        <v>527</v>
-      </c>
-      <c r="BF20" s="3" t="s">
+      <c r="BC20" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>526</v>
+      </c>
+      <c r="BE20" s="3" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>361</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21">
+      <c r="C21">
         <v>2013</v>
       </c>
+      <c r="D21" t="s">
+        <v>78</v>
+      </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="F21" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="J21">
+      <c r="I21">
         <v>137</v>
       </c>
+      <c r="J21" t="s">
+        <v>364</v>
+      </c>
       <c r="K21" t="s">
-        <v>364</v>
+        <v>49</v>
       </c>
       <c r="L21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N21" t="s">
-        <v>51</v>
+        <v>365</v>
       </c>
       <c r="O21" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P21" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q21" t="s">
-        <v>367</v>
+        <v>46</v>
       </c>
       <c r="R21" t="s">
-        <v>46</v>
+        <v>368</v>
       </c>
       <c r="S21" t="s">
-        <v>368</v>
-      </c>
-      <c r="T21" t="s">
-        <v>73</v>
+        <v>73</v>
+      </c>
+      <c r="U21" t="s">
+        <v>87</v>
       </c>
       <c r="V21" t="s">
-        <v>87</v>
+        <v>479</v>
       </c>
       <c r="W21" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="X21" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="Y21" t="s">
-        <v>467</v>
+        <v>73</v>
       </c>
       <c r="Z21" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="AA21" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="AB21" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="AC21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF21">
+        <v>8</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>369</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>41601</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>370</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>371</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>372</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN21" t="s">
         <v>109</v>
       </c>
-      <c r="AD21" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG21">
-        <v>8</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>369</v>
-      </c>
-      <c r="AI21" s="1">
-        <v>41601</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>370</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>371</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>372</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>68</v>
-      </c>
       <c r="AO21" t="s">
-        <v>109</v>
+        <v>546</v>
       </c>
       <c r="AP21" t="s">
-        <v>547</v>
+        <v>373</v>
       </c>
       <c r="AQ21" t="s">
-        <v>373</v>
+        <v>62</v>
       </c>
       <c r="AR21" t="s">
-        <v>62</v>
+        <v>559</v>
       </c>
       <c r="AS21" t="s">
-        <v>560</v>
+        <v>68</v>
       </c>
       <c r="AT21" t="s">
         <v>68</v>
       </c>
       <c r="AU21" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="AV21" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW21" t="s">
         <v>116</v>
       </c>
+      <c r="AW21">
+        <v>2</v>
+      </c>
       <c r="AX21">
-        <v>2</v>
-      </c>
-      <c r="AY21">
         <v>1</v>
       </c>
+      <c r="AY21" t="s">
+        <v>374</v>
+      </c>
       <c r="AZ21" t="s">
-        <v>374</v>
-      </c>
-      <c r="BA21" t="s">
         <v>286</v>
       </c>
+      <c r="BA21" s="2">
+        <v>49300000</v>
+      </c>
       <c r="BB21" s="2">
-        <v>49300000</v>
-      </c>
-      <c r="BC21" s="2">
         <v>24700000</v>
       </c>
-      <c r="BD21" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="BE21" t="s">
+      <c r="BC21" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="BD21" t="s">
         <v>375</v>
       </c>
-      <c r="BF21" s="3" t="s">
-        <v>525</v>
+      <c r="BE21" s="3" t="s">
+        <v>524</v>
       </c>
     </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>376</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22">
+      <c r="C22">
         <v>2014</v>
       </c>
+      <c r="D22" t="s">
+        <v>320</v>
+      </c>
       <c r="E22" t="s">
-        <v>320</v>
+        <v>377</v>
       </c>
       <c r="F22" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G22" t="s">
-        <v>378</v>
-      </c>
-      <c r="H22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="J22">
+      <c r="I22">
         <v>103</v>
       </c>
+      <c r="J22" t="s">
+        <v>364</v>
+      </c>
       <c r="K22" t="s">
-        <v>364</v>
+        <v>49</v>
       </c>
       <c r="L22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N22" t="s">
-        <v>51</v>
+        <v>380</v>
       </c>
       <c r="O22" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P22" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q22" t="s">
-        <v>382</v>
+        <v>46</v>
       </c>
       <c r="R22" t="s">
-        <v>46</v>
+        <v>383</v>
       </c>
       <c r="S22" t="s">
-        <v>383</v>
+        <v>46</v>
       </c>
       <c r="T22" t="s">
-        <v>46</v>
+        <v>450</v>
       </c>
       <c r="U22" t="s">
-        <v>450</v>
+        <v>87</v>
       </c>
       <c r="V22" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="W22" t="s">
-        <v>57</v>
+        <v>492</v>
       </c>
       <c r="X22" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="Y22" t="s">
-        <v>468</v>
+        <v>73</v>
       </c>
       <c r="Z22" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="AA22" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="AB22" t="s">
         <v>61</v>
       </c>
       <c r="AC22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF22">
+        <v>7.5</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>384</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>41839</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>385</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>386</v>
+      </c>
+      <c r="AM22" t="s">
         <v>61</v>
       </c>
-      <c r="AD22" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG22">
-        <v>7.5</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>384</v>
-      </c>
-      <c r="AI22" s="1">
-        <v>41839</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>385</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>386</v>
-      </c>
       <c r="AN22" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>387</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>388</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>560</v>
+      </c>
+      <c r="AS22" t="s">
         <v>61</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>387</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>388</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>561</v>
       </c>
       <c r="AT22" t="s">
         <v>61</v>
       </c>
       <c r="AU22" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="AV22" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW22" t="s">
         <v>116</v>
       </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
       <c r="AX22">
-        <v>0</v>
-      </c>
-      <c r="AY22">
         <v>2</v>
       </c>
+      <c r="AY22" t="s">
+        <v>521</v>
+      </c>
       <c r="AZ22" t="s">
-        <v>522</v>
-      </c>
-      <c r="BA22" t="s">
         <v>389</v>
       </c>
+      <c r="BA22" s="2">
+        <v>10500000</v>
+      </c>
       <c r="BB22" s="2">
-        <v>10500000</v>
-      </c>
-      <c r="BC22" s="2">
         <v>41000000</v>
       </c>
-      <c r="BD22" s="3" t="s">
+      <c r="BC22" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="BE22" t="s">
+      <c r="BD22" t="s">
         <v>390</v>
       </c>
-      <c r="BF22" s="3" t="s">
+      <c r="BE22" s="3" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>392</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23">
+      <c r="C23">
         <v>2016</v>
       </c>
+      <c r="D23" t="s">
+        <v>394</v>
+      </c>
       <c r="E23" t="s">
-        <v>394</v>
+        <v>138</v>
       </c>
       <c r="F23" t="s">
-        <v>138</v>
+        <v>395</v>
       </c>
       <c r="G23" t="s">
-        <v>395</v>
-      </c>
-      <c r="H23" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="J23">
+      <c r="I23">
         <v>80</v>
       </c>
+      <c r="J23" t="s">
+        <v>397</v>
+      </c>
       <c r="K23" t="s">
-        <v>397</v>
+        <v>103</v>
       </c>
       <c r="L23" t="s">
-        <v>103</v>
+        <v>398</v>
       </c>
       <c r="M23" t="s">
-        <v>398</v>
+        <v>511</v>
       </c>
       <c r="N23" t="s">
+        <v>399</v>
+      </c>
+      <c r="O23" t="s">
+        <v>400</v>
+      </c>
+      <c r="P23" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>46</v>
+      </c>
+      <c r="R23" t="s">
+        <v>402</v>
+      </c>
+      <c r="S23" t="s">
+        <v>46</v>
+      </c>
+      <c r="T23" t="s">
+        <v>403</v>
+      </c>
+      <c r="U23" t="s">
+        <v>87</v>
+      </c>
+      <c r="V23" t="s">
+        <v>237</v>
+      </c>
+      <c r="W23" t="s">
+        <v>486</v>
+      </c>
+      <c r="X23" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF23">
+        <v>7.5</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>404</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>42630</v>
+      </c>
+      <c r="AI23" t="s">
         <v>512</v>
       </c>
-      <c r="O23" t="s">
-        <v>399</v>
-      </c>
-      <c r="P23" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>401</v>
-      </c>
-      <c r="R23" t="s">
-        <v>46</v>
-      </c>
-      <c r="S23" t="s">
-        <v>402</v>
-      </c>
-      <c r="T23" t="s">
-        <v>46</v>
-      </c>
-      <c r="U23" t="s">
-        <v>403</v>
-      </c>
-      <c r="V23" t="s">
-        <v>87</v>
-      </c>
-      <c r="W23" t="s">
-        <v>237</v>
-      </c>
-      <c r="X23" t="s">
-        <v>486</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>469</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB23" t="s">
+      <c r="AJ23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>405</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>406</v>
+      </c>
+      <c r="AM23" t="s">
         <v>61</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG23">
-        <v>7.5</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>404</v>
-      </c>
-      <c r="AI23" s="1">
-        <v>42630</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>513</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>405</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>406</v>
       </c>
       <c r="AN23" t="s">
         <v>61</v>
       </c>
       <c r="AO23" t="s">
+        <v>407</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>408</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>561</v>
+      </c>
+      <c r="AS23" t="s">
         <v>61</v>
       </c>
-      <c r="AP23" t="s">
-        <v>407</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>408</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>562</v>
-      </c>
       <c r="AT23" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="AU23" t="s">
-        <v>68</v>
+        <v>409</v>
       </c>
       <c r="AV23" t="s">
-        <v>409</v>
-      </c>
-      <c r="AW23" t="s">
         <v>410</v>
+      </c>
+      <c r="AW23">
+        <v>8</v>
       </c>
       <c r="AX23">
         <v>8</v>
       </c>
-      <c r="AY23">
-        <v>8</v>
+      <c r="AY23" t="s">
+        <v>516</v>
       </c>
       <c r="AZ23" t="s">
         <v>517</v>
       </c>
-      <c r="BA23" t="s">
-        <v>518</v>
+      <c r="BA23" s="2">
+        <v>12500000</v>
       </c>
       <c r="BB23" s="2">
-        <v>12500000</v>
-      </c>
-      <c r="BC23" s="2">
         <v>5000000</v>
       </c>
-      <c r="BD23" s="3" t="s">
+      <c r="BC23" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="BE23" t="s">
+      <c r="BD23" t="s">
         <v>412</v>
       </c>
-      <c r="BF23" s="3" t="s">
+      <c r="BE23" s="3" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>414</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24">
+      <c r="C24">
         <v>2020</v>
       </c>
+      <c r="D24" t="s">
+        <v>441</v>
+      </c>
       <c r="E24" t="s">
-        <v>441</v>
+        <v>377</v>
       </c>
       <c r="F24" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="G24" t="s">
-        <v>416</v>
-      </c>
-      <c r="H24" t="s">
-        <v>46</v>
-      </c>
-      <c r="I24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="J24">
+      <c r="I24">
         <v>82</v>
       </c>
+      <c r="J24" t="s">
+        <v>418</v>
+      </c>
       <c r="K24" t="s">
-        <v>418</v>
+        <v>49</v>
       </c>
       <c r="L24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M24" t="s">
-        <v>50</v>
+        <v>419</v>
       </c>
       <c r="N24" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O24" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P24" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q24" t="s">
-        <v>422</v>
+        <v>46</v>
       </c>
       <c r="R24" t="s">
-        <v>46</v>
+        <v>423</v>
       </c>
       <c r="S24" t="s">
-        <v>423</v>
+        <v>46</v>
       </c>
       <c r="T24" t="s">
-        <v>46</v>
+        <v>564</v>
       </c>
       <c r="U24" t="s">
-        <v>565</v>
+        <v>448</v>
       </c>
       <c r="V24" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="W24" t="s">
-        <v>457</v>
+        <v>493</v>
       </c>
       <c r="X24" t="s">
-        <v>493</v>
+        <v>470</v>
       </c>
       <c r="Y24" t="s">
-        <v>470</v>
+        <v>73</v>
       </c>
       <c r="Z24" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="AA24" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="AB24" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF24">
+        <v>6</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>424</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>44133</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>425</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>426</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>427</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>520</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>428</v>
+      </c>
+      <c r="AS24" t="s">
         <v>61</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG24">
-        <v>6</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>424</v>
-      </c>
-      <c r="AI24" s="1">
-        <v>44133</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>425</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>426</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>427</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>521</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>133</v>
-      </c>
-      <c r="AR24" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS24" t="s">
-        <v>428</v>
       </c>
       <c r="AT24" t="s">
         <v>61</v>
       </c>
       <c r="AU24" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="AV24" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW24" t="s">
         <v>429</v>
       </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
       <c r="AX24">
-        <v>0</v>
-      </c>
-      <c r="AY24">
         <v>1</v>
       </c>
+      <c r="AY24" t="s">
+        <v>521</v>
+      </c>
       <c r="AZ24" t="s">
-        <v>522</v>
-      </c>
-      <c r="BA24" t="s">
         <v>317</v>
       </c>
+      <c r="BA24" s="2">
+        <v>10000000</v>
+      </c>
       <c r="BB24" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="BC24" s="2">
         <v>842744</v>
       </c>
-      <c r="BD24" s="3" t="s">
+      <c r="BC24" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="BE24" t="s">
+      <c r="BD24" t="s">
         <v>430</v>
       </c>
-      <c r="BF24" s="3" t="s">
+      <c r="BE24" s="3" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="25" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>432</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25">
+      <c r="C25">
         <v>2023</v>
       </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="F25" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="J25">
+      <c r="I25">
         <v>125</v>
       </c>
+      <c r="J25" t="s">
+        <v>397</v>
+      </c>
       <c r="K25" t="s">
-        <v>397</v>
+        <v>123</v>
       </c>
       <c r="L25" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="M25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N25" t="s">
-        <v>51</v>
+        <v>434</v>
       </c>
       <c r="O25" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P25" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="Q25" t="s">
-        <v>443</v>
+        <v>46</v>
       </c>
       <c r="R25" t="s">
-        <v>46</v>
+        <v>436</v>
       </c>
       <c r="S25" t="s">
-        <v>436</v>
+        <v>46</v>
       </c>
       <c r="T25" t="s">
-        <v>46</v>
+        <v>452</v>
       </c>
       <c r="U25" t="s">
-        <v>452</v>
+        <v>87</v>
       </c>
       <c r="V25" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="W25" t="s">
-        <v>57</v>
+        <v>494</v>
       </c>
       <c r="X25" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="Y25" t="s">
-        <v>471</v>
+        <v>73</v>
       </c>
       <c r="Z25" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="AA25" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="AB25" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AC25" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF25">
+        <v>8</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>437</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>45121</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>438</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>439</v>
+      </c>
+      <c r="AM25" t="s">
         <v>61</v>
       </c>
-      <c r="AD25" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG25">
-        <v>8</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>437</v>
-      </c>
-      <c r="AI25" s="1">
-        <v>45121</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>438</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>439</v>
-      </c>
       <c r="AN25" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="AO25" t="s">
-        <v>68</v>
+        <v>547</v>
       </c>
       <c r="AP25" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="AQ25" t="s">
-        <v>536</v>
+        <v>59</v>
       </c>
       <c r="AR25" t="s">
-        <v>59</v>
+        <v>562</v>
       </c>
       <c r="AS25" t="s">
-        <v>563</v>
+        <v>68</v>
       </c>
       <c r="AT25" t="s">
         <v>68</v>
       </c>
       <c r="AU25" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="AV25" t="s">
-        <v>96</v>
-      </c>
-      <c r="AW25" t="s">
         <v>116</v>
       </c>
+      <c r="AW25">
+        <v>10</v>
+      </c>
       <c r="AX25">
-        <v>10</v>
-      </c>
-      <c r="AY25">
         <v>7</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>518</v>
       </c>
       <c r="AZ25" t="s">
         <v>519</v>
       </c>
-      <c r="BA25" t="s">
-        <v>520</v>
+      <c r="BA25" s="2">
+        <v>53000000</v>
       </c>
       <c r="BB25" s="2">
-        <v>53000000</v>
-      </c>
-      <c r="BC25" s="2">
         <v>292922563</v>
       </c>
-      <c r="BD25" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="BE25" t="s">
+      <c r="BC25" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="BD25" t="s">
         <v>440</v>
       </c>
-      <c r="BF25" s="3" t="s">
-        <v>526</v>
+      <c r="BE25" s="3" t="s">
+        <v>525</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="BD2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="BD3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="BD4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="BD5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="BD7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="BD9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="BD10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="BD12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="BD14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="BD16" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="BD18" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="BD19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="BD21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="BD22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="BD23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="BD24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="BF2" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="BF3" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="BF4" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="BF5" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="BF6" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="BF7" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="BF8" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="BF9" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="BF10" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="BF11" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="BF12" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="BF13" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="BF14" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="BF15" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="BF16" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="BF17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="BF18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="BF19" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="BF20" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="BF21" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="BF22" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="BF23" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="BF24" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="BF25" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="I2" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="I3" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="I4" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="I6" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="I7" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="I8" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="I9" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="I10" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="I11" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="I12" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="I13" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="I14" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="I15" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="I17" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="I18" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="I19" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="I20" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="I21" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="I22" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="I23" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="I24" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="I25" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="BC2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="BC3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="BC4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="BC5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="BC7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="BC9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="BC10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="BC12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="BC14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="BC16" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="BC18" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="BC19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="BC21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="BC22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="BC23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="BC24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="BE2" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="BE3" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="BE4" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="BE5" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="BE6" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="BE7" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="BE8" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="BE9" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="BE10" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="BE11" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="BE12" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="BE13" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="BE14" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="BE15" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="BE16" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="BE17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="BE18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="BE19" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="BE20" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="BE21" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="BE22" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="BE23" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="BE24" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="BE25" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="H2" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="H3" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="H4" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="H6" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="H7" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="H8" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="H9" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="H10" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="H11" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="H12" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="H13" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="H14" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="H15" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="H17" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="H18" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="H19" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="H20" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="H21" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="H22" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="H23" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="H24" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="H25" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
     <hyperlink ref="B2" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
     <hyperlink ref="B3" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
     <hyperlink ref="B4" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
@@ -7001,14 +6971,14 @@
     <hyperlink ref="B23" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
     <hyperlink ref="B24" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
     <hyperlink ref="B25" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="BD6" r:id="rId87" xr:uid="{64DE7227-123C-491C-A835-E3A20DE892D4}"/>
-    <hyperlink ref="BD8" r:id="rId88" xr:uid="{9C22ABE8-015B-4144-BCE7-88D16AC033B2}"/>
-    <hyperlink ref="BD11" r:id="rId89" xr:uid="{072023A8-B72B-40AE-99E9-B882890238F9}"/>
-    <hyperlink ref="BD13" r:id="rId90" xr:uid="{14802B2D-9A46-4243-B48A-F842C84DA4B2}"/>
-    <hyperlink ref="BD15" r:id="rId91" xr:uid="{ADB63E64-3B4A-4C6E-99C3-9A4CBC9BE5B2}"/>
-    <hyperlink ref="BD17" r:id="rId92" xr:uid="{DBA111A7-126B-4836-811B-3C7C13A60BCE}"/>
-    <hyperlink ref="BD20" r:id="rId93" xr:uid="{7CFDBAF1-D261-404A-8763-EC76E3E59F2D}"/>
-    <hyperlink ref="BD25" r:id="rId94" xr:uid="{D3B045E0-303F-43A1-8868-AFD121CAF39C}"/>
+    <hyperlink ref="BC6" r:id="rId87" xr:uid="{64DE7227-123C-491C-A835-E3A20DE892D4}"/>
+    <hyperlink ref="BC8" r:id="rId88" xr:uid="{9C22ABE8-015B-4144-BCE7-88D16AC033B2}"/>
+    <hyperlink ref="BC11" r:id="rId89" xr:uid="{072023A8-B72B-40AE-99E9-B882890238F9}"/>
+    <hyperlink ref="BC13" r:id="rId90" xr:uid="{14802B2D-9A46-4243-B48A-F842C84DA4B2}"/>
+    <hyperlink ref="BC15" r:id="rId91" xr:uid="{ADB63E64-3B4A-4C6E-99C3-9A4CBC9BE5B2}"/>
+    <hyperlink ref="BC17" r:id="rId92" xr:uid="{DBA111A7-126B-4836-811B-3C7C13A60BCE}"/>
+    <hyperlink ref="BC20" r:id="rId93" xr:uid="{7CFDBAF1-D261-404A-8763-EC76E3E59F2D}"/>
+    <hyperlink ref="BC25" r:id="rId94" xr:uid="{D3B045E0-303F-43A1-8868-AFD121CAF39C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId95"/>

--- a/Ghibli-tabla.xlsx
+++ b/Ghibli-tabla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Página web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3977589-1BDE-4DA9-AFF8-85BAF601C67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8CC65C-4344-4A14-B3BC-52BCBE4F9F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="543">
   <si>
     <t>Título</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Frase</t>
   </si>
   <si>
-    <t>Moraleja</t>
-  </si>
-  <si>
     <t>Representación_femenina</t>
   </si>
   <si>
@@ -228,9 +225,6 @@
     <t>"No lucharás por el odio"</t>
   </si>
   <si>
-    <t>Respeto por la naturaleza</t>
-  </si>
-  <si>
     <t>Alta</t>
   </si>
   <si>
@@ -303,9 +297,6 @@
     <t>"La ambición sin control destruye"</t>
   </si>
   <si>
-    <t>Equilibrio entre tecnología y naturaleza</t>
-  </si>
-  <si>
     <t>Robots</t>
   </si>
   <si>
@@ -363,9 +354,6 @@
     <t>"¿Has visto a Totoro?"</t>
   </si>
   <si>
-    <t>Magia en la infancia y respeto por la naturaleza</t>
-  </si>
-  <si>
     <t>Gatobús</t>
   </si>
   <si>
@@ -423,9 +411,6 @@
     <t>"No olvidar a las víctimas"</t>
   </si>
   <si>
-    <t>Conciencia sobre la guerra</t>
-  </si>
-  <si>
     <t>Trenes</t>
   </si>
   <si>
@@ -471,9 +456,6 @@
     <t>"Encuentra tu propia voz"</t>
   </si>
   <si>
-    <t>Crecimiento personal</t>
-  </si>
-  <si>
     <t>Gato</t>
   </si>
   <si>
@@ -522,9 +504,6 @@
     <t>"Vive sin arrepentimientos"</t>
   </si>
   <si>
-    <t>Autoexploración adulta</t>
-  </si>
-  <si>
     <t>Trenes, Autobuses</t>
   </si>
   <si>
@@ -567,9 +546,6 @@
     <t>"Vuela mientras puedas"</t>
   </si>
   <si>
-    <t>Valor de la libertad personal</t>
-  </si>
-  <si>
     <t>Aves, Perros</t>
   </si>
   <si>
@@ -615,9 +591,6 @@
     <t>"Protege tu entorno"</t>
   </si>
   <si>
-    <t>Respeto a tradiciones y naturaleza</t>
-  </si>
-  <si>
     <t>Mapaches</t>
   </si>
   <si>
@@ -666,9 +639,6 @@
     <t>"Sigue tu corazón"</t>
   </si>
   <si>
-    <t>Perseguir tus sueños creativos</t>
-  </si>
-  <si>
     <t>La estatua del seigneur del gato</t>
   </si>
   <si>
@@ -702,9 +672,6 @@
     <t>"No hay bien sin mal ni mal sin bien"</t>
   </si>
   <si>
-    <t>Equilibrio entre humanos y naturaleza</t>
-  </si>
-  <si>
     <t xml:space="preserve">Berlín </t>
   </si>
   <si>
@@ -750,9 +717,6 @@
     <t>"La familia es lo primero"</t>
   </si>
   <si>
-    <t>Valor de la familia cotidiana</t>
-  </si>
-  <si>
     <t>Animales domésticos</t>
   </si>
   <si>
@@ -792,9 +756,6 @@
     <t>"Nunca olvides quién eres"</t>
   </si>
   <si>
-    <t>Crecimiento personal y coraje</t>
-  </si>
-  <si>
     <t>La llegada al baño de espíritus</t>
   </si>
   <si>
@@ -831,9 +792,6 @@
     <t>"Sé valiente"</t>
   </si>
   <si>
-    <t>Autoaceptación</t>
-  </si>
-  <si>
     <t>Divertida para públicos jóvenes</t>
   </si>
   <si>
@@ -873,9 +831,6 @@
     <t>"El amor transforma"</t>
   </si>
   <si>
-    <t>Aceptar la propia vejez y valentía</t>
-  </si>
-  <si>
     <t>Calcifer</t>
   </si>
   <si>
@@ -921,9 +876,6 @@
     <t>"La paz requiere equilibrio"</t>
   </si>
   <si>
-    <t>Responsabilidad y redención</t>
-  </si>
-  <si>
     <t>Dragones</t>
   </si>
   <si>
@@ -966,9 +918,6 @@
     <t>"Ama como un niño"</t>
   </si>
   <si>
-    <t>Inocencia y respeto por el mar</t>
-  </si>
-  <si>
     <t>Ponyo</t>
   </si>
   <si>
@@ -1014,9 +963,6 @@
     <t>"Cuida lo pequeño"</t>
   </si>
   <si>
-    <t>Respeto por lo diminuto</t>
-  </si>
-  <si>
     <t>Ratones, insectos</t>
   </si>
   <si>
@@ -1062,9 +1008,6 @@
     <t>"No olvides tu historia"</t>
   </si>
   <si>
-    <t>Valor de la memoria colectiva</t>
-  </si>
-  <si>
     <t>Barco, Tren</t>
   </si>
   <si>
@@ -1098,9 +1041,6 @@
     <t>"Sigue soñando, pero con conciencia"</t>
   </si>
   <si>
-    <t>Complejidad moral del progreso</t>
-  </si>
-  <si>
     <t>Importante en la filmografía de Miyazaki</t>
   </si>
   <si>
@@ -1143,9 +1083,6 @@
     <t>"La belleza no asegura la felicidad"</t>
   </si>
   <si>
-    <t>Fugacidad de la vida y el deseo</t>
-  </si>
-  <si>
     <t>Barca, Carrozas</t>
   </si>
   <si>
@@ -1185,9 +1122,6 @@
     <t>"La amistad sana heridas"</t>
   </si>
   <si>
-    <t>Curación y reconexión</t>
-  </si>
-  <si>
     <t>Gaviotas</t>
   </si>
   <si>
@@ -1245,9 +1179,6 @@
     <t>"La naturaleza tiene su ritmo"</t>
   </si>
   <si>
-    <t>Aceptación y ciclo vital</t>
-  </si>
-  <si>
     <t>Tortuga</t>
   </si>
   <si>
@@ -1308,9 +1239,6 @@
     <t>"La curiosidad te guía"</t>
   </si>
   <si>
-    <t>Adaptación y resiliencia</t>
-  </si>
-  <si>
     <t>Curiosa por su estilo distinto</t>
   </si>
   <si>
@@ -1342,9 +1270,6 @@
   </si>
   <si>
     <t>"Vuela incluso en la derrota"</t>
-  </si>
-  <si>
-    <t>Transformación a través del duelo</t>
   </si>
   <si>
     <t>Encuentro con la garza</t>
@@ -2583,18 +2508,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BE25"/>
+  <dimension ref="A1:BD25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="AL1" sqref="AL1:AL1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="55" max="55" width="23.109375" customWidth="1"/>
+    <col min="54" max="54" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2638,55 +2563,55 @@
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="P1" t="s">
         <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="R1" t="s">
         <v>15</v>
       </c>
       <c r="S1" t="s">
+        <v>424</v>
+      </c>
+      <c r="T1" t="s">
+        <v>419</v>
+      </c>
+      <c r="U1" t="s">
+        <v>420</v>
+      </c>
+      <c r="V1" t="s">
+        <v>433</v>
+      </c>
+      <c r="W1" t="s">
+        <v>434</v>
+      </c>
+      <c r="X1" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>448</v>
+      </c>
+      <c r="AA1" t="s">
         <v>449</v>
       </c>
-      <c r="T1" t="s">
-        <v>444</v>
-      </c>
-      <c r="U1" t="s">
-        <v>445</v>
-      </c>
-      <c r="V1" t="s">
-        <v>458</v>
-      </c>
-      <c r="W1" t="s">
-        <v>459</v>
-      </c>
-      <c r="X1" t="s">
-        <v>460</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>472</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>473</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>474</v>
-      </c>
       <c r="AB1" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="AC1" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="AD1" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="AE1" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="AF1" t="s">
         <v>16</v>
@@ -2763,4168 +2688,4093 @@
       <c r="BD1" t="s">
         <v>40</v>
       </c>
-      <c r="BE1" t="s">
+    </row>
+    <row r="2" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
       <c r="B2" s="3" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="C2">
         <v>1984</v>
       </c>
       <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="I2">
         <v>117</v>
       </c>
       <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="s">
         <v>48</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>49</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>50</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" t="s">
         <v>54</v>
       </c>
-      <c r="Q2" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" t="s">
         <v>55</v>
       </c>
-      <c r="S2" t="s">
-        <v>46</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
+        <v>85</v>
+      </c>
+      <c r="V2" t="s">
         <v>56</v>
       </c>
-      <c r="U2" t="s">
-        <v>87</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
+        <v>458</v>
+      </c>
+      <c r="X2" t="s">
         <v>57</v>
       </c>
-      <c r="W2" t="s">
-        <v>483</v>
-      </c>
-      <c r="X2" t="s">
-        <v>58</v>
-      </c>
       <c r="Y2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB2" t="s">
         <v>60</v>
       </c>
-      <c r="AB2" t="s">
-        <v>61</v>
-      </c>
       <c r="AC2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AE2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AF2">
         <v>8.1</v>
       </c>
       <c r="AG2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AH2" s="1">
         <v>30752</v>
       </c>
       <c r="AI2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>64</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>65</v>
       </c>
-      <c r="AK2" t="s">
-        <v>66</v>
-      </c>
       <c r="AL2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>515</v>
+      </c>
+      <c r="AO2" t="s">
         <v>67</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AP2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>68</v>
       </c>
-      <c r="AN2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>540</v>
-      </c>
-      <c r="AP2" t="s">
+      <c r="AR2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT2" t="s">
         <v>69</v>
       </c>
-      <c r="AQ2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AR2" t="s">
+      <c r="AU2" t="s">
         <v>70</v>
       </c>
-      <c r="AS2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AV2" t="s">
+      <c r="AV2">
+        <v>1</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="s">
         <v>72</v>
       </c>
-      <c r="AW2">
-        <v>1</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
       <c r="AY2" t="s">
+        <v>496</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="BA2" s="2">
+        <v>14000000</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>74</v>
       </c>
-      <c r="AZ2" t="s">
-        <v>521</v>
-      </c>
-      <c r="BA2" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="BB2" s="2">
-        <v>14000000</v>
-      </c>
-      <c r="BC2" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="BD2" t="s">
+      <c r="B3" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="BE2" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="C3">
         <v>1986</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I3">
         <v>124</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" t="s">
         <v>49</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>50</v>
       </c>
-      <c r="M3" t="s">
-        <v>51</v>
-      </c>
       <c r="N3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O3" t="s">
         <v>81</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" t="s">
         <v>83</v>
       </c>
-      <c r="P3" t="s">
+      <c r="S3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T3" t="s">
         <v>84</v>
       </c>
-      <c r="Q3" t="s">
-        <v>46</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="U3" t="s">
         <v>85</v>
       </c>
-      <c r="S3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>86</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
+        <v>456</v>
+      </c>
+      <c r="X3" t="s">
         <v>87</v>
       </c>
-      <c r="V3" t="s">
-        <v>88</v>
-      </c>
-      <c r="W3" t="s">
-        <v>481</v>
-      </c>
-      <c r="X3" t="s">
-        <v>89</v>
-      </c>
       <c r="Y3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AE3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AF3">
         <v>8</v>
       </c>
       <c r="AG3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AH3" s="1">
         <v>31626</v>
       </c>
       <c r="AI3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AJ3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AK3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO3" t="s">
         <v>91</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AP3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>92</v>
       </c>
-      <c r="AM3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO3" t="s">
+      <c r="AR3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT3" t="s">
         <v>93</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AU3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV3">
+        <v>8</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="s">
         <v>94</v>
       </c>
-      <c r="AQ3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AR3" t="s">
+      <c r="AY3" t="s">
+        <v>496</v>
+      </c>
+      <c r="AZ3" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="BA3" s="2">
+        <v>15700000</v>
+      </c>
+      <c r="BB3" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="BC3" t="s">
         <v>95</v>
       </c>
-      <c r="AS3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU3" t="s">
+      <c r="BD3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AV3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AW3">
-        <v>8</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3" t="s">
+    </row>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>97</v>
       </c>
-      <c r="AZ3" t="s">
-        <v>521</v>
-      </c>
-      <c r="BA3" s="2">
-        <v>5000000</v>
-      </c>
-      <c r="BB3" s="2">
-        <v>15700000</v>
-      </c>
-      <c r="BC3" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>98</v>
-      </c>
-      <c r="BE3" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>100</v>
-      </c>
       <c r="B4" s="3" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="C4">
         <v>1988</v>
       </c>
       <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
         <v>43</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>44</v>
       </c>
-      <c r="F4" t="s">
-        <v>45</v>
-      </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I4">
         <v>86</v>
       </c>
       <c r="J4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" t="s">
+        <v>101</v>
+      </c>
+      <c r="O4" t="s">
         <v>102</v>
       </c>
-      <c r="K4" t="s">
+      <c r="P4" t="s">
         <v>103</v>
       </c>
-      <c r="L4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="Q4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" t="s">
         <v>104</v>
       </c>
-      <c r="O4" t="s">
+      <c r="S4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" t="s">
         <v>105</v>
       </c>
-      <c r="P4" t="s">
+      <c r="U4" t="s">
+        <v>85</v>
+      </c>
+      <c r="V4" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" t="s">
+        <v>457</v>
+      </c>
+      <c r="X4" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB4" t="s">
         <v>106</v>
       </c>
-      <c r="Q4" t="s">
-        <v>46</v>
-      </c>
-      <c r="R4" t="s">
-        <v>107</v>
-      </c>
-      <c r="S4" t="s">
-        <v>46</v>
-      </c>
-      <c r="T4" t="s">
-        <v>108</v>
-      </c>
-      <c r="U4" t="s">
-        <v>87</v>
-      </c>
-      <c r="V4" t="s">
-        <v>57</v>
-      </c>
-      <c r="W4" t="s">
-        <v>482</v>
-      </c>
-      <c r="X4" t="s">
-        <v>470</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>109</v>
-      </c>
       <c r="AC4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AE4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AF4">
         <v>8.1999999999999993</v>
       </c>
       <c r="AG4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AH4" s="1">
         <v>32249</v>
       </c>
       <c r="AI4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AJ4" t="s">
-        <v>565</v>
+        <v>540</v>
       </c>
       <c r="AK4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>495</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR4" t="s">
         <v>111</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AS4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU4" t="s">
         <v>112</v>
       </c>
-      <c r="AM4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>520</v>
-      </c>
-      <c r="AP4" t="s">
+      <c r="AV4">
+        <v>2</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="s">
         <v>113</v>
       </c>
-      <c r="AQ4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AR4" t="s">
+      <c r="AY4" t="s">
+        <v>496</v>
+      </c>
+      <c r="AZ4" s="2">
+        <v>3700000</v>
+      </c>
+      <c r="BA4" s="2">
+        <v>41000000</v>
+      </c>
+      <c r="BB4" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="BC4" t="s">
         <v>114</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="BD4" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AT4" t="s">
-        <v>115</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AV4" t="s">
+    </row>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>116</v>
       </c>
-      <c r="AW4">
-        <v>2</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>521</v>
-      </c>
-      <c r="BA4" s="2">
-        <v>3700000</v>
-      </c>
-      <c r="BB4" s="2">
-        <v>41000000</v>
-      </c>
-      <c r="BC4" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>118</v>
-      </c>
-      <c r="BE4" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>120</v>
-      </c>
       <c r="B5" s="3" t="s">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="C5">
         <v>1988</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I5">
         <v>89</v>
       </c>
       <c r="J5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" t="s">
+        <v>119</v>
+      </c>
+      <c r="L5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" t="s">
+        <v>120</v>
+      </c>
+      <c r="O5" t="s">
+        <v>121</v>
+      </c>
+      <c r="P5" t="s">
         <v>122</v>
       </c>
-      <c r="K5" t="s">
+      <c r="Q5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R5" t="s">
         <v>123</v>
       </c>
-      <c r="L5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="S5" t="s">
+        <v>71</v>
+      </c>
+      <c r="U5" t="s">
+        <v>85</v>
+      </c>
+      <c r="V5" t="s">
+        <v>56</v>
+      </c>
+      <c r="W5" t="s">
+        <v>488</v>
+      </c>
+      <c r="X5" t="s">
         <v>124</v>
       </c>
-      <c r="O5" t="s">
-        <v>125</v>
-      </c>
-      <c r="P5" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>46</v>
-      </c>
-      <c r="R5" t="s">
-        <v>127</v>
-      </c>
-      <c r="S5" t="s">
-        <v>73</v>
-      </c>
-      <c r="U5" t="s">
-        <v>87</v>
-      </c>
-      <c r="V5" t="s">
-        <v>57</v>
-      </c>
-      <c r="W5" t="s">
-        <v>513</v>
-      </c>
-      <c r="X5" t="s">
-        <v>128</v>
-      </c>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AC5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AD5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AF5">
         <v>8.5</v>
       </c>
       <c r="AG5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AH5" s="1">
         <v>32249</v>
       </c>
       <c r="AI5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AJ5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>516</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>523</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV5">
+        <v>2</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>496</v>
+      </c>
+      <c r="AZ5" s="2">
+        <v>3700000</v>
+      </c>
+      <c r="BA5" s="2">
+        <v>14000000</v>
+      </c>
+      <c r="BB5" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="BC5" t="s">
         <v>130</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="BD5" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="AL5" t="s">
+    </row>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>132</v>
       </c>
-      <c r="AM5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>541</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>548</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>115</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AW5">
-        <v>2</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>521</v>
-      </c>
-      <c r="BA5" s="2">
-        <v>3700000</v>
-      </c>
-      <c r="BB5" s="2">
-        <v>14000000</v>
-      </c>
-      <c r="BC5" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>135</v>
-      </c>
-      <c r="BE5" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>137</v>
-      </c>
       <c r="B6" s="3" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
       <c r="C6">
         <v>1989</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I6">
         <v>103</v>
       </c>
       <c r="J6" t="s">
+        <v>135</v>
+      </c>
+      <c r="K6" t="s">
+        <v>100</v>
+      </c>
+      <c r="L6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" t="s">
+        <v>136</v>
+      </c>
+      <c r="O6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P6" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>45</v>
+      </c>
+      <c r="R6" t="s">
+        <v>139</v>
+      </c>
+      <c r="S6" t="s">
+        <v>45</v>
+      </c>
+      <c r="T6" t="s">
         <v>140</v>
       </c>
-      <c r="K6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N6" t="s">
-        <v>141</v>
-      </c>
-      <c r="O6" t="s">
-        <v>142</v>
-      </c>
-      <c r="P6" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>46</v>
-      </c>
-      <c r="R6" t="s">
-        <v>144</v>
-      </c>
-      <c r="S6" t="s">
-        <v>46</v>
-      </c>
-      <c r="T6" t="s">
-        <v>145</v>
-      </c>
       <c r="U6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="W6" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="X6" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="Y6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AC6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AE6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AF6">
         <v>7.9</v>
       </c>
       <c r="AG6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AH6" s="1">
         <v>32718</v>
       </c>
       <c r="AI6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AJ6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AK6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>495</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AV6">
+        <v>2</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="s">
         <v>147</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AY6" t="s">
+        <v>496</v>
+      </c>
+      <c r="AZ6" s="2">
+        <v>6900000</v>
+      </c>
+      <c r="BA6" s="2">
+        <v>1144186</v>
+      </c>
+      <c r="BB6" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="BC6" t="s">
         <v>148</v>
       </c>
-      <c r="AM6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>520</v>
-      </c>
-      <c r="AP6" t="s">
+      <c r="BD6" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>150</v>
       </c>
-      <c r="AQ6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>151</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>152</v>
-      </c>
-      <c r="AW6">
-        <v>2</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>521</v>
-      </c>
-      <c r="BA6" s="2">
-        <v>6900000</v>
-      </c>
-      <c r="BB6" s="2">
-        <v>1144186</v>
-      </c>
-      <c r="BC6" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE6" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>156</v>
-      </c>
       <c r="B7" s="3" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="C7">
         <v>1991</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="I7">
         <v>118</v>
       </c>
       <c r="J7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="K7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" t="s">
         <v>49</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>50</v>
       </c>
-      <c r="M7" t="s">
-        <v>51</v>
-      </c>
       <c r="N7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="O7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="P7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Q7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W7" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="X7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Y7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AD7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AF7">
         <v>7.8</v>
       </c>
       <c r="AG7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AH7" s="1">
         <v>33439</v>
       </c>
       <c r="AI7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AJ7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AK7" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>159</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>524</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV7">
+        <v>1</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>160</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>496</v>
+      </c>
+      <c r="AZ7" s="2">
+        <v>15000000</v>
+      </c>
+      <c r="BA7" s="2">
+        <v>576916</v>
+      </c>
+      <c r="BB7" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>161</v>
+      </c>
+      <c r="BD7" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:56" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>549</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>96</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>116</v>
-      </c>
-      <c r="AW7">
-        <v>1</v>
-      </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>521</v>
-      </c>
-      <c r="BA7" s="2">
-        <v>15000000</v>
-      </c>
-      <c r="BB7" s="2">
-        <v>576916</v>
-      </c>
-      <c r="BC7" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="BD7" t="s">
-        <v>168</v>
-      </c>
-      <c r="BE7" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="C8">
         <v>1992</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="I8">
         <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="K8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" t="s">
         <v>49</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>50</v>
       </c>
-      <c r="M8" t="s">
-        <v>51</v>
-      </c>
       <c r="N8" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="O8" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="P8" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="Q8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R8" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="S8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T8" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="U8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W8" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="X8" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="Y8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AC8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AE8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AF8">
         <v>7.7</v>
       </c>
       <c r="AG8" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="AH8" s="1">
         <v>33803</v>
       </c>
       <c r="AI8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AJ8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AK8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="AL8" t="s">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="AM8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AN8" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="AO8" t="s">
-        <v>181</v>
+        <v>507</v>
       </c>
       <c r="AP8" t="s">
-        <v>532</v>
+        <v>58</v>
       </c>
       <c r="AQ8" t="s">
-        <v>59</v>
+        <v>525</v>
       </c>
       <c r="AR8" t="s">
-        <v>550</v>
+        <v>66</v>
       </c>
       <c r="AS8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AT8" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="AU8" t="s">
-        <v>96</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="AV8">
+        <v>1</v>
       </c>
       <c r="AW8">
-        <v>1</v>
-      </c>
-      <c r="AX8">
         <v>0</v>
       </c>
+      <c r="AX8" t="s">
+        <v>174</v>
+      </c>
       <c r="AY8" t="s">
-        <v>182</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>521</v>
+        <v>496</v>
+      </c>
+      <c r="AZ8" s="2">
+        <v>9200000</v>
       </c>
       <c r="BA8" s="2">
-        <v>9200000</v>
-      </c>
-      <c r="BB8" s="2">
         <v>10000000</v>
       </c>
-      <c r="BC8" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="BD8" t="s">
-        <v>183</v>
-      </c>
-      <c r="BE8" s="3" t="s">
-        <v>527</v>
+      <c r="BB8" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>175</v>
+      </c>
+      <c r="BD8" s="3" t="s">
+        <v>502</v>
       </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C9">
         <v>1994</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F9" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="I9">
         <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" t="s">
         <v>49</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>50</v>
       </c>
-      <c r="M9" t="s">
-        <v>51</v>
-      </c>
       <c r="N9" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="O9" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="P9" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="Q9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R9" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="S9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T9" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="U9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W9" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="X9" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="Y9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AA9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AD9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AF9">
         <v>7.3</v>
       </c>
       <c r="AG9" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="AH9" s="1">
         <v>34531</v>
       </c>
       <c r="AI9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AJ9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AK9" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="AL9" t="s">
-        <v>196</v>
+        <v>60</v>
       </c>
       <c r="AM9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="AN9" t="s">
-        <v>68</v>
+        <v>188</v>
       </c>
       <c r="AO9" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="AP9" t="s">
-        <v>198</v>
+        <v>58</v>
       </c>
       <c r="AQ9" t="s">
-        <v>59</v>
+        <v>526</v>
       </c>
       <c r="AR9" t="s">
-        <v>551</v>
+        <v>66</v>
       </c>
       <c r="AS9" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AT9" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="AU9" t="s">
-        <v>96</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="AV9">
+        <v>2</v>
       </c>
       <c r="AW9">
-        <v>2</v>
-      </c>
-      <c r="AX9">
         <v>1</v>
       </c>
+      <c r="AX9" t="s">
+        <v>190</v>
+      </c>
       <c r="AY9" t="s">
-        <v>199</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>200</v>
+        <v>191</v>
+      </c>
+      <c r="AZ9" s="2">
+        <v>12000000</v>
       </c>
       <c r="BA9" s="2">
-        <v>12000000</v>
-      </c>
-      <c r="BB9" s="2">
         <v>16000000</v>
       </c>
-      <c r="BC9" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="BD9" t="s">
-        <v>201</v>
-      </c>
-      <c r="BE9" s="3" t="s">
-        <v>202</v>
+      <c r="BB9" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>192</v>
+      </c>
+      <c r="BD9" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>501</v>
+        <v>476</v>
       </c>
       <c r="C10">
         <v>1995</v>
       </c>
       <c r="D10" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E10" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F10" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="I10">
         <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="K10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" t="s">
         <v>49</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>50</v>
       </c>
-      <c r="M10" t="s">
-        <v>51</v>
-      </c>
       <c r="N10" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="O10" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="P10" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="Q10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T10" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="U10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W10" t="s">
-        <v>487</v>
+        <v>462</v>
       </c>
       <c r="X10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Y10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AD10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AE10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AF10">
         <v>7.7</v>
       </c>
       <c r="AG10" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="AH10" s="1">
         <v>34895</v>
       </c>
       <c r="AI10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AJ10" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="AK10" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="AL10" t="s">
-        <v>213</v>
+        <v>66</v>
       </c>
       <c r="AM10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AN10" t="s">
-        <v>68</v>
+        <v>495</v>
       </c>
       <c r="AO10" t="s">
-        <v>520</v>
+        <v>128</v>
       </c>
       <c r="AP10" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="AQ10" t="s">
-        <v>62</v>
+        <v>527</v>
       </c>
       <c r="AR10" t="s">
-        <v>552</v>
+        <v>66</v>
       </c>
       <c r="AS10" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AT10" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="AU10" t="s">
-        <v>96</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
       </c>
       <c r="AW10">
-        <v>0</v>
-      </c>
-      <c r="AX10">
         <v>1</v>
       </c>
+      <c r="AX10" t="s">
+        <v>496</v>
+      </c>
       <c r="AY10" t="s">
-        <v>521</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>182</v>
+        <v>174</v>
+      </c>
+      <c r="AZ10" s="2">
+        <v>10000000</v>
       </c>
       <c r="BA10" s="2">
         <v>10000000</v>
       </c>
-      <c r="BB10" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="BC10" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>214</v>
-      </c>
-      <c r="BE10" s="3" t="s">
-        <v>215</v>
+      <c r="BB10" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>204</v>
+      </c>
+      <c r="BD10" s="3" t="s">
+        <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C11">
         <v>1997</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="I11">
         <v>134</v>
       </c>
       <c r="J11" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" t="s">
         <v>50</v>
       </c>
-      <c r="M11" t="s">
-        <v>51</v>
-      </c>
       <c r="N11" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="O11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="P11" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="Q11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R11" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="S11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T11" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="U11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W11" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="X11" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="Y11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AE11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AF11">
         <v>8.4</v>
       </c>
       <c r="AG11" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="AH11" s="1">
         <v>35623</v>
       </c>
       <c r="AI11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AJ11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AK11" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="AL11" t="s">
-        <v>225</v>
+        <v>66</v>
       </c>
       <c r="AM11" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AN11" t="s">
-        <v>61</v>
+        <v>517</v>
       </c>
       <c r="AO11" t="s">
-        <v>542</v>
+        <v>508</v>
       </c>
       <c r="AP11" t="s">
-        <v>533</v>
+        <v>58</v>
       </c>
       <c r="AQ11" t="s">
-        <v>59</v>
+        <v>528</v>
       </c>
       <c r="AR11" t="s">
-        <v>553</v>
+        <v>111</v>
       </c>
       <c r="AS11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AT11" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="AU11" t="s">
-        <v>96</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="AV11">
+        <v>2</v>
       </c>
       <c r="AW11">
-        <v>2</v>
-      </c>
-      <c r="AX11">
         <v>1</v>
       </c>
+      <c r="AX11" t="s">
+        <v>147</v>
+      </c>
       <c r="AY11" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>226</v>
+        <v>215</v>
+      </c>
+      <c r="AZ11" s="2">
+        <v>23500000</v>
       </c>
       <c r="BA11" s="2">
-        <v>23500000</v>
-      </c>
-      <c r="BB11" s="2">
         <v>231247030</v>
       </c>
-      <c r="BC11" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="BD11" t="s">
-        <v>227</v>
-      </c>
-      <c r="BE11" s="3" t="s">
-        <v>228</v>
+      <c r="BB11" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>216</v>
+      </c>
+      <c r="BD11" s="3" t="s">
+        <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C12">
         <v>1999</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F12" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="I12">
         <v>104</v>
       </c>
       <c r="J12" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="K12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" t="s">
         <v>50</v>
       </c>
-      <c r="M12" t="s">
-        <v>51</v>
-      </c>
       <c r="N12" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="O12" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="P12" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="Q12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V12" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="W12" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="X12" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="Y12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AC12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AD12" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="AE12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AF12">
         <v>7.1</v>
       </c>
       <c r="AG12" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="AH12" s="1">
         <v>36358</v>
       </c>
       <c r="AI12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>64</v>
       </c>
-      <c r="AJ12" t="s">
-        <v>65</v>
-      </c>
       <c r="AK12" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="AL12" t="s">
-        <v>241</v>
+        <v>60</v>
       </c>
       <c r="AM12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>230</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>509</v>
+      </c>
+      <c r="AP12" t="s">
         <v>61</v>
       </c>
-      <c r="AN12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>242</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>534</v>
-      </c>
       <c r="AQ12" t="s">
-        <v>62</v>
+        <v>529</v>
       </c>
       <c r="AR12" t="s">
-        <v>554</v>
+        <v>60</v>
       </c>
       <c r="AS12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AT12" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="AU12" t="s">
-        <v>96</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="AV12">
+        <v>1</v>
       </c>
       <c r="AW12">
-        <v>1</v>
-      </c>
-      <c r="AX12">
         <v>0</v>
       </c>
+      <c r="AX12" t="s">
+        <v>231</v>
+      </c>
       <c r="AY12" t="s">
-        <v>243</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>521</v>
+        <v>496</v>
+      </c>
+      <c r="AZ12" s="2">
+        <v>20000000</v>
       </c>
       <c r="BA12" s="2">
-        <v>20000000</v>
-      </c>
-      <c r="BB12" s="2">
         <v>11000000</v>
       </c>
-      <c r="BC12" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="BD12" t="s">
-        <v>244</v>
-      </c>
-      <c r="BE12" s="3" t="s">
-        <v>245</v>
+      <c r="BB12" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>232</v>
+      </c>
+      <c r="BD12" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="C13">
         <v>2001</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="I13">
         <v>125</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" t="s">
         <v>49</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>50</v>
       </c>
-      <c r="M13" t="s">
-        <v>51</v>
-      </c>
       <c r="N13" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="O13" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="P13" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="Q13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R13" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="S13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T13" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="U13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W13" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="X13" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="Y13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AE13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AF13">
         <v>8.6</v>
       </c>
       <c r="AG13" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="AH13" s="1">
         <v>37092</v>
       </c>
       <c r="AI13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AJ13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AK13" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="AL13" t="s">
-        <v>255</v>
+        <v>66</v>
       </c>
       <c r="AM13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AN13" t="s">
-        <v>61</v>
+        <v>427</v>
       </c>
       <c r="AO13" t="s">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="AP13" t="s">
-        <v>535</v>
+        <v>58</v>
       </c>
       <c r="AQ13" t="s">
-        <v>59</v>
+        <v>530</v>
       </c>
       <c r="AR13" t="s">
-        <v>555</v>
+        <v>111</v>
       </c>
       <c r="AS13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AT13" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="AU13" t="s">
-        <v>96</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="AV13">
+        <v>7</v>
       </c>
       <c r="AW13">
-        <v>7</v>
-      </c>
-      <c r="AX13">
         <v>4</v>
       </c>
+      <c r="AX13" t="s">
+        <v>490</v>
+      </c>
       <c r="AY13" t="s">
-        <v>515</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>514</v>
+        <v>489</v>
+      </c>
+      <c r="AZ13" s="2">
+        <v>19000000</v>
       </c>
       <c r="BA13" s="2">
-        <v>19000000</v>
-      </c>
-      <c r="BB13" s="2">
         <v>395800000</v>
       </c>
-      <c r="BC13" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="BD13" t="s">
-        <v>256</v>
-      </c>
-      <c r="BE13" s="3" t="s">
-        <v>257</v>
+      <c r="BB13" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>243</v>
+      </c>
+      <c r="BD13" s="3" t="s">
+        <v>244</v>
       </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>502</v>
+        <v>477</v>
       </c>
       <c r="C14">
         <v>2002</v>
       </c>
       <c r="D14" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="E14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F14" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="I14">
         <v>75</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" t="s">
         <v>50</v>
       </c>
-      <c r="M14" t="s">
-        <v>51</v>
-      </c>
       <c r="N14" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="O14" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="P14" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="Q14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R14" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="S14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T14" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="U14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W14" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="X14" t="s">
-        <v>495</v>
+        <v>470</v>
       </c>
       <c r="Y14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AC14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AD14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AE14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AF14">
         <v>7.2</v>
       </c>
       <c r="AG14" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="AH14" s="1">
         <v>37456</v>
       </c>
       <c r="AI14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ14" t="s">
         <v>64</v>
       </c>
-      <c r="AJ14" t="s">
-        <v>65</v>
-      </c>
       <c r="AK14" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="AL14" t="s">
-        <v>268</v>
+        <v>60</v>
       </c>
       <c r="AM14" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="AN14" t="s">
-        <v>68</v>
+        <v>495</v>
       </c>
       <c r="AO14" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="AP14" t="s">
-        <v>536</v>
+        <v>58</v>
       </c>
       <c r="AQ14" t="s">
-        <v>59</v>
+        <v>255</v>
       </c>
       <c r="AR14" t="s">
-        <v>269</v>
+        <v>60</v>
       </c>
       <c r="AS14" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="AT14" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="AU14" t="s">
-        <v>96</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="AV14">
+        <v>1</v>
       </c>
       <c r="AW14">
         <v>1</v>
       </c>
-      <c r="AX14">
-        <v>1</v>
+      <c r="AX14" t="s">
+        <v>256</v>
       </c>
       <c r="AY14" t="s">
-        <v>270</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>182</v>
+        <v>174</v>
+      </c>
+      <c r="AZ14" s="2">
+        <v>20000000</v>
       </c>
       <c r="BA14" s="2">
-        <v>20000000</v>
-      </c>
-      <c r="BB14" s="2">
         <v>54000000</v>
       </c>
-      <c r="BC14" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="BD14" t="s">
-        <v>271</v>
-      </c>
-      <c r="BE14" s="3" t="s">
-        <v>272</v>
+      <c r="BB14" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>257</v>
+      </c>
+      <c r="BD14" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="C15">
         <v>2004</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="I15">
         <v>119</v>
       </c>
       <c r="J15" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="K15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L15" t="s">
         <v>49</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>50</v>
       </c>
-      <c r="M15" t="s">
-        <v>51</v>
-      </c>
       <c r="N15" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="O15" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="P15" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="Q15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R15" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="S15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T15" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="U15" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="V15" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="W15" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="X15" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="Y15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AC15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AE15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AF15">
         <v>8.1999999999999993</v>
       </c>
       <c r="AG15" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AH15" s="1">
         <v>38311</v>
       </c>
       <c r="AI15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AJ15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AK15" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="AL15" t="s">
-        <v>282</v>
+        <v>66</v>
       </c>
       <c r="AM15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AN15" t="s">
-        <v>68</v>
+        <v>518</v>
       </c>
       <c r="AO15" t="s">
-        <v>543</v>
+        <v>512</v>
       </c>
       <c r="AP15" t="s">
-        <v>537</v>
+        <v>58</v>
       </c>
       <c r="AQ15" t="s">
-        <v>59</v>
+        <v>269</v>
       </c>
       <c r="AR15" t="s">
-        <v>284</v>
+        <v>66</v>
       </c>
       <c r="AS15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AT15" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="AU15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="AV15">
+        <v>2</v>
       </c>
       <c r="AW15">
-        <v>2</v>
-      </c>
-      <c r="AX15">
         <v>1</v>
       </c>
+      <c r="AX15" t="s">
+        <v>270</v>
+      </c>
       <c r="AY15" t="s">
-        <v>285</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>286</v>
+        <v>271</v>
+      </c>
+      <c r="AZ15" s="2">
+        <v>24000000</v>
       </c>
       <c r="BA15" s="2">
-        <v>24000000</v>
-      </c>
-      <c r="BB15" s="2">
         <v>239589856</v>
       </c>
-      <c r="BC15" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="BD15" t="s">
-        <v>287</v>
-      </c>
-      <c r="BE15" s="3" t="s">
-        <v>288</v>
+      <c r="BB15" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>272</v>
+      </c>
+      <c r="BD15" s="3" t="s">
+        <v>273</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="C16">
         <v>2006</v>
       </c>
       <c r="D16" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="E16" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F16" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="G16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I16">
         <v>115</v>
       </c>
       <c r="J16" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K16" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L16" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" t="s">
         <v>50</v>
       </c>
-      <c r="M16" t="s">
-        <v>51</v>
-      </c>
       <c r="N16" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="O16" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="P16" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="Q16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R16" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="S16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T16" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="U16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W16" t="s">
-        <v>567</v>
+        <v>542</v>
       </c>
       <c r="X16" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="Y16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AC16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AD16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AE16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AF16">
         <v>6.4</v>
       </c>
       <c r="AG16" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="AH16" s="1">
         <v>38927</v>
       </c>
       <c r="AI16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AJ16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AK16" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="AL16" t="s">
-        <v>298</v>
+        <v>60</v>
       </c>
       <c r="AM16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AN16" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="AO16" t="s">
-        <v>299</v>
+        <v>513</v>
       </c>
       <c r="AP16" t="s">
-        <v>538</v>
+        <v>58</v>
       </c>
       <c r="AQ16" t="s">
-        <v>59</v>
+        <v>284</v>
       </c>
       <c r="AR16" t="s">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="AS16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AT16" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="AU16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AV16" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
       </c>
       <c r="AW16">
-        <v>0</v>
-      </c>
-      <c r="AX16">
         <v>1</v>
       </c>
+      <c r="AX16" t="s">
+        <v>496</v>
+      </c>
       <c r="AY16" t="s">
-        <v>521</v>
-      </c>
-      <c r="AZ16" t="s">
-        <v>182</v>
+        <v>174</v>
+      </c>
+      <c r="AZ16" s="2">
+        <v>22000000</v>
       </c>
       <c r="BA16" s="2">
-        <v>22000000</v>
-      </c>
-      <c r="BB16" s="2">
         <v>68600000</v>
       </c>
-      <c r="BC16" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="BD16" t="s">
-        <v>302</v>
-      </c>
-      <c r="BE16" s="3" t="s">
-        <v>303</v>
+      <c r="BB16" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>286</v>
+      </c>
+      <c r="BD16" s="3" t="s">
+        <v>287</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="C17">
         <v>2008</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="I17">
         <v>101</v>
       </c>
       <c r="J17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L17" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" t="s">
         <v>50</v>
       </c>
-      <c r="M17" t="s">
-        <v>51</v>
-      </c>
       <c r="N17" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="O17" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="P17" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="Q17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R17" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="S17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T17" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="U17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W17" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="X17" t="s">
-        <v>509</v>
+        <v>484</v>
       </c>
       <c r="Y17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AE17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AF17">
         <v>7.7</v>
       </c>
       <c r="AG17" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="AH17" s="1">
         <v>39648</v>
       </c>
       <c r="AI17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AJ17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AK17" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="AL17" t="s">
-        <v>313</v>
+        <v>66</v>
       </c>
       <c r="AM17" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="AN17" t="s">
-        <v>115</v>
+        <v>519</v>
       </c>
       <c r="AO17" t="s">
-        <v>544</v>
+        <v>298</v>
       </c>
       <c r="AP17" t="s">
-        <v>315</v>
+        <v>58</v>
       </c>
       <c r="AQ17" t="s">
-        <v>59</v>
+        <v>531</v>
       </c>
       <c r="AR17" t="s">
-        <v>556</v>
+        <v>66</v>
       </c>
       <c r="AS17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AT17" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="AU17" t="s">
-        <v>96</v>
-      </c>
-      <c r="AV17" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="AV17">
+        <v>2</v>
       </c>
       <c r="AW17">
-        <v>2</v>
-      </c>
-      <c r="AX17">
         <v>1</v>
       </c>
+      <c r="AX17" t="s">
+        <v>299</v>
+      </c>
       <c r="AY17" t="s">
-        <v>316</v>
-      </c>
-      <c r="AZ17" t="s">
-        <v>317</v>
+        <v>300</v>
+      </c>
+      <c r="AZ17" s="2">
+        <v>34000000</v>
       </c>
       <c r="BA17" s="2">
-        <v>34000000</v>
-      </c>
-      <c r="BB17" s="2">
         <v>205162666</v>
       </c>
-      <c r="BC17" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="BD17" t="s">
-        <v>318</v>
-      </c>
-      <c r="BE17" s="3" t="s">
-        <v>523</v>
+      <c r="BB17" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>301</v>
+      </c>
+      <c r="BD17" s="3" t="s">
+        <v>498</v>
       </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="C18">
         <v>2010</v>
       </c>
       <c r="D18" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="E18" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F18" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="I18">
         <v>94</v>
       </c>
       <c r="J18" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L18" t="s">
+        <v>49</v>
+      </c>
+      <c r="M18" t="s">
         <v>50</v>
       </c>
-      <c r="M18" t="s">
-        <v>51</v>
-      </c>
       <c r="N18" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="O18" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="P18" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="Q18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R18" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="S18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T18" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="U18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W18" t="s">
-        <v>483</v>
+        <v>458</v>
       </c>
       <c r="X18" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="Y18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AC18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AD18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AE18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AF18">
         <v>7.6</v>
       </c>
       <c r="AG18" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="AH18" s="1">
         <v>40376</v>
       </c>
       <c r="AI18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AJ18" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AK18" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="AL18" t="s">
-        <v>329</v>
+        <v>60</v>
       </c>
       <c r="AM18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>312</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>514</v>
+      </c>
+      <c r="AP18" t="s">
         <v>61</v>
       </c>
-      <c r="AN18" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>330</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>539</v>
-      </c>
       <c r="AQ18" t="s">
-        <v>62</v>
+        <v>532</v>
       </c>
       <c r="AR18" t="s">
-        <v>557</v>
+        <v>66</v>
       </c>
       <c r="AS18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AT18" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="AU18" t="s">
-        <v>96</v>
-      </c>
-      <c r="AV18" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="AV18">
+        <v>1</v>
       </c>
       <c r="AW18">
         <v>1</v>
       </c>
-      <c r="AX18">
-        <v>1</v>
+      <c r="AX18" t="s">
+        <v>174</v>
       </c>
       <c r="AY18" t="s">
-        <v>182</v>
-      </c>
-      <c r="AZ18" t="s">
-        <v>331</v>
+        <v>313</v>
+      </c>
+      <c r="AZ18" s="2">
+        <v>23000000</v>
       </c>
       <c r="BA18" s="2">
-        <v>23000000</v>
-      </c>
-      <c r="BB18" s="2">
         <v>151496097</v>
       </c>
-      <c r="BC18" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="BD18" t="s">
-        <v>333</v>
-      </c>
-      <c r="BE18" s="3" t="s">
-        <v>334</v>
+      <c r="BB18" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>315</v>
+      </c>
+      <c r="BD18" s="3" t="s">
+        <v>316</v>
       </c>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="C19">
         <v>2011</v>
       </c>
       <c r="D19" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="E19" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F19" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="I19">
         <v>91</v>
       </c>
       <c r="J19" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="K19" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" t="s">
         <v>49</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>50</v>
       </c>
-      <c r="M19" t="s">
-        <v>51</v>
-      </c>
       <c r="N19" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="O19" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="P19" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="Q19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="S19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W19" t="s">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="X19" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="Y19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AD19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AE19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AF19">
         <v>7.3</v>
       </c>
       <c r="AG19" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="AH19" s="1">
         <v>40740</v>
       </c>
       <c r="AI19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AJ19" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="AK19" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="AL19" t="s">
-        <v>345</v>
+        <v>60</v>
       </c>
       <c r="AM19" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>495</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>327</v>
+      </c>
+      <c r="AP19" t="s">
         <v>61</v>
       </c>
-      <c r="AN19" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>520</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>346</v>
-      </c>
       <c r="AQ19" t="s">
-        <v>62</v>
+        <v>533</v>
       </c>
       <c r="AR19" t="s">
-        <v>558</v>
+        <v>60</v>
       </c>
       <c r="AS19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AT19" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="AU19" t="s">
-        <v>96</v>
-      </c>
-      <c r="AV19" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="AV19">
+        <v>1</v>
       </c>
       <c r="AW19">
-        <v>1</v>
-      </c>
-      <c r="AX19">
         <v>0</v>
       </c>
+      <c r="AX19" t="s">
+        <v>174</v>
+      </c>
       <c r="AY19" t="s">
-        <v>182</v>
-      </c>
-      <c r="AZ19" t="s">
-        <v>521</v>
+        <v>496</v>
+      </c>
+      <c r="AZ19" s="2">
+        <v>22000000</v>
       </c>
       <c r="BA19" s="2">
-        <v>22000000</v>
-      </c>
-      <c r="BB19" s="2">
         <v>61000000</v>
       </c>
-      <c r="BC19" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="BD19" t="s">
-        <v>347</v>
-      </c>
-      <c r="BE19" s="3" t="s">
-        <v>348</v>
+      <c r="BB19" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>328</v>
+      </c>
+      <c r="BD19" s="3" t="s">
+        <v>329</v>
       </c>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="C20">
         <v>2013</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="I20">
         <v>126</v>
       </c>
       <c r="J20" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="K20" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" t="s">
+        <v>49</v>
+      </c>
+      <c r="M20" t="s">
+        <v>50</v>
+      </c>
+      <c r="N20" t="s">
+        <v>333</v>
+      </c>
+      <c r="O20" t="s">
+        <v>334</v>
+      </c>
+      <c r="P20" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>45</v>
+      </c>
+      <c r="R20" t="s">
         <v>123</v>
       </c>
-      <c r="L20" t="s">
-        <v>50</v>
-      </c>
-      <c r="M20" t="s">
-        <v>51</v>
-      </c>
-      <c r="N20" t="s">
-        <v>352</v>
-      </c>
-      <c r="O20" t="s">
-        <v>353</v>
-      </c>
-      <c r="P20" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>46</v>
-      </c>
-      <c r="R20" t="s">
-        <v>127</v>
-      </c>
       <c r="S20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W20" t="s">
-        <v>491</v>
+        <v>466</v>
       </c>
       <c r="X20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Y20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AE20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AF20">
         <v>7.8</v>
       </c>
       <c r="AG20" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="AH20" s="1">
         <v>41475</v>
       </c>
       <c r="AI20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AJ20" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="AK20" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="AL20" t="s">
-        <v>357</v>
+        <v>60</v>
       </c>
       <c r="AM20" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>520</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>507</v>
+      </c>
+      <c r="AP20" t="s">
         <v>61</v>
       </c>
-      <c r="AN20" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>545</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>532</v>
-      </c>
       <c r="AQ20" t="s">
-        <v>62</v>
+        <v>338</v>
       </c>
       <c r="AR20" t="s">
-        <v>358</v>
+        <v>66</v>
       </c>
       <c r="AS20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AT20" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="AU20" t="s">
-        <v>96</v>
-      </c>
-      <c r="AV20" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="AV20">
+        <v>1</v>
       </c>
       <c r="AW20">
-        <v>1</v>
-      </c>
-      <c r="AX20">
         <v>2</v>
       </c>
+      <c r="AX20" t="s">
+        <v>174</v>
+      </c>
       <c r="AY20" t="s">
-        <v>182</v>
-      </c>
-      <c r="AZ20" t="s">
-        <v>359</v>
+        <v>339</v>
+      </c>
+      <c r="AZ20" s="2">
+        <v>30000000</v>
       </c>
       <c r="BA20" s="2">
-        <v>30000000</v>
-      </c>
-      <c r="BB20" s="2">
         <v>137000000</v>
       </c>
-      <c r="BC20" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="BD20" t="s">
-        <v>526</v>
-      </c>
-      <c r="BE20" s="3" t="s">
-        <v>360</v>
+      <c r="BB20" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>501</v>
+      </c>
+      <c r="BD20" s="3" t="s">
+        <v>340</v>
       </c>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="C21">
         <v>2013</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="I21">
         <v>137</v>
       </c>
       <c r="J21" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="K21" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" t="s">
         <v>49</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>50</v>
       </c>
-      <c r="M21" t="s">
-        <v>51</v>
-      </c>
       <c r="N21" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="O21" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="P21" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="Q21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R21" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="S21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V21" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="W21" t="s">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="X21" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="Y21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AC21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AD21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AF21">
         <v>8</v>
       </c>
       <c r="AG21" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="AH21" s="1">
         <v>41601</v>
       </c>
       <c r="AI21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AJ21" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="AK21" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="AL21" t="s">
-        <v>372</v>
+        <v>66</v>
       </c>
       <c r="AM21" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="AN21" t="s">
-        <v>109</v>
+        <v>521</v>
       </c>
       <c r="AO21" t="s">
-        <v>546</v>
+        <v>352</v>
       </c>
       <c r="AP21" t="s">
-        <v>373</v>
+        <v>61</v>
       </c>
       <c r="AQ21" t="s">
-        <v>62</v>
+        <v>534</v>
       </c>
       <c r="AR21" t="s">
-        <v>559</v>
+        <v>66</v>
       </c>
       <c r="AS21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AT21" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="AU21" t="s">
-        <v>96</v>
-      </c>
-      <c r="AV21" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="AV21">
+        <v>2</v>
       </c>
       <c r="AW21">
-        <v>2</v>
-      </c>
-      <c r="AX21">
         <v>1</v>
       </c>
+      <c r="AX21" t="s">
+        <v>353</v>
+      </c>
       <c r="AY21" t="s">
-        <v>374</v>
-      </c>
-      <c r="AZ21" t="s">
-        <v>286</v>
+        <v>271</v>
+      </c>
+      <c r="AZ21" s="2">
+        <v>49300000</v>
       </c>
       <c r="BA21" s="2">
-        <v>49300000</v>
-      </c>
-      <c r="BB21" s="2">
         <v>24700000</v>
       </c>
-      <c r="BC21" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="BD21" t="s">
-        <v>375</v>
-      </c>
-      <c r="BE21" s="3" t="s">
-        <v>524</v>
+      <c r="BB21" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>354</v>
+      </c>
+      <c r="BD21" s="3" t="s">
+        <v>499</v>
       </c>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="C22">
         <v>2014</v>
       </c>
       <c r="D22" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="E22" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="F22" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="I22">
         <v>103</v>
       </c>
       <c r="J22" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="K22" t="s">
+        <v>48</v>
+      </c>
+      <c r="L22" t="s">
         <v>49</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>50</v>
       </c>
-      <c r="M22" t="s">
-        <v>51</v>
-      </c>
       <c r="N22" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="O22" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="P22" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="Q22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R22" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="S22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T22" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="U22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W22" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="X22" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="Y22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AD22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AE22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AF22">
         <v>7.5</v>
       </c>
       <c r="AG22" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="AH22" s="1">
         <v>41839</v>
       </c>
       <c r="AI22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AJ22" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AK22" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="AL22" t="s">
-        <v>386</v>
+        <v>60</v>
       </c>
       <c r="AM22" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="AN22" t="s">
-        <v>68</v>
+        <v>365</v>
       </c>
       <c r="AO22" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="AP22" t="s">
-        <v>388</v>
+        <v>58</v>
       </c>
       <c r="AQ22" t="s">
-        <v>59</v>
+        <v>535</v>
       </c>
       <c r="AR22" t="s">
-        <v>560</v>
+        <v>60</v>
       </c>
       <c r="AS22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AT22" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="AU22" t="s">
-        <v>96</v>
-      </c>
-      <c r="AV22" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
       </c>
       <c r="AW22">
-        <v>0</v>
-      </c>
-      <c r="AX22">
         <v>2</v>
       </c>
+      <c r="AX22" t="s">
+        <v>496</v>
+      </c>
       <c r="AY22" t="s">
-        <v>521</v>
-      </c>
-      <c r="AZ22" t="s">
-        <v>389</v>
+        <v>367</v>
+      </c>
+      <c r="AZ22" s="2">
+        <v>10500000</v>
       </c>
       <c r="BA22" s="2">
-        <v>10500000</v>
-      </c>
-      <c r="BB22" s="2">
         <v>41000000</v>
       </c>
-      <c r="BC22" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="BD22" t="s">
-        <v>390</v>
-      </c>
-      <c r="BE22" s="3" t="s">
-        <v>391</v>
+      <c r="BB22" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>368</v>
+      </c>
+      <c r="BD22" s="3" t="s">
+        <v>369</v>
       </c>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="C23">
         <v>2016</v>
       </c>
       <c r="D23" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="E23" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F23" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="I23">
         <v>80</v>
       </c>
       <c r="J23" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="K23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L23" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="M23" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="N23" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="O23" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="P23" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="Q23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R23" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="S23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T23" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="U23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V23" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="W23" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="X23" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="Y23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AC23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AD23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AE23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AF23">
         <v>7.5</v>
       </c>
       <c r="AG23" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="AH23" s="1">
         <v>42630</v>
       </c>
       <c r="AI23" t="s">
-        <v>512</v>
+        <v>487</v>
       </c>
       <c r="AJ23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AK23" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="AL23" t="s">
-        <v>406</v>
+        <v>60</v>
       </c>
       <c r="AM23" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>384</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>385</v>
+      </c>
+      <c r="AP23" t="s">
         <v>61</v>
       </c>
-      <c r="AN23" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>407</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>408</v>
-      </c>
       <c r="AQ23" t="s">
-        <v>62</v>
+        <v>536</v>
       </c>
       <c r="AR23" t="s">
-        <v>561</v>
+        <v>60</v>
       </c>
       <c r="AS23" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="AT23" t="s">
-        <v>68</v>
+        <v>386</v>
       </c>
       <c r="AU23" t="s">
-        <v>409</v>
-      </c>
-      <c r="AV23" t="s">
-        <v>410</v>
+        <v>387</v>
+      </c>
+      <c r="AV23">
+        <v>8</v>
       </c>
       <c r="AW23">
         <v>8</v>
       </c>
-      <c r="AX23">
-        <v>8</v>
+      <c r="AX23" t="s">
+        <v>491</v>
       </c>
       <c r="AY23" t="s">
-        <v>516</v>
-      </c>
-      <c r="AZ23" t="s">
-        <v>517</v>
+        <v>492</v>
+      </c>
+      <c r="AZ23" s="2">
+        <v>12500000</v>
       </c>
       <c r="BA23" s="2">
-        <v>12500000</v>
-      </c>
-      <c r="BB23" s="2">
         <v>5000000</v>
       </c>
-      <c r="BC23" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="BD23" t="s">
-        <v>412</v>
-      </c>
-      <c r="BE23" s="3" t="s">
-        <v>413</v>
+      <c r="BB23" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>389</v>
+      </c>
+      <c r="BD23" s="3" t="s">
+        <v>390</v>
       </c>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="C24">
         <v>2020</v>
       </c>
       <c r="D24" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="E24" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="F24" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="I24">
         <v>82</v>
       </c>
       <c r="J24" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="K24" t="s">
+        <v>48</v>
+      </c>
+      <c r="L24" t="s">
         <v>49</v>
       </c>
-      <c r="L24" t="s">
-        <v>50</v>
-      </c>
       <c r="M24" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="N24" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="O24" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="P24" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="Q24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R24" t="s">
+        <v>400</v>
+      </c>
+      <c r="S24" t="s">
+        <v>45</v>
+      </c>
+      <c r="T24" t="s">
+        <v>539</v>
+      </c>
+      <c r="U24" t="s">
         <v>423</v>
       </c>
-      <c r="S24" t="s">
-        <v>46</v>
-      </c>
-      <c r="T24" t="s">
-        <v>564</v>
-      </c>
-      <c r="U24" t="s">
-        <v>448</v>
-      </c>
       <c r="V24" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="W24" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="X24" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="Y24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AC24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AD24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AE24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AF24">
         <v>6</v>
       </c>
       <c r="AG24" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="AH24" s="1">
         <v>44133</v>
       </c>
       <c r="AI24" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="AJ24" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AK24" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
       <c r="AL24" t="s">
-        <v>427</v>
+        <v>66</v>
       </c>
       <c r="AM24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AN24" t="s">
-        <v>68</v>
+        <v>495</v>
       </c>
       <c r="AO24" t="s">
-        <v>520</v>
+        <v>128</v>
       </c>
       <c r="AP24" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="AQ24" t="s">
-        <v>59</v>
+        <v>404</v>
       </c>
       <c r="AR24" t="s">
-        <v>428</v>
+        <v>60</v>
       </c>
       <c r="AS24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AT24" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="AU24" t="s">
-        <v>96</v>
-      </c>
-      <c r="AV24" t="s">
-        <v>429</v>
+        <v>405</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
       </c>
       <c r="AW24">
-        <v>0</v>
-      </c>
-      <c r="AX24">
         <v>1</v>
       </c>
+      <c r="AX24" t="s">
+        <v>496</v>
+      </c>
       <c r="AY24" t="s">
-        <v>521</v>
-      </c>
-      <c r="AZ24" t="s">
-        <v>317</v>
+        <v>300</v>
+      </c>
+      <c r="AZ24" s="2">
+        <v>10000000</v>
       </c>
       <c r="BA24" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="BB24" s="2">
         <v>842744</v>
       </c>
-      <c r="BC24" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="BD24" t="s">
-        <v>430</v>
-      </c>
-      <c r="BE24" s="3" t="s">
-        <v>431</v>
+      <c r="BB24" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>406</v>
+      </c>
+      <c r="BD24" s="3" t="s">
+        <v>407</v>
       </c>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="C25">
         <v>2023</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="I25">
         <v>125</v>
       </c>
       <c r="J25" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="K25" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L25" t="s">
+        <v>49</v>
+      </c>
+      <c r="M25" t="s">
         <v>50</v>
       </c>
-      <c r="M25" t="s">
-        <v>51</v>
-      </c>
       <c r="N25" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="O25" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="P25" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="Q25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R25" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="S25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T25" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="U25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W25" t="s">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="X25" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="Y25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AE25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AF25">
         <v>8</v>
       </c>
       <c r="AG25" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="AH25" s="1">
         <v>45121</v>
       </c>
       <c r="AI25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AJ25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AK25" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="AL25" t="s">
-        <v>439</v>
+        <v>60</v>
       </c>
       <c r="AM25" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="AN25" t="s">
-        <v>68</v>
+        <v>522</v>
       </c>
       <c r="AO25" t="s">
-        <v>547</v>
+        <v>510</v>
       </c>
       <c r="AP25" t="s">
-        <v>535</v>
+        <v>58</v>
       </c>
       <c r="AQ25" t="s">
-        <v>59</v>
+        <v>537</v>
       </c>
       <c r="AR25" t="s">
-        <v>562</v>
+        <v>66</v>
       </c>
       <c r="AS25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AT25" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="AU25" t="s">
-        <v>96</v>
-      </c>
-      <c r="AV25" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="AV25">
+        <v>10</v>
       </c>
       <c r="AW25">
-        <v>10</v>
-      </c>
-      <c r="AX25">
         <v>7</v>
       </c>
+      <c r="AX25" t="s">
+        <v>493</v>
+      </c>
       <c r="AY25" t="s">
-        <v>518</v>
-      </c>
-      <c r="AZ25" t="s">
-        <v>519</v>
+        <v>494</v>
+      </c>
+      <c r="AZ25" s="2">
+        <v>53000000</v>
       </c>
       <c r="BA25" s="2">
-        <v>53000000</v>
-      </c>
-      <c r="BB25" s="2">
         <v>292922563</v>
       </c>
-      <c r="BC25" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="BD25" t="s">
-        <v>440</v>
-      </c>
-      <c r="BE25" s="3" t="s">
-        <v>525</v>
+      <c r="BB25" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>415</v>
+      </c>
+      <c r="BD25" s="3" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="BC2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="BC3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="BC4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="BC5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="BC7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="BC9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="BC10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="BC12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="BC14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="BC16" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="BC18" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="BC19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="BC21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="BC22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="BC23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="BC24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="BE2" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="BE3" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="BE4" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="BE5" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="BE6" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="BE7" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="BE8" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="BE9" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="BE10" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="BE11" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="BE12" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="BE13" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="BE14" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="BE15" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="BE16" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="BE17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="BE18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="BE19" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="BE20" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="BE21" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="BE22" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="BE23" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="BE24" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="BE25" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="BB2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="BB3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="BB4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="BB5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="BB7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="BB9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="BB10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="BB12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="BB14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="BB16" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="BB18" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="BB19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="BB21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="BB22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="BB23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="BB24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="BD2" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="BD3" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="BD4" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="BD5" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="BD6" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="BD7" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="BD8" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="BD9" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="BD10" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="BD11" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="BD12" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="BD13" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="BD14" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="BD15" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="BD16" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="BD17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="BD18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="BD19" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="BD20" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="BD21" r:id="rId36" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="BD22" r:id="rId37" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="BD23" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="BD24" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="BD25" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="H2" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
     <hyperlink ref="H3" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
     <hyperlink ref="H4" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
@@ -6971,14 +6821,14 @@
     <hyperlink ref="B23" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
     <hyperlink ref="B24" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
     <hyperlink ref="B25" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="BC6" r:id="rId87" xr:uid="{64DE7227-123C-491C-A835-E3A20DE892D4}"/>
-    <hyperlink ref="BC8" r:id="rId88" xr:uid="{9C22ABE8-015B-4144-BCE7-88D16AC033B2}"/>
-    <hyperlink ref="BC11" r:id="rId89" xr:uid="{072023A8-B72B-40AE-99E9-B882890238F9}"/>
-    <hyperlink ref="BC13" r:id="rId90" xr:uid="{14802B2D-9A46-4243-B48A-F842C84DA4B2}"/>
-    <hyperlink ref="BC15" r:id="rId91" xr:uid="{ADB63E64-3B4A-4C6E-99C3-9A4CBC9BE5B2}"/>
-    <hyperlink ref="BC17" r:id="rId92" xr:uid="{DBA111A7-126B-4836-811B-3C7C13A60BCE}"/>
-    <hyperlink ref="BC20" r:id="rId93" xr:uid="{7CFDBAF1-D261-404A-8763-EC76E3E59F2D}"/>
-    <hyperlink ref="BC25" r:id="rId94" xr:uid="{D3B045E0-303F-43A1-8868-AFD121CAF39C}"/>
+    <hyperlink ref="BB6" r:id="rId87" xr:uid="{64DE7227-123C-491C-A835-E3A20DE892D4}"/>
+    <hyperlink ref="BB8" r:id="rId88" xr:uid="{9C22ABE8-015B-4144-BCE7-88D16AC033B2}"/>
+    <hyperlink ref="BB11" r:id="rId89" xr:uid="{072023A8-B72B-40AE-99E9-B882890238F9}"/>
+    <hyperlink ref="BB13" r:id="rId90" xr:uid="{14802B2D-9A46-4243-B48A-F842C84DA4B2}"/>
+    <hyperlink ref="BB15" r:id="rId91" xr:uid="{ADB63E64-3B4A-4C6E-99C3-9A4CBC9BE5B2}"/>
+    <hyperlink ref="BB17" r:id="rId92" xr:uid="{DBA111A7-126B-4836-811B-3C7C13A60BCE}"/>
+    <hyperlink ref="BB20" r:id="rId93" xr:uid="{7CFDBAF1-D261-404A-8763-EC76E3E59F2D}"/>
+    <hyperlink ref="BB25" r:id="rId94" xr:uid="{D3B045E0-303F-43A1-8868-AFD121CAF39C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId95"/>
